--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://awkgroup-my.sharepoint.com/personal/waj_awk_ch/Documents/80_prog/projects/petproject_impfcounter_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D94DC7A-C27F-400C-AE8F-2F4BAF410D10}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="4068" windowWidth="23040" windowHeight="12204" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$986</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -747,7 +750,7 @@
   <dimension ref="A1:AB986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -826,7 +829,7 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
     </row>
-    <row r="2" spans="1:28" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -884,7 +887,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" spans="1:28" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1000,7 +1003,7 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1116,7 +1119,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" spans="1:28" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1174,7 +1177,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1406,7 +1409,7 @@
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:28" ht="278.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="199.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1754,7 +1757,7 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
     </row>
-    <row r="18" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1812,7 +1815,7 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -1870,7 +1873,7 @@
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
     </row>
-    <row r="20" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
@@ -1928,7 +1931,7 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
@@ -1986,7 +1989,7 @@
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
     </row>
-    <row r="22" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
@@ -2044,7 +2047,7 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" spans="1:28" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>33</v>
       </c>
@@ -2102,7 +2105,7 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="1:28" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
@@ -2160,7 +2163,7 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
     </row>
-    <row r="25" spans="1:28" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>33</v>
       </c>
@@ -2218,7 +2221,7 @@
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
     </row>
-    <row r="26" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
@@ -2276,7 +2279,7 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
     </row>
-    <row r="27" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
@@ -2334,7 +2337,7 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
     </row>
-    <row r="28" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
@@ -2392,7 +2395,7 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
     </row>
-    <row r="29" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>37</v>
       </c>
@@ -2566,7 +2569,7 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
     </row>
-    <row r="32" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>40</v>
       </c>
@@ -2624,7 +2627,7 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>43</v>
       </c>
@@ -2682,7 +2685,7 @@
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>43</v>
       </c>
@@ -2740,7 +2743,7 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
     </row>
-    <row r="35" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>43</v>
       </c>
@@ -2798,7 +2801,7 @@
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
     </row>
-    <row r="36" spans="1:28" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>45</v>
       </c>
@@ -2856,7 +2859,7 @@
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
     </row>
-    <row r="37" spans="1:28" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>45</v>
       </c>
@@ -2914,7 +2917,7 @@
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
     </row>
-    <row r="38" spans="1:28" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>45</v>
       </c>
@@ -3030,7 +3033,7 @@
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
     </row>
-    <row r="40" spans="1:28" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>48</v>
       </c>
@@ -3088,7 +3091,7 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
     </row>
-    <row r="41" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>48</v>
       </c>
@@ -3204,7 +3207,7 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="43" spans="1:28" ht="146.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>50</v>
       </c>
@@ -3320,7 +3323,7 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
     </row>
-    <row r="45" spans="1:28" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>53</v>
       </c>
@@ -3378,7 +3381,7 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
     </row>
-    <row r="46" spans="1:28" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>53</v>
       </c>
@@ -3606,7 +3609,7 @@
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
     </row>
-    <row r="50" spans="1:28" ht="159.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>57</v>
       </c>
@@ -3664,7 +3667,7 @@
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" spans="1:28" ht="159.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>57</v>
       </c>
@@ -3722,7 +3725,7 @@
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" spans="1:28" ht="159.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>57</v>
       </c>
@@ -3896,7 +3899,7 @@
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>60</v>
       </c>
@@ -3954,7 +3957,7 @@
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
     </row>
-    <row r="56" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>63</v>
       </c>
@@ -4012,7 +4015,7 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>63</v>
       </c>
@@ -4070,7 +4073,7 @@
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
     </row>
-    <row r="58" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>63</v>
       </c>
@@ -4128,7 +4131,7 @@
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
     </row>
-    <row r="59" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>63</v>
       </c>
@@ -4244,7 +4247,7 @@
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
     </row>
-    <row r="61" spans="1:28" ht="106.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>66</v>
       </c>
@@ -4360,7 +4363,7 @@
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
     </row>
-    <row r="63" spans="1:28" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>69</v>
       </c>
@@ -4476,7 +4479,7 @@
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
     </row>
-    <row r="65" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>72</v>
       </c>
@@ -4592,7 +4595,7 @@
       <c r="AA66" s="4"/>
       <c r="AB66" s="4"/>
     </row>
-    <row r="67" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>74</v>
       </c>
@@ -4766,7 +4769,7 @@
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
     </row>
-    <row r="70" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>76</v>
       </c>
@@ -4998,7 +5001,7 @@
       <c r="AA73" s="4"/>
       <c r="AB73" s="4"/>
     </row>
-    <row r="74" spans="1:28" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>80</v>
       </c>
@@ -32471,6 +32474,7 @@
       <c r="AB986" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N986" xr:uid="{C1C2CC13-2AB7-46F4-995C-CBB92B9C0254}"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{856D50E8-2800-4462-9BF4-0B761695A589}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{D60D2C5F-AC11-46E8-A061-9C56E63FE999}"/>
@@ -32516,6 +32520,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001CF2E9C31C1F9249AD1C5C32C883CF52" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="2446087b74f13e01ab9e6ca0cc8aa566">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f809d0f6-fdde-443e-9ae6-18ec6b857c37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f7e70fe4e704e7e2502280d2be185a" ns3:_="">
     <xsd:import namespace="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
@@ -32693,22 +32712,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC0F33C4-FCBB-4F76-AAE1-7C8EB9ACF20A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32724,21 +32745,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D94DC7A-C27F-400C-AE8F-2F4BAF410D10}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5B6FD90-5C09-49F2-BE7E-E5E3AABC3153}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="-11688" yWindow="2640" windowWidth="30612" windowHeight="14172" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$986</definedName>
   </definedNames>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="86">
   <si>
     <t>Kanton</t>
   </si>
@@ -292,6 +295,9 @@
   <si>
     <t>ZH</t>
   </si>
+  <si>
+    <t>VS</t>
+  </si>
 </sst>
 </file>
 
@@ -325,15 +331,27 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -401,12 +419,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -432,6 +465,39 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -448,6 +514,542 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="data"/>
+      <sheetName val="cantons"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Aargau</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>AG</v>
+          </cell>
+          <cell r="C2">
+            <v>685845</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E2">
+            <v>47.392299999999999</v>
+          </cell>
+          <cell r="F2">
+            <v>8.0446000000000009</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Appenzell-A.</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>AR</v>
+          </cell>
+          <cell r="C3">
+            <v>55445</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E3">
+            <v>47.366500000000002</v>
+          </cell>
+          <cell r="F3">
+            <v>9.3001000000000005</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Appenzell-I.</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>AI</v>
+          </cell>
+          <cell r="C4">
+            <v>16128</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E4">
+            <v>47.316200000000002</v>
+          </cell>
+          <cell r="F4">
+            <v>9.4316999999999993</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Basel-Landsch.</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>BL</v>
+          </cell>
+          <cell r="C5">
+            <v>289468</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E5">
+            <v>47.441800000000001</v>
+          </cell>
+          <cell r="F5">
+            <v>7.7644000000000002</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Basel-Stadt</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>BS</v>
+          </cell>
+          <cell r="C6">
+            <v>195844</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E6">
+            <v>47.560600000000001</v>
+          </cell>
+          <cell r="F6">
+            <v>7.5906000000000002</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Bern</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>BE</v>
+          </cell>
+          <cell r="C7">
+            <v>1039474</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E7">
+            <v>46.948</v>
+          </cell>
+          <cell r="F7">
+            <v>7.4474</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Freiburg</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>FR</v>
+          </cell>
+          <cell r="C8">
+            <v>321783</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E8">
+            <v>46.8</v>
+          </cell>
+          <cell r="F8">
+            <v>7.15</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Genf</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>GE</v>
+          </cell>
+          <cell r="C9">
+            <v>504128</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E9">
+            <v>46.2</v>
+          </cell>
+          <cell r="F9">
+            <v>6.15</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Glarus</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>GL</v>
+          </cell>
+          <cell r="C10">
+            <v>40590</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E10">
+            <v>47.033099999999997</v>
+          </cell>
+          <cell r="F10">
+            <v>9.0663999999999998</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Graubünden</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>GR</v>
+          </cell>
+          <cell r="C11">
+            <v>199021</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E11">
+            <v>46.8521</v>
+          </cell>
+          <cell r="F11">
+            <v>9.5297000000000001</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Jura</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>JU</v>
+          </cell>
+          <cell r="C12">
+            <v>73584</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E12">
+            <v>47.365299999999998</v>
+          </cell>
+          <cell r="F12">
+            <v>7.3472</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Luzern</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>LU</v>
+          </cell>
+          <cell r="C13">
+            <v>413120</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E13">
+            <v>47.050199999999997</v>
+          </cell>
+          <cell r="F13">
+            <v>8.3093000000000004</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Neuenburg</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>NE</v>
+          </cell>
+          <cell r="C14">
+            <v>176496</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E14">
+            <v>46.99</v>
+          </cell>
+          <cell r="F14">
+            <v>6.9292999999999996</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Nidwalden</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>NW</v>
+          </cell>
+          <cell r="C15">
+            <v>43087</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E15">
+            <v>46.959400000000002</v>
+          </cell>
+          <cell r="F15">
+            <v>8.3666999999999998</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Obwalden</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>OW</v>
+          </cell>
+          <cell r="C16">
+            <v>37930</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E16">
+            <v>46.896900000000002</v>
+          </cell>
+          <cell r="F16">
+            <v>8.2469000000000001</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Schaffhausen</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>SH</v>
+          </cell>
+          <cell r="C17">
+            <v>82348</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E17">
+            <v>47.6965</v>
+          </cell>
+          <cell r="F17">
+            <v>8.6339000000000006</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Schwyz</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>SZ</v>
+          </cell>
+          <cell r="C18">
+            <v>160480</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E18">
+            <v>47.127800000000001</v>
+          </cell>
+          <cell r="F18">
+            <v>8.7431000000000001</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Solothurn</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>SO</v>
+          </cell>
+          <cell r="C19">
+            <v>275247</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E19">
+            <v>47.193100000000001</v>
+          </cell>
+          <cell r="F19">
+            <v>7.3958000000000004</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>St. Gallen</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>SG</v>
+          </cell>
+          <cell r="C20">
+            <v>510734</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E20">
+            <v>47.423299999999998</v>
+          </cell>
+          <cell r="F20">
+            <v>9.3772000000000002</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Tessin</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>TI</v>
+          </cell>
+          <cell r="C21">
+            <v>351491</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E21">
+            <v>46.331699999999998</v>
+          </cell>
+          <cell r="F21">
+            <v>8.8004999999999995</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Thurgau</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>TG</v>
+          </cell>
+          <cell r="C22">
+            <v>279547</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E22">
+            <v>47.555799999999998</v>
+          </cell>
+          <cell r="F22">
+            <v>8.8963999999999999</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Uri</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>UR</v>
+          </cell>
+          <cell r="C23">
+            <v>36703</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E23">
+            <v>46.880600000000001</v>
+          </cell>
+          <cell r="F23">
+            <v>8.6394000000000002</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Waadt</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>VD</v>
+          </cell>
+          <cell r="C24">
+            <v>805098</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E24">
+            <v>46.561300000000003</v>
+          </cell>
+          <cell r="F24">
+            <v>6.5368000000000004</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Wallis</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>VS</v>
+          </cell>
+          <cell r="C25">
+            <v>34708</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E25">
+            <v>46.1905</v>
+          </cell>
+          <cell r="F25">
+            <v>7.5449000000000002</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Zug</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>ZG</v>
+          </cell>
+          <cell r="C26">
+            <v>127642</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E26">
+            <v>47.169199999999996</v>
+          </cell>
+          <cell r="F26">
+            <v>8.5164000000000009</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Zürich</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>ZH</v>
+          </cell>
+          <cell r="C27">
+            <v>1539275</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>CHE</v>
+          </cell>
+          <cell r="E27">
+            <v>47.378599999999999</v>
+          </cell>
+          <cell r="F27">
+            <v>8.5399999999999991</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -749,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BDD28C-CFB3-41F7-968F-C0FB8B841477}">
   <dimension ref="A1:AB986"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5173,19 +5775,37 @@
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
     </row>
-    <row r="77" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
+    <row r="77" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="10">
+        <v>11811</v>
+      </c>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="10">
+        <v>2.34</v>
+      </c>
+      <c r="H77" s="12"/>
+      <c r="I77" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J77" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K77" s="15">
+        <f>VLOOKUP($A77,[1]cantons!$A$2:$F$27,5)</f>
+        <v>46.2</v>
+      </c>
+      <c r="L77" s="15">
+        <f>VLOOKUP($A77,[1]cantons!$A$2:$F$27,6)</f>
+        <v>6.15</v>
+      </c>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -5203,19 +5823,35 @@
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
     </row>
-    <row r="78" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
+    <row r="78" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="17">
+        <v>15847</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="17">
+        <v>1.97</v>
+      </c>
+      <c r="H78" s="18"/>
+      <c r="I78" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J78" s="19"/>
+      <c r="K78" s="15">
+        <f>VLOOKUP($A78,[1]cantons!$A$2:$F$27,5)</f>
+        <v>46.561300000000003</v>
+      </c>
+      <c r="L78" s="15">
+        <f>VLOOKUP($A78,[1]cantons!$A$2:$F$27,6)</f>
+        <v>6.5368000000000004</v>
+      </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
@@ -5233,19 +5869,35 @@
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
     </row>
-    <row r="79" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
+    <row r="79" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="17">
+        <v>10210</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="17">
+        <v>2.95</v>
+      </c>
+      <c r="H79" s="18"/>
+      <c r="I79" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J79" s="19"/>
+      <c r="K79" s="15">
+        <f>VLOOKUP($A79,[1]cantons!$A$2:$F$27,5)</f>
+        <v>46.1905</v>
+      </c>
+      <c r="L79" s="15">
+        <f>VLOOKUP($A79,[1]cantons!$A$2:$F$27,6)</f>
+        <v>7.5449000000000002</v>
+      </c>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -5263,19 +5915,35 @@
       <c r="AA79" s="4"/>
       <c r="AB79" s="4"/>
     </row>
-    <row r="80" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
+    <row r="80" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="17">
+        <v>6084</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="17">
+        <v>1.89</v>
+      </c>
+      <c r="H80" s="18"/>
+      <c r="I80" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J80" s="19"/>
+      <c r="K80" s="15">
+        <f>VLOOKUP($A80,[1]cantons!$A$2:$F$27,5)</f>
+        <v>46.8</v>
+      </c>
+      <c r="L80" s="15">
+        <f>VLOOKUP($A80,[1]cantons!$A$2:$F$27,6)</f>
+        <v>7.15</v>
+      </c>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -5293,19 +5961,35 @@
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
     </row>
-    <row r="81" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
+    <row r="81" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="17">
+        <v>2585</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="17">
+        <v>1.46</v>
+      </c>
+      <c r="H81" s="18"/>
+      <c r="I81" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J81" s="19"/>
+      <c r="K81" s="15">
+        <f>VLOOKUP($A81,[1]cantons!$A$2:$F$27,5)</f>
+        <v>46.99</v>
+      </c>
+      <c r="L81" s="15">
+        <f>VLOOKUP($A81,[1]cantons!$A$2:$F$27,6)</f>
+        <v>6.9292999999999996</v>
+      </c>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -5323,19 +6007,35 @@
       <c r="AA81" s="4"/>
       <c r="AB81" s="4"/>
     </row>
-    <row r="82" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
+    <row r="82" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="17">
+        <v>2032</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="17">
+        <v>2.76</v>
+      </c>
+      <c r="H82" s="18"/>
+      <c r="I82" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J82" s="19"/>
+      <c r="K82" s="15">
+        <f>VLOOKUP($A82,[1]cantons!$A$2:$F$27,5)</f>
+        <v>47.365299999999998</v>
+      </c>
+      <c r="L82" s="15">
+        <f>VLOOKUP($A82,[1]cantons!$A$2:$F$27,6)</f>
+        <v>7.3472</v>
+      </c>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -5353,19 +6053,35 @@
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
     </row>
-    <row r="83" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
+    <row r="83" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" s="17">
+        <v>14308</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="17">
+        <v>1.38</v>
+      </c>
+      <c r="H83" s="18"/>
+      <c r="I83" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J83" s="19"/>
+      <c r="K83" s="15">
+        <f>VLOOKUP($A83,[1]cantons!$A$2:$F$27,5)</f>
+        <v>46.948</v>
+      </c>
+      <c r="L83" s="15">
+        <f>VLOOKUP($A83,[1]cantons!$A$2:$F$27,6)</f>
+        <v>7.4474</v>
+      </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -5383,19 +6099,35 @@
       <c r="AA83" s="4"/>
       <c r="AB83" s="4"/>
     </row>
-    <row r="84" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
+    <row r="84" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="17">
+        <v>10234</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="17">
+        <v>3.72</v>
+      </c>
+      <c r="H84" s="18"/>
+      <c r="I84" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J84" s="19"/>
+      <c r="K84" s="15">
+        <f>VLOOKUP($A84,[1]cantons!$A$2:$F$27,5)</f>
+        <v>47.193100000000001</v>
+      </c>
+      <c r="L84" s="15">
+        <f>VLOOKUP($A84,[1]cantons!$A$2:$F$27,6)</f>
+        <v>7.3958000000000004</v>
+      </c>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
@@ -5413,19 +6145,35 @@
       <c r="AA84" s="4"/>
       <c r="AB84" s="4"/>
     </row>
-    <row r="85" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
+    <row r="85" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="17">
+        <v>10890</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="17">
+        <v>5.56</v>
+      </c>
+      <c r="H85" s="18"/>
+      <c r="I85" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J85" s="19"/>
+      <c r="K85" s="15">
+        <f>VLOOKUP($A85,[1]cantons!$A$2:$F$27,5)</f>
+        <v>47.560600000000001</v>
+      </c>
+      <c r="L85" s="15">
+        <f>VLOOKUP($A85,[1]cantons!$A$2:$F$27,6)</f>
+        <v>7.5906000000000002</v>
+      </c>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -5443,19 +6191,35 @@
       <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
     </row>
-    <row r="86" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
+    <row r="86" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="17">
+        <v>8315</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="17">
+        <v>2.87</v>
+      </c>
+      <c r="H86" s="18"/>
+      <c r="I86" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J86" s="19"/>
+      <c r="K86" s="15">
+        <f>VLOOKUP($A86,[1]cantons!$A$2:$F$27,5)</f>
+        <v>47.441800000000001</v>
+      </c>
+      <c r="L86" s="15">
+        <f>VLOOKUP($A86,[1]cantons!$A$2:$F$27,6)</f>
+        <v>7.7644000000000002</v>
+      </c>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
@@ -5473,19 +6237,35 @@
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
     </row>
-    <row r="87" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
+    <row r="87" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="17">
+        <v>12973</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="17">
+        <v>1.89</v>
+      </c>
+      <c r="H87" s="18"/>
+      <c r="I87" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J87" s="19"/>
+      <c r="K87" s="15">
+        <f>VLOOKUP($A87,[1]cantons!$A$2:$F$27,5)</f>
+        <v>47.392299999999999</v>
+      </c>
+      <c r="L87" s="15">
+        <f>VLOOKUP($A87,[1]cantons!$A$2:$F$27,6)</f>
+        <v>8.0446000000000009</v>
+      </c>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -5503,19 +6283,35 @@
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
     </row>
-    <row r="88" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
+    <row r="88" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="17">
+        <v>25528</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="17">
+        <v>1.66</v>
+      </c>
+      <c r="H88" s="18"/>
+      <c r="I88" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J88" s="19"/>
+      <c r="K88" s="15">
+        <f>VLOOKUP($A88,[1]cantons!$A$2:$F$27,5)</f>
+        <v>47.378599999999999</v>
+      </c>
+      <c r="L88" s="15">
+        <f>VLOOKUP($A88,[1]cantons!$A$2:$F$27,6)</f>
+        <v>8.5399999999999991</v>
+      </c>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -5533,19 +6329,35 @@
       <c r="AA88" s="4"/>
       <c r="AB88" s="4"/>
     </row>
-    <row r="89" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
+    <row r="89" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" s="17">
+        <v>3982</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="17">
+        <v>4.84</v>
+      </c>
+      <c r="H89" s="18"/>
+      <c r="I89" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J89" s="19"/>
+      <c r="K89" s="15">
+        <f>VLOOKUP($A89,[1]cantons!$A$2:$F$27,5)</f>
+        <v>47.6965</v>
+      </c>
+      <c r="L89" s="15">
+        <f>VLOOKUP($A89,[1]cantons!$A$2:$F$27,6)</f>
+        <v>8.6339000000000006</v>
+      </c>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
@@ -5563,19 +6375,35 @@
       <c r="AA89" s="4"/>
       <c r="AB89" s="4"/>
     </row>
-    <row r="90" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
+    <row r="90" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" s="17">
+        <v>4072</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="17">
+        <v>1.46</v>
+      </c>
+      <c r="H90" s="18"/>
+      <c r="I90" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J90" s="19"/>
+      <c r="K90" s="15">
+        <f>VLOOKUP($A90,[1]cantons!$A$2:$F$27,5)</f>
+        <v>47.555799999999998</v>
+      </c>
+      <c r="L90" s="15">
+        <f>VLOOKUP($A90,[1]cantons!$A$2:$F$27,6)</f>
+        <v>8.8963999999999999</v>
+      </c>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
@@ -5593,19 +6421,35 @@
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
     </row>
-    <row r="91" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
+    <row r="91" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="17">
+        <v>2349</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="17">
+        <v>4.24</v>
+      </c>
+      <c r="H91" s="18"/>
+      <c r="I91" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J91" s="19"/>
+      <c r="K91" s="15">
+        <f>VLOOKUP($A91,[1]cantons!$A$2:$F$27,5)</f>
+        <v>47.366500000000002</v>
+      </c>
+      <c r="L91" s="15">
+        <f>VLOOKUP($A91,[1]cantons!$A$2:$F$27,6)</f>
+        <v>9.3001000000000005</v>
+      </c>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
@@ -5623,19 +6467,35 @@
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
     </row>
-    <row r="92" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
+    <row r="92" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="17">
+        <v>917</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="17">
+        <v>5.69</v>
+      </c>
+      <c r="H92" s="18"/>
+      <c r="I92" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J92" s="19"/>
+      <c r="K92" s="15">
+        <f>VLOOKUP($A92,[1]cantons!$A$2:$F$27,5)</f>
+        <v>47.316200000000002</v>
+      </c>
+      <c r="L92" s="15">
+        <f>VLOOKUP($A92,[1]cantons!$A$2:$F$27,6)</f>
+        <v>9.4316999999999993</v>
+      </c>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
@@ -5653,19 +6513,35 @@
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
     </row>
-    <row r="93" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
+    <row r="93" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" s="17">
+        <v>8870</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="17">
+        <v>1.74</v>
+      </c>
+      <c r="H93" s="18"/>
+      <c r="I93" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J93" s="19"/>
+      <c r="K93" s="15">
+        <f>VLOOKUP($A93,[1]cantons!$A$2:$F$27,5)</f>
+        <v>47.423299999999998</v>
+      </c>
+      <c r="L93" s="15">
+        <f>VLOOKUP($A93,[1]cantons!$A$2:$F$27,6)</f>
+        <v>9.3772000000000002</v>
+      </c>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
@@ -5683,19 +6559,35 @@
       <c r="AA93" s="4"/>
       <c r="AB93" s="4"/>
     </row>
-    <row r="94" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
+    <row r="94" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C94" s="17">
+        <v>1540</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="17">
+        <v>3.79</v>
+      </c>
+      <c r="H94" s="18"/>
+      <c r="I94" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J94" s="19"/>
+      <c r="K94" s="15">
+        <f>VLOOKUP($A94,[1]cantons!$A$2:$F$27,5)</f>
+        <v>47.033099999999997</v>
+      </c>
+      <c r="L94" s="15">
+        <f>VLOOKUP($A94,[1]cantons!$A$2:$F$27,6)</f>
+        <v>9.0663999999999998</v>
+      </c>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
@@ -5713,19 +6605,35 @@
       <c r="AA94" s="4"/>
       <c r="AB94" s="4"/>
     </row>
-    <row r="95" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
+    <row r="95" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" s="17">
+        <v>3250</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="17">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H95" s="18"/>
+      <c r="I95" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J95" s="19"/>
+      <c r="K95" s="15">
+        <f>VLOOKUP($A95,[1]cantons!$A$2:$F$27,5)</f>
+        <v>47.127800000000001</v>
+      </c>
+      <c r="L95" s="15">
+        <f>VLOOKUP($A95,[1]cantons!$A$2:$F$27,6)</f>
+        <v>8.7431000000000001</v>
+      </c>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
@@ -5743,19 +6651,35 @@
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>
     </row>
-    <row r="96" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
+    <row r="96" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" s="17">
+        <v>6599</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="17">
+        <v>5.17</v>
+      </c>
+      <c r="H96" s="18"/>
+      <c r="I96" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J96" s="19"/>
+      <c r="K96" s="15">
+        <f>VLOOKUP($A96,[1]cantons!$A$2:$F$27,5)</f>
+        <v>47.169199999999996</v>
+      </c>
+      <c r="L96" s="15">
+        <f>VLOOKUP($A96,[1]cantons!$A$2:$F$27,6)</f>
+        <v>8.5164000000000009</v>
+      </c>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -5773,19 +6697,35 @@
       <c r="AA96" s="4"/>
       <c r="AB96" s="4"/>
     </row>
-    <row r="97" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
+    <row r="97" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="17">
+        <v>11241</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="17">
+        <v>2.72</v>
+      </c>
+      <c r="H97" s="18"/>
+      <c r="I97" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J97" s="19"/>
+      <c r="K97" s="15">
+        <f>VLOOKUP($A97,[1]cantons!$A$2:$F$27,5)</f>
+        <v>47.050199999999997</v>
+      </c>
+      <c r="L97" s="15">
+        <f>VLOOKUP($A97,[1]cantons!$A$2:$F$27,6)</f>
+        <v>8.3093000000000004</v>
+      </c>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -5803,19 +6743,35 @@
       <c r="AA97" s="4"/>
       <c r="AB97" s="4"/>
     </row>
-    <row r="98" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
+    <row r="98" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" s="17">
+        <v>3218</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="17">
+        <v>7.47</v>
+      </c>
+      <c r="H98" s="18"/>
+      <c r="I98" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J98" s="19"/>
+      <c r="K98" s="15">
+        <f>VLOOKUP($A98,[1]cantons!$A$2:$F$27,5)</f>
+        <v>46.959400000000002</v>
+      </c>
+      <c r="L98" s="15">
+        <f>VLOOKUP($A98,[1]cantons!$A$2:$F$27,6)</f>
+        <v>8.3666999999999998</v>
+      </c>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -5833,19 +6789,35 @@
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
     </row>
-    <row r="99" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
+    <row r="99" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" s="17">
+        <v>1866</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="17">
+        <v>4.92</v>
+      </c>
+      <c r="H99" s="18"/>
+      <c r="I99" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J99" s="19"/>
+      <c r="K99" s="15">
+        <f>VLOOKUP($A99,[1]cantons!$A$2:$F$27,5)</f>
+        <v>46.896900000000002</v>
+      </c>
+      <c r="L99" s="15">
+        <f>VLOOKUP($A99,[1]cantons!$A$2:$F$27,6)</f>
+        <v>8.2469000000000001</v>
+      </c>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -5863,19 +6835,35 @@
       <c r="AA99" s="4"/>
       <c r="AB99" s="4"/>
     </row>
-    <row r="100" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
+    <row r="100" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C100" s="17">
+        <v>1361</v>
+      </c>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="17">
+        <v>3.71</v>
+      </c>
+      <c r="H100" s="18"/>
+      <c r="I100" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J100" s="19"/>
+      <c r="K100" s="15">
+        <f>VLOOKUP($A100,[1]cantons!$A$2:$F$27,5)</f>
+        <v>46.880600000000001</v>
+      </c>
+      <c r="L100" s="15">
+        <f>VLOOKUP($A100,[1]cantons!$A$2:$F$27,6)</f>
+        <v>8.6394000000000002</v>
+      </c>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
@@ -5893,19 +6881,35 @@
       <c r="AA100" s="4"/>
       <c r="AB100" s="4"/>
     </row>
-    <row r="101" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
+    <row r="101" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" s="17">
+        <v>4316</v>
+      </c>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="17">
+        <v>2.17</v>
+      </c>
+      <c r="H101" s="18"/>
+      <c r="I101" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J101" s="19"/>
+      <c r="K101" s="15">
+        <f>VLOOKUP($A101,[1]cantons!$A$2:$F$27,5)</f>
+        <v>46.8521</v>
+      </c>
+      <c r="L101" s="15">
+        <f>VLOOKUP($A101,[1]cantons!$A$2:$F$27,6)</f>
+        <v>9.5297000000000001</v>
+      </c>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
@@ -5923,19 +6927,35 @@
       <c r="AA101" s="4"/>
       <c r="AB101" s="4"/>
     </row>
-    <row r="102" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
+    <row r="102" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C102" s="17">
+        <v>11815</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="17">
+        <v>3.36</v>
+      </c>
+      <c r="H102" s="18"/>
+      <c r="I102" s="13">
+        <v>44223</v>
+      </c>
+      <c r="J102" s="19"/>
+      <c r="K102" s="15">
+        <f>VLOOKUP($A102,[1]cantons!$A$2:$F$27,5)</f>
+        <v>46.331699999999998</v>
+      </c>
+      <c r="L102" s="15">
+        <f>VLOOKUP($A102,[1]cantons!$A$2:$F$27,6)</f>
+        <v>8.8004999999999995</v>
+      </c>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
@@ -32520,18 +33540,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32713,18 +33733,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5B6FD90-5C09-49F2-BE7E-E5E3AABC3153}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{52316334-3586-4C27-8AB3-F913FD87CCB4}"/>
   <bookViews>
-    <workbookView xWindow="-11688" yWindow="2640" windowWidth="30612" windowHeight="14172" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="108" yWindow="2688" windowWidth="30612" windowHeight="14172" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$986</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$961</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="85">
   <si>
     <t>Kanton</t>
   </si>
@@ -295,9 +295,6 @@
   <si>
     <t>ZH</t>
   </si>
-  <si>
-    <t>VS</t>
-  </si>
 </sst>
 </file>
 
@@ -439,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -484,18 +481,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1349,9 +1334,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BDD28C-CFB3-41F7-968F-C0FB8B841477}">
-  <dimension ref="A1:AB986"/>
+  <dimension ref="A1:AB961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
       <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
@@ -5823,35 +5808,19 @@
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
     </row>
-    <row r="78" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C78" s="17">
-        <v>15847</v>
-      </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="17">
-        <v>1.97</v>
-      </c>
-      <c r="H78" s="18"/>
-      <c r="I78" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J78" s="19"/>
-      <c r="K78" s="15">
-        <f>VLOOKUP($A78,[1]cantons!$A$2:$F$27,5)</f>
-        <v>46.561300000000003</v>
-      </c>
-      <c r="L78" s="15">
-        <f>VLOOKUP($A78,[1]cantons!$A$2:$F$27,6)</f>
-        <v>6.5368000000000004</v>
-      </c>
+    <row r="78" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
@@ -5869,35 +5838,19 @@
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
     </row>
-    <row r="79" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C79" s="17">
-        <v>10210</v>
-      </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="17">
-        <v>2.95</v>
-      </c>
-      <c r="H79" s="18"/>
-      <c r="I79" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J79" s="19"/>
-      <c r="K79" s="15">
-        <f>VLOOKUP($A79,[1]cantons!$A$2:$F$27,5)</f>
-        <v>46.1905</v>
-      </c>
-      <c r="L79" s="15">
-        <f>VLOOKUP($A79,[1]cantons!$A$2:$F$27,6)</f>
-        <v>7.5449000000000002</v>
-      </c>
+    <row r="79" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -5915,35 +5868,19 @@
       <c r="AA79" s="4"/>
       <c r="AB79" s="4"/>
     </row>
-    <row r="80" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C80" s="17">
-        <v>6084</v>
-      </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="17">
-        <v>1.89</v>
-      </c>
-      <c r="H80" s="18"/>
-      <c r="I80" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J80" s="19"/>
-      <c r="K80" s="15">
-        <f>VLOOKUP($A80,[1]cantons!$A$2:$F$27,5)</f>
-        <v>46.8</v>
-      </c>
-      <c r="L80" s="15">
-        <f>VLOOKUP($A80,[1]cantons!$A$2:$F$27,6)</f>
-        <v>7.15</v>
-      </c>
+    <row r="80" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -5961,35 +5898,19 @@
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
     </row>
-    <row r="81" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C81" s="17">
-        <v>2585</v>
-      </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="17">
-        <v>1.46</v>
-      </c>
-      <c r="H81" s="18"/>
-      <c r="I81" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J81" s="19"/>
-      <c r="K81" s="15">
-        <f>VLOOKUP($A81,[1]cantons!$A$2:$F$27,5)</f>
-        <v>46.99</v>
-      </c>
-      <c r="L81" s="15">
-        <f>VLOOKUP($A81,[1]cantons!$A$2:$F$27,6)</f>
-        <v>6.9292999999999996</v>
-      </c>
+    <row r="81" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -6007,35 +5928,19 @@
       <c r="AA81" s="4"/>
       <c r="AB81" s="4"/>
     </row>
-    <row r="82" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C82" s="17">
-        <v>2032</v>
-      </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="17">
-        <v>2.76</v>
-      </c>
-      <c r="H82" s="18"/>
-      <c r="I82" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J82" s="19"/>
-      <c r="K82" s="15">
-        <f>VLOOKUP($A82,[1]cantons!$A$2:$F$27,5)</f>
-        <v>47.365299999999998</v>
-      </c>
-      <c r="L82" s="15">
-        <f>VLOOKUP($A82,[1]cantons!$A$2:$F$27,6)</f>
-        <v>7.3472</v>
-      </c>
+    <row r="82" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -6053,35 +5958,19 @@
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
     </row>
-    <row r="83" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C83" s="17">
-        <v>14308</v>
-      </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="17">
-        <v>1.38</v>
-      </c>
-      <c r="H83" s="18"/>
-      <c r="I83" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J83" s="19"/>
-      <c r="K83" s="15">
-        <f>VLOOKUP($A83,[1]cantons!$A$2:$F$27,5)</f>
-        <v>46.948</v>
-      </c>
-      <c r="L83" s="15">
-        <f>VLOOKUP($A83,[1]cantons!$A$2:$F$27,6)</f>
-        <v>7.4474</v>
-      </c>
+    <row r="83" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -6099,35 +5988,19 @@
       <c r="AA83" s="4"/>
       <c r="AB83" s="4"/>
     </row>
-    <row r="84" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C84" s="17">
-        <v>10234</v>
-      </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="17">
-        <v>3.72</v>
-      </c>
-      <c r="H84" s="18"/>
-      <c r="I84" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J84" s="19"/>
-      <c r="K84" s="15">
-        <f>VLOOKUP($A84,[1]cantons!$A$2:$F$27,5)</f>
-        <v>47.193100000000001</v>
-      </c>
-      <c r="L84" s="15">
-        <f>VLOOKUP($A84,[1]cantons!$A$2:$F$27,6)</f>
-        <v>7.3958000000000004</v>
-      </c>
+    <row r="84" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
@@ -6145,35 +6018,19 @@
       <c r="AA84" s="4"/>
       <c r="AB84" s="4"/>
     </row>
-    <row r="85" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C85" s="17">
-        <v>10890</v>
-      </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="17">
-        <v>5.56</v>
-      </c>
-      <c r="H85" s="18"/>
-      <c r="I85" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J85" s="19"/>
-      <c r="K85" s="15">
-        <f>VLOOKUP($A85,[1]cantons!$A$2:$F$27,5)</f>
-        <v>47.560600000000001</v>
-      </c>
-      <c r="L85" s="15">
-        <f>VLOOKUP($A85,[1]cantons!$A$2:$F$27,6)</f>
-        <v>7.5906000000000002</v>
-      </c>
+    <row r="85" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -6191,35 +6048,19 @@
       <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
     </row>
-    <row r="86" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C86" s="17">
-        <v>8315</v>
-      </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="17">
-        <v>2.87</v>
-      </c>
-      <c r="H86" s="18"/>
-      <c r="I86" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J86" s="19"/>
-      <c r="K86" s="15">
-        <f>VLOOKUP($A86,[1]cantons!$A$2:$F$27,5)</f>
-        <v>47.441800000000001</v>
-      </c>
-      <c r="L86" s="15">
-        <f>VLOOKUP($A86,[1]cantons!$A$2:$F$27,6)</f>
-        <v>7.7644000000000002</v>
-      </c>
+    <row r="86" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
@@ -6237,35 +6078,19 @@
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
     </row>
-    <row r="87" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" s="17">
-        <v>12973</v>
-      </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="17">
-        <v>1.89</v>
-      </c>
-      <c r="H87" s="18"/>
-      <c r="I87" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J87" s="19"/>
-      <c r="K87" s="15">
-        <f>VLOOKUP($A87,[1]cantons!$A$2:$F$27,5)</f>
-        <v>47.392299999999999</v>
-      </c>
-      <c r="L87" s="15">
-        <f>VLOOKUP($A87,[1]cantons!$A$2:$F$27,6)</f>
-        <v>8.0446000000000009</v>
-      </c>
+    <row r="87" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -6283,35 +6108,19 @@
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
     </row>
-    <row r="88" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88" s="17">
-        <v>25528</v>
-      </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="17">
-        <v>1.66</v>
-      </c>
-      <c r="H88" s="18"/>
-      <c r="I88" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J88" s="19"/>
-      <c r="K88" s="15">
-        <f>VLOOKUP($A88,[1]cantons!$A$2:$F$27,5)</f>
-        <v>47.378599999999999</v>
-      </c>
-      <c r="L88" s="15">
-        <f>VLOOKUP($A88,[1]cantons!$A$2:$F$27,6)</f>
-        <v>8.5399999999999991</v>
-      </c>
+    <row r="88" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -6329,35 +6138,19 @@
       <c r="AA88" s="4"/>
       <c r="AB88" s="4"/>
     </row>
-    <row r="89" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C89" s="17">
-        <v>3982</v>
-      </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="17">
-        <v>4.84</v>
-      </c>
-      <c r="H89" s="18"/>
-      <c r="I89" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J89" s="19"/>
-      <c r="K89" s="15">
-        <f>VLOOKUP($A89,[1]cantons!$A$2:$F$27,5)</f>
-        <v>47.6965</v>
-      </c>
-      <c r="L89" s="15">
-        <f>VLOOKUP($A89,[1]cantons!$A$2:$F$27,6)</f>
-        <v>8.6339000000000006</v>
-      </c>
+    <row r="89" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
@@ -6375,35 +6168,19 @@
       <c r="AA89" s="4"/>
       <c r="AB89" s="4"/>
     </row>
-    <row r="90" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C90" s="17">
-        <v>4072</v>
-      </c>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="17">
-        <v>1.46</v>
-      </c>
-      <c r="H90" s="18"/>
-      <c r="I90" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J90" s="19"/>
-      <c r="K90" s="15">
-        <f>VLOOKUP($A90,[1]cantons!$A$2:$F$27,5)</f>
-        <v>47.555799999999998</v>
-      </c>
-      <c r="L90" s="15">
-        <f>VLOOKUP($A90,[1]cantons!$A$2:$F$27,6)</f>
-        <v>8.8963999999999999</v>
-      </c>
+    <row r="90" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
@@ -6421,35 +6198,19 @@
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
     </row>
-    <row r="91" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="17">
-        <v>2349</v>
-      </c>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="17">
-        <v>4.24</v>
-      </c>
-      <c r="H91" s="18"/>
-      <c r="I91" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J91" s="19"/>
-      <c r="K91" s="15">
-        <f>VLOOKUP($A91,[1]cantons!$A$2:$F$27,5)</f>
-        <v>47.366500000000002</v>
-      </c>
-      <c r="L91" s="15">
-        <f>VLOOKUP($A91,[1]cantons!$A$2:$F$27,6)</f>
-        <v>9.3001000000000005</v>
-      </c>
+    <row r="91" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
@@ -6467,35 +6228,19 @@
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
     </row>
-    <row r="92" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C92" s="17">
-        <v>917</v>
-      </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="17">
-        <v>5.69</v>
-      </c>
-      <c r="H92" s="18"/>
-      <c r="I92" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J92" s="19"/>
-      <c r="K92" s="15">
-        <f>VLOOKUP($A92,[1]cantons!$A$2:$F$27,5)</f>
-        <v>47.316200000000002</v>
-      </c>
-      <c r="L92" s="15">
-        <f>VLOOKUP($A92,[1]cantons!$A$2:$F$27,6)</f>
-        <v>9.4316999999999993</v>
-      </c>
+    <row r="92" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
@@ -6513,35 +6258,19 @@
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
     </row>
-    <row r="93" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C93" s="17">
-        <v>8870</v>
-      </c>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="17">
-        <v>1.74</v>
-      </c>
-      <c r="H93" s="18"/>
-      <c r="I93" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J93" s="19"/>
-      <c r="K93" s="15">
-        <f>VLOOKUP($A93,[1]cantons!$A$2:$F$27,5)</f>
-        <v>47.423299999999998</v>
-      </c>
-      <c r="L93" s="15">
-        <f>VLOOKUP($A93,[1]cantons!$A$2:$F$27,6)</f>
-        <v>9.3772000000000002</v>
-      </c>
+    <row r="93" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
@@ -6559,35 +6288,19 @@
       <c r="AA93" s="4"/>
       <c r="AB93" s="4"/>
     </row>
-    <row r="94" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C94" s="17">
-        <v>1540</v>
-      </c>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="17">
-        <v>3.79</v>
-      </c>
-      <c r="H94" s="18"/>
-      <c r="I94" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J94" s="19"/>
-      <c r="K94" s="15">
-        <f>VLOOKUP($A94,[1]cantons!$A$2:$F$27,5)</f>
-        <v>47.033099999999997</v>
-      </c>
-      <c r="L94" s="15">
-        <f>VLOOKUP($A94,[1]cantons!$A$2:$F$27,6)</f>
-        <v>9.0663999999999998</v>
-      </c>
+    <row r="94" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
@@ -6605,35 +6318,19 @@
       <c r="AA94" s="4"/>
       <c r="AB94" s="4"/>
     </row>
-    <row r="95" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C95" s="17">
-        <v>3250</v>
-      </c>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="17">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="H95" s="18"/>
-      <c r="I95" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J95" s="19"/>
-      <c r="K95" s="15">
-        <f>VLOOKUP($A95,[1]cantons!$A$2:$F$27,5)</f>
-        <v>47.127800000000001</v>
-      </c>
-      <c r="L95" s="15">
-        <f>VLOOKUP($A95,[1]cantons!$A$2:$F$27,6)</f>
-        <v>8.7431000000000001</v>
-      </c>
+    <row r="95" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
@@ -6651,35 +6348,19 @@
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>
     </row>
-    <row r="96" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C96" s="17">
-        <v>6599</v>
-      </c>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="17">
-        <v>5.17</v>
-      </c>
-      <c r="H96" s="18"/>
-      <c r="I96" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J96" s="19"/>
-      <c r="K96" s="15">
-        <f>VLOOKUP($A96,[1]cantons!$A$2:$F$27,5)</f>
-        <v>47.169199999999996</v>
-      </c>
-      <c r="L96" s="15">
-        <f>VLOOKUP($A96,[1]cantons!$A$2:$F$27,6)</f>
-        <v>8.5164000000000009</v>
-      </c>
+    <row r="96" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -6697,35 +6378,19 @@
       <c r="AA96" s="4"/>
       <c r="AB96" s="4"/>
     </row>
-    <row r="97" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C97" s="17">
-        <v>11241</v>
-      </c>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="17">
-        <v>2.72</v>
-      </c>
-      <c r="H97" s="18"/>
-      <c r="I97" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J97" s="19"/>
-      <c r="K97" s="15">
-        <f>VLOOKUP($A97,[1]cantons!$A$2:$F$27,5)</f>
-        <v>47.050199999999997</v>
-      </c>
-      <c r="L97" s="15">
-        <f>VLOOKUP($A97,[1]cantons!$A$2:$F$27,6)</f>
-        <v>8.3093000000000004</v>
-      </c>
+    <row r="97" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -6743,35 +6408,19 @@
       <c r="AA97" s="4"/>
       <c r="AB97" s="4"/>
     </row>
-    <row r="98" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C98" s="17">
-        <v>3218</v>
-      </c>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="17">
-        <v>7.47</v>
-      </c>
-      <c r="H98" s="18"/>
-      <c r="I98" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J98" s="19"/>
-      <c r="K98" s="15">
-        <f>VLOOKUP($A98,[1]cantons!$A$2:$F$27,5)</f>
-        <v>46.959400000000002</v>
-      </c>
-      <c r="L98" s="15">
-        <f>VLOOKUP($A98,[1]cantons!$A$2:$F$27,6)</f>
-        <v>8.3666999999999998</v>
-      </c>
+    <row r="98" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -6789,35 +6438,19 @@
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
     </row>
-    <row r="99" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C99" s="17">
-        <v>1866</v>
-      </c>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="17">
-        <v>4.92</v>
-      </c>
-      <c r="H99" s="18"/>
-      <c r="I99" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J99" s="19"/>
-      <c r="K99" s="15">
-        <f>VLOOKUP($A99,[1]cantons!$A$2:$F$27,5)</f>
-        <v>46.896900000000002</v>
-      </c>
-      <c r="L99" s="15">
-        <f>VLOOKUP($A99,[1]cantons!$A$2:$F$27,6)</f>
-        <v>8.2469000000000001</v>
-      </c>
+    <row r="99" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -6835,35 +6468,19 @@
       <c r="AA99" s="4"/>
       <c r="AB99" s="4"/>
     </row>
-    <row r="100" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C100" s="17">
-        <v>1361</v>
-      </c>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="17">
-        <v>3.71</v>
-      </c>
-      <c r="H100" s="18"/>
-      <c r="I100" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J100" s="19"/>
-      <c r="K100" s="15">
-        <f>VLOOKUP($A100,[1]cantons!$A$2:$F$27,5)</f>
-        <v>46.880600000000001</v>
-      </c>
-      <c r="L100" s="15">
-        <f>VLOOKUP($A100,[1]cantons!$A$2:$F$27,6)</f>
-        <v>8.6394000000000002</v>
-      </c>
+    <row r="100" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
@@ -6881,35 +6498,19 @@
       <c r="AA100" s="4"/>
       <c r="AB100" s="4"/>
     </row>
-    <row r="101" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C101" s="17">
-        <v>4316</v>
-      </c>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="17">
-        <v>2.17</v>
-      </c>
-      <c r="H101" s="18"/>
-      <c r="I101" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J101" s="19"/>
-      <c r="K101" s="15">
-        <f>VLOOKUP($A101,[1]cantons!$A$2:$F$27,5)</f>
-        <v>46.8521</v>
-      </c>
-      <c r="L101" s="15">
-        <f>VLOOKUP($A101,[1]cantons!$A$2:$F$27,6)</f>
-        <v>9.5297000000000001</v>
-      </c>
+    <row r="101" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
@@ -6927,35 +6528,19 @@
       <c r="AA101" s="4"/>
       <c r="AB101" s="4"/>
     </row>
-    <row r="102" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C102" s="17">
-        <v>11815</v>
-      </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="17">
-        <v>3.36</v>
-      </c>
-      <c r="H102" s="18"/>
-      <c r="I102" s="13">
-        <v>44223</v>
-      </c>
-      <c r="J102" s="19"/>
-      <c r="K102" s="15">
-        <f>VLOOKUP($A102,[1]cantons!$A$2:$F$27,5)</f>
-        <v>46.331699999999998</v>
-      </c>
-      <c r="L102" s="15">
-        <f>VLOOKUP($A102,[1]cantons!$A$2:$F$27,6)</f>
-        <v>8.8004999999999995</v>
-      </c>
+    <row r="102" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
@@ -32743,758 +32328,8 @@
       <c r="AA961" s="4"/>
       <c r="AB961" s="4"/>
     </row>
-    <row r="962" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A962" s="4"/>
-      <c r="B962" s="4"/>
-      <c r="C962" s="4"/>
-      <c r="D962" s="4"/>
-      <c r="E962" s="4"/>
-      <c r="F962" s="4"/>
-      <c r="G962" s="4"/>
-      <c r="H962" s="4"/>
-      <c r="I962" s="4"/>
-      <c r="J962" s="4"/>
-      <c r="K962" s="4"/>
-      <c r="L962" s="4"/>
-      <c r="M962" s="4"/>
-      <c r="N962" s="4"/>
-      <c r="O962" s="4"/>
-      <c r="P962" s="4"/>
-      <c r="Q962" s="4"/>
-      <c r="R962" s="4"/>
-      <c r="S962" s="4"/>
-      <c r="T962" s="4"/>
-      <c r="U962" s="4"/>
-      <c r="V962" s="4"/>
-      <c r="W962" s="4"/>
-      <c r="X962" s="4"/>
-      <c r="Y962" s="4"/>
-      <c r="Z962" s="4"/>
-      <c r="AA962" s="4"/>
-      <c r="AB962" s="4"/>
-    </row>
-    <row r="963" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A963" s="4"/>
-      <c r="B963" s="4"/>
-      <c r="C963" s="4"/>
-      <c r="D963" s="4"/>
-      <c r="E963" s="4"/>
-      <c r="F963" s="4"/>
-      <c r="G963" s="4"/>
-      <c r="H963" s="4"/>
-      <c r="I963" s="4"/>
-      <c r="J963" s="4"/>
-      <c r="K963" s="4"/>
-      <c r="L963" s="4"/>
-      <c r="M963" s="4"/>
-      <c r="N963" s="4"/>
-      <c r="O963" s="4"/>
-      <c r="P963" s="4"/>
-      <c r="Q963" s="4"/>
-      <c r="R963" s="4"/>
-      <c r="S963" s="4"/>
-      <c r="T963" s="4"/>
-      <c r="U963" s="4"/>
-      <c r="V963" s="4"/>
-      <c r="W963" s="4"/>
-      <c r="X963" s="4"/>
-      <c r="Y963" s="4"/>
-      <c r="Z963" s="4"/>
-      <c r="AA963" s="4"/>
-      <c r="AB963" s="4"/>
-    </row>
-    <row r="964" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A964" s="4"/>
-      <c r="B964" s="4"/>
-      <c r="C964" s="4"/>
-      <c r="D964" s="4"/>
-      <c r="E964" s="4"/>
-      <c r="F964" s="4"/>
-      <c r="G964" s="4"/>
-      <c r="H964" s="4"/>
-      <c r="I964" s="4"/>
-      <c r="J964" s="4"/>
-      <c r="K964" s="4"/>
-      <c r="L964" s="4"/>
-      <c r="M964" s="4"/>
-      <c r="N964" s="4"/>
-      <c r="O964" s="4"/>
-      <c r="P964" s="4"/>
-      <c r="Q964" s="4"/>
-      <c r="R964" s="4"/>
-      <c r="S964" s="4"/>
-      <c r="T964" s="4"/>
-      <c r="U964" s="4"/>
-      <c r="V964" s="4"/>
-      <c r="W964" s="4"/>
-      <c r="X964" s="4"/>
-      <c r="Y964" s="4"/>
-      <c r="Z964" s="4"/>
-      <c r="AA964" s="4"/>
-      <c r="AB964" s="4"/>
-    </row>
-    <row r="965" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A965" s="4"/>
-      <c r="B965" s="4"/>
-      <c r="C965" s="4"/>
-      <c r="D965" s="4"/>
-      <c r="E965" s="4"/>
-      <c r="F965" s="4"/>
-      <c r="G965" s="4"/>
-      <c r="H965" s="4"/>
-      <c r="I965" s="4"/>
-      <c r="J965" s="4"/>
-      <c r="K965" s="4"/>
-      <c r="L965" s="4"/>
-      <c r="M965" s="4"/>
-      <c r="N965" s="4"/>
-      <c r="O965" s="4"/>
-      <c r="P965" s="4"/>
-      <c r="Q965" s="4"/>
-      <c r="R965" s="4"/>
-      <c r="S965" s="4"/>
-      <c r="T965" s="4"/>
-      <c r="U965" s="4"/>
-      <c r="V965" s="4"/>
-      <c r="W965" s="4"/>
-      <c r="X965" s="4"/>
-      <c r="Y965" s="4"/>
-      <c r="Z965" s="4"/>
-      <c r="AA965" s="4"/>
-      <c r="AB965" s="4"/>
-    </row>
-    <row r="966" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A966" s="4"/>
-      <c r="B966" s="4"/>
-      <c r="C966" s="4"/>
-      <c r="D966" s="4"/>
-      <c r="E966" s="4"/>
-      <c r="F966" s="4"/>
-      <c r="G966" s="4"/>
-      <c r="H966" s="4"/>
-      <c r="I966" s="4"/>
-      <c r="J966" s="4"/>
-      <c r="K966" s="4"/>
-      <c r="L966" s="4"/>
-      <c r="M966" s="4"/>
-      <c r="N966" s="4"/>
-      <c r="O966" s="4"/>
-      <c r="P966" s="4"/>
-      <c r="Q966" s="4"/>
-      <c r="R966" s="4"/>
-      <c r="S966" s="4"/>
-      <c r="T966" s="4"/>
-      <c r="U966" s="4"/>
-      <c r="V966" s="4"/>
-      <c r="W966" s="4"/>
-      <c r="X966" s="4"/>
-      <c r="Y966" s="4"/>
-      <c r="Z966" s="4"/>
-      <c r="AA966" s="4"/>
-      <c r="AB966" s="4"/>
-    </row>
-    <row r="967" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A967" s="4"/>
-      <c r="B967" s="4"/>
-      <c r="C967" s="4"/>
-      <c r="D967" s="4"/>
-      <c r="E967" s="4"/>
-      <c r="F967" s="4"/>
-      <c r="G967" s="4"/>
-      <c r="H967" s="4"/>
-      <c r="I967" s="4"/>
-      <c r="J967" s="4"/>
-      <c r="K967" s="4"/>
-      <c r="L967" s="4"/>
-      <c r="M967" s="4"/>
-      <c r="N967" s="4"/>
-      <c r="O967" s="4"/>
-      <c r="P967" s="4"/>
-      <c r="Q967" s="4"/>
-      <c r="R967" s="4"/>
-      <c r="S967" s="4"/>
-      <c r="T967" s="4"/>
-      <c r="U967" s="4"/>
-      <c r="V967" s="4"/>
-      <c r="W967" s="4"/>
-      <c r="X967" s="4"/>
-      <c r="Y967" s="4"/>
-      <c r="Z967" s="4"/>
-      <c r="AA967" s="4"/>
-      <c r="AB967" s="4"/>
-    </row>
-    <row r="968" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A968" s="4"/>
-      <c r="B968" s="4"/>
-      <c r="C968" s="4"/>
-      <c r="D968" s="4"/>
-      <c r="E968" s="4"/>
-      <c r="F968" s="4"/>
-      <c r="G968" s="4"/>
-      <c r="H968" s="4"/>
-      <c r="I968" s="4"/>
-      <c r="J968" s="4"/>
-      <c r="K968" s="4"/>
-      <c r="L968" s="4"/>
-      <c r="M968" s="4"/>
-      <c r="N968" s="4"/>
-      <c r="O968" s="4"/>
-      <c r="P968" s="4"/>
-      <c r="Q968" s="4"/>
-      <c r="R968" s="4"/>
-      <c r="S968" s="4"/>
-      <c r="T968" s="4"/>
-      <c r="U968" s="4"/>
-      <c r="V968" s="4"/>
-      <c r="W968" s="4"/>
-      <c r="X968" s="4"/>
-      <c r="Y968" s="4"/>
-      <c r="Z968" s="4"/>
-      <c r="AA968" s="4"/>
-      <c r="AB968" s="4"/>
-    </row>
-    <row r="969" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A969" s="4"/>
-      <c r="B969" s="4"/>
-      <c r="C969" s="4"/>
-      <c r="D969" s="4"/>
-      <c r="E969" s="4"/>
-      <c r="F969" s="4"/>
-      <c r="G969" s="4"/>
-      <c r="H969" s="4"/>
-      <c r="I969" s="4"/>
-      <c r="J969" s="4"/>
-      <c r="K969" s="4"/>
-      <c r="L969" s="4"/>
-      <c r="M969" s="4"/>
-      <c r="N969" s="4"/>
-      <c r="O969" s="4"/>
-      <c r="P969" s="4"/>
-      <c r="Q969" s="4"/>
-      <c r="R969" s="4"/>
-      <c r="S969" s="4"/>
-      <c r="T969" s="4"/>
-      <c r="U969" s="4"/>
-      <c r="V969" s="4"/>
-      <c r="W969" s="4"/>
-      <c r="X969" s="4"/>
-      <c r="Y969" s="4"/>
-      <c r="Z969" s="4"/>
-      <c r="AA969" s="4"/>
-      <c r="AB969" s="4"/>
-    </row>
-    <row r="970" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A970" s="4"/>
-      <c r="B970" s="4"/>
-      <c r="C970" s="4"/>
-      <c r="D970" s="4"/>
-      <c r="E970" s="4"/>
-      <c r="F970" s="4"/>
-      <c r="G970" s="4"/>
-      <c r="H970" s="4"/>
-      <c r="I970" s="4"/>
-      <c r="J970" s="4"/>
-      <c r="K970" s="4"/>
-      <c r="L970" s="4"/>
-      <c r="M970" s="4"/>
-      <c r="N970" s="4"/>
-      <c r="O970" s="4"/>
-      <c r="P970" s="4"/>
-      <c r="Q970" s="4"/>
-      <c r="R970" s="4"/>
-      <c r="S970" s="4"/>
-      <c r="T970" s="4"/>
-      <c r="U970" s="4"/>
-      <c r="V970" s="4"/>
-      <c r="W970" s="4"/>
-      <c r="X970" s="4"/>
-      <c r="Y970" s="4"/>
-      <c r="Z970" s="4"/>
-      <c r="AA970" s="4"/>
-      <c r="AB970" s="4"/>
-    </row>
-    <row r="971" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A971" s="4"/>
-      <c r="B971" s="4"/>
-      <c r="C971" s="4"/>
-      <c r="D971" s="4"/>
-      <c r="E971" s="4"/>
-      <c r="F971" s="4"/>
-      <c r="G971" s="4"/>
-      <c r="H971" s="4"/>
-      <c r="I971" s="4"/>
-      <c r="J971" s="4"/>
-      <c r="K971" s="4"/>
-      <c r="L971" s="4"/>
-      <c r="M971" s="4"/>
-      <c r="N971" s="4"/>
-      <c r="O971" s="4"/>
-      <c r="P971" s="4"/>
-      <c r="Q971" s="4"/>
-      <c r="R971" s="4"/>
-      <c r="S971" s="4"/>
-      <c r="T971" s="4"/>
-      <c r="U971" s="4"/>
-      <c r="V971" s="4"/>
-      <c r="W971" s="4"/>
-      <c r="X971" s="4"/>
-      <c r="Y971" s="4"/>
-      <c r="Z971" s="4"/>
-      <c r="AA971" s="4"/>
-      <c r="AB971" s="4"/>
-    </row>
-    <row r="972" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A972" s="4"/>
-      <c r="B972" s="4"/>
-      <c r="C972" s="4"/>
-      <c r="D972" s="4"/>
-      <c r="E972" s="4"/>
-      <c r="F972" s="4"/>
-      <c r="G972" s="4"/>
-      <c r="H972" s="4"/>
-      <c r="I972" s="4"/>
-      <c r="J972" s="4"/>
-      <c r="K972" s="4"/>
-      <c r="L972" s="4"/>
-      <c r="M972" s="4"/>
-      <c r="N972" s="4"/>
-      <c r="O972" s="4"/>
-      <c r="P972" s="4"/>
-      <c r="Q972" s="4"/>
-      <c r="R972" s="4"/>
-      <c r="S972" s="4"/>
-      <c r="T972" s="4"/>
-      <c r="U972" s="4"/>
-      <c r="V972" s="4"/>
-      <c r="W972" s="4"/>
-      <c r="X972" s="4"/>
-      <c r="Y972" s="4"/>
-      <c r="Z972" s="4"/>
-      <c r="AA972" s="4"/>
-      <c r="AB972" s="4"/>
-    </row>
-    <row r="973" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A973" s="4"/>
-      <c r="B973" s="4"/>
-      <c r="C973" s="4"/>
-      <c r="D973" s="4"/>
-      <c r="E973" s="4"/>
-      <c r="F973" s="4"/>
-      <c r="G973" s="4"/>
-      <c r="H973" s="4"/>
-      <c r="I973" s="4"/>
-      <c r="J973" s="4"/>
-      <c r="K973" s="4"/>
-      <c r="L973" s="4"/>
-      <c r="M973" s="4"/>
-      <c r="N973" s="4"/>
-      <c r="O973" s="4"/>
-      <c r="P973" s="4"/>
-      <c r="Q973" s="4"/>
-      <c r="R973" s="4"/>
-      <c r="S973" s="4"/>
-      <c r="T973" s="4"/>
-      <c r="U973" s="4"/>
-      <c r="V973" s="4"/>
-      <c r="W973" s="4"/>
-      <c r="X973" s="4"/>
-      <c r="Y973" s="4"/>
-      <c r="Z973" s="4"/>
-      <c r="AA973" s="4"/>
-      <c r="AB973" s="4"/>
-    </row>
-    <row r="974" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A974" s="4"/>
-      <c r="B974" s="4"/>
-      <c r="C974" s="4"/>
-      <c r="D974" s="4"/>
-      <c r="E974" s="4"/>
-      <c r="F974" s="4"/>
-      <c r="G974" s="4"/>
-      <c r="H974" s="4"/>
-      <c r="I974" s="4"/>
-      <c r="J974" s="4"/>
-      <c r="K974" s="4"/>
-      <c r="L974" s="4"/>
-      <c r="M974" s="4"/>
-      <c r="N974" s="4"/>
-      <c r="O974" s="4"/>
-      <c r="P974" s="4"/>
-      <c r="Q974" s="4"/>
-      <c r="R974" s="4"/>
-      <c r="S974" s="4"/>
-      <c r="T974" s="4"/>
-      <c r="U974" s="4"/>
-      <c r="V974" s="4"/>
-      <c r="W974" s="4"/>
-      <c r="X974" s="4"/>
-      <c r="Y974" s="4"/>
-      <c r="Z974" s="4"/>
-      <c r="AA974" s="4"/>
-      <c r="AB974" s="4"/>
-    </row>
-    <row r="975" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A975" s="4"/>
-      <c r="B975" s="4"/>
-      <c r="C975" s="4"/>
-      <c r="D975" s="4"/>
-      <c r="E975" s="4"/>
-      <c r="F975" s="4"/>
-      <c r="G975" s="4"/>
-      <c r="H975" s="4"/>
-      <c r="I975" s="4"/>
-      <c r="J975" s="4"/>
-      <c r="K975" s="4"/>
-      <c r="L975" s="4"/>
-      <c r="M975" s="4"/>
-      <c r="N975" s="4"/>
-      <c r="O975" s="4"/>
-      <c r="P975" s="4"/>
-      <c r="Q975" s="4"/>
-      <c r="R975" s="4"/>
-      <c r="S975" s="4"/>
-      <c r="T975" s="4"/>
-      <c r="U975" s="4"/>
-      <c r="V975" s="4"/>
-      <c r="W975" s="4"/>
-      <c r="X975" s="4"/>
-      <c r="Y975" s="4"/>
-      <c r="Z975" s="4"/>
-      <c r="AA975" s="4"/>
-      <c r="AB975" s="4"/>
-    </row>
-    <row r="976" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A976" s="4"/>
-      <c r="B976" s="4"/>
-      <c r="C976" s="4"/>
-      <c r="D976" s="4"/>
-      <c r="E976" s="4"/>
-      <c r="F976" s="4"/>
-      <c r="G976" s="4"/>
-      <c r="H976" s="4"/>
-      <c r="I976" s="4"/>
-      <c r="J976" s="4"/>
-      <c r="K976" s="4"/>
-      <c r="L976" s="4"/>
-      <c r="M976" s="4"/>
-      <c r="N976" s="4"/>
-      <c r="O976" s="4"/>
-      <c r="P976" s="4"/>
-      <c r="Q976" s="4"/>
-      <c r="R976" s="4"/>
-      <c r="S976" s="4"/>
-      <c r="T976" s="4"/>
-      <c r="U976" s="4"/>
-      <c r="V976" s="4"/>
-      <c r="W976" s="4"/>
-      <c r="X976" s="4"/>
-      <c r="Y976" s="4"/>
-      <c r="Z976" s="4"/>
-      <c r="AA976" s="4"/>
-      <c r="AB976" s="4"/>
-    </row>
-    <row r="977" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A977" s="4"/>
-      <c r="B977" s="4"/>
-      <c r="C977" s="4"/>
-      <c r="D977" s="4"/>
-      <c r="E977" s="4"/>
-      <c r="F977" s="4"/>
-      <c r="G977" s="4"/>
-      <c r="H977" s="4"/>
-      <c r="I977" s="4"/>
-      <c r="J977" s="4"/>
-      <c r="K977" s="4"/>
-      <c r="L977" s="4"/>
-      <c r="M977" s="4"/>
-      <c r="N977" s="4"/>
-      <c r="O977" s="4"/>
-      <c r="P977" s="4"/>
-      <c r="Q977" s="4"/>
-      <c r="R977" s="4"/>
-      <c r="S977" s="4"/>
-      <c r="T977" s="4"/>
-      <c r="U977" s="4"/>
-      <c r="V977" s="4"/>
-      <c r="W977" s="4"/>
-      <c r="X977" s="4"/>
-      <c r="Y977" s="4"/>
-      <c r="Z977" s="4"/>
-      <c r="AA977" s="4"/>
-      <c r="AB977" s="4"/>
-    </row>
-    <row r="978" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A978" s="4"/>
-      <c r="B978" s="4"/>
-      <c r="C978" s="4"/>
-      <c r="D978" s="4"/>
-      <c r="E978" s="4"/>
-      <c r="F978" s="4"/>
-      <c r="G978" s="4"/>
-      <c r="H978" s="4"/>
-      <c r="I978" s="4"/>
-      <c r="J978" s="4"/>
-      <c r="K978" s="4"/>
-      <c r="L978" s="4"/>
-      <c r="M978" s="4"/>
-      <c r="N978" s="4"/>
-      <c r="O978" s="4"/>
-      <c r="P978" s="4"/>
-      <c r="Q978" s="4"/>
-      <c r="R978" s="4"/>
-      <c r="S978" s="4"/>
-      <c r="T978" s="4"/>
-      <c r="U978" s="4"/>
-      <c r="V978" s="4"/>
-      <c r="W978" s="4"/>
-      <c r="X978" s="4"/>
-      <c r="Y978" s="4"/>
-      <c r="Z978" s="4"/>
-      <c r="AA978" s="4"/>
-      <c r="AB978" s="4"/>
-    </row>
-    <row r="979" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A979" s="4"/>
-      <c r="B979" s="4"/>
-      <c r="C979" s="4"/>
-      <c r="D979" s="4"/>
-      <c r="E979" s="4"/>
-      <c r="F979" s="4"/>
-      <c r="G979" s="4"/>
-      <c r="H979" s="4"/>
-      <c r="I979" s="4"/>
-      <c r="J979" s="4"/>
-      <c r="K979" s="4"/>
-      <c r="L979" s="4"/>
-      <c r="M979" s="4"/>
-      <c r="N979" s="4"/>
-      <c r="O979" s="4"/>
-      <c r="P979" s="4"/>
-      <c r="Q979" s="4"/>
-      <c r="R979" s="4"/>
-      <c r="S979" s="4"/>
-      <c r="T979" s="4"/>
-      <c r="U979" s="4"/>
-      <c r="V979" s="4"/>
-      <c r="W979" s="4"/>
-      <c r="X979" s="4"/>
-      <c r="Y979" s="4"/>
-      <c r="Z979" s="4"/>
-      <c r="AA979" s="4"/>
-      <c r="AB979" s="4"/>
-    </row>
-    <row r="980" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A980" s="4"/>
-      <c r="B980" s="4"/>
-      <c r="C980" s="4"/>
-      <c r="D980" s="4"/>
-      <c r="E980" s="4"/>
-      <c r="F980" s="4"/>
-      <c r="G980" s="4"/>
-      <c r="H980" s="4"/>
-      <c r="I980" s="4"/>
-      <c r="J980" s="4"/>
-      <c r="K980" s="4"/>
-      <c r="L980" s="4"/>
-      <c r="M980" s="4"/>
-      <c r="N980" s="4"/>
-      <c r="O980" s="4"/>
-      <c r="P980" s="4"/>
-      <c r="Q980" s="4"/>
-      <c r="R980" s="4"/>
-      <c r="S980" s="4"/>
-      <c r="T980" s="4"/>
-      <c r="U980" s="4"/>
-      <c r="V980" s="4"/>
-      <c r="W980" s="4"/>
-      <c r="X980" s="4"/>
-      <c r="Y980" s="4"/>
-      <c r="Z980" s="4"/>
-      <c r="AA980" s="4"/>
-      <c r="AB980" s="4"/>
-    </row>
-    <row r="981" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A981" s="4"/>
-      <c r="B981" s="4"/>
-      <c r="C981" s="4"/>
-      <c r="D981" s="4"/>
-      <c r="E981" s="4"/>
-      <c r="F981" s="4"/>
-      <c r="G981" s="4"/>
-      <c r="H981" s="4"/>
-      <c r="I981" s="4"/>
-      <c r="J981" s="4"/>
-      <c r="K981" s="4"/>
-      <c r="L981" s="4"/>
-      <c r="M981" s="4"/>
-      <c r="N981" s="4"/>
-      <c r="O981" s="4"/>
-      <c r="P981" s="4"/>
-      <c r="Q981" s="4"/>
-      <c r="R981" s="4"/>
-      <c r="S981" s="4"/>
-      <c r="T981" s="4"/>
-      <c r="U981" s="4"/>
-      <c r="V981" s="4"/>
-      <c r="W981" s="4"/>
-      <c r="X981" s="4"/>
-      <c r="Y981" s="4"/>
-      <c r="Z981" s="4"/>
-      <c r="AA981" s="4"/>
-      <c r="AB981" s="4"/>
-    </row>
-    <row r="982" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A982" s="4"/>
-      <c r="B982" s="4"/>
-      <c r="C982" s="4"/>
-      <c r="D982" s="4"/>
-      <c r="E982" s="4"/>
-      <c r="F982" s="4"/>
-      <c r="G982" s="4"/>
-      <c r="H982" s="4"/>
-      <c r="I982" s="4"/>
-      <c r="J982" s="4"/>
-      <c r="K982" s="4"/>
-      <c r="L982" s="4"/>
-      <c r="M982" s="4"/>
-      <c r="N982" s="4"/>
-      <c r="O982" s="4"/>
-      <c r="P982" s="4"/>
-      <c r="Q982" s="4"/>
-      <c r="R982" s="4"/>
-      <c r="S982" s="4"/>
-      <c r="T982" s="4"/>
-      <c r="U982" s="4"/>
-      <c r="V982" s="4"/>
-      <c r="W982" s="4"/>
-      <c r="X982" s="4"/>
-      <c r="Y982" s="4"/>
-      <c r="Z982" s="4"/>
-      <c r="AA982" s="4"/>
-      <c r="AB982" s="4"/>
-    </row>
-    <row r="983" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A983" s="4"/>
-      <c r="B983" s="4"/>
-      <c r="C983" s="4"/>
-      <c r="D983" s="4"/>
-      <c r="E983" s="4"/>
-      <c r="F983" s="4"/>
-      <c r="G983" s="4"/>
-      <c r="H983" s="4"/>
-      <c r="I983" s="4"/>
-      <c r="J983" s="4"/>
-      <c r="K983" s="4"/>
-      <c r="L983" s="4"/>
-      <c r="M983" s="4"/>
-      <c r="N983" s="4"/>
-      <c r="O983" s="4"/>
-      <c r="P983" s="4"/>
-      <c r="Q983" s="4"/>
-      <c r="R983" s="4"/>
-      <c r="S983" s="4"/>
-      <c r="T983" s="4"/>
-      <c r="U983" s="4"/>
-      <c r="V983" s="4"/>
-      <c r="W983" s="4"/>
-      <c r="X983" s="4"/>
-      <c r="Y983" s="4"/>
-      <c r="Z983" s="4"/>
-      <c r="AA983" s="4"/>
-      <c r="AB983" s="4"/>
-    </row>
-    <row r="984" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A984" s="4"/>
-      <c r="B984" s="4"/>
-      <c r="C984" s="4"/>
-      <c r="D984" s="4"/>
-      <c r="E984" s="4"/>
-      <c r="F984" s="4"/>
-      <c r="G984" s="4"/>
-      <c r="H984" s="4"/>
-      <c r="I984" s="4"/>
-      <c r="J984" s="4"/>
-      <c r="K984" s="4"/>
-      <c r="L984" s="4"/>
-      <c r="M984" s="4"/>
-      <c r="N984" s="4"/>
-      <c r="O984" s="4"/>
-      <c r="P984" s="4"/>
-      <c r="Q984" s="4"/>
-      <c r="R984" s="4"/>
-      <c r="S984" s="4"/>
-      <c r="T984" s="4"/>
-      <c r="U984" s="4"/>
-      <c r="V984" s="4"/>
-      <c r="W984" s="4"/>
-      <c r="X984" s="4"/>
-      <c r="Y984" s="4"/>
-      <c r="Z984" s="4"/>
-      <c r="AA984" s="4"/>
-      <c r="AB984" s="4"/>
-    </row>
-    <row r="985" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A985" s="4"/>
-      <c r="B985" s="4"/>
-      <c r="C985" s="4"/>
-      <c r="D985" s="4"/>
-      <c r="E985" s="4"/>
-      <c r="F985" s="4"/>
-      <c r="G985" s="4"/>
-      <c r="H985" s="4"/>
-      <c r="I985" s="4"/>
-      <c r="J985" s="4"/>
-      <c r="K985" s="4"/>
-      <c r="L985" s="4"/>
-      <c r="M985" s="4"/>
-      <c r="N985" s="4"/>
-      <c r="O985" s="4"/>
-      <c r="P985" s="4"/>
-      <c r="Q985" s="4"/>
-      <c r="R985" s="4"/>
-      <c r="S985" s="4"/>
-      <c r="T985" s="4"/>
-      <c r="U985" s="4"/>
-      <c r="V985" s="4"/>
-      <c r="W985" s="4"/>
-      <c r="X985" s="4"/>
-      <c r="Y985" s="4"/>
-      <c r="Z985" s="4"/>
-      <c r="AA985" s="4"/>
-      <c r="AB985" s="4"/>
-    </row>
-    <row r="986" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A986" s="4"/>
-      <c r="B986" s="4"/>
-      <c r="C986" s="4"/>
-      <c r="D986" s="4"/>
-      <c r="E986" s="4"/>
-      <c r="F986" s="4"/>
-      <c r="G986" s="4"/>
-      <c r="H986" s="4"/>
-      <c r="I986" s="4"/>
-      <c r="J986" s="4"/>
-      <c r="K986" s="4"/>
-      <c r="L986" s="4"/>
-      <c r="M986" s="4"/>
-      <c r="N986" s="4"/>
-      <c r="O986" s="4"/>
-      <c r="P986" s="4"/>
-      <c r="Q986" s="4"/>
-      <c r="R986" s="4"/>
-      <c r="S986" s="4"/>
-      <c r="T986" s="4"/>
-      <c r="U986" s="4"/>
-      <c r="V986" s="4"/>
-      <c r="W986" s="4"/>
-      <c r="X986" s="4"/>
-      <c r="Y986" s="4"/>
-      <c r="Z986" s="4"/>
-      <c r="AA986" s="4"/>
-      <c r="AB986" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:N986" xr:uid="{C1C2CC13-2AB7-46F4-995C-CBB92B9C0254}"/>
+  <autoFilter ref="A1:N961" xr:uid="{C1C2CC13-2AB7-46F4-995C-CBB92B9C0254}"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{856D50E8-2800-4462-9BF4-0B761695A589}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{D60D2C5F-AC11-46E8-A061-9C56E63FE999}"/>
@@ -33540,21 +32375,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001CF2E9C31C1F9249AD1C5C32C883CF52" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="2446087b74f13e01ab9e6ca0cc8aa566">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f809d0f6-fdde-443e-9ae6-18ec6b857c37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f7e70fe4e704e7e2502280d2be185a" ns3:_="">
     <xsd:import namespace="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
@@ -33732,24 +32552,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC0F33C4-FCBB-4F76-AAE1-7C8EB9ACF20A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33765,4 +32583,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{52316334-3586-4C27-8AB3-F913FD87CCB4}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F7EBF0F9-F483-44CB-8E25-CD93EBA14B68}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="2688" windowWidth="30612" windowHeight="14172" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="108" yWindow="3072" windowWidth="30612" windowHeight="14172" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$961</definedName>
   </definedNames>
@@ -501,542 +498,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="data"/>
-      <sheetName val="cantons"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Aargau</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>AG</v>
-          </cell>
-          <cell r="C2">
-            <v>685845</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E2">
-            <v>47.392299999999999</v>
-          </cell>
-          <cell r="F2">
-            <v>8.0446000000000009</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Appenzell-A.</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>AR</v>
-          </cell>
-          <cell r="C3">
-            <v>55445</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E3">
-            <v>47.366500000000002</v>
-          </cell>
-          <cell r="F3">
-            <v>9.3001000000000005</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Appenzell-I.</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>AI</v>
-          </cell>
-          <cell r="C4">
-            <v>16128</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E4">
-            <v>47.316200000000002</v>
-          </cell>
-          <cell r="F4">
-            <v>9.4316999999999993</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Basel-Landsch.</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>BL</v>
-          </cell>
-          <cell r="C5">
-            <v>289468</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E5">
-            <v>47.441800000000001</v>
-          </cell>
-          <cell r="F5">
-            <v>7.7644000000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Basel-Stadt</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>BS</v>
-          </cell>
-          <cell r="C6">
-            <v>195844</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E6">
-            <v>47.560600000000001</v>
-          </cell>
-          <cell r="F6">
-            <v>7.5906000000000002</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Bern</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>BE</v>
-          </cell>
-          <cell r="C7">
-            <v>1039474</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E7">
-            <v>46.948</v>
-          </cell>
-          <cell r="F7">
-            <v>7.4474</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Freiburg</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>FR</v>
-          </cell>
-          <cell r="C8">
-            <v>321783</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E8">
-            <v>46.8</v>
-          </cell>
-          <cell r="F8">
-            <v>7.15</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Genf</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>GE</v>
-          </cell>
-          <cell r="C9">
-            <v>504128</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E9">
-            <v>46.2</v>
-          </cell>
-          <cell r="F9">
-            <v>6.15</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Glarus</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>GL</v>
-          </cell>
-          <cell r="C10">
-            <v>40590</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E10">
-            <v>47.033099999999997</v>
-          </cell>
-          <cell r="F10">
-            <v>9.0663999999999998</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Graubünden</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>GR</v>
-          </cell>
-          <cell r="C11">
-            <v>199021</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E11">
-            <v>46.8521</v>
-          </cell>
-          <cell r="F11">
-            <v>9.5297000000000001</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Jura</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>JU</v>
-          </cell>
-          <cell r="C12">
-            <v>73584</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E12">
-            <v>47.365299999999998</v>
-          </cell>
-          <cell r="F12">
-            <v>7.3472</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Luzern</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>LU</v>
-          </cell>
-          <cell r="C13">
-            <v>413120</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E13">
-            <v>47.050199999999997</v>
-          </cell>
-          <cell r="F13">
-            <v>8.3093000000000004</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Neuenburg</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>NE</v>
-          </cell>
-          <cell r="C14">
-            <v>176496</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E14">
-            <v>46.99</v>
-          </cell>
-          <cell r="F14">
-            <v>6.9292999999999996</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Nidwalden</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>NW</v>
-          </cell>
-          <cell r="C15">
-            <v>43087</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E15">
-            <v>46.959400000000002</v>
-          </cell>
-          <cell r="F15">
-            <v>8.3666999999999998</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Obwalden</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>OW</v>
-          </cell>
-          <cell r="C16">
-            <v>37930</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E16">
-            <v>46.896900000000002</v>
-          </cell>
-          <cell r="F16">
-            <v>8.2469000000000001</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Schaffhausen</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>SH</v>
-          </cell>
-          <cell r="C17">
-            <v>82348</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E17">
-            <v>47.6965</v>
-          </cell>
-          <cell r="F17">
-            <v>8.6339000000000006</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Schwyz</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>SZ</v>
-          </cell>
-          <cell r="C18">
-            <v>160480</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E18">
-            <v>47.127800000000001</v>
-          </cell>
-          <cell r="F18">
-            <v>8.7431000000000001</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Solothurn</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>SO</v>
-          </cell>
-          <cell r="C19">
-            <v>275247</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E19">
-            <v>47.193100000000001</v>
-          </cell>
-          <cell r="F19">
-            <v>7.3958000000000004</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>St. Gallen</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>SG</v>
-          </cell>
-          <cell r="C20">
-            <v>510734</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E20">
-            <v>47.423299999999998</v>
-          </cell>
-          <cell r="F20">
-            <v>9.3772000000000002</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Tessin</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>TI</v>
-          </cell>
-          <cell r="C21">
-            <v>351491</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E21">
-            <v>46.331699999999998</v>
-          </cell>
-          <cell r="F21">
-            <v>8.8004999999999995</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Thurgau</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>TG</v>
-          </cell>
-          <cell r="C22">
-            <v>279547</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E22">
-            <v>47.555799999999998</v>
-          </cell>
-          <cell r="F22">
-            <v>8.8963999999999999</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Uri</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>UR</v>
-          </cell>
-          <cell r="C23">
-            <v>36703</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E23">
-            <v>46.880600000000001</v>
-          </cell>
-          <cell r="F23">
-            <v>8.6394000000000002</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Waadt</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>VD</v>
-          </cell>
-          <cell r="C24">
-            <v>805098</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E24">
-            <v>46.561300000000003</v>
-          </cell>
-          <cell r="F24">
-            <v>6.5368000000000004</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Wallis</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>VS</v>
-          </cell>
-          <cell r="C25">
-            <v>34708</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E25">
-            <v>46.1905</v>
-          </cell>
-          <cell r="F25">
-            <v>7.5449000000000002</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Zug</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>ZG</v>
-          </cell>
-          <cell r="C26">
-            <v>127642</v>
-          </cell>
-          <cell r="D26" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E26">
-            <v>47.169199999999996</v>
-          </cell>
-          <cell r="F26">
-            <v>8.5164000000000009</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Zürich</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>ZH</v>
-          </cell>
-          <cell r="C27">
-            <v>1539275</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>CHE</v>
-          </cell>
-          <cell r="E27">
-            <v>47.378599999999999</v>
-          </cell>
-          <cell r="F27">
-            <v>8.5399999999999991</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1337,7 +798,7 @@
   <dimension ref="A1:AB961"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5784,11 +5245,9 @@
         <v>15</v>
       </c>
       <c r="K77" s="15">
-        <f>VLOOKUP($A77,[1]cantons!$A$2:$F$27,5)</f>
         <v>46.2</v>
       </c>
       <c r="L77" s="15">
-        <f>VLOOKUP($A77,[1]cantons!$A$2:$F$27,6)</f>
         <v>6.15</v>
       </c>
       <c r="M77" s="4"/>
@@ -32375,6 +31834,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001CF2E9C31C1F9249AD1C5C32C883CF52" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="2446087b74f13e01ab9e6ca0cc8aa566">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f809d0f6-fdde-443e-9ae6-18ec6b857c37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f7e70fe4e704e7e2502280d2be185a" ns3:_="">
     <xsd:import namespace="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
@@ -32552,22 +32026,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC0F33C4-FCBB-4F76-AAE1-7C8EB9ACF20A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32583,21 +32059,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F7EBF0F9-F483-44CB-8E25-CD93EBA14B68}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A1F48BEF-99B3-44BB-9670-70F72BB1508E}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="3072" windowWidth="30612" windowHeight="14172" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="108" yWindow="3108" windowWidth="30612" windowHeight="14172" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -325,24 +325,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -433,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -459,25 +447,19 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -798,7 +780,7 @@
   <dimension ref="A1:AB961"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5231,23 +5213,23 @@
       <c r="C77" s="10">
         <v>11811</v>
       </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
       <c r="G77" s="10">
         <v>2.34</v>
       </c>
-      <c r="H77" s="12"/>
-      <c r="I77" s="13">
+      <c r="H77" s="11"/>
+      <c r="I77" s="12">
         <v>44223</v>
       </c>
-      <c r="J77" s="14" t="s">
+      <c r="J77" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K77" s="15">
+      <c r="K77" s="13">
         <v>46.2</v>
       </c>
-      <c r="L77" s="15">
+      <c r="L77" s="13">
         <v>6.15</v>
       </c>
       <c r="M77" s="4"/>
@@ -31834,18 +31816,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32027,18 +32009,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A1F48BEF-99B3-44BB-9670-70F72BB1508E}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A84E265E-6CBC-4F66-AE28-D9EE5BEC8756}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="3108" windowWidth="30612" windowHeight="14172" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="108" yWindow="1152" windowWidth="30612" windowHeight="14172" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$961</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$960</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="85">
   <si>
     <t>Kanton</t>
   </si>
@@ -333,7 +333,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -401,27 +401,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -446,21 +431,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -777,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BDD28C-CFB3-41F7-968F-C0FB8B841477}">
-  <dimension ref="A1:AB961"/>
+  <dimension ref="A1:AB960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5203,35 +5173,19 @@
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
     </row>
-    <row r="77" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C77" s="10">
-        <v>11811</v>
-      </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10">
-        <v>2.34</v>
-      </c>
-      <c r="H77" s="11"/>
-      <c r="I77" s="12">
-        <v>44223</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K77" s="13">
-        <v>46.2</v>
-      </c>
-      <c r="L77" s="13">
-        <v>6.15</v>
-      </c>
+    <row r="77" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -31739,38 +31693,8 @@
       <c r="AA960" s="4"/>
       <c r="AB960" s="4"/>
     </row>
-    <row r="961" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A961" s="4"/>
-      <c r="B961" s="4"/>
-      <c r="C961" s="4"/>
-      <c r="D961" s="4"/>
-      <c r="E961" s="4"/>
-      <c r="F961" s="4"/>
-      <c r="G961" s="4"/>
-      <c r="H961" s="4"/>
-      <c r="I961" s="4"/>
-      <c r="J961" s="4"/>
-      <c r="K961" s="4"/>
-      <c r="L961" s="4"/>
-      <c r="M961" s="4"/>
-      <c r="N961" s="4"/>
-      <c r="O961" s="4"/>
-      <c r="P961" s="4"/>
-      <c r="Q961" s="4"/>
-      <c r="R961" s="4"/>
-      <c r="S961" s="4"/>
-      <c r="T961" s="4"/>
-      <c r="U961" s="4"/>
-      <c r="V961" s="4"/>
-      <c r="W961" s="4"/>
-      <c r="X961" s="4"/>
-      <c r="Y961" s="4"/>
-      <c r="Z961" s="4"/>
-      <c r="AA961" s="4"/>
-      <c r="AB961" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:N961" xr:uid="{C1C2CC13-2AB7-46F4-995C-CBB92B9C0254}"/>
+  <autoFilter ref="A1:N960" xr:uid="{C1C2CC13-2AB7-46F4-995C-CBB92B9C0254}"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{856D50E8-2800-4462-9BF4-0B761695A589}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{D60D2C5F-AC11-46E8-A061-9C56E63FE999}"/>
@@ -31816,21 +31740,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001CF2E9C31C1F9249AD1C5C32C883CF52" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="2446087b74f13e01ab9e6ca0cc8aa566">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f809d0f6-fdde-443e-9ae6-18ec6b857c37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f7e70fe4e704e7e2502280d2be185a" ns3:_="">
     <xsd:import namespace="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
@@ -32008,24 +31917,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC0F33C4-FCBB-4F76-AAE1-7C8EB9ACF20A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32041,4 +31948,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\Downloads\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A84E265E-6CBC-4F66-AE28-D9EE5BEC8756}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9569228C-5AF8-4E93-8A7B-F939A078B9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="1152" windowWidth="30612" windowHeight="14172" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="108" yWindow="3072" windowWidth="30612" windowHeight="14172" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$960</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$986</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -747,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BDD28C-CFB3-41F7-968F-C0FB8B841477}">
-  <dimension ref="A1:AB960"/>
+  <dimension ref="A1:AB986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31693,8 +31693,788 @@
       <c r="AA960" s="4"/>
       <c r="AB960" s="4"/>
     </row>
+    <row r="961" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A961" s="4"/>
+      <c r="B961" s="4"/>
+      <c r="C961" s="4"/>
+      <c r="D961" s="4"/>
+      <c r="E961" s="4"/>
+      <c r="F961" s="4"/>
+      <c r="G961" s="4"/>
+      <c r="H961" s="4"/>
+      <c r="I961" s="4"/>
+      <c r="J961" s="4"/>
+      <c r="K961" s="4"/>
+      <c r="L961" s="4"/>
+      <c r="M961" s="4"/>
+      <c r="N961" s="4"/>
+      <c r="O961" s="4"/>
+      <c r="P961" s="4"/>
+      <c r="Q961" s="4"/>
+      <c r="R961" s="4"/>
+      <c r="S961" s="4"/>
+      <c r="T961" s="4"/>
+      <c r="U961" s="4"/>
+      <c r="V961" s="4"/>
+      <c r="W961" s="4"/>
+      <c r="X961" s="4"/>
+      <c r="Y961" s="4"/>
+      <c r="Z961" s="4"/>
+      <c r="AA961" s="4"/>
+      <c r="AB961" s="4"/>
+    </row>
+    <row r="962" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A962" s="4"/>
+      <c r="B962" s="4"/>
+      <c r="C962" s="4"/>
+      <c r="D962" s="4"/>
+      <c r="E962" s="4"/>
+      <c r="F962" s="4"/>
+      <c r="G962" s="4"/>
+      <c r="H962" s="4"/>
+      <c r="I962" s="4"/>
+      <c r="J962" s="4"/>
+      <c r="K962" s="4"/>
+      <c r="L962" s="4"/>
+      <c r="M962" s="4"/>
+      <c r="N962" s="4"/>
+      <c r="O962" s="4"/>
+      <c r="P962" s="4"/>
+      <c r="Q962" s="4"/>
+      <c r="R962" s="4"/>
+      <c r="S962" s="4"/>
+      <c r="T962" s="4"/>
+      <c r="U962" s="4"/>
+      <c r="V962" s="4"/>
+      <c r="W962" s="4"/>
+      <c r="X962" s="4"/>
+      <c r="Y962" s="4"/>
+      <c r="Z962" s="4"/>
+      <c r="AA962" s="4"/>
+      <c r="AB962" s="4"/>
+    </row>
+    <row r="963" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A963" s="4"/>
+      <c r="B963" s="4"/>
+      <c r="C963" s="4"/>
+      <c r="D963" s="4"/>
+      <c r="E963" s="4"/>
+      <c r="F963" s="4"/>
+      <c r="G963" s="4"/>
+      <c r="H963" s="4"/>
+      <c r="I963" s="4"/>
+      <c r="J963" s="4"/>
+      <c r="K963" s="4"/>
+      <c r="L963" s="4"/>
+      <c r="M963" s="4"/>
+      <c r="N963" s="4"/>
+      <c r="O963" s="4"/>
+      <c r="P963" s="4"/>
+      <c r="Q963" s="4"/>
+      <c r="R963" s="4"/>
+      <c r="S963" s="4"/>
+      <c r="T963" s="4"/>
+      <c r="U963" s="4"/>
+      <c r="V963" s="4"/>
+      <c r="W963" s="4"/>
+      <c r="X963" s="4"/>
+      <c r="Y963" s="4"/>
+      <c r="Z963" s="4"/>
+      <c r="AA963" s="4"/>
+      <c r="AB963" s="4"/>
+    </row>
+    <row r="964" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A964" s="4"/>
+      <c r="B964" s="4"/>
+      <c r="C964" s="4"/>
+      <c r="D964" s="4"/>
+      <c r="E964" s="4"/>
+      <c r="F964" s="4"/>
+      <c r="G964" s="4"/>
+      <c r="H964" s="4"/>
+      <c r="I964" s="4"/>
+      <c r="J964" s="4"/>
+      <c r="K964" s="4"/>
+      <c r="L964" s="4"/>
+      <c r="M964" s="4"/>
+      <c r="N964" s="4"/>
+      <c r="O964" s="4"/>
+      <c r="P964" s="4"/>
+      <c r="Q964" s="4"/>
+      <c r="R964" s="4"/>
+      <c r="S964" s="4"/>
+      <c r="T964" s="4"/>
+      <c r="U964" s="4"/>
+      <c r="V964" s="4"/>
+      <c r="W964" s="4"/>
+      <c r="X964" s="4"/>
+      <c r="Y964" s="4"/>
+      <c r="Z964" s="4"/>
+      <c r="AA964" s="4"/>
+      <c r="AB964" s="4"/>
+    </row>
+    <row r="965" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A965" s="4"/>
+      <c r="B965" s="4"/>
+      <c r="C965" s="4"/>
+      <c r="D965" s="4"/>
+      <c r="E965" s="4"/>
+      <c r="F965" s="4"/>
+      <c r="G965" s="4"/>
+      <c r="H965" s="4"/>
+      <c r="I965" s="4"/>
+      <c r="J965" s="4"/>
+      <c r="K965" s="4"/>
+      <c r="L965" s="4"/>
+      <c r="M965" s="4"/>
+      <c r="N965" s="4"/>
+      <c r="O965" s="4"/>
+      <c r="P965" s="4"/>
+      <c r="Q965" s="4"/>
+      <c r="R965" s="4"/>
+      <c r="S965" s="4"/>
+      <c r="T965" s="4"/>
+      <c r="U965" s="4"/>
+      <c r="V965" s="4"/>
+      <c r="W965" s="4"/>
+      <c r="X965" s="4"/>
+      <c r="Y965" s="4"/>
+      <c r="Z965" s="4"/>
+      <c r="AA965" s="4"/>
+      <c r="AB965" s="4"/>
+    </row>
+    <row r="966" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A966" s="4"/>
+      <c r="B966" s="4"/>
+      <c r="C966" s="4"/>
+      <c r="D966" s="4"/>
+      <c r="E966" s="4"/>
+      <c r="F966" s="4"/>
+      <c r="G966" s="4"/>
+      <c r="H966" s="4"/>
+      <c r="I966" s="4"/>
+      <c r="J966" s="4"/>
+      <c r="K966" s="4"/>
+      <c r="L966" s="4"/>
+      <c r="M966" s="4"/>
+      <c r="N966" s="4"/>
+      <c r="O966" s="4"/>
+      <c r="P966" s="4"/>
+      <c r="Q966" s="4"/>
+      <c r="R966" s="4"/>
+      <c r="S966" s="4"/>
+      <c r="T966" s="4"/>
+      <c r="U966" s="4"/>
+      <c r="V966" s="4"/>
+      <c r="W966" s="4"/>
+      <c r="X966" s="4"/>
+      <c r="Y966" s="4"/>
+      <c r="Z966" s="4"/>
+      <c r="AA966" s="4"/>
+      <c r="AB966" s="4"/>
+    </row>
+    <row r="967" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A967" s="4"/>
+      <c r="B967" s="4"/>
+      <c r="C967" s="4"/>
+      <c r="D967" s="4"/>
+      <c r="E967" s="4"/>
+      <c r="F967" s="4"/>
+      <c r="G967" s="4"/>
+      <c r="H967" s="4"/>
+      <c r="I967" s="4"/>
+      <c r="J967" s="4"/>
+      <c r="K967" s="4"/>
+      <c r="L967" s="4"/>
+      <c r="M967" s="4"/>
+      <c r="N967" s="4"/>
+      <c r="O967" s="4"/>
+      <c r="P967" s="4"/>
+      <c r="Q967" s="4"/>
+      <c r="R967" s="4"/>
+      <c r="S967" s="4"/>
+      <c r="T967" s="4"/>
+      <c r="U967" s="4"/>
+      <c r="V967" s="4"/>
+      <c r="W967" s="4"/>
+      <c r="X967" s="4"/>
+      <c r="Y967" s="4"/>
+      <c r="Z967" s="4"/>
+      <c r="AA967" s="4"/>
+      <c r="AB967" s="4"/>
+    </row>
+    <row r="968" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A968" s="4"/>
+      <c r="B968" s="4"/>
+      <c r="C968" s="4"/>
+      <c r="D968" s="4"/>
+      <c r="E968" s="4"/>
+      <c r="F968" s="4"/>
+      <c r="G968" s="4"/>
+      <c r="H968" s="4"/>
+      <c r="I968" s="4"/>
+      <c r="J968" s="4"/>
+      <c r="K968" s="4"/>
+      <c r="L968" s="4"/>
+      <c r="M968" s="4"/>
+      <c r="N968" s="4"/>
+      <c r="O968" s="4"/>
+      <c r="P968" s="4"/>
+      <c r="Q968" s="4"/>
+      <c r="R968" s="4"/>
+      <c r="S968" s="4"/>
+      <c r="T968" s="4"/>
+      <c r="U968" s="4"/>
+      <c r="V968" s="4"/>
+      <c r="W968" s="4"/>
+      <c r="X968" s="4"/>
+      <c r="Y968" s="4"/>
+      <c r="Z968" s="4"/>
+      <c r="AA968" s="4"/>
+      <c r="AB968" s="4"/>
+    </row>
+    <row r="969" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A969" s="4"/>
+      <c r="B969" s="4"/>
+      <c r="C969" s="4"/>
+      <c r="D969" s="4"/>
+      <c r="E969" s="4"/>
+      <c r="F969" s="4"/>
+      <c r="G969" s="4"/>
+      <c r="H969" s="4"/>
+      <c r="I969" s="4"/>
+      <c r="J969" s="4"/>
+      <c r="K969" s="4"/>
+      <c r="L969" s="4"/>
+      <c r="M969" s="4"/>
+      <c r="N969" s="4"/>
+      <c r="O969" s="4"/>
+      <c r="P969" s="4"/>
+      <c r="Q969" s="4"/>
+      <c r="R969" s="4"/>
+      <c r="S969" s="4"/>
+      <c r="T969" s="4"/>
+      <c r="U969" s="4"/>
+      <c r="V969" s="4"/>
+      <c r="W969" s="4"/>
+      <c r="X969" s="4"/>
+      <c r="Y969" s="4"/>
+      <c r="Z969" s="4"/>
+      <c r="AA969" s="4"/>
+      <c r="AB969" s="4"/>
+    </row>
+    <row r="970" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A970" s="4"/>
+      <c r="B970" s="4"/>
+      <c r="C970" s="4"/>
+      <c r="D970" s="4"/>
+      <c r="E970" s="4"/>
+      <c r="F970" s="4"/>
+      <c r="G970" s="4"/>
+      <c r="H970" s="4"/>
+      <c r="I970" s="4"/>
+      <c r="J970" s="4"/>
+      <c r="K970" s="4"/>
+      <c r="L970" s="4"/>
+      <c r="M970" s="4"/>
+      <c r="N970" s="4"/>
+      <c r="O970" s="4"/>
+      <c r="P970" s="4"/>
+      <c r="Q970" s="4"/>
+      <c r="R970" s="4"/>
+      <c r="S970" s="4"/>
+      <c r="T970" s="4"/>
+      <c r="U970" s="4"/>
+      <c r="V970" s="4"/>
+      <c r="W970" s="4"/>
+      <c r="X970" s="4"/>
+      <c r="Y970" s="4"/>
+      <c r="Z970" s="4"/>
+      <c r="AA970" s="4"/>
+      <c r="AB970" s="4"/>
+    </row>
+    <row r="971" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A971" s="4"/>
+      <c r="B971" s="4"/>
+      <c r="C971" s="4"/>
+      <c r="D971" s="4"/>
+      <c r="E971" s="4"/>
+      <c r="F971" s="4"/>
+      <c r="G971" s="4"/>
+      <c r="H971" s="4"/>
+      <c r="I971" s="4"/>
+      <c r="J971" s="4"/>
+      <c r="K971" s="4"/>
+      <c r="L971" s="4"/>
+      <c r="M971" s="4"/>
+      <c r="N971" s="4"/>
+      <c r="O971" s="4"/>
+      <c r="P971" s="4"/>
+      <c r="Q971" s="4"/>
+      <c r="R971" s="4"/>
+      <c r="S971" s="4"/>
+      <c r="T971" s="4"/>
+      <c r="U971" s="4"/>
+      <c r="V971" s="4"/>
+      <c r="W971" s="4"/>
+      <c r="X971" s="4"/>
+      <c r="Y971" s="4"/>
+      <c r="Z971" s="4"/>
+      <c r="AA971" s="4"/>
+      <c r="AB971" s="4"/>
+    </row>
+    <row r="972" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A972" s="4"/>
+      <c r="B972" s="4"/>
+      <c r="C972" s="4"/>
+      <c r="D972" s="4"/>
+      <c r="E972" s="4"/>
+      <c r="F972" s="4"/>
+      <c r="G972" s="4"/>
+      <c r="H972" s="4"/>
+      <c r="I972" s="4"/>
+      <c r="J972" s="4"/>
+      <c r="K972" s="4"/>
+      <c r="L972" s="4"/>
+      <c r="M972" s="4"/>
+      <c r="N972" s="4"/>
+      <c r="O972" s="4"/>
+      <c r="P972" s="4"/>
+      <c r="Q972" s="4"/>
+      <c r="R972" s="4"/>
+      <c r="S972" s="4"/>
+      <c r="T972" s="4"/>
+      <c r="U972" s="4"/>
+      <c r="V972" s="4"/>
+      <c r="W972" s="4"/>
+      <c r="X972" s="4"/>
+      <c r="Y972" s="4"/>
+      <c r="Z972" s="4"/>
+      <c r="AA972" s="4"/>
+      <c r="AB972" s="4"/>
+    </row>
+    <row r="973" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A973" s="4"/>
+      <c r="B973" s="4"/>
+      <c r="C973" s="4"/>
+      <c r="D973" s="4"/>
+      <c r="E973" s="4"/>
+      <c r="F973" s="4"/>
+      <c r="G973" s="4"/>
+      <c r="H973" s="4"/>
+      <c r="I973" s="4"/>
+      <c r="J973" s="4"/>
+      <c r="K973" s="4"/>
+      <c r="L973" s="4"/>
+      <c r="M973" s="4"/>
+      <c r="N973" s="4"/>
+      <c r="O973" s="4"/>
+      <c r="P973" s="4"/>
+      <c r="Q973" s="4"/>
+      <c r="R973" s="4"/>
+      <c r="S973" s="4"/>
+      <c r="T973" s="4"/>
+      <c r="U973" s="4"/>
+      <c r="V973" s="4"/>
+      <c r="W973" s="4"/>
+      <c r="X973" s="4"/>
+      <c r="Y973" s="4"/>
+      <c r="Z973" s="4"/>
+      <c r="AA973" s="4"/>
+      <c r="AB973" s="4"/>
+    </row>
+    <row r="974" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A974" s="4"/>
+      <c r="B974" s="4"/>
+      <c r="C974" s="4"/>
+      <c r="D974" s="4"/>
+      <c r="E974" s="4"/>
+      <c r="F974" s="4"/>
+      <c r="G974" s="4"/>
+      <c r="H974" s="4"/>
+      <c r="I974" s="4"/>
+      <c r="J974" s="4"/>
+      <c r="K974" s="4"/>
+      <c r="L974" s="4"/>
+      <c r="M974" s="4"/>
+      <c r="N974" s="4"/>
+      <c r="O974" s="4"/>
+      <c r="P974" s="4"/>
+      <c r="Q974" s="4"/>
+      <c r="R974" s="4"/>
+      <c r="S974" s="4"/>
+      <c r="T974" s="4"/>
+      <c r="U974" s="4"/>
+      <c r="V974" s="4"/>
+      <c r="W974" s="4"/>
+      <c r="X974" s="4"/>
+      <c r="Y974" s="4"/>
+      <c r="Z974" s="4"/>
+      <c r="AA974" s="4"/>
+      <c r="AB974" s="4"/>
+    </row>
+    <row r="975" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A975" s="4"/>
+      <c r="B975" s="4"/>
+      <c r="C975" s="4"/>
+      <c r="D975" s="4"/>
+      <c r="E975" s="4"/>
+      <c r="F975" s="4"/>
+      <c r="G975" s="4"/>
+      <c r="H975" s="4"/>
+      <c r="I975" s="4"/>
+      <c r="J975" s="4"/>
+      <c r="K975" s="4"/>
+      <c r="L975" s="4"/>
+      <c r="M975" s="4"/>
+      <c r="N975" s="4"/>
+      <c r="O975" s="4"/>
+      <c r="P975" s="4"/>
+      <c r="Q975" s="4"/>
+      <c r="R975" s="4"/>
+      <c r="S975" s="4"/>
+      <c r="T975" s="4"/>
+      <c r="U975" s="4"/>
+      <c r="V975" s="4"/>
+      <c r="W975" s="4"/>
+      <c r="X975" s="4"/>
+      <c r="Y975" s="4"/>
+      <c r="Z975" s="4"/>
+      <c r="AA975" s="4"/>
+      <c r="AB975" s="4"/>
+    </row>
+    <row r="976" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A976" s="4"/>
+      <c r="B976" s="4"/>
+      <c r="C976" s="4"/>
+      <c r="D976" s="4"/>
+      <c r="E976" s="4"/>
+      <c r="F976" s="4"/>
+      <c r="G976" s="4"/>
+      <c r="H976" s="4"/>
+      <c r="I976" s="4"/>
+      <c r="J976" s="4"/>
+      <c r="K976" s="4"/>
+      <c r="L976" s="4"/>
+      <c r="M976" s="4"/>
+      <c r="N976" s="4"/>
+      <c r="O976" s="4"/>
+      <c r="P976" s="4"/>
+      <c r="Q976" s="4"/>
+      <c r="R976" s="4"/>
+      <c r="S976" s="4"/>
+      <c r="T976" s="4"/>
+      <c r="U976" s="4"/>
+      <c r="V976" s="4"/>
+      <c r="W976" s="4"/>
+      <c r="X976" s="4"/>
+      <c r="Y976" s="4"/>
+      <c r="Z976" s="4"/>
+      <c r="AA976" s="4"/>
+      <c r="AB976" s="4"/>
+    </row>
+    <row r="977" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A977" s="4"/>
+      <c r="B977" s="4"/>
+      <c r="C977" s="4"/>
+      <c r="D977" s="4"/>
+      <c r="E977" s="4"/>
+      <c r="F977" s="4"/>
+      <c r="G977" s="4"/>
+      <c r="H977" s="4"/>
+      <c r="I977" s="4"/>
+      <c r="J977" s="4"/>
+      <c r="K977" s="4"/>
+      <c r="L977" s="4"/>
+      <c r="M977" s="4"/>
+      <c r="N977" s="4"/>
+      <c r="O977" s="4"/>
+      <c r="P977" s="4"/>
+      <c r="Q977" s="4"/>
+      <c r="R977" s="4"/>
+      <c r="S977" s="4"/>
+      <c r="T977" s="4"/>
+      <c r="U977" s="4"/>
+      <c r="V977" s="4"/>
+      <c r="W977" s="4"/>
+      <c r="X977" s="4"/>
+      <c r="Y977" s="4"/>
+      <c r="Z977" s="4"/>
+      <c r="AA977" s="4"/>
+      <c r="AB977" s="4"/>
+    </row>
+    <row r="978" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A978" s="4"/>
+      <c r="B978" s="4"/>
+      <c r="C978" s="4"/>
+      <c r="D978" s="4"/>
+      <c r="E978" s="4"/>
+      <c r="F978" s="4"/>
+      <c r="G978" s="4"/>
+      <c r="H978" s="4"/>
+      <c r="I978" s="4"/>
+      <c r="J978" s="4"/>
+      <c r="K978" s="4"/>
+      <c r="L978" s="4"/>
+      <c r="M978" s="4"/>
+      <c r="N978" s="4"/>
+      <c r="O978" s="4"/>
+      <c r="P978" s="4"/>
+      <c r="Q978" s="4"/>
+      <c r="R978" s="4"/>
+      <c r="S978" s="4"/>
+      <c r="T978" s="4"/>
+      <c r="U978" s="4"/>
+      <c r="V978" s="4"/>
+      <c r="W978" s="4"/>
+      <c r="X978" s="4"/>
+      <c r="Y978" s="4"/>
+      <c r="Z978" s="4"/>
+      <c r="AA978" s="4"/>
+      <c r="AB978" s="4"/>
+    </row>
+    <row r="979" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A979" s="4"/>
+      <c r="B979" s="4"/>
+      <c r="C979" s="4"/>
+      <c r="D979" s="4"/>
+      <c r="E979" s="4"/>
+      <c r="F979" s="4"/>
+      <c r="G979" s="4"/>
+      <c r="H979" s="4"/>
+      <c r="I979" s="4"/>
+      <c r="J979" s="4"/>
+      <c r="K979" s="4"/>
+      <c r="L979" s="4"/>
+      <c r="M979" s="4"/>
+      <c r="N979" s="4"/>
+      <c r="O979" s="4"/>
+      <c r="P979" s="4"/>
+      <c r="Q979" s="4"/>
+      <c r="R979" s="4"/>
+      <c r="S979" s="4"/>
+      <c r="T979" s="4"/>
+      <c r="U979" s="4"/>
+      <c r="V979" s="4"/>
+      <c r="W979" s="4"/>
+      <c r="X979" s="4"/>
+      <c r="Y979" s="4"/>
+      <c r="Z979" s="4"/>
+      <c r="AA979" s="4"/>
+      <c r="AB979" s="4"/>
+    </row>
+    <row r="980" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A980" s="4"/>
+      <c r="B980" s="4"/>
+      <c r="C980" s="4"/>
+      <c r="D980" s="4"/>
+      <c r="E980" s="4"/>
+      <c r="F980" s="4"/>
+      <c r="G980" s="4"/>
+      <c r="H980" s="4"/>
+      <c r="I980" s="4"/>
+      <c r="J980" s="4"/>
+      <c r="K980" s="4"/>
+      <c r="L980" s="4"/>
+      <c r="M980" s="4"/>
+      <c r="N980" s="4"/>
+      <c r="O980" s="4"/>
+      <c r="P980" s="4"/>
+      <c r="Q980" s="4"/>
+      <c r="R980" s="4"/>
+      <c r="S980" s="4"/>
+      <c r="T980" s="4"/>
+      <c r="U980" s="4"/>
+      <c r="V980" s="4"/>
+      <c r="W980" s="4"/>
+      <c r="X980" s="4"/>
+      <c r="Y980" s="4"/>
+      <c r="Z980" s="4"/>
+      <c r="AA980" s="4"/>
+      <c r="AB980" s="4"/>
+    </row>
+    <row r="981" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A981" s="4"/>
+      <c r="B981" s="4"/>
+      <c r="C981" s="4"/>
+      <c r="D981" s="4"/>
+      <c r="E981" s="4"/>
+      <c r="F981" s="4"/>
+      <c r="G981" s="4"/>
+      <c r="H981" s="4"/>
+      <c r="I981" s="4"/>
+      <c r="J981" s="4"/>
+      <c r="K981" s="4"/>
+      <c r="L981" s="4"/>
+      <c r="M981" s="4"/>
+      <c r="N981" s="4"/>
+      <c r="O981" s="4"/>
+      <c r="P981" s="4"/>
+      <c r="Q981" s="4"/>
+      <c r="R981" s="4"/>
+      <c r="S981" s="4"/>
+      <c r="T981" s="4"/>
+      <c r="U981" s="4"/>
+      <c r="V981" s="4"/>
+      <c r="W981" s="4"/>
+      <c r="X981" s="4"/>
+      <c r="Y981" s="4"/>
+      <c r="Z981" s="4"/>
+      <c r="AA981" s="4"/>
+      <c r="AB981" s="4"/>
+    </row>
+    <row r="982" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A982" s="4"/>
+      <c r="B982" s="4"/>
+      <c r="C982" s="4"/>
+      <c r="D982" s="4"/>
+      <c r="E982" s="4"/>
+      <c r="F982" s="4"/>
+      <c r="G982" s="4"/>
+      <c r="H982" s="4"/>
+      <c r="I982" s="4"/>
+      <c r="J982" s="4"/>
+      <c r="K982" s="4"/>
+      <c r="L982" s="4"/>
+      <c r="M982" s="4"/>
+      <c r="N982" s="4"/>
+      <c r="O982" s="4"/>
+      <c r="P982" s="4"/>
+      <c r="Q982" s="4"/>
+      <c r="R982" s="4"/>
+      <c r="S982" s="4"/>
+      <c r="T982" s="4"/>
+      <c r="U982" s="4"/>
+      <c r="V982" s="4"/>
+      <c r="W982" s="4"/>
+      <c r="X982" s="4"/>
+      <c r="Y982" s="4"/>
+      <c r="Z982" s="4"/>
+      <c r="AA982" s="4"/>
+      <c r="AB982" s="4"/>
+    </row>
+    <row r="983" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A983" s="4"/>
+      <c r="B983" s="4"/>
+      <c r="C983" s="4"/>
+      <c r="D983" s="4"/>
+      <c r="E983" s="4"/>
+      <c r="F983" s="4"/>
+      <c r="G983" s="4"/>
+      <c r="H983" s="4"/>
+      <c r="I983" s="4"/>
+      <c r="J983" s="4"/>
+      <c r="K983" s="4"/>
+      <c r="L983" s="4"/>
+      <c r="M983" s="4"/>
+      <c r="N983" s="4"/>
+      <c r="O983" s="4"/>
+      <c r="P983" s="4"/>
+      <c r="Q983" s="4"/>
+      <c r="R983" s="4"/>
+      <c r="S983" s="4"/>
+      <c r="T983" s="4"/>
+      <c r="U983" s="4"/>
+      <c r="V983" s="4"/>
+      <c r="W983" s="4"/>
+      <c r="X983" s="4"/>
+      <c r="Y983" s="4"/>
+      <c r="Z983" s="4"/>
+      <c r="AA983" s="4"/>
+      <c r="AB983" s="4"/>
+    </row>
+    <row r="984" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A984" s="4"/>
+      <c r="B984" s="4"/>
+      <c r="C984" s="4"/>
+      <c r="D984" s="4"/>
+      <c r="E984" s="4"/>
+      <c r="F984" s="4"/>
+      <c r="G984" s="4"/>
+      <c r="H984" s="4"/>
+      <c r="I984" s="4"/>
+      <c r="J984" s="4"/>
+      <c r="K984" s="4"/>
+      <c r="L984" s="4"/>
+      <c r="M984" s="4"/>
+      <c r="N984" s="4"/>
+      <c r="O984" s="4"/>
+      <c r="P984" s="4"/>
+      <c r="Q984" s="4"/>
+      <c r="R984" s="4"/>
+      <c r="S984" s="4"/>
+      <c r="T984" s="4"/>
+      <c r="U984" s="4"/>
+      <c r="V984" s="4"/>
+      <c r="W984" s="4"/>
+      <c r="X984" s="4"/>
+      <c r="Y984" s="4"/>
+      <c r="Z984" s="4"/>
+      <c r="AA984" s="4"/>
+      <c r="AB984" s="4"/>
+    </row>
+    <row r="985" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A985" s="4"/>
+      <c r="B985" s="4"/>
+      <c r="C985" s="4"/>
+      <c r="D985" s="4"/>
+      <c r="E985" s="4"/>
+      <c r="F985" s="4"/>
+      <c r="G985" s="4"/>
+      <c r="H985" s="4"/>
+      <c r="I985" s="4"/>
+      <c r="J985" s="4"/>
+      <c r="K985" s="4"/>
+      <c r="L985" s="4"/>
+      <c r="M985" s="4"/>
+      <c r="N985" s="4"/>
+      <c r="O985" s="4"/>
+      <c r="P985" s="4"/>
+      <c r="Q985" s="4"/>
+      <c r="R985" s="4"/>
+      <c r="S985" s="4"/>
+      <c r="T985" s="4"/>
+      <c r="U985" s="4"/>
+      <c r="V985" s="4"/>
+      <c r="W985" s="4"/>
+      <c r="X985" s="4"/>
+      <c r="Y985" s="4"/>
+      <c r="Z985" s="4"/>
+      <c r="AA985" s="4"/>
+      <c r="AB985" s="4"/>
+    </row>
+    <row r="986" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A986" s="4"/>
+      <c r="B986" s="4"/>
+      <c r="C986" s="4"/>
+      <c r="D986" s="4"/>
+      <c r="E986" s="4"/>
+      <c r="F986" s="4"/>
+      <c r="G986" s="4"/>
+      <c r="H986" s="4"/>
+      <c r="I986" s="4"/>
+      <c r="J986" s="4"/>
+      <c r="K986" s="4"/>
+      <c r="L986" s="4"/>
+      <c r="M986" s="4"/>
+      <c r="N986" s="4"/>
+      <c r="O986" s="4"/>
+      <c r="P986" s="4"/>
+      <c r="Q986" s="4"/>
+      <c r="R986" s="4"/>
+      <c r="S986" s="4"/>
+      <c r="T986" s="4"/>
+      <c r="U986" s="4"/>
+      <c r="V986" s="4"/>
+      <c r="W986" s="4"/>
+      <c r="X986" s="4"/>
+      <c r="Y986" s="4"/>
+      <c r="Z986" s="4"/>
+      <c r="AA986" s="4"/>
+      <c r="AB986" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N960" xr:uid="{C1C2CC13-2AB7-46F4-995C-CBB92B9C0254}"/>
+  <autoFilter ref="A1:N986" xr:uid="{C1C2CC13-2AB7-46F4-995C-CBB92B9C0254}"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{856D50E8-2800-4462-9BF4-0B761695A589}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{D60D2C5F-AC11-46E8-A061-9C56E63FE999}"/>
@@ -31740,6 +32520,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001CF2E9C31C1F9249AD1C5C32C883CF52" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="2446087b74f13e01ab9e6ca0cc8aa566">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f809d0f6-fdde-443e-9ae6-18ec6b857c37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f7e70fe4e704e7e2502280d2be185a" ns3:_="">
     <xsd:import namespace="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
@@ -31917,7 +32703,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -31926,13 +32712,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC0F33C4-FCBB-4F76-AAE1-7C8EB9ACF20A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31950,19 +32746,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\Downloads\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9569228C-5AF8-4E93-8A7B-F939A078B9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{9569228C-5AF8-4E93-8A7B-F939A078B9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9DDD0CA0-EE62-4285-A7A6-F76B10F61E8F}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="3072" windowWidth="30612" windowHeight="14172" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="108" yWindow="384" windowWidth="30612" windowHeight="14172" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="85">
   <si>
     <t>Kanton</t>
   </si>
@@ -750,7 +750,7 @@
   <dimension ref="A1:AB986"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5173,21 +5173,47 @@
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
     </row>
-    <row r="77" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
+    <row r="77" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="6">
+        <v>24989</v>
+      </c>
+      <c r="D77" s="6">
+        <v>0</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
+      <c r="F77" s="6">
+        <v>1539275</v>
+      </c>
+      <c r="G77" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="H77" s="6">
+        <v>0</v>
+      </c>
+      <c r="I77" s="8">
+        <v>44223</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K77" s="6">
+        <v>47.378599999999999</v>
+      </c>
+      <c r="L77" s="6">
+        <v>8.5399999999999991</v>
+      </c>
       <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
+      <c r="N77" s="6">
+        <v>0</v>
+      </c>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
@@ -32520,9 +32546,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32704,26 +32733,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -32747,9 +32765,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{9569228C-5AF8-4E93-8A7B-F939A078B9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9DDD0CA0-EE62-4285-A7A6-F76B10F61E8F}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{9569228C-5AF8-4E93-8A7B-F939A078B9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1EF55078-CBAF-4D0C-9694-B16EF02948B2}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="384" windowWidth="30612" windowHeight="14172" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="30612" windowHeight="8748" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BDD28C-CFB3-41F7-968F-C0FB8B841477}">
   <dimension ref="A1:AB986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5183,15 +5183,9 @@
       <c r="C77" s="6">
         <v>24989</v>
       </c>
-      <c r="D77" s="6">
-        <v>0</v>
-      </c>
-      <c r="E77" s="6">
-        <v>0</v>
-      </c>
-      <c r="F77" s="6">
-        <v>1539275</v>
-      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
       <c r="G77" s="6">
         <v>1.6</v>
       </c>
@@ -32546,15 +32540,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001CF2E9C31C1F9249AD1C5C32C883CF52" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="2446087b74f13e01ab9e6ca0cc8aa566">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f809d0f6-fdde-443e-9ae6-18ec6b857c37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f7e70fe4e704e7e2502280d2be185a" ns3:_="">
     <xsd:import namespace="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
@@ -32732,6 +32717,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -32739,14 +32733,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC0F33C4-FCBB-4F76-AAE1-7C8EB9ACF20A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32760,6 +32746,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{9569228C-5AF8-4E93-8A7B-F939A078B9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1EF55078-CBAF-4D0C-9694-B16EF02948B2}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{9569228C-5AF8-4E93-8A7B-F939A078B9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E53AE433-C808-481B-8FEE-D7AFCC6A217E}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="30612" windowHeight="8748" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="108" yWindow="1920" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -750,7 +750,7 @@
   <dimension ref="A1:AB986"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+      <selection activeCell="O77" sqref="O77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5189,9 +5189,7 @@
       <c r="G77" s="6">
         <v>1.6</v>
       </c>
-      <c r="H77" s="6">
-        <v>0</v>
-      </c>
+      <c r="H77" s="6"/>
       <c r="I77" s="8">
         <v>44223</v>
       </c>
@@ -5205,9 +5203,7 @@
         <v>8.5399999999999991</v>
       </c>
       <c r="M77" s="4"/>
-      <c r="N77" s="6">
-        <v>0</v>
-      </c>
+      <c r="N77" s="6"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
@@ -32540,6 +32536,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001CF2E9C31C1F9249AD1C5C32C883CF52" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="2446087b74f13e01ab9e6ca0cc8aa566">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f809d0f6-fdde-443e-9ae6-18ec6b857c37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f7e70fe4e704e7e2502280d2be185a" ns3:_="">
     <xsd:import namespace="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
@@ -32717,15 +32722,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -32733,6 +32729,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC0F33C4-FCBB-4F76-AAE1-7C8EB9ACF20A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32746,14 +32750,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{9569228C-5AF8-4E93-8A7B-F939A078B9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E53AE433-C808-481B-8FEE-D7AFCC6A217E}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{9569228C-5AF8-4E93-8A7B-F939A078B9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B29E355-51C0-454B-BE65-EA8F5600A679}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="1920" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="108" yWindow="2304" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -750,7 +750,7 @@
   <dimension ref="A1:AB986"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="O77" sqref="O77"/>
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5175,19 +5175,19 @@
     </row>
     <row r="77" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="C77" s="6">
-        <v>24989</v>
+        <v>11811</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6">
-        <v>1.6</v>
+        <v>2.34</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="8">
@@ -5197,10 +5197,10 @@
         <v>15</v>
       </c>
       <c r="K77" s="6">
-        <v>47.378599999999999</v>
+        <v>46.2</v>
       </c>
       <c r="L77" s="6">
-        <v>8.5399999999999991</v>
+        <v>6.15</v>
       </c>
       <c r="M77" s="4"/>
       <c r="N77" s="6"/>
@@ -32545,6 +32545,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001CF2E9C31C1F9249AD1C5C32C883CF52" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="2446087b74f13e01ab9e6ca0cc8aa566">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f809d0f6-fdde-443e-9ae6-18ec6b857c37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f7e70fe4e704e7e2502280d2be185a" ns3:_="">
     <xsd:import namespace="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
@@ -32722,12 +32728,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
   <ds:schemaRefs>
@@ -32737,6 +32737,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC0F33C4-FCBB-4F76-AAE1-7C8EB9ACF20A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32752,20 +32768,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{9569228C-5AF8-4E93-8A7B-F939A078B9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B29E355-51C0-454B-BE65-EA8F5600A679}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{9569228C-5AF8-4E93-8A7B-F939A078B9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1E5ED06C-D29B-4412-A446-4F6ECEBA32D7}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="2304" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="108" yWindow="2688" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BDD28C-CFB3-41F7-968F-C0FB8B841477}">
   <dimension ref="A1:AB986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2455,40 +2455,32 @@
     </row>
     <row r="30" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6">
-        <v>40403</v>
-      </c>
+        <v>11811</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
+        <v>2.34</v>
+      </c>
+      <c r="H30" s="6"/>
       <c r="I30" s="8">
-        <v>44186</v>
+        <v>44223</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K30" s="6">
-        <v>47.033099999999997</v>
+        <v>46.2</v>
       </c>
       <c r="L30" s="6">
-        <v>9.0663999999999998</v>
+        <v>6.15</v>
       </c>
       <c r="M30" s="6">
         <v>0</v>
@@ -2519,7 +2511,7 @@
         <v>41</v>
       </c>
       <c r="C31" s="6">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="D31" s="6">
         <v>0</v>
@@ -2531,13 +2523,13 @@
         <v>40403</v>
       </c>
       <c r="G31" s="6">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="H31" s="6">
         <v>0</v>
       </c>
       <c r="I31" s="8">
-        <v>44209</v>
+        <v>44186</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>15</v>
@@ -2569,7 +2561,7 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
     </row>
-    <row r="32" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>40</v>
       </c>
@@ -2577,25 +2569,25 @@
         <v>41</v>
       </c>
       <c r="C32" s="6">
-        <v>1250</v>
+        <v>900</v>
       </c>
       <c r="D32" s="6">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>40403</v>
+      </c>
+      <c r="G32" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F32" s="6">
-        <v>40590</v>
-      </c>
-      <c r="G32" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>42</v>
+      <c r="H32" s="6">
+        <v>0</v>
       </c>
       <c r="I32" s="8">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>15</v>
@@ -2627,42 +2619,42 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C33" s="6">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="D33" s="6">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E33" s="6">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F33" s="6">
-        <v>198379</v>
+        <v>40590</v>
       </c>
       <c r="G33" s="6">
-        <v>0</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>22</v>
+        <v>3.1</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="I33" s="8">
-        <v>44186</v>
+        <v>44211</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K33" s="6">
-        <v>46.8521</v>
+        <v>47.033099999999997</v>
       </c>
       <c r="L33" s="6">
-        <v>9.5297000000000001</v>
+        <v>9.0663999999999998</v>
       </c>
       <c r="M33" s="6">
         <v>0</v>
@@ -2693,7 +2685,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="6">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="D34" s="6">
         <v>0</v>
@@ -2705,13 +2697,13 @@
         <v>198379</v>
       </c>
       <c r="G34" s="6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I34" s="8">
-        <v>44209</v>
+        <v>44186</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>15</v>
@@ -2751,25 +2743,25 @@
         <v>44</v>
       </c>
       <c r="C35" s="6">
-        <v>3747</v>
+        <v>1500</v>
       </c>
       <c r="D35" s="6">
-        <v>3747</v>
+        <v>0</v>
       </c>
       <c r="E35" s="6">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F35" s="6">
-        <v>199021</v>
+        <v>198379</v>
       </c>
       <c r="G35" s="6">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I35" s="8">
-        <v>44216</v>
+        <v>44209</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>15</v>
@@ -2801,42 +2793,42 @@
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
     </row>
-    <row r="36" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" s="6">
-        <v>0</v>
+        <v>3747</v>
       </c>
       <c r="D36" s="6">
-        <v>0</v>
+        <v>3747</v>
       </c>
       <c r="E36" s="6">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F36" s="6">
-        <v>73419</v>
+        <v>199021</v>
       </c>
       <c r="G36" s="6">
-        <v>0</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>47</v>
+        <v>1.9</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="I36" s="8">
-        <v>44186</v>
+        <v>44216</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K36" s="6">
-        <v>47.365299999999998</v>
+        <v>46.8521</v>
       </c>
       <c r="L36" s="6">
-        <v>7.3472</v>
+        <v>9.5297000000000001</v>
       </c>
       <c r="M36" s="6">
         <v>0</v>
@@ -2867,7 +2859,7 @@
         <v>46</v>
       </c>
       <c r="C37" s="6">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="D37" s="6">
         <v>0</v>
@@ -2879,13 +2871,13 @@
         <v>73419</v>
       </c>
       <c r="G37" s="6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>47</v>
       </c>
       <c r="I37" s="8">
-        <v>44204</v>
+        <v>44186</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>15</v>
@@ -2925,25 +2917,25 @@
         <v>46</v>
       </c>
       <c r="C38" s="6">
-        <v>1906</v>
+        <v>520</v>
       </c>
       <c r="D38" s="6">
-        <v>958</v>
+        <v>0</v>
       </c>
       <c r="E38" s="6">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="F38" s="6">
-        <v>73584</v>
+        <v>73419</v>
       </c>
       <c r="G38" s="6">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>47</v>
       </c>
       <c r="I38" s="8">
-        <v>44213</v>
+        <v>44204</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>15</v>
@@ -2975,42 +2967,42 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
     </row>
-    <row r="39" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C39" s="6">
-        <v>0</v>
+        <v>1906</v>
       </c>
       <c r="D39" s="6">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="E39" s="6">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="F39" s="6">
-        <v>409557</v>
+        <v>73584</v>
       </c>
       <c r="G39" s="6">
-        <v>0</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0</v>
+        <v>2.6</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="I39" s="8">
-        <v>44186</v>
+        <v>44213</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K39" s="6">
-        <v>47.050199999999997</v>
+        <v>47.365299999999998</v>
       </c>
       <c r="L39" s="6">
-        <v>8.3093000000000004</v>
+        <v>7.3472</v>
       </c>
       <c r="M39" s="6">
         <v>0</v>
@@ -3033,7 +3025,7 @@
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
     </row>
-    <row r="40" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>48</v>
       </c>
@@ -3041,7 +3033,7 @@
         <v>49</v>
       </c>
       <c r="C40" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="6">
         <v>0</v>
@@ -3055,11 +3047,11 @@
       <c r="G40" s="6">
         <v>0</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>21</v>
+      <c r="H40" s="6">
+        <v>0</v>
       </c>
       <c r="I40" s="8">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>15</v>
@@ -3091,7 +3083,7 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
     </row>
-    <row r="41" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>48</v>
       </c>
@@ -3099,25 +3091,25 @@
         <v>49</v>
       </c>
       <c r="C41" s="6">
-        <v>9101</v>
+        <v>1</v>
       </c>
       <c r="D41" s="6">
-        <v>7330</v>
+        <v>0</v>
       </c>
       <c r="E41" s="6">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F41" s="6">
-        <v>413120</v>
+        <v>409557</v>
       </c>
       <c r="G41" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="I41" s="8">
-        <v>44214</v>
+        <v>44188</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>15</v>
@@ -3151,40 +3143,40 @@
     </row>
     <row r="42" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C42" s="6">
-        <v>0</v>
+        <v>9101</v>
       </c>
       <c r="D42" s="6">
-        <v>0</v>
+        <v>7330</v>
       </c>
       <c r="E42" s="6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F42" s="6">
-        <v>32819</v>
+        <v>413120</v>
       </c>
       <c r="G42" s="6">
-        <v>0</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="I42" s="8">
-        <v>44186</v>
+        <v>44214</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K42" s="6">
-        <v>46.99</v>
+        <v>47.050199999999997</v>
       </c>
       <c r="L42" s="6">
-        <v>6.9292999999999996</v>
+        <v>8.3093000000000004</v>
       </c>
       <c r="M42" s="6">
         <v>0</v>
@@ -3207,7 +3199,7 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="43" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>50</v>
       </c>
@@ -3215,25 +3207,25 @@
         <v>51</v>
       </c>
       <c r="C43" s="6">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="D43" s="6">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="E43" s="6">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F43" s="6">
-        <v>176496</v>
+        <v>32819</v>
       </c>
       <c r="G43" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>52</v>
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
       </c>
       <c r="I43" s="8">
-        <v>44217</v>
+        <v>44186</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>15</v>
@@ -3265,42 +3257,42 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
     </row>
-    <row r="44" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C44" s="6">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="D44" s="6">
-        <v>0</v>
+        <v>1908</v>
       </c>
       <c r="E44" s="6">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F44" s="6">
-        <v>43223</v>
+        <v>176496</v>
       </c>
       <c r="G44" s="6">
-        <v>0</v>
-      </c>
-      <c r="H44" s="6">
-        <v>0</v>
+        <v>1.2</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="I44" s="8">
-        <v>44186</v>
+        <v>44217</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K44" s="6">
-        <v>46.959400000000002</v>
+        <v>46.99</v>
       </c>
       <c r="L44" s="6">
-        <v>8.3666999999999998</v>
+        <v>6.9292999999999996</v>
       </c>
       <c r="M44" s="6">
         <v>0</v>
@@ -3323,7 +3315,7 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
     </row>
-    <row r="45" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>53</v>
       </c>
@@ -3331,7 +3323,7 @@
         <v>54</v>
       </c>
       <c r="C45" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D45" s="6">
         <v>0</v>
@@ -3343,10 +3335,10 @@
         <v>43223</v>
       </c>
       <c r="G45" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
       </c>
       <c r="I45" s="8">
         <v>44186</v>
@@ -3407,7 +3399,7 @@
         <v>21</v>
       </c>
       <c r="I46" s="8">
-        <v>44209</v>
+        <v>44186</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>15</v>
@@ -3439,7 +3431,7 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
     </row>
-    <row r="47" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>53</v>
       </c>
@@ -3447,7 +3439,7 @@
         <v>54</v>
       </c>
       <c r="C47" s="6">
-        <v>1950</v>
+        <v>100</v>
       </c>
       <c r="D47" s="6">
         <v>0</v>
@@ -3456,16 +3448,16 @@
         <v>0</v>
       </c>
       <c r="F47" s="6">
-        <v>43087</v>
+        <v>43223</v>
       </c>
       <c r="G47" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="H47" s="6">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="I47" s="8">
-        <v>44218</v>
+        <v>44209</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>15</v>
@@ -3497,13 +3489,13 @@
     </row>
     <row r="48" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" s="6">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="D48" s="6">
         <v>0</v>
@@ -3512,25 +3504,25 @@
         <v>0</v>
       </c>
       <c r="F48" s="6">
-        <v>37841</v>
+        <v>43087</v>
       </c>
       <c r="G48" s="6">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H48" s="6">
         <v>0</v>
       </c>
       <c r="I48" s="8">
-        <v>44186</v>
+        <v>44218</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K48" s="6">
-        <v>46.896900000000002</v>
+        <v>46.959400000000002</v>
       </c>
       <c r="L48" s="6">
-        <v>8.2469000000000001</v>
+        <v>8.3666999999999998</v>
       </c>
       <c r="M48" s="6">
         <v>0</v>
@@ -3561,7 +3553,7 @@
         <v>56</v>
       </c>
       <c r="C49" s="6">
-        <v>1865</v>
+        <v>0</v>
       </c>
       <c r="D49" s="6">
         <v>0</v>
@@ -3570,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="F49" s="6">
-        <v>37930</v>
+        <v>37841</v>
       </c>
       <c r="G49" s="6">
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H49" s="6">
         <v>0</v>
       </c>
       <c r="I49" s="8">
-        <v>44218</v>
+        <v>44186</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>15</v>
@@ -3609,15 +3601,15 @@
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
     </row>
-    <row r="50" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" s="6">
-        <v>0</v>
+        <v>1865</v>
       </c>
       <c r="D50" s="6">
         <v>0</v>
@@ -3626,25 +3618,25 @@
         <v>0</v>
       </c>
       <c r="F50" s="6">
-        <v>81991</v>
+        <v>37930</v>
       </c>
       <c r="G50" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H50" s="6">
         <v>0</v>
       </c>
-      <c r="H50" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="I50" s="8">
-        <v>44186</v>
+        <v>44218</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K50" s="6">
-        <v>47.6965</v>
+        <v>46.896900000000002</v>
       </c>
       <c r="L50" s="6">
-        <v>8.6339000000000006</v>
+        <v>8.2469000000000001</v>
       </c>
       <c r="M50" s="6">
         <v>0</v>
@@ -3675,7 +3667,7 @@
         <v>58</v>
       </c>
       <c r="C51" s="6">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="D51" s="6">
         <v>0</v>
@@ -3687,13 +3679,13 @@
         <v>81991</v>
       </c>
       <c r="G51" s="6">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>59</v>
       </c>
       <c r="I51" s="8">
-        <v>44207</v>
+        <v>44186</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>15</v>
@@ -3733,25 +3725,25 @@
         <v>58</v>
       </c>
       <c r="C52" s="6">
-        <v>3554</v>
+        <v>1400</v>
       </c>
       <c r="D52" s="6">
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="E52" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F52" s="6">
-        <v>82348</v>
+        <v>81991</v>
       </c>
       <c r="G52" s="6">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>59</v>
       </c>
       <c r="I52" s="8">
-        <v>44214</v>
+        <v>44207</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>15</v>
@@ -3783,42 +3775,42 @@
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
     </row>
-    <row r="53" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C53" s="6">
-        <v>0</v>
+        <v>3554</v>
       </c>
       <c r="D53" s="6">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="E53" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F53" s="6">
-        <v>159165</v>
+        <v>82348</v>
       </c>
       <c r="G53" s="6">
-        <v>0</v>
-      </c>
-      <c r="H53" s="6">
-        <v>0</v>
+        <v>4.3</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="I53" s="8">
-        <v>44186</v>
+        <v>44214</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K53" s="6">
-        <v>47.127800000000001</v>
+        <v>47.6965</v>
       </c>
       <c r="L53" s="6">
-        <v>8.7431000000000001</v>
+        <v>8.6339000000000006</v>
       </c>
       <c r="M53" s="6">
         <v>0</v>
@@ -3849,7 +3841,7 @@
         <v>61</v>
       </c>
       <c r="C54" s="6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D54" s="6">
         <v>0</v>
@@ -3861,13 +3853,13 @@
         <v>159165</v>
       </c>
       <c r="G54" s="6">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="H54" s="6">
         <v>0</v>
       </c>
       <c r="I54" s="8">
-        <v>44215</v>
+        <v>44186</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>15</v>
@@ -3899,7 +3891,7 @@
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>60</v>
       </c>
@@ -3907,25 +3899,25 @@
         <v>61</v>
       </c>
       <c r="C55" s="6">
-        <v>3045</v>
+        <v>2000</v>
       </c>
       <c r="D55" s="6">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="E55" s="6">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="F55" s="6">
-        <v>160480</v>
+        <v>159165</v>
       </c>
       <c r="G55" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>62</v>
+        <v>1.3</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0</v>
       </c>
       <c r="I55" s="8">
-        <v>44217</v>
+        <v>44215</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>15</v>
@@ -3957,42 +3949,42 @@
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
     </row>
-    <row r="56" spans="1:28" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C56" s="6">
-        <v>0</v>
+        <v>3045</v>
       </c>
       <c r="D56" s="6">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E56" s="6">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F56" s="6">
-        <v>273194</v>
+        <v>160480</v>
       </c>
       <c r="G56" s="6">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I56" s="8">
-        <v>44186</v>
+        <v>44217</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K56" s="6">
-        <v>47.193100000000001</v>
+        <v>47.127800000000001</v>
       </c>
       <c r="L56" s="6">
-        <v>7.3958000000000004</v>
+        <v>8.7431000000000001</v>
       </c>
       <c r="M56" s="6">
         <v>0</v>
@@ -4023,7 +4015,7 @@
         <v>64</v>
       </c>
       <c r="C57" s="6">
-        <v>5003</v>
+        <v>0</v>
       </c>
       <c r="D57" s="6">
         <v>0</v>
@@ -4035,13 +4027,13 @@
         <v>273194</v>
       </c>
       <c r="G57" s="6">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>65</v>
       </c>
       <c r="I57" s="8">
-        <v>44209</v>
+        <v>44186</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>15</v>
@@ -4081,7 +4073,7 @@
         <v>64</v>
       </c>
       <c r="C58" s="6">
-        <v>7232</v>
+        <v>5003</v>
       </c>
       <c r="D58" s="6">
         <v>0</v>
@@ -4093,13 +4085,13 @@
         <v>273194</v>
       </c>
       <c r="G58" s="6">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>65</v>
       </c>
       <c r="I58" s="8">
-        <v>44214</v>
+        <v>44209</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>15</v>
@@ -4139,25 +4131,25 @@
         <v>64</v>
       </c>
       <c r="C59" s="6">
-        <v>8500</v>
+        <v>7232</v>
       </c>
       <c r="D59" s="6">
-        <v>8808</v>
+        <v>0</v>
       </c>
       <c r="E59" s="6">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="F59" s="6">
-        <v>275247</v>
+        <v>273194</v>
       </c>
       <c r="G59" s="6">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>65</v>
       </c>
       <c r="I59" s="8">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>15</v>
@@ -4189,42 +4181,42 @@
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
     </row>
-    <row r="60" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C60" s="6">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="D60" s="6">
-        <v>0</v>
+        <v>8808</v>
       </c>
       <c r="E60" s="6">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="F60" s="6">
-        <v>507697</v>
+        <v>275247</v>
       </c>
       <c r="G60" s="6">
-        <v>0</v>
-      </c>
-      <c r="H60" s="6">
-        <v>0</v>
+        <v>3.1</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="I60" s="8">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K60" s="6">
-        <v>47.423299999999998</v>
+        <v>47.193100000000001</v>
       </c>
       <c r="L60" s="6">
-        <v>9.3772000000000002</v>
+        <v>7.3958000000000004</v>
       </c>
       <c r="M60" s="6">
         <v>0</v>
@@ -4247,7 +4239,7 @@
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
     </row>
-    <row r="61" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>66</v>
       </c>
@@ -4255,25 +4247,25 @@
         <v>67</v>
       </c>
       <c r="C61" s="6">
-        <v>7230</v>
+        <v>0</v>
       </c>
       <c r="D61" s="6">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="E61" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="6">
-        <v>510734</v>
+        <v>507697</v>
       </c>
       <c r="G61" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>68</v>
+        <v>0</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0</v>
       </c>
       <c r="I61" s="8">
-        <v>44215</v>
+        <v>44186</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>15</v>
@@ -4305,42 +4297,42 @@
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
     </row>
-    <row r="62" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C62" s="6">
-        <v>0</v>
+        <v>7230</v>
       </c>
       <c r="D62" s="6">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="E62" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="6">
-        <v>63185</v>
+        <v>510734</v>
       </c>
       <c r="G62" s="6">
-        <v>0</v>
-      </c>
-      <c r="H62" s="6">
-        <v>0</v>
+        <v>1.4</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="I62" s="8">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K62" s="6">
-        <v>46.331699999999998</v>
+        <v>47.423299999999998</v>
       </c>
       <c r="L62" s="6">
-        <v>8.8004999999999995</v>
+        <v>9.3772000000000002</v>
       </c>
       <c r="M62" s="6">
         <v>0</v>
@@ -4363,7 +4355,7 @@
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
     </row>
-    <row r="63" spans="1:28" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>69</v>
       </c>
@@ -4371,25 +4363,25 @@
         <v>70</v>
       </c>
       <c r="C63" s="6">
-        <v>10275</v>
+        <v>0</v>
       </c>
       <c r="D63" s="6">
-        <v>9530</v>
+        <v>0</v>
       </c>
       <c r="E63" s="6">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F63" s="6">
-        <v>351491</v>
+        <v>63185</v>
       </c>
       <c r="G63" s="6">
-        <v>2.9</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0</v>
       </c>
       <c r="I63" s="8">
-        <v>44214</v>
+        <v>44186</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>15</v>
@@ -4421,42 +4413,42 @@
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
     </row>
-    <row r="64" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C64" s="6">
-        <v>0</v>
+        <v>10275</v>
       </c>
       <c r="D64" s="6">
-        <v>0</v>
+        <v>9530</v>
       </c>
       <c r="E64" s="6">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="F64" s="6">
-        <v>276472</v>
+        <v>351491</v>
       </c>
       <c r="G64" s="6">
-        <v>0</v>
-      </c>
-      <c r="H64" s="6">
-        <v>0</v>
+        <v>2.9</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="I64" s="8">
-        <v>44186</v>
+        <v>44214</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K64" s="6">
-        <v>47.555799999999998</v>
+        <v>46.331699999999998</v>
       </c>
       <c r="L64" s="6">
-        <v>8.8963999999999999</v>
+        <v>8.8004999999999995</v>
       </c>
       <c r="M64" s="6">
         <v>0</v>
@@ -4487,25 +4479,25 @@
         <v>73</v>
       </c>
       <c r="C65" s="6">
-        <v>2980</v>
+        <v>0</v>
       </c>
       <c r="D65" s="6">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E65" s="6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F65" s="6">
-        <v>279547</v>
+        <v>276472</v>
       </c>
       <c r="G65" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="H65" s="6">
+        <v>0</v>
       </c>
       <c r="I65" s="8">
-        <v>44214</v>
+        <v>44186</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>15</v>
@@ -4539,40 +4531,40 @@
     </row>
     <row r="66" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C66" s="6">
-        <v>0</v>
+        <v>2980</v>
       </c>
       <c r="D66" s="6">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E66" s="6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F66" s="6">
-        <v>36433</v>
+        <v>279547</v>
       </c>
       <c r="G66" s="6">
-        <v>0</v>
-      </c>
-      <c r="H66" s="6">
-        <v>0</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="I66" s="8">
-        <v>44186</v>
+        <v>44214</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K66" s="6">
-        <v>46.880600000000001</v>
+        <v>47.555799999999998</v>
       </c>
       <c r="L66" s="6">
-        <v>8.6394000000000002</v>
+        <v>8.8963999999999999</v>
       </c>
       <c r="M66" s="6">
         <v>0</v>
@@ -4603,25 +4595,25 @@
         <v>75</v>
       </c>
       <c r="C67" s="6">
-        <v>1134</v>
+        <v>0</v>
       </c>
       <c r="D67" s="6">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="E67" s="6">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="F67" s="6">
-        <v>36703</v>
+        <v>36433</v>
       </c>
       <c r="G67" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0</v>
       </c>
       <c r="I67" s="8">
-        <v>44217</v>
+        <v>44186</v>
       </c>
       <c r="J67" s="5" t="s">
         <v>15</v>
@@ -4655,40 +4647,40 @@
     </row>
     <row r="68" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C68" s="6">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="D68" s="6">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="E68" s="6">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="F68" s="6">
-        <v>138905</v>
+        <v>36703</v>
       </c>
       <c r="G68" s="6">
-        <v>0</v>
-      </c>
-      <c r="H68" s="6">
-        <v>0</v>
+        <v>3.1</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="I68" s="8">
-        <v>44186</v>
+        <v>44217</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K68" s="6">
-        <v>46.561300000000003</v>
+        <v>46.880600000000001</v>
       </c>
       <c r="L68" s="6">
-        <v>6.5368000000000004</v>
+        <v>8.6394000000000002</v>
       </c>
       <c r="M68" s="6">
         <v>0</v>
@@ -4719,7 +4711,7 @@
         <v>77</v>
       </c>
       <c r="C69" s="6">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="D69" s="6">
         <v>0</v>
@@ -4731,13 +4723,13 @@
         <v>138905</v>
       </c>
       <c r="G69" s="6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H69" s="6">
         <v>0</v>
       </c>
       <c r="I69" s="8">
-        <v>44209</v>
+        <v>44186</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>15</v>
@@ -4777,25 +4769,25 @@
         <v>77</v>
       </c>
       <c r="C70" s="6">
-        <v>13392</v>
+        <v>5500</v>
       </c>
       <c r="D70" s="6">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="E70" s="6">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6">
+        <v>138905</v>
+      </c>
+      <c r="G70" s="6">
         <v>0.7</v>
       </c>
-      <c r="F70" s="6">
-        <v>805098</v>
-      </c>
-      <c r="G70" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>18</v>
+      <c r="H70" s="6">
+        <v>0</v>
       </c>
       <c r="I70" s="8">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>15</v>
@@ -4829,40 +4821,40 @@
     </row>
     <row r="71" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C71" s="6">
-        <v>0</v>
+        <v>13392</v>
       </c>
       <c r="D71" s="6">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="E71" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F71" s="6">
-        <v>34708</v>
+        <v>805098</v>
       </c>
       <c r="G71" s="6">
-        <v>0</v>
-      </c>
-      <c r="H71" s="6">
-        <v>0</v>
+        <v>1.7</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="I71" s="8">
-        <v>44186</v>
+        <v>44211</v>
       </c>
       <c r="J71" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K71" s="6">
-        <v>46.1905</v>
+        <v>46.561300000000003</v>
       </c>
       <c r="L71" s="6">
-        <v>7.5449000000000002</v>
+        <v>6.5368000000000004</v>
       </c>
       <c r="M71" s="6">
         <v>0</v>
@@ -4911,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="8">
-        <v>44209</v>
+        <v>44186</v>
       </c>
       <c r="J72" s="5" t="s">
         <v>15</v>
@@ -4945,10 +4937,10 @@
     </row>
     <row r="73" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C73" s="6">
         <v>0</v>
@@ -4960,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="6">
-        <v>126837</v>
+        <v>34708</v>
       </c>
       <c r="G73" s="6">
         <v>0</v>
@@ -4969,16 +4961,16 @@
         <v>0</v>
       </c>
       <c r="I73" s="8">
-        <v>44186</v>
+        <v>44209</v>
       </c>
       <c r="J73" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K73" s="6">
-        <v>47.169199999999996</v>
+        <v>46.1905</v>
       </c>
       <c r="L73" s="6">
-        <v>8.5164000000000009</v>
+        <v>7.5449000000000002</v>
       </c>
       <c r="M73" s="6">
         <v>0</v>
@@ -5001,7 +4993,7 @@
       <c r="AA73" s="4"/>
       <c r="AB73" s="4"/>
     </row>
-    <row r="74" spans="1:28" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>80</v>
       </c>
@@ -5009,25 +5001,25 @@
         <v>81</v>
       </c>
       <c r="C74" s="6">
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="D74" s="6">
-        <v>3983</v>
+        <v>0</v>
       </c>
       <c r="E74" s="6">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="6">
-        <v>127642</v>
+        <v>126837</v>
       </c>
       <c r="G74" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="H74" s="6">
+        <v>0</v>
       </c>
       <c r="I74" s="8">
-        <v>44216</v>
+        <v>44186</v>
       </c>
       <c r="J74" s="5" t="s">
         <v>15</v>
@@ -5059,42 +5051,42 @@
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
     </row>
-    <row r="75" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C75" s="6">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="D75" s="6">
-        <v>0</v>
+        <v>3983</v>
       </c>
       <c r="E75" s="6">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="F75" s="6">
-        <v>1520968</v>
+        <v>127642</v>
       </c>
       <c r="G75" s="6">
-        <v>0</v>
-      </c>
-      <c r="H75" s="6">
-        <v>0</v>
+        <v>3.7</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="I75" s="8">
-        <v>44186</v>
+        <v>44216</v>
       </c>
       <c r="J75" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K75" s="6">
-        <v>47.378599999999999</v>
+        <v>47.169199999999996</v>
       </c>
       <c r="L75" s="6">
-        <v>8.5399999999999991</v>
+        <v>8.5164000000000009</v>
       </c>
       <c r="M75" s="6">
         <v>0</v>
@@ -5125,7 +5117,7 @@
         <v>84</v>
       </c>
       <c r="C76" s="6">
-        <v>24989</v>
+        <v>0</v>
       </c>
       <c r="D76" s="6">
         <v>0</v>
@@ -5134,16 +5126,16 @@
         <v>0</v>
       </c>
       <c r="F76" s="6">
-        <v>1539275</v>
+        <v>1520968</v>
       </c>
       <c r="G76" s="6">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H76" s="6">
         <v>0</v>
       </c>
       <c r="I76" s="8">
-        <v>44218</v>
+        <v>44186</v>
       </c>
       <c r="J76" s="5" t="s">
         <v>15</v>
@@ -5175,32 +5167,40 @@
     </row>
     <row r="77" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C77" s="6">
-        <v>11811</v>
-      </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
+        <v>24989</v>
+      </c>
+      <c r="D77" s="6">
+        <v>0</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
+      <c r="F77" s="6">
+        <v>1539275</v>
+      </c>
       <c r="G77" s="6">
-        <v>2.34</v>
-      </c>
-      <c r="H77" s="6"/>
+        <v>1.6</v>
+      </c>
+      <c r="H77" s="6">
+        <v>0</v>
+      </c>
       <c r="I77" s="8">
-        <v>44223</v>
+        <v>44218</v>
       </c>
       <c r="J77" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K77" s="6">
-        <v>46.2</v>
+        <v>47.378599999999999</v>
       </c>
       <c r="L77" s="6">
-        <v>6.15</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="M77" s="4"/>
       <c r="N77" s="6"/>
@@ -32512,23 +32512,23 @@
     <hyperlink ref="H27" r:id="rId18" xr:uid="{E82B9F52-5CD2-4FDA-8EF0-5D2BBE33FD29}"/>
     <hyperlink ref="H28" r:id="rId19" xr:uid="{C0CDEA1C-5339-447C-8618-F0BD0825CE9B}"/>
     <hyperlink ref="H29" r:id="rId20" xr:uid="{C55C020D-D708-45ED-A117-118A52CB8E01}"/>
-    <hyperlink ref="H32" r:id="rId21" xr:uid="{33619C44-7B0E-4DF1-8B51-CB52C89A1264}"/>
-    <hyperlink ref="H36" r:id="rId22" xr:uid="{F65A44E5-BA73-47FE-A544-D39EEAB8E762}"/>
-    <hyperlink ref="H37" r:id="rId23" xr:uid="{7EFCA40A-86FC-4820-9409-C299AEFC15D9}"/>
-    <hyperlink ref="H38" r:id="rId24" xr:uid="{B67C69AD-5343-4A48-B7DF-1DD0686D951A}"/>
-    <hyperlink ref="H40" r:id="rId25" xr:uid="{2C044DFC-A55C-42EC-894D-37E0DE7571F5}"/>
-    <hyperlink ref="H43" r:id="rId26" xr:uid="{8812CC31-1E75-4830-9FF2-F1F6E8A4CC22}"/>
-    <hyperlink ref="H45" r:id="rId27" xr:uid="{B126C968-E70E-432E-8145-4CF8D6A7FFB7}"/>
-    <hyperlink ref="H46" r:id="rId28" xr:uid="{143FE25E-2780-4A52-987E-2315236E84E2}"/>
-    <hyperlink ref="H50" r:id="rId29" xr:uid="{BD0C506F-A44B-41E1-9AB8-E10E6AE617A1}"/>
-    <hyperlink ref="H51" r:id="rId30" xr:uid="{CA13DCCC-3ABC-4F5B-95E4-BED0633B4F19}"/>
-    <hyperlink ref="H52" r:id="rId31" xr:uid="{EAB105FE-15CA-4457-812F-42AC957BF07D}"/>
-    <hyperlink ref="H55" r:id="rId32" xr:uid="{A5B231E4-25FB-46D3-B137-E5872136B69D}"/>
-    <hyperlink ref="H56" r:id="rId33" xr:uid="{D8F6C586-A202-4798-84F0-0E138BC76D73}"/>
-    <hyperlink ref="H57" r:id="rId34" xr:uid="{BAE28F38-0846-465E-9678-E08A90F49C2B}"/>
-    <hyperlink ref="H58" r:id="rId35" xr:uid="{ACD139E0-25A4-46CE-86AC-D1A9DDF64298}"/>
-    <hyperlink ref="H59" r:id="rId36" xr:uid="{E87FD058-4E39-4FB1-AA13-DDD30A745EDC}"/>
-    <hyperlink ref="H61" r:id="rId37" xr:uid="{8B69FA6C-0EB6-470B-BB0F-B7937A30862F}"/>
+    <hyperlink ref="H33" r:id="rId21" xr:uid="{33619C44-7B0E-4DF1-8B51-CB52C89A1264}"/>
+    <hyperlink ref="H37" r:id="rId22" xr:uid="{F65A44E5-BA73-47FE-A544-D39EEAB8E762}"/>
+    <hyperlink ref="H38" r:id="rId23" xr:uid="{7EFCA40A-86FC-4820-9409-C299AEFC15D9}"/>
+    <hyperlink ref="H39" r:id="rId24" xr:uid="{B67C69AD-5343-4A48-B7DF-1DD0686D951A}"/>
+    <hyperlink ref="H41" r:id="rId25" xr:uid="{2C044DFC-A55C-42EC-894D-37E0DE7571F5}"/>
+    <hyperlink ref="H44" r:id="rId26" xr:uid="{8812CC31-1E75-4830-9FF2-F1F6E8A4CC22}"/>
+    <hyperlink ref="H46" r:id="rId27" xr:uid="{B126C968-E70E-432E-8145-4CF8D6A7FFB7}"/>
+    <hyperlink ref="H47" r:id="rId28" xr:uid="{143FE25E-2780-4A52-987E-2315236E84E2}"/>
+    <hyperlink ref="H51" r:id="rId29" xr:uid="{BD0C506F-A44B-41E1-9AB8-E10E6AE617A1}"/>
+    <hyperlink ref="H52" r:id="rId30" xr:uid="{CA13DCCC-3ABC-4F5B-95E4-BED0633B4F19}"/>
+    <hyperlink ref="H53" r:id="rId31" xr:uid="{EAB105FE-15CA-4457-812F-42AC957BF07D}"/>
+    <hyperlink ref="H56" r:id="rId32" xr:uid="{A5B231E4-25FB-46D3-B137-E5872136B69D}"/>
+    <hyperlink ref="H57" r:id="rId33" xr:uid="{D8F6C586-A202-4798-84F0-0E138BC76D73}"/>
+    <hyperlink ref="H58" r:id="rId34" xr:uid="{BAE28F38-0846-465E-9678-E08A90F49C2B}"/>
+    <hyperlink ref="H59" r:id="rId35" xr:uid="{ACD139E0-25A4-46CE-86AC-D1A9DDF64298}"/>
+    <hyperlink ref="H60" r:id="rId36" xr:uid="{E87FD058-4E39-4FB1-AA13-DDD30A745EDC}"/>
+    <hyperlink ref="H62" r:id="rId37" xr:uid="{8B69FA6C-0EB6-470B-BB0F-B7937A30862F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId38"/>
@@ -32536,21 +32536,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001CF2E9C31C1F9249AD1C5C32C883CF52" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="2446087b74f13e01ab9e6ca0cc8aa566">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f809d0f6-fdde-443e-9ae6-18ec6b857c37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f7e70fe4e704e7e2502280d2be185a" ns3:_="">
     <xsd:import namespace="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
@@ -32728,10 +32713,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC0F33C4-FCBB-4F76-AAE1-7C8EB9ACF20A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -32753,19 +32763,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC0F33C4-FCBB-4F76-AAE1-7C8EB9ACF20A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{9569228C-5AF8-4E93-8A7B-F939A078B9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1E5ED06C-D29B-4412-A446-4F6ECEBA32D7}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{9569228C-5AF8-4E93-8A7B-F939A078B9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{59204399-FAF0-45D3-82BA-F03A97D7B362}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="2688" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="108" yWindow="3072" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BDD28C-CFB3-41F7-968F-C0FB8B841477}">
   <dimension ref="A1:AB986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2412,7 +2412,7 @@
         <v>1.9</v>
       </c>
       <c r="F29" s="6">
-        <v>504128</v>
+        <v>499480</v>
       </c>
       <c r="G29" s="6">
         <v>2.1</v>
@@ -2463,9 +2463,15 @@
       <c r="C30" s="6">
         <v>11811</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>499480</v>
+      </c>
       <c r="G30" s="6">
         <v>2.34</v>
       </c>
@@ -32536,6 +32542,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001CF2E9C31C1F9249AD1C5C32C883CF52" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="2446087b74f13e01ab9e6ca0cc8aa566">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f809d0f6-fdde-443e-9ae6-18ec6b857c37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f7e70fe4e704e7e2502280d2be185a" ns3:_="">
     <xsd:import namespace="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
@@ -32713,12 +32725,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -32729,6 +32735,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC0F33C4-FCBB-4F76-AAE1-7C8EB9ACF20A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32746,22 +32768,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
   <ds:schemaRefs>

--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{9569228C-5AF8-4E93-8A7B-F939A078B9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{59204399-FAF0-45D3-82BA-F03A97D7B362}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{9569228C-5AF8-4E93-8A7B-F939A078B9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D6C5BACA-11B2-4951-88D8-70203983041D}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="3072" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="108" yWindow="3456" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$986</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$985</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="85">
   <si>
     <t>Kanton</t>
   </si>
@@ -747,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BDD28C-CFB3-41F7-968F-C0FB8B841477}">
-  <dimension ref="A1:AB986"/>
+  <dimension ref="A1:AB985"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2455,13 +2455,13 @@
     </row>
     <row r="30" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C30" s="6">
-        <v>11811</v>
+        <v>0</v>
       </c>
       <c r="D30" s="6">
         <v>0</v>
@@ -2470,23 +2470,25 @@
         <v>0</v>
       </c>
       <c r="F30" s="6">
-        <v>499480</v>
+        <v>40403</v>
       </c>
       <c r="G30" s="6">
-        <v>2.34</v>
-      </c>
-      <c r="H30" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
       <c r="I30" s="8">
-        <v>44223</v>
+        <v>44186</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K30" s="6">
-        <v>46.2</v>
+        <v>47.033099999999997</v>
       </c>
       <c r="L30" s="6">
-        <v>6.15</v>
+        <v>9.0663999999999998</v>
       </c>
       <c r="M30" s="6">
         <v>0</v>
@@ -2517,7 +2519,7 @@
         <v>41</v>
       </c>
       <c r="C31" s="6">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="D31" s="6">
         <v>0</v>
@@ -2529,13 +2531,13 @@
         <v>40403</v>
       </c>
       <c r="G31" s="6">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H31" s="6">
         <v>0</v>
       </c>
       <c r="I31" s="8">
-        <v>44186</v>
+        <v>44209</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>15</v>
@@ -2547,10 +2549,10 @@
         <v>9.0663999999999998</v>
       </c>
       <c r="M31" s="6">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="N31" s="6">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -2567,7 +2569,7 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
     </row>
-    <row r="32" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>40</v>
       </c>
@@ -2575,25 +2577,25 @@
         <v>41</v>
       </c>
       <c r="C32" s="6">
+        <v>1250</v>
+      </c>
+      <c r="D32" s="6">
         <v>900</v>
       </c>
-      <c r="D32" s="6">
-        <v>0</v>
-      </c>
       <c r="E32" s="6">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F32" s="6">
-        <v>40403</v>
+        <v>40590</v>
       </c>
       <c r="G32" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H32" s="6">
-        <v>0</v>
+        <v>3.1</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="I32" s="8">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>15</v>
@@ -2605,10 +2607,10 @@
         <v>9.0663999999999998</v>
       </c>
       <c r="M32" s="6">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="N32" s="6">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -2625,42 +2627,42 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C33" s="6">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="D33" s="6">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E33" s="6">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="F33" s="6">
-        <v>40590</v>
+        <v>198379</v>
       </c>
       <c r="G33" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="I33" s="8">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K33" s="6">
-        <v>47.033099999999997</v>
+        <v>46.8521</v>
       </c>
       <c r="L33" s="6">
-        <v>9.0663999999999998</v>
+        <v>9.5297000000000001</v>
       </c>
       <c r="M33" s="6">
         <v>0</v>
@@ -2691,7 +2693,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="6">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="D34" s="6">
         <v>0</v>
@@ -2703,13 +2705,13 @@
         <v>198379</v>
       </c>
       <c r="G34" s="6">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I34" s="8">
-        <v>44186</v>
+        <v>44209</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>15</v>
@@ -2721,10 +2723,10 @@
         <v>9.5297000000000001</v>
       </c>
       <c r="M34" s="6">
-        <v>0</v>
+        <v>3747</v>
       </c>
       <c r="N34" s="6">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -2749,25 +2751,25 @@
         <v>44</v>
       </c>
       <c r="C35" s="6">
-        <v>1500</v>
+        <v>3747</v>
       </c>
       <c r="D35" s="6">
-        <v>0</v>
+        <v>3747</v>
       </c>
       <c r="E35" s="6">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F35" s="6">
-        <v>198379</v>
+        <v>199021</v>
       </c>
       <c r="G35" s="6">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I35" s="8">
-        <v>44209</v>
+        <v>44216</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>15</v>
@@ -2779,10 +2781,10 @@
         <v>9.5297000000000001</v>
       </c>
       <c r="M35" s="6">
-        <v>3747</v>
+        <v>0</v>
       </c>
       <c r="N35" s="6">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
@@ -2799,42 +2801,42 @@
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
     </row>
-    <row r="36" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C36" s="6">
-        <v>3747</v>
+        <v>0</v>
       </c>
       <c r="D36" s="6">
-        <v>3747</v>
+        <v>0</v>
       </c>
       <c r="E36" s="6">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="F36" s="6">
-        <v>199021</v>
+        <v>73419</v>
       </c>
       <c r="G36" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="I36" s="8">
-        <v>44216</v>
+        <v>44186</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K36" s="6">
-        <v>46.8521</v>
+        <v>47.365299999999998</v>
       </c>
       <c r="L36" s="6">
-        <v>9.5297000000000001</v>
+        <v>7.3472</v>
       </c>
       <c r="M36" s="6">
         <v>0</v>
@@ -2865,7 +2867,7 @@
         <v>46</v>
       </c>
       <c r="C37" s="6">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="D37" s="6">
         <v>0</v>
@@ -2877,13 +2879,13 @@
         <v>73419</v>
       </c>
       <c r="G37" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>47</v>
       </c>
       <c r="I37" s="8">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>15</v>
@@ -2895,10 +2897,10 @@
         <v>7.3472</v>
       </c>
       <c r="M37" s="6">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="N37" s="6">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -2923,25 +2925,25 @@
         <v>46</v>
       </c>
       <c r="C38" s="6">
-        <v>520</v>
+        <v>1906</v>
       </c>
       <c r="D38" s="6">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="E38" s="6">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="F38" s="6">
-        <v>73419</v>
+        <v>73584</v>
       </c>
       <c r="G38" s="6">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>47</v>
       </c>
       <c r="I38" s="8">
-        <v>44204</v>
+        <v>44213</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>15</v>
@@ -2953,10 +2955,10 @@
         <v>7.3472</v>
       </c>
       <c r="M38" s="6">
-        <v>958</v>
+        <v>0</v>
       </c>
       <c r="N38" s="6">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
@@ -2973,42 +2975,42 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
     </row>
-    <row r="39" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C39" s="6">
-        <v>1906</v>
+        <v>0</v>
       </c>
       <c r="D39" s="6">
-        <v>958</v>
+        <v>0</v>
       </c>
       <c r="E39" s="6">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="F39" s="6">
-        <v>73584</v>
+        <v>409557</v>
       </c>
       <c r="G39" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>47</v>
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
       </c>
       <c r="I39" s="8">
-        <v>44213</v>
+        <v>44186</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K39" s="6">
-        <v>47.365299999999998</v>
+        <v>47.050199999999997</v>
       </c>
       <c r="L39" s="6">
-        <v>7.3472</v>
+        <v>8.3093000000000004</v>
       </c>
       <c r="M39" s="6">
         <v>0</v>
@@ -3031,7 +3033,7 @@
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
     </row>
-    <row r="40" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>48</v>
       </c>
@@ -3039,7 +3041,7 @@
         <v>49</v>
       </c>
       <c r="C40" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="6">
         <v>0</v>
@@ -3053,11 +3055,11 @@
       <c r="G40" s="6">
         <v>0</v>
       </c>
-      <c r="H40" s="6">
-        <v>0</v>
+      <c r="H40" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="I40" s="8">
-        <v>44186</v>
+        <v>44188</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>15</v>
@@ -3069,10 +3071,10 @@
         <v>8.3093000000000004</v>
       </c>
       <c r="M40" s="6">
-        <v>0</v>
+        <v>7330</v>
       </c>
       <c r="N40" s="6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -3089,7 +3091,7 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
     </row>
-    <row r="41" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>48</v>
       </c>
@@ -3097,25 +3099,25 @@
         <v>49</v>
       </c>
       <c r="C41" s="6">
-        <v>1</v>
+        <v>9101</v>
       </c>
       <c r="D41" s="6">
-        <v>0</v>
+        <v>7330</v>
       </c>
       <c r="E41" s="6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F41" s="6">
-        <v>409557</v>
+        <v>413120</v>
       </c>
       <c r="G41" s="6">
-        <v>0</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>21</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="I41" s="8">
-        <v>44188</v>
+        <v>44214</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>15</v>
@@ -3127,10 +3129,10 @@
         <v>8.3093000000000004</v>
       </c>
       <c r="M41" s="6">
-        <v>7330</v>
+        <v>0</v>
       </c>
       <c r="N41" s="6">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -3149,46 +3151,46 @@
     </row>
     <row r="42" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C42" s="6">
-        <v>9101</v>
+        <v>0</v>
       </c>
       <c r="D42" s="6">
-        <v>7330</v>
+        <v>0</v>
       </c>
       <c r="E42" s="6">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F42" s="6">
-        <v>413120</v>
+        <v>32819</v>
       </c>
       <c r="G42" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
       </c>
       <c r="I42" s="8">
-        <v>44214</v>
+        <v>44186</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K42" s="6">
-        <v>47.050199999999997</v>
+        <v>46.99</v>
       </c>
       <c r="L42" s="6">
-        <v>8.3093000000000004</v>
+        <v>6.9292999999999996</v>
       </c>
       <c r="M42" s="6">
-        <v>0</v>
+        <v>1908</v>
       </c>
       <c r="N42" s="6">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -3205,7 +3207,7 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="43" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>50</v>
       </c>
@@ -3213,25 +3215,25 @@
         <v>51</v>
       </c>
       <c r="C43" s="6">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="D43" s="6">
-        <v>0</v>
+        <v>1908</v>
       </c>
       <c r="E43" s="6">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F43" s="6">
-        <v>32819</v>
+        <v>176496</v>
       </c>
       <c r="G43" s="6">
-        <v>0</v>
-      </c>
-      <c r="H43" s="6">
-        <v>0</v>
+        <v>1.2</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="I43" s="8">
-        <v>44186</v>
+        <v>44217</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>15</v>
@@ -3243,10 +3245,10 @@
         <v>6.9292999999999996</v>
       </c>
       <c r="M43" s="6">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="N43" s="6">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -3263,42 +3265,42 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
     </row>
-    <row r="44" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C44" s="6">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="D44" s="6">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="E44" s="6">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F44" s="6">
-        <v>176496</v>
+        <v>43223</v>
       </c>
       <c r="G44" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>52</v>
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
       </c>
       <c r="I44" s="8">
-        <v>44217</v>
+        <v>44186</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K44" s="6">
-        <v>46.99</v>
+        <v>46.959400000000002</v>
       </c>
       <c r="L44" s="6">
-        <v>6.9292999999999996</v>
+        <v>8.3666999999999998</v>
       </c>
       <c r="M44" s="6">
         <v>0</v>
@@ -3321,7 +3323,7 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
     </row>
-    <row r="45" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>53</v>
       </c>
@@ -3329,7 +3331,7 @@
         <v>54</v>
       </c>
       <c r="C45" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D45" s="6">
         <v>0</v>
@@ -3341,10 +3343,10 @@
         <v>43223</v>
       </c>
       <c r="G45" s="6">
-        <v>0</v>
-      </c>
-      <c r="H45" s="6">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="I45" s="8">
         <v>44186</v>
@@ -3405,7 +3407,7 @@
         <v>21</v>
       </c>
       <c r="I46" s="8">
-        <v>44186</v>
+        <v>44209</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>15</v>
@@ -3416,9 +3418,7 @@
       <c r="L46" s="6">
         <v>8.3666999999999998</v>
       </c>
-      <c r="M46" s="6">
-        <v>0</v>
-      </c>
+      <c r="M46" s="4"/>
       <c r="N46" s="6">
         <v>0</v>
       </c>
@@ -3437,7 +3437,7 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
     </row>
-    <row r="47" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>53</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>54</v>
       </c>
       <c r="C47" s="6">
-        <v>100</v>
+        <v>1950</v>
       </c>
       <c r="D47" s="6">
         <v>0</v>
@@ -3454,16 +3454,16 @@
         <v>0</v>
       </c>
       <c r="F47" s="6">
-        <v>43223</v>
+        <v>43087</v>
       </c>
       <c r="G47" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>21</v>
+        <v>4.5</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0</v>
       </c>
       <c r="I47" s="8">
-        <v>44209</v>
+        <v>44218</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>15</v>
@@ -3474,7 +3474,9 @@
       <c r="L47" s="6">
         <v>8.3666999999999998</v>
       </c>
-      <c r="M47" s="4"/>
+      <c r="M47" s="6">
+        <v>0</v>
+      </c>
       <c r="N47" s="6">
         <v>0</v>
       </c>
@@ -3495,13 +3497,13 @@
     </row>
     <row r="48" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C48" s="6">
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="D48" s="6">
         <v>0</v>
@@ -3510,29 +3512,27 @@
         <v>0</v>
       </c>
       <c r="F48" s="6">
-        <v>43087</v>
+        <v>37841</v>
       </c>
       <c r="G48" s="6">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="H48" s="6">
         <v>0</v>
       </c>
       <c r="I48" s="8">
-        <v>44218</v>
+        <v>44186</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K48" s="6">
-        <v>46.959400000000002</v>
+        <v>46.896900000000002</v>
       </c>
       <c r="L48" s="6">
-        <v>8.3666999999999998</v>
-      </c>
-      <c r="M48" s="6">
-        <v>0</v>
-      </c>
+        <v>8.2469000000000001</v>
+      </c>
+      <c r="M48" s="4"/>
       <c r="N48" s="6">
         <v>0</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>56</v>
       </c>
       <c r="C49" s="6">
-        <v>0</v>
+        <v>1865</v>
       </c>
       <c r="D49" s="6">
         <v>0</v>
@@ -3568,16 +3568,16 @@
         <v>0</v>
       </c>
       <c r="F49" s="6">
-        <v>37841</v>
+        <v>37930</v>
       </c>
       <c r="G49" s="6">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H49" s="6">
         <v>0</v>
       </c>
       <c r="I49" s="8">
-        <v>44186</v>
+        <v>44218</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>15</v>
@@ -3588,7 +3588,9 @@
       <c r="L49" s="6">
         <v>8.2469000000000001</v>
       </c>
-      <c r="M49" s="4"/>
+      <c r="M49" s="6">
+        <v>0</v>
+      </c>
       <c r="N49" s="6">
         <v>0</v>
       </c>
@@ -3607,15 +3609,15 @@
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
     </row>
-    <row r="50" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C50" s="6">
-        <v>1865</v>
+        <v>0</v>
       </c>
       <c r="D50" s="6">
         <v>0</v>
@@ -3624,25 +3626,25 @@
         <v>0</v>
       </c>
       <c r="F50" s="6">
-        <v>37930</v>
+        <v>81991</v>
       </c>
       <c r="G50" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H50" s="6">
         <v>0</v>
       </c>
+      <c r="H50" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="I50" s="8">
-        <v>44218</v>
+        <v>44186</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K50" s="6">
-        <v>46.896900000000002</v>
+        <v>47.6965</v>
       </c>
       <c r="L50" s="6">
-        <v>8.2469000000000001</v>
+        <v>8.6339000000000006</v>
       </c>
       <c r="M50" s="6">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>58</v>
       </c>
       <c r="C51" s="6">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="D51" s="6">
         <v>0</v>
@@ -3685,13 +3687,13 @@
         <v>81991</v>
       </c>
       <c r="G51" s="6">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>59</v>
       </c>
       <c r="I51" s="8">
-        <v>44186</v>
+        <v>44207</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>15</v>
@@ -3703,10 +3705,10 @@
         <v>8.6339000000000006</v>
       </c>
       <c r="M51" s="6">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="N51" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -3731,25 +3733,25 @@
         <v>58</v>
       </c>
       <c r="C52" s="6">
-        <v>1400</v>
+        <v>3554</v>
       </c>
       <c r="D52" s="6">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="E52" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F52" s="6">
-        <v>81991</v>
+        <v>82348</v>
       </c>
       <c r="G52" s="6">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>59</v>
       </c>
       <c r="I52" s="8">
-        <v>44207</v>
+        <v>44214</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>15</v>
@@ -3761,10 +3763,10 @@
         <v>8.6339000000000006</v>
       </c>
       <c r="M52" s="6">
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="N52" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
@@ -3781,42 +3783,42 @@
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
     </row>
-    <row r="53" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C53" s="6">
-        <v>3554</v>
+        <v>0</v>
       </c>
       <c r="D53" s="6">
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="E53" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F53" s="6">
-        <v>82348</v>
+        <v>159165</v>
       </c>
       <c r="G53" s="6">
-        <v>4.3</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0</v>
       </c>
       <c r="I53" s="8">
-        <v>44214</v>
+        <v>44186</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K53" s="6">
-        <v>47.6965</v>
+        <v>47.127800000000001</v>
       </c>
       <c r="L53" s="6">
-        <v>8.6339000000000006</v>
+        <v>8.7431000000000001</v>
       </c>
       <c r="M53" s="6">
         <v>0</v>
@@ -3847,7 +3849,7 @@
         <v>61</v>
       </c>
       <c r="C54" s="6">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D54" s="6">
         <v>0</v>
@@ -3859,13 +3861,13 @@
         <v>159165</v>
       </c>
       <c r="G54" s="6">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H54" s="6">
         <v>0</v>
       </c>
       <c r="I54" s="8">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>15</v>
@@ -3877,10 +3879,10 @@
         <v>8.7431000000000001</v>
       </c>
       <c r="M54" s="6">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="N54" s="6">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
@@ -3897,7 +3899,7 @@
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>60</v>
       </c>
@@ -3905,25 +3907,25 @@
         <v>61</v>
       </c>
       <c r="C55" s="6">
-        <v>2000</v>
+        <v>3045</v>
       </c>
       <c r="D55" s="6">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E55" s="6">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F55" s="6">
-        <v>159165</v>
+        <v>160480</v>
       </c>
       <c r="G55" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="H55" s="6">
-        <v>0</v>
+        <v>1.9</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="I55" s="8">
-        <v>44215</v>
+        <v>44217</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>15</v>
@@ -3935,10 +3937,10 @@
         <v>8.7431000000000001</v>
       </c>
       <c r="M55" s="6">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="N55" s="6">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
@@ -3955,42 +3957,42 @@
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
     </row>
-    <row r="56" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C56" s="6">
-        <v>3045</v>
+        <v>0</v>
       </c>
       <c r="D56" s="6">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="E56" s="6">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="F56" s="6">
-        <v>160480</v>
+        <v>273194</v>
       </c>
       <c r="G56" s="6">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I56" s="8">
-        <v>44217</v>
+        <v>44186</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K56" s="6">
-        <v>47.127800000000001</v>
+        <v>47.193100000000001</v>
       </c>
       <c r="L56" s="6">
-        <v>8.7431000000000001</v>
+        <v>7.3958000000000004</v>
       </c>
       <c r="M56" s="6">
         <v>0</v>
@@ -4021,7 +4023,7 @@
         <v>64</v>
       </c>
       <c r="C57" s="6">
-        <v>0</v>
+        <v>5003</v>
       </c>
       <c r="D57" s="6">
         <v>0</v>
@@ -4033,13 +4035,13 @@
         <v>273194</v>
       </c>
       <c r="G57" s="6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>65</v>
       </c>
       <c r="I57" s="8">
-        <v>44186</v>
+        <v>44209</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>15</v>
@@ -4079,7 +4081,7 @@
         <v>64</v>
       </c>
       <c r="C58" s="6">
-        <v>5003</v>
+        <v>7232</v>
       </c>
       <c r="D58" s="6">
         <v>0</v>
@@ -4091,13 +4093,13 @@
         <v>273194</v>
       </c>
       <c r="G58" s="6">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>65</v>
       </c>
       <c r="I58" s="8">
-        <v>44209</v>
+        <v>44214</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>15</v>
@@ -4109,10 +4111,10 @@
         <v>7.3958000000000004</v>
       </c>
       <c r="M58" s="6">
-        <v>0</v>
+        <v>8808</v>
       </c>
       <c r="N58" s="6">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
@@ -4137,25 +4139,25 @@
         <v>64</v>
       </c>
       <c r="C59" s="6">
-        <v>7232</v>
+        <v>8500</v>
       </c>
       <c r="D59" s="6">
-        <v>0</v>
+        <v>8808</v>
       </c>
       <c r="E59" s="6">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="F59" s="6">
-        <v>273194</v>
+        <v>275247</v>
       </c>
       <c r="G59" s="6">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>65</v>
       </c>
       <c r="I59" s="8">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>15</v>
@@ -4167,10 +4169,10 @@
         <v>7.3958000000000004</v>
       </c>
       <c r="M59" s="6">
-        <v>8808</v>
+        <v>0</v>
       </c>
       <c r="N59" s="6">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
@@ -4187,48 +4189,48 @@
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
     </row>
-    <row r="60" spans="1:28" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C60" s="6">
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="D60" s="6">
-        <v>8808</v>
+        <v>0</v>
       </c>
       <c r="E60" s="6">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="F60" s="6">
-        <v>275247</v>
+        <v>507697</v>
       </c>
       <c r="G60" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0</v>
       </c>
       <c r="I60" s="8">
-        <v>44215</v>
+        <v>44186</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K60" s="6">
-        <v>47.193100000000001</v>
+        <v>47.423299999999998</v>
       </c>
       <c r="L60" s="6">
-        <v>7.3958000000000004</v>
+        <v>9.3772000000000002</v>
       </c>
       <c r="M60" s="6">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="N60" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
@@ -4245,7 +4247,7 @@
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
     </row>
-    <row r="61" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>66</v>
       </c>
@@ -4253,25 +4255,25 @@
         <v>67</v>
       </c>
       <c r="C61" s="6">
-        <v>0</v>
+        <v>7230</v>
       </c>
       <c r="D61" s="6">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="E61" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="6">
-        <v>507697</v>
+        <v>510734</v>
       </c>
       <c r="G61" s="6">
-        <v>0</v>
-      </c>
-      <c r="H61" s="6">
-        <v>0</v>
+        <v>1.4</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="I61" s="8">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>15</v>
@@ -4283,10 +4285,10 @@
         <v>9.3772000000000002</v>
       </c>
       <c r="M61" s="6">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="N61" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
@@ -4303,48 +4305,48 @@
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
     </row>
-    <row r="62" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C62" s="6">
-        <v>7230</v>
+        <v>0</v>
       </c>
       <c r="D62" s="6">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="E62" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="6">
-        <v>510734</v>
+        <v>63185</v>
       </c>
       <c r="G62" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>68</v>
+        <v>0</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0</v>
       </c>
       <c r="I62" s="8">
-        <v>44215</v>
+        <v>44186</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K62" s="6">
-        <v>47.423299999999998</v>
+        <v>46.331699999999998</v>
       </c>
       <c r="L62" s="6">
-        <v>9.3772000000000002</v>
+        <v>8.8004999999999995</v>
       </c>
       <c r="M62" s="6">
-        <v>0</v>
+        <v>9530</v>
       </c>
       <c r="N62" s="6">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
@@ -4361,7 +4363,7 @@
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
     </row>
-    <row r="63" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>69</v>
       </c>
@@ -4369,25 +4371,25 @@
         <v>70</v>
       </c>
       <c r="C63" s="6">
-        <v>0</v>
+        <v>10275</v>
       </c>
       <c r="D63" s="6">
-        <v>0</v>
+        <v>9530</v>
       </c>
       <c r="E63" s="6">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="F63" s="6">
-        <v>63185</v>
+        <v>351491</v>
       </c>
       <c r="G63" s="6">
-        <v>0</v>
-      </c>
-      <c r="H63" s="6">
-        <v>0</v>
+        <v>2.9</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="I63" s="8">
-        <v>44186</v>
+        <v>44214</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>15</v>
@@ -4399,10 +4401,10 @@
         <v>8.8004999999999995</v>
       </c>
       <c r="M63" s="6">
-        <v>9530</v>
+        <v>0</v>
       </c>
       <c r="N63" s="6">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
@@ -4419,48 +4421,48 @@
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
     </row>
-    <row r="64" spans="1:28" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C64" s="6">
-        <v>10275</v>
+        <v>0</v>
       </c>
       <c r="D64" s="6">
-        <v>9530</v>
+        <v>0</v>
       </c>
       <c r="E64" s="6">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F64" s="6">
-        <v>351491</v>
+        <v>276472</v>
       </c>
       <c r="G64" s="6">
-        <v>2.9</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0</v>
       </c>
       <c r="I64" s="8">
-        <v>44214</v>
+        <v>44186</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K64" s="6">
-        <v>46.331699999999998</v>
+        <v>47.555799999999998</v>
       </c>
       <c r="L64" s="6">
-        <v>8.8004999999999995</v>
+        <v>8.8963999999999999</v>
       </c>
       <c r="M64" s="6">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="N64" s="6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
@@ -4485,25 +4487,25 @@
         <v>73</v>
       </c>
       <c r="C65" s="6">
-        <v>0</v>
+        <v>2980</v>
       </c>
       <c r="D65" s="6">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E65" s="6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F65" s="6">
-        <v>276472</v>
+        <v>279547</v>
       </c>
       <c r="G65" s="6">
-        <v>0</v>
-      </c>
-      <c r="H65" s="6">
-        <v>0</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="I65" s="8">
-        <v>44186</v>
+        <v>44214</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>15</v>
@@ -4515,10 +4517,10 @@
         <v>8.8963999999999999</v>
       </c>
       <c r="M65" s="6">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="N65" s="6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
@@ -4537,46 +4539,46 @@
     </row>
     <row r="66" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C66" s="6">
-        <v>2980</v>
+        <v>0</v>
       </c>
       <c r="D66" s="6">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E66" s="6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F66" s="6">
-        <v>279547</v>
+        <v>36433</v>
       </c>
       <c r="G66" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0</v>
       </c>
       <c r="I66" s="8">
-        <v>44214</v>
+        <v>44186</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K66" s="6">
-        <v>47.555799999999998</v>
+        <v>46.880600000000001</v>
       </c>
       <c r="L66" s="6">
-        <v>8.8963999999999999</v>
+        <v>8.6394000000000002</v>
       </c>
       <c r="M66" s="6">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="N66" s="6">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
@@ -4601,25 +4603,25 @@
         <v>75</v>
       </c>
       <c r="C67" s="6">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="D67" s="6">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="E67" s="6">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="F67" s="6">
-        <v>36433</v>
+        <v>36703</v>
       </c>
       <c r="G67" s="6">
-        <v>0</v>
-      </c>
-      <c r="H67" s="6">
-        <v>0</v>
+        <v>3.1</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="I67" s="8">
-        <v>44186</v>
+        <v>44217</v>
       </c>
       <c r="J67" s="5" t="s">
         <v>15</v>
@@ -4631,10 +4633,10 @@
         <v>8.6394000000000002</v>
       </c>
       <c r="M67" s="6">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="N67" s="6">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
@@ -4653,40 +4655,40 @@
     </row>
     <row r="68" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C68" s="6">
-        <v>1134</v>
+        <v>0</v>
       </c>
       <c r="D68" s="6">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="E68" s="6">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="F68" s="6">
-        <v>36703</v>
+        <v>138905</v>
       </c>
       <c r="G68" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="H68" s="6">
+        <v>0</v>
       </c>
       <c r="I68" s="8">
-        <v>44217</v>
+        <v>44186</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K68" s="6">
-        <v>46.880600000000001</v>
+        <v>46.561300000000003</v>
       </c>
       <c r="L68" s="6">
-        <v>8.6394000000000002</v>
+        <v>6.5368000000000004</v>
       </c>
       <c r="M68" s="6">
         <v>0</v>
@@ -4717,7 +4719,7 @@
         <v>77</v>
       </c>
       <c r="C69" s="6">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="D69" s="6">
         <v>0</v>
@@ -4729,13 +4731,13 @@
         <v>138905</v>
       </c>
       <c r="G69" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H69" s="6">
         <v>0</v>
       </c>
       <c r="I69" s="8">
-        <v>44186</v>
+        <v>44209</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>15</v>
@@ -4747,10 +4749,10 @@
         <v>6.5368000000000004</v>
       </c>
       <c r="M69" s="6">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="N69" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
@@ -4775,25 +4777,25 @@
         <v>77</v>
       </c>
       <c r="C70" s="6">
+        <v>13392</v>
+      </c>
+      <c r="D70" s="6">
         <v>5500</v>
       </c>
-      <c r="D70" s="6">
-        <v>0</v>
-      </c>
       <c r="E70" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F70" s="6">
-        <v>138905</v>
+        <v>805098</v>
       </c>
       <c r="G70" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="H70" s="6">
-        <v>0</v>
+        <v>1.7</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="I70" s="8">
-        <v>44209</v>
+        <v>44211</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>15</v>
@@ -4805,10 +4807,10 @@
         <v>6.5368000000000004</v>
       </c>
       <c r="M70" s="6">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="N70" s="6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
@@ -4827,40 +4829,40 @@
     </row>
     <row r="71" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C71" s="6">
-        <v>13392</v>
+        <v>0</v>
       </c>
       <c r="D71" s="6">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="E71" s="6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F71" s="6">
-        <v>805098</v>
+        <v>34708</v>
       </c>
       <c r="G71" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="H71" s="6">
+        <v>0</v>
       </c>
       <c r="I71" s="8">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="J71" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K71" s="6">
-        <v>46.561300000000003</v>
+        <v>46.1905</v>
       </c>
       <c r="L71" s="6">
-        <v>6.5368000000000004</v>
+        <v>7.5449000000000002</v>
       </c>
       <c r="M71" s="6">
         <v>0</v>
@@ -4909,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="8">
-        <v>44186</v>
+        <v>44209</v>
       </c>
       <c r="J72" s="5" t="s">
         <v>15</v>
@@ -4943,10 +4945,10 @@
     </row>
     <row r="73" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C73" s="6">
         <v>0</v>
@@ -4958,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="6">
-        <v>34708</v>
+        <v>126837</v>
       </c>
       <c r="G73" s="6">
         <v>0</v>
@@ -4967,22 +4969,22 @@
         <v>0</v>
       </c>
       <c r="I73" s="8">
-        <v>44209</v>
+        <v>44186</v>
       </c>
       <c r="J73" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K73" s="6">
-        <v>46.1905</v>
+        <v>47.169199999999996</v>
       </c>
       <c r="L73" s="6">
-        <v>7.5449000000000002</v>
+        <v>8.5164000000000009</v>
       </c>
       <c r="M73" s="6">
-        <v>0</v>
+        <v>3983</v>
       </c>
       <c r="N73" s="6">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
@@ -4999,7 +5001,7 @@
       <c r="AA73" s="4"/>
       <c r="AB73" s="4"/>
     </row>
-    <row r="74" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>80</v>
       </c>
@@ -5007,25 +5009,25 @@
         <v>81</v>
       </c>
       <c r="C74" s="6">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="D74" s="6">
-        <v>0</v>
+        <v>3983</v>
       </c>
       <c r="E74" s="6">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="F74" s="6">
-        <v>126837</v>
+        <v>127642</v>
       </c>
       <c r="G74" s="6">
-        <v>0</v>
-      </c>
-      <c r="H74" s="6">
-        <v>0</v>
+        <v>3.7</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="I74" s="8">
-        <v>44186</v>
+        <v>44216</v>
       </c>
       <c r="J74" s="5" t="s">
         <v>15</v>
@@ -5037,10 +5039,10 @@
         <v>8.5164000000000009</v>
       </c>
       <c r="M74" s="6">
-        <v>3983</v>
+        <v>0</v>
       </c>
       <c r="N74" s="6">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
@@ -5057,46 +5059,44 @@
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
     </row>
-    <row r="75" spans="1:28" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C75" s="6">
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="D75" s="6">
-        <v>3983</v>
+        <v>0</v>
       </c>
       <c r="E75" s="6">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="6">
-        <v>127642</v>
+        <v>1520968</v>
       </c>
       <c r="G75" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="H75" s="6">
+        <v>0</v>
       </c>
       <c r="I75" s="8">
-        <v>44216</v>
+        <v>44186</v>
       </c>
       <c r="J75" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K75" s="6">
-        <v>47.169199999999996</v>
+        <v>47.378599999999999</v>
       </c>
       <c r="L75" s="6">
-        <v>8.5164000000000009</v>
-      </c>
-      <c r="M75" s="6">
-        <v>0</v>
-      </c>
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="M75" s="4"/>
       <c r="N75" s="6">
         <v>0</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>84</v>
       </c>
       <c r="C76" s="6">
-        <v>0</v>
+        <v>24989</v>
       </c>
       <c r="D76" s="6">
         <v>0</v>
@@ -5132,16 +5132,16 @@
         <v>0</v>
       </c>
       <c r="F76" s="6">
-        <v>1520968</v>
+        <v>1539275</v>
       </c>
       <c r="G76" s="6">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H76" s="6">
         <v>0</v>
       </c>
       <c r="I76" s="8">
-        <v>44186</v>
+        <v>44218</v>
       </c>
       <c r="J76" s="5" t="s">
         <v>15</v>
@@ -5153,9 +5153,7 @@
         <v>8.5399999999999991</v>
       </c>
       <c r="M76" s="4"/>
-      <c r="N76" s="6">
-        <v>0</v>
-      </c>
+      <c r="N76" s="6"/>
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
@@ -5171,45 +5169,21 @@
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
     </row>
-    <row r="77" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="6">
-        <v>24989</v>
-      </c>
-      <c r="D77" s="6">
-        <v>0</v>
-      </c>
-      <c r="E77" s="6">
-        <v>0</v>
-      </c>
-      <c r="F77" s="6">
-        <v>1539275</v>
-      </c>
-      <c r="G77" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="H77" s="6">
-        <v>0</v>
-      </c>
-      <c r="I77" s="8">
-        <v>44218</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K77" s="6">
-        <v>47.378599999999999</v>
-      </c>
-      <c r="L77" s="6">
-        <v>8.5399999999999991</v>
-      </c>
+    <row r="77" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
       <c r="M77" s="4"/>
-      <c r="N77" s="6"/>
+      <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
@@ -32465,38 +32439,8 @@
       <c r="AA985" s="4"/>
       <c r="AB985" s="4"/>
     </row>
-    <row r="986" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A986" s="4"/>
-      <c r="B986" s="4"/>
-      <c r="C986" s="4"/>
-      <c r="D986" s="4"/>
-      <c r="E986" s="4"/>
-      <c r="F986" s="4"/>
-      <c r="G986" s="4"/>
-      <c r="H986" s="4"/>
-      <c r="I986" s="4"/>
-      <c r="J986" s="4"/>
-      <c r="K986" s="4"/>
-      <c r="L986" s="4"/>
-      <c r="M986" s="4"/>
-      <c r="N986" s="4"/>
-      <c r="O986" s="4"/>
-      <c r="P986" s="4"/>
-      <c r="Q986" s="4"/>
-      <c r="R986" s="4"/>
-      <c r="S986" s="4"/>
-      <c r="T986" s="4"/>
-      <c r="U986" s="4"/>
-      <c r="V986" s="4"/>
-      <c r="W986" s="4"/>
-      <c r="X986" s="4"/>
-      <c r="Y986" s="4"/>
-      <c r="Z986" s="4"/>
-      <c r="AA986" s="4"/>
-      <c r="AB986" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:N986" xr:uid="{C1C2CC13-2AB7-46F4-995C-CBB92B9C0254}"/>
+  <autoFilter ref="A1:N985" xr:uid="{C1C2CC13-2AB7-46F4-995C-CBB92B9C0254}"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{856D50E8-2800-4462-9BF4-0B761695A589}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{D60D2C5F-AC11-46E8-A061-9C56E63FE999}"/>
@@ -32518,23 +32462,23 @@
     <hyperlink ref="H27" r:id="rId18" xr:uid="{E82B9F52-5CD2-4FDA-8EF0-5D2BBE33FD29}"/>
     <hyperlink ref="H28" r:id="rId19" xr:uid="{C0CDEA1C-5339-447C-8618-F0BD0825CE9B}"/>
     <hyperlink ref="H29" r:id="rId20" xr:uid="{C55C020D-D708-45ED-A117-118A52CB8E01}"/>
-    <hyperlink ref="H33" r:id="rId21" xr:uid="{33619C44-7B0E-4DF1-8B51-CB52C89A1264}"/>
-    <hyperlink ref="H37" r:id="rId22" xr:uid="{F65A44E5-BA73-47FE-A544-D39EEAB8E762}"/>
-    <hyperlink ref="H38" r:id="rId23" xr:uid="{7EFCA40A-86FC-4820-9409-C299AEFC15D9}"/>
-    <hyperlink ref="H39" r:id="rId24" xr:uid="{B67C69AD-5343-4A48-B7DF-1DD0686D951A}"/>
-    <hyperlink ref="H41" r:id="rId25" xr:uid="{2C044DFC-A55C-42EC-894D-37E0DE7571F5}"/>
-    <hyperlink ref="H44" r:id="rId26" xr:uid="{8812CC31-1E75-4830-9FF2-F1F6E8A4CC22}"/>
-    <hyperlink ref="H46" r:id="rId27" xr:uid="{B126C968-E70E-432E-8145-4CF8D6A7FFB7}"/>
-    <hyperlink ref="H47" r:id="rId28" xr:uid="{143FE25E-2780-4A52-987E-2315236E84E2}"/>
-    <hyperlink ref="H51" r:id="rId29" xr:uid="{BD0C506F-A44B-41E1-9AB8-E10E6AE617A1}"/>
-    <hyperlink ref="H52" r:id="rId30" xr:uid="{CA13DCCC-3ABC-4F5B-95E4-BED0633B4F19}"/>
-    <hyperlink ref="H53" r:id="rId31" xr:uid="{EAB105FE-15CA-4457-812F-42AC957BF07D}"/>
-    <hyperlink ref="H56" r:id="rId32" xr:uid="{A5B231E4-25FB-46D3-B137-E5872136B69D}"/>
-    <hyperlink ref="H57" r:id="rId33" xr:uid="{D8F6C586-A202-4798-84F0-0E138BC76D73}"/>
-    <hyperlink ref="H58" r:id="rId34" xr:uid="{BAE28F38-0846-465E-9678-E08A90F49C2B}"/>
-    <hyperlink ref="H59" r:id="rId35" xr:uid="{ACD139E0-25A4-46CE-86AC-D1A9DDF64298}"/>
-    <hyperlink ref="H60" r:id="rId36" xr:uid="{E87FD058-4E39-4FB1-AA13-DDD30A745EDC}"/>
-    <hyperlink ref="H62" r:id="rId37" xr:uid="{8B69FA6C-0EB6-470B-BB0F-B7937A30862F}"/>
+    <hyperlink ref="H32" r:id="rId21" xr:uid="{33619C44-7B0E-4DF1-8B51-CB52C89A1264}"/>
+    <hyperlink ref="H36" r:id="rId22" xr:uid="{F65A44E5-BA73-47FE-A544-D39EEAB8E762}"/>
+    <hyperlink ref="H37" r:id="rId23" xr:uid="{7EFCA40A-86FC-4820-9409-C299AEFC15D9}"/>
+    <hyperlink ref="H38" r:id="rId24" xr:uid="{B67C69AD-5343-4A48-B7DF-1DD0686D951A}"/>
+    <hyperlink ref="H40" r:id="rId25" xr:uid="{2C044DFC-A55C-42EC-894D-37E0DE7571F5}"/>
+    <hyperlink ref="H43" r:id="rId26" xr:uid="{8812CC31-1E75-4830-9FF2-F1F6E8A4CC22}"/>
+    <hyperlink ref="H45" r:id="rId27" xr:uid="{B126C968-E70E-432E-8145-4CF8D6A7FFB7}"/>
+    <hyperlink ref="H46" r:id="rId28" xr:uid="{143FE25E-2780-4A52-987E-2315236E84E2}"/>
+    <hyperlink ref="H50" r:id="rId29" xr:uid="{BD0C506F-A44B-41E1-9AB8-E10E6AE617A1}"/>
+    <hyperlink ref="H51" r:id="rId30" xr:uid="{CA13DCCC-3ABC-4F5B-95E4-BED0633B4F19}"/>
+    <hyperlink ref="H52" r:id="rId31" xr:uid="{EAB105FE-15CA-4457-812F-42AC957BF07D}"/>
+    <hyperlink ref="H55" r:id="rId32" xr:uid="{A5B231E4-25FB-46D3-B137-E5872136B69D}"/>
+    <hyperlink ref="H56" r:id="rId33" xr:uid="{D8F6C586-A202-4798-84F0-0E138BC76D73}"/>
+    <hyperlink ref="H57" r:id="rId34" xr:uid="{BAE28F38-0846-465E-9678-E08A90F49C2B}"/>
+    <hyperlink ref="H58" r:id="rId35" xr:uid="{ACD139E0-25A4-46CE-86AC-D1A9DDF64298}"/>
+    <hyperlink ref="H59" r:id="rId36" xr:uid="{E87FD058-4E39-4FB1-AA13-DDD30A745EDC}"/>
+    <hyperlink ref="H61" r:id="rId37" xr:uid="{8B69FA6C-0EB6-470B-BB0F-B7937A30862F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId38"/>
@@ -32542,9 +32486,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32726,26 +32673,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -32769,9 +32705,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{9569228C-5AF8-4E93-8A7B-F939A078B9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D6C5BACA-11B2-4951-88D8-70203983041D}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D94DC7A-C27F-400C-AE8F-2F4BAF410D10}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="3456" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$985</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$986</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -747,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BDD28C-CFB3-41F7-968F-C0FB8B841477}">
-  <dimension ref="A1:AB985"/>
+  <dimension ref="A1:AB986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2412,7 +2412,7 @@
         <v>1.9</v>
       </c>
       <c r="F29" s="6">
-        <v>499480</v>
+        <v>504128</v>
       </c>
       <c r="G29" s="6">
         <v>2.1</v>
@@ -2549,10 +2549,10 @@
         <v>9.0663999999999998</v>
       </c>
       <c r="M31" s="6">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="N31" s="6">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -2607,10 +2607,10 @@
         <v>9.0663999999999998</v>
       </c>
       <c r="M32" s="6">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="N32" s="6">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -2723,10 +2723,10 @@
         <v>9.5297000000000001</v>
       </c>
       <c r="M34" s="6">
-        <v>3747</v>
+        <v>0</v>
       </c>
       <c r="N34" s="6">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -2781,10 +2781,10 @@
         <v>9.5297000000000001</v>
       </c>
       <c r="M35" s="6">
-        <v>0</v>
+        <v>3747</v>
       </c>
       <c r="N35" s="6">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
@@ -2897,10 +2897,10 @@
         <v>7.3472</v>
       </c>
       <c r="M37" s="6">
-        <v>958</v>
+        <v>0</v>
       </c>
       <c r="N37" s="6">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -2955,10 +2955,10 @@
         <v>7.3472</v>
       </c>
       <c r="M38" s="6">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="N38" s="6">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
@@ -3071,10 +3071,10 @@
         <v>8.3093000000000004</v>
       </c>
       <c r="M40" s="6">
-        <v>7330</v>
+        <v>0</v>
       </c>
       <c r="N40" s="6">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -3129,10 +3129,10 @@
         <v>8.3093000000000004</v>
       </c>
       <c r="M41" s="6">
-        <v>0</v>
+        <v>7330</v>
       </c>
       <c r="N41" s="6">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -3187,10 +3187,10 @@
         <v>6.9292999999999996</v>
       </c>
       <c r="M42" s="6">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="N42" s="6">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -3245,10 +3245,10 @@
         <v>6.9292999999999996</v>
       </c>
       <c r="M43" s="6">
-        <v>0</v>
+        <v>1908</v>
       </c>
       <c r="N43" s="6">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -3418,7 +3418,9 @@
       <c r="L46" s="6">
         <v>8.3666999999999998</v>
       </c>
-      <c r="M46" s="4"/>
+      <c r="M46" s="6">
+        <v>0</v>
+      </c>
       <c r="N46" s="6">
         <v>0</v>
       </c>
@@ -3474,9 +3476,7 @@
       <c r="L47" s="6">
         <v>8.3666999999999998</v>
       </c>
-      <c r="M47" s="6">
-        <v>0</v>
-      </c>
+      <c r="M47" s="4"/>
       <c r="N47" s="6">
         <v>0</v>
       </c>
@@ -3532,7 +3532,9 @@
       <c r="L48" s="6">
         <v>8.2469000000000001</v>
       </c>
-      <c r="M48" s="4"/>
+      <c r="M48" s="6">
+        <v>0</v>
+      </c>
       <c r="N48" s="6">
         <v>0</v>
       </c>
@@ -3588,9 +3590,7 @@
       <c r="L49" s="6">
         <v>8.2469000000000001</v>
       </c>
-      <c r="M49" s="6">
-        <v>0</v>
-      </c>
+      <c r="M49" s="4"/>
       <c r="N49" s="6">
         <v>0</v>
       </c>
@@ -3705,10 +3705,10 @@
         <v>8.6339000000000006</v>
       </c>
       <c r="M51" s="6">
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="N51" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -3763,10 +3763,10 @@
         <v>8.6339000000000006</v>
       </c>
       <c r="M52" s="6">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="N52" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
@@ -3879,10 +3879,10 @@
         <v>8.7431000000000001</v>
       </c>
       <c r="M54" s="6">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="N54" s="6">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
@@ -3937,10 +3937,10 @@
         <v>8.7431000000000001</v>
       </c>
       <c r="M55" s="6">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="N55" s="6">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
@@ -4111,10 +4111,10 @@
         <v>7.3958000000000004</v>
       </c>
       <c r="M58" s="6">
-        <v>8808</v>
+        <v>0</v>
       </c>
       <c r="N58" s="6">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
@@ -4169,10 +4169,10 @@
         <v>7.3958000000000004</v>
       </c>
       <c r="M59" s="6">
-        <v>0</v>
+        <v>8808</v>
       </c>
       <c r="N59" s="6">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
@@ -4227,10 +4227,10 @@
         <v>9.3772000000000002</v>
       </c>
       <c r="M60" s="6">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="N60" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
@@ -4285,10 +4285,10 @@
         <v>9.3772000000000002</v>
       </c>
       <c r="M61" s="6">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="N61" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
@@ -4343,10 +4343,10 @@
         <v>8.8004999999999995</v>
       </c>
       <c r="M62" s="6">
-        <v>9530</v>
+        <v>0</v>
       </c>
       <c r="N62" s="6">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
@@ -4401,10 +4401,10 @@
         <v>8.8004999999999995</v>
       </c>
       <c r="M63" s="6">
-        <v>0</v>
+        <v>9530</v>
       </c>
       <c r="N63" s="6">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
@@ -4459,10 +4459,10 @@
         <v>8.8963999999999999</v>
       </c>
       <c r="M64" s="6">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="N64" s="6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
@@ -4517,10 +4517,10 @@
         <v>8.8963999999999999</v>
       </c>
       <c r="M65" s="6">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="N65" s="6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
@@ -4575,10 +4575,10 @@
         <v>8.6394000000000002</v>
       </c>
       <c r="M66" s="6">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="N66" s="6">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
@@ -4633,10 +4633,10 @@
         <v>8.6394000000000002</v>
       </c>
       <c r="M67" s="6">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="N67" s="6">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
@@ -4749,10 +4749,10 @@
         <v>6.5368000000000004</v>
       </c>
       <c r="M69" s="6">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="N69" s="6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
@@ -4807,10 +4807,10 @@
         <v>6.5368000000000004</v>
       </c>
       <c r="M70" s="6">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="N70" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
@@ -4981,10 +4981,10 @@
         <v>8.5164000000000009</v>
       </c>
       <c r="M73" s="6">
-        <v>3983</v>
+        <v>0</v>
       </c>
       <c r="N73" s="6">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
@@ -5039,10 +5039,10 @@
         <v>8.5164000000000009</v>
       </c>
       <c r="M74" s="6">
-        <v>0</v>
+        <v>3983</v>
       </c>
       <c r="N74" s="6">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
@@ -5096,7 +5096,9 @@
       <c r="L75" s="6">
         <v>8.5399999999999991</v>
       </c>
-      <c r="M75" s="4"/>
+      <c r="M75" s="6">
+        <v>0</v>
+      </c>
       <c r="N75" s="6">
         <v>0</v>
       </c>
@@ -5153,7 +5155,9 @@
         <v>8.5399999999999991</v>
       </c>
       <c r="M76" s="4"/>
-      <c r="N76" s="6"/>
+      <c r="N76" s="6">
+        <v>0</v>
+      </c>
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
@@ -32439,8 +32443,38 @@
       <c r="AA985" s="4"/>
       <c r="AB985" s="4"/>
     </row>
+    <row r="986" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A986" s="4"/>
+      <c r="B986" s="4"/>
+      <c r="C986" s="4"/>
+      <c r="D986" s="4"/>
+      <c r="E986" s="4"/>
+      <c r="F986" s="4"/>
+      <c r="G986" s="4"/>
+      <c r="H986" s="4"/>
+      <c r="I986" s="4"/>
+      <c r="J986" s="4"/>
+      <c r="K986" s="4"/>
+      <c r="L986" s="4"/>
+      <c r="M986" s="4"/>
+      <c r="N986" s="4"/>
+      <c r="O986" s="4"/>
+      <c r="P986" s="4"/>
+      <c r="Q986" s="4"/>
+      <c r="R986" s="4"/>
+      <c r="S986" s="4"/>
+      <c r="T986" s="4"/>
+      <c r="U986" s="4"/>
+      <c r="V986" s="4"/>
+      <c r="W986" s="4"/>
+      <c r="X986" s="4"/>
+      <c r="Y986" s="4"/>
+      <c r="Z986" s="4"/>
+      <c r="AA986" s="4"/>
+      <c r="AB986" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N985" xr:uid="{C1C2CC13-2AB7-46F4-995C-CBB92B9C0254}"/>
+  <autoFilter ref="A1:N986" xr:uid="{C1C2CC13-2AB7-46F4-995C-CBB92B9C0254}"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{856D50E8-2800-4462-9BF4-0B761695A589}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{D60D2C5F-AC11-46E8-A061-9C56E63FE999}"/>
@@ -32486,6 +32520,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -32494,7 +32534,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001CF2E9C31C1F9249AD1C5C32C883CF52" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="2446087b74f13e01ab9e6ca0cc8aa566">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f809d0f6-fdde-443e-9ae6-18ec6b857c37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f7e70fe4e704e7e2502280d2be185a" ns3:_="">
     <xsd:import namespace="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
@@ -32672,13 +32712,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -32686,7 +32729,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC0F33C4-FCBB-4F76-AAE1-7C8EB9ACF20A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32702,20 +32745,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4D94DC7A-C27F-400C-AE8F-2F4BAF410D10}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9BF762D-D8F5-443A-80FC-35669D8B9EB7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="108" yWindow="384" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="85">
   <si>
     <t>Kanton</t>
   </si>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BDD28C-CFB3-41F7-968F-C0FB8B841477}">
   <dimension ref="A1:AB986"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5173,21 +5173,47 @@
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
     </row>
-    <row r="77" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
+    <row r="77" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="6">
+        <v>44444</v>
+      </c>
+      <c r="D77" s="6">
+        <v>0</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
+      <c r="F77" s="6">
+        <v>1539275</v>
+      </c>
+      <c r="G77" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="H77" s="6">
+        <v>0</v>
+      </c>
+      <c r="I77" s="8">
+        <v>44223</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K77" s="6">
+        <v>47.378599999999999</v>
+      </c>
+      <c r="L77" s="6">
+        <v>8.5399999999999991</v>
+      </c>
       <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
+      <c r="N77" s="6">
+        <v>0</v>
+      </c>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
@@ -32520,21 +32546,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001CF2E9C31C1F9249AD1C5C32C883CF52" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="2446087b74f13e01ab9e6ca0cc8aa566">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f809d0f6-fdde-443e-9ae6-18ec6b857c37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f7e70fe4e704e7e2502280d2be185a" ns3:_="">
     <xsd:import namespace="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
@@ -32712,24 +32723,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC0F33C4-FCBB-4F76-AAE1-7C8EB9ACF20A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32745,4 +32754,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9BF762D-D8F5-443A-80FC-35669D8B9EB7}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{13200298-B4E1-4D73-94F3-47688758C0EF}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="384" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="108" yWindow="768" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="85">
   <si>
     <t>Kanton</t>
   </si>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BDD28C-CFB3-41F7-968F-C0FB8B841477}">
   <dimension ref="A1:AB986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5193,7 +5193,7 @@
         <v>1539275</v>
       </c>
       <c r="G77" s="6">
-        <v>1.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H77" s="6">
         <v>0</v>
@@ -5229,21 +5229,49 @@
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
     </row>
-    <row r="78" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
+    <row r="78" spans="1:28" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="6">
+        <v>33333</v>
+      </c>
+      <c r="D78" s="6">
+        <v>3983</v>
+      </c>
+      <c r="E78" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="F78" s="6">
+        <v>127642</v>
+      </c>
+      <c r="G78" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I78" s="8">
+        <v>44223</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K78" s="6">
+        <v>47.169199999999996</v>
+      </c>
+      <c r="L78" s="6">
+        <v>8.5164000000000009</v>
+      </c>
+      <c r="M78" s="6">
+        <v>3983</v>
+      </c>
+      <c r="N78" s="6">
+        <v>3.1</v>
+      </c>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
@@ -32546,6 +32574,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001CF2E9C31C1F9249AD1C5C32C883CF52" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="2446087b74f13e01ab9e6ca0cc8aa566">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f809d0f6-fdde-443e-9ae6-18ec6b857c37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f7e70fe4e704e7e2502280d2be185a" ns3:_="">
     <xsd:import namespace="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
@@ -32723,15 +32760,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -32739,6 +32767,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC0F33C4-FCBB-4F76-AAE1-7C8EB9ACF20A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32756,14 +32792,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
   <ds:schemaRefs>

--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{13200298-B4E1-4D73-94F3-47688758C0EF}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{558A8458-1BBE-4E81-9CF1-3B5D07785FB0}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="768" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="108" yWindow="1152" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="cantons" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$986</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$N$986</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="86">
   <si>
     <t>Kanton</t>
   </si>
@@ -292,6 +293,9 @@
   <si>
     <t>ZH</t>
   </si>
+  <si>
+    <t>VS</t>
+  </si>
 </sst>
 </file>
 
@@ -325,15 +329,27 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -401,12 +417,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -430,6 +459,36 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -749,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BDD28C-CFB3-41F7-968F-C0FB8B841477}">
   <dimension ref="A1:AB986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -32573,13 +32632,565 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853DA390-1C54-4673-BB29-536296CAFCB8}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6">
+        <v>685845</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="14">
+        <v>47.392299999999999</v>
+      </c>
+      <c r="F2" s="14">
+        <v>8.0446000000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6">
+        <v>55445</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14">
+        <v>47.366500000000002</v>
+      </c>
+      <c r="F3" s="14">
+        <v>9.3001000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6">
+        <v>16128</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="14">
+        <v>47.316200000000002</v>
+      </c>
+      <c r="F4" s="14">
+        <v>9.4316999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6">
+        <v>289468</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="14">
+        <v>47.441800000000001</v>
+      </c>
+      <c r="F5" s="14">
+        <v>7.7644000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6">
+        <v>195844</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="14">
+        <v>47.560600000000001</v>
+      </c>
+      <c r="F6" s="14">
+        <v>7.5906000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1039474</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="14">
+        <v>46.948</v>
+      </c>
+      <c r="F7" s="14">
+        <v>7.4474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6">
+        <v>321783</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="14">
+        <v>46.8</v>
+      </c>
+      <c r="F8" s="14">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6">
+        <v>504128</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="14">
+        <v>46.2</v>
+      </c>
+      <c r="F9" s="14">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6">
+        <v>40590</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="14">
+        <v>47.033099999999997</v>
+      </c>
+      <c r="F10" s="14">
+        <v>9.0663999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6">
+        <v>199021</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="14">
+        <v>46.8521</v>
+      </c>
+      <c r="F11" s="14">
+        <v>9.5297000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="6">
+        <v>73584</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="14">
+        <v>47.365299999999998</v>
+      </c>
+      <c r="F12" s="14">
+        <v>7.3472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="6">
+        <v>413120</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="14">
+        <v>47.050199999999997</v>
+      </c>
+      <c r="F13" s="14">
+        <v>8.3093000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="6">
+        <v>176496</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="14">
+        <v>46.99</v>
+      </c>
+      <c r="F14" s="14">
+        <v>6.9292999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="6">
+        <v>43087</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="14">
+        <v>46.959400000000002</v>
+      </c>
+      <c r="F15" s="14">
+        <v>8.3666999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="6">
+        <v>37930</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="14">
+        <v>46.896900000000002</v>
+      </c>
+      <c r="F16" s="14">
+        <v>8.2469000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="6">
+        <v>82348</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="14">
+        <v>47.6965</v>
+      </c>
+      <c r="F17" s="14">
+        <v>8.6339000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="6">
+        <v>160480</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="14">
+        <v>47.127800000000001</v>
+      </c>
+      <c r="F18" s="14">
+        <v>8.7431000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="6">
+        <v>275247</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="14">
+        <v>47.193100000000001</v>
+      </c>
+      <c r="F19" s="14">
+        <v>7.3958000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="6">
+        <v>510734</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="14">
+        <v>47.423299999999998</v>
+      </c>
+      <c r="F20" s="14">
+        <v>9.3772000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="6">
+        <v>351491</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="14">
+        <v>46.331699999999998</v>
+      </c>
+      <c r="F21" s="14">
+        <v>8.8004999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="6">
+        <v>279547</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="14">
+        <v>47.555799999999998</v>
+      </c>
+      <c r="F22" s="14">
+        <v>8.8963999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="6">
+        <v>36703</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="14">
+        <v>46.880600000000001</v>
+      </c>
+      <c r="F23" s="14">
+        <v>8.6394000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="6">
+        <v>805098</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="14">
+        <v>46.561300000000003</v>
+      </c>
+      <c r="F24" s="14">
+        <v>6.5368000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="6">
+        <v>34708</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="14">
+        <v>46.1905</v>
+      </c>
+      <c r="F25" s="14">
+        <v>7.5449000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="6">
+        <v>127642</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="14">
+        <v>47.169199999999996</v>
+      </c>
+      <c r="F26" s="14">
+        <v>8.5164000000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="16">
+        <v>1539275</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="18">
+        <v>47.378599999999999</v>
+      </c>
+      <c r="F27" s="18">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32761,15 +33372,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -32793,10 +33408,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{558A8458-1BBE-4E81-9CF1-3B5D07785FB0}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CD347C1D-8EBC-4737-AC0E-19DDAD83202F}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="1152" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="108" yWindow="3072" windowWidth="30612" windowHeight="11796" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BDD28C-CFB3-41F7-968F-C0FB8B841477}">
   <dimension ref="A1:AB986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5305,6 +5305,7 @@
         <v>3.1</v>
       </c>
       <c r="F78" s="6">
+        <f>VLOOKUP($A78,cantons!$A$2:$F$27,3)</f>
         <v>127642</v>
       </c>
       <c r="G78" s="6">
@@ -5320,9 +5321,11 @@
         <v>15</v>
       </c>
       <c r="K78" s="6">
+        <f>VLOOKUP($A78,cantons!$A$2:$F$27,5)</f>
         <v>47.169199999999996</v>
       </c>
       <c r="L78" s="6">
+        <f>VLOOKUP($A78,cantons!$A$2:$F$27,6)</f>
         <v>8.5164000000000009</v>
       </c>
       <c r="M78" s="6">
@@ -33188,9 +33191,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33372,19 +33378,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33408,9 +33410,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CD347C1D-8EBC-4737-AC0E-19DDAD83202F}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{33A5753C-E411-4A04-A133-924C0B676E8E}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="3072" windowWidth="30612" windowHeight="11796" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="48" yWindow="72" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="cantons" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$N$986</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$N$984</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="86">
   <si>
     <t>Kanton</t>
   </si>
@@ -435,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -490,6 +490,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -806,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BDD28C-CFB3-41F7-968F-C0FB8B841477}">
-  <dimension ref="A1:AB986"/>
+  <dimension ref="A1:AB984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="M78" sqref="M78"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5193,6 +5196,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="6">
+        <f>VLOOKUP($A76,cantons!$A$2:$F$27,3)</f>
         <v>1539275</v>
       </c>
       <c r="G76" s="6">
@@ -5233,46 +5237,41 @@
       <c r="AB76" s="4"/>
     </row>
     <row r="77" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="6">
-        <v>44444</v>
-      </c>
-      <c r="D77" s="6">
-        <v>0</v>
-      </c>
-      <c r="E77" s="6">
-        <v>0</v>
-      </c>
+      <c r="A77" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="4">
+        <v>11811</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
       <c r="F77" s="6">
-        <v>1539275</v>
-      </c>
-      <c r="G77" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H77" s="6">
-        <v>0</v>
-      </c>
-      <c r="I77" s="8">
+        <f>VLOOKUP($A77,cantons!$A$2:$F$27,3)</f>
+        <v>504128</v>
+      </c>
+      <c r="G77" s="4">
+        <v>2.34</v>
+      </c>
+      <c r="H77" s="4"/>
+      <c r="I77" s="19">
         <v>44223</v>
       </c>
       <c r="J77" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K77" s="6">
-        <v>47.378599999999999</v>
+        <f>VLOOKUP($A77,cantons!$A$2:$F$27,5)</f>
+        <v>46.2</v>
       </c>
       <c r="L77" s="6">
-        <v>8.5399999999999991</v>
+        <f>VLOOKUP($A77,cantons!$A$2:$F$27,6)</f>
+        <v>6.15</v>
       </c>
       <c r="M77" s="4"/>
-      <c r="N77" s="6">
-        <v>0</v>
-      </c>
+      <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
@@ -5288,52 +5287,40 @@
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
     </row>
-    <row r="78" spans="1:28" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78" s="6">
-        <v>33333</v>
-      </c>
-      <c r="D78" s="6">
-        <v>3983</v>
-      </c>
-      <c r="E78" s="6">
-        <v>3.1</v>
-      </c>
+    <row r="78" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="4">
+        <v>15847</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
       <c r="F78" s="6">
         <f>VLOOKUP($A78,cantons!$A$2:$F$27,3)</f>
-        <v>127642</v>
-      </c>
-      <c r="G78" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I78" s="8">
+        <v>805098</v>
+      </c>
+      <c r="G78" s="4">
+        <v>1.97</v>
+      </c>
+      <c r="H78" s="4"/>
+      <c r="I78" s="19">
         <v>44223</v>
       </c>
-      <c r="J78" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="J78" s="4"/>
       <c r="K78" s="6">
         <f>VLOOKUP($A78,cantons!$A$2:$F$27,5)</f>
-        <v>47.169199999999996</v>
+        <v>46.561300000000003</v>
       </c>
       <c r="L78" s="6">
         <f>VLOOKUP($A78,cantons!$A$2:$F$27,6)</f>
-        <v>8.5164000000000009</v>
-      </c>
-      <c r="M78" s="6">
-        <v>3983</v>
-      </c>
-      <c r="N78" s="6">
-        <v>3.1</v>
-      </c>
+        <v>6.5368000000000004</v>
+      </c>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
@@ -32529,68 +32516,8 @@
       <c r="AA984" s="4"/>
       <c r="AB984" s="4"/>
     </row>
-    <row r="985" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A985" s="4"/>
-      <c r="B985" s="4"/>
-      <c r="C985" s="4"/>
-      <c r="D985" s="4"/>
-      <c r="E985" s="4"/>
-      <c r="F985" s="4"/>
-      <c r="G985" s="4"/>
-      <c r="H985" s="4"/>
-      <c r="I985" s="4"/>
-      <c r="J985" s="4"/>
-      <c r="K985" s="4"/>
-      <c r="L985" s="4"/>
-      <c r="M985" s="4"/>
-      <c r="N985" s="4"/>
-      <c r="O985" s="4"/>
-      <c r="P985" s="4"/>
-      <c r="Q985" s="4"/>
-      <c r="R985" s="4"/>
-      <c r="S985" s="4"/>
-      <c r="T985" s="4"/>
-      <c r="U985" s="4"/>
-      <c r="V985" s="4"/>
-      <c r="W985" s="4"/>
-      <c r="X985" s="4"/>
-      <c r="Y985" s="4"/>
-      <c r="Z985" s="4"/>
-      <c r="AA985" s="4"/>
-      <c r="AB985" s="4"/>
-    </row>
-    <row r="986" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A986" s="4"/>
-      <c r="B986" s="4"/>
-      <c r="C986" s="4"/>
-      <c r="D986" s="4"/>
-      <c r="E986" s="4"/>
-      <c r="F986" s="4"/>
-      <c r="G986" s="4"/>
-      <c r="H986" s="4"/>
-      <c r="I986" s="4"/>
-      <c r="J986" s="4"/>
-      <c r="K986" s="4"/>
-      <c r="L986" s="4"/>
-      <c r="M986" s="4"/>
-      <c r="N986" s="4"/>
-      <c r="O986" s="4"/>
-      <c r="P986" s="4"/>
-      <c r="Q986" s="4"/>
-      <c r="R986" s="4"/>
-      <c r="S986" s="4"/>
-      <c r="T986" s="4"/>
-      <c r="U986" s="4"/>
-      <c r="V986" s="4"/>
-      <c r="W986" s="4"/>
-      <c r="X986" s="4"/>
-      <c r="Y986" s="4"/>
-      <c r="Z986" s="4"/>
-      <c r="AA986" s="4"/>
-      <c r="AB986" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:N986" xr:uid="{C1C2CC13-2AB7-46F4-995C-CBB92B9C0254}"/>
+  <autoFilter ref="A1:N984" xr:uid="{C1C2CC13-2AB7-46F4-995C-CBB92B9C0254}"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{856D50E8-2800-4462-9BF4-0B761695A589}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{D60D2C5F-AC11-46E8-A061-9C56E63FE999}"/>
@@ -33191,12 +33118,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33378,15 +33302,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33410,10 +33338,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{33A5753C-E411-4A04-A133-924C0B676E8E}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{429D6A04-1882-4796-AD97-4DD3F0951A3E}"/>
   <bookViews>
-    <workbookView xWindow="48" yWindow="72" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="-108" yWindow="336" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="86">
   <si>
     <t>Kanton</t>
   </si>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BDD28C-CFB3-41F7-968F-C0FB8B841477}">
   <dimension ref="A1:AB984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5310,7 +5310,9 @@
       <c r="I78" s="19">
         <v>44223</v>
       </c>
-      <c r="J78" s="4"/>
+      <c r="J78" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="K78" s="6">
         <f>VLOOKUP($A78,cantons!$A$2:$F$27,5)</f>
         <v>46.561300000000003</v>
@@ -5336,19 +5338,40 @@
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
     </row>
-    <row r="79" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
+    <row r="79" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="4">
+        <v>10210</v>
+      </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
+      <c r="F79" s="6">
+        <f>VLOOKUP($A79,cantons!$A$2:$F$27,3)</f>
+        <v>34708</v>
+      </c>
+      <c r="G79" s="4">
+        <v>2.95</v>
+      </c>
       <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
+      <c r="I79" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K79" s="6">
+        <f>VLOOKUP($A79,cantons!$A$2:$F$27,5)</f>
+        <v>46.1905</v>
+      </c>
+      <c r="L79" s="6">
+        <f>VLOOKUP($A79,cantons!$A$2:$F$27,6)</f>
+        <v>7.5449000000000002</v>
+      </c>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -5366,19 +5389,40 @@
       <c r="AA79" s="4"/>
       <c r="AB79" s="4"/>
     </row>
-    <row r="80" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
+    <row r="80" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="4">
+        <v>6084</v>
+      </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+      <c r="F80" s="6">
+        <f>VLOOKUP($A80,cantons!$A$2:$F$27,3)</f>
+        <v>321783</v>
+      </c>
+      <c r="G80" s="4">
+        <v>1.89</v>
+      </c>
       <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
+      <c r="I80" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K80" s="6">
+        <f>VLOOKUP($A80,cantons!$A$2:$F$27,5)</f>
+        <v>46.8</v>
+      </c>
+      <c r="L80" s="6">
+        <f>VLOOKUP($A80,cantons!$A$2:$F$27,6)</f>
+        <v>7.15</v>
+      </c>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -5396,19 +5440,40 @@
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
     </row>
-    <row r="81" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
+    <row r="81" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="4">
+        <v>2585</v>
+      </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
+      <c r="F81" s="6">
+        <f>VLOOKUP($A81,cantons!$A$2:$F$27,3)</f>
+        <v>176496</v>
+      </c>
+      <c r="G81" s="4">
+        <v>1.46</v>
+      </c>
       <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
+      <c r="I81" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K81" s="6">
+        <f>VLOOKUP($A81,cantons!$A$2:$F$27,5)</f>
+        <v>46.99</v>
+      </c>
+      <c r="L81" s="6">
+        <f>VLOOKUP($A81,cantons!$A$2:$F$27,6)</f>
+        <v>6.9292999999999996</v>
+      </c>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -5426,19 +5491,40 @@
       <c r="AA81" s="4"/>
       <c r="AB81" s="4"/>
     </row>
-    <row r="82" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+    <row r="82" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="4">
+        <v>2032</v>
+      </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
+      <c r="F82" s="6">
+        <f>VLOOKUP($A82,cantons!$A$2:$F$27,3)</f>
+        <v>73584</v>
+      </c>
+      <c r="G82" s="4">
+        <v>2.76</v>
+      </c>
       <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
+      <c r="I82" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K82" s="6">
+        <f>VLOOKUP($A82,cantons!$A$2:$F$27,5)</f>
+        <v>47.365299999999998</v>
+      </c>
+      <c r="L82" s="6">
+        <f>VLOOKUP($A82,cantons!$A$2:$F$27,6)</f>
+        <v>7.3472</v>
+      </c>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -5456,19 +5542,40 @@
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
     </row>
-    <row r="83" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+    <row r="83" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" s="4">
+        <v>14308</v>
+      </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
+      <c r="F83" s="6">
+        <f>VLOOKUP($A83,cantons!$A$2:$F$27,3)</f>
+        <v>1039474</v>
+      </c>
+      <c r="G83" s="4">
+        <v>1.38</v>
+      </c>
       <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
+      <c r="I83" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K83" s="6">
+        <f>VLOOKUP($A83,cantons!$A$2:$F$27,5)</f>
+        <v>46.948</v>
+      </c>
+      <c r="L83" s="6">
+        <f>VLOOKUP($A83,cantons!$A$2:$F$27,6)</f>
+        <v>7.4474</v>
+      </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -5486,19 +5593,40 @@
       <c r="AA83" s="4"/>
       <c r="AB83" s="4"/>
     </row>
-    <row r="84" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+    <row r="84" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="4">
+        <v>10234</v>
+      </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
+      <c r="F84" s="6">
+        <f>VLOOKUP($A84,cantons!$A$2:$F$27,3)</f>
+        <v>275247</v>
+      </c>
+      <c r="G84" s="4">
+        <v>3.72</v>
+      </c>
       <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
+      <c r="I84" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K84" s="6">
+        <f>VLOOKUP($A84,cantons!$A$2:$F$27,5)</f>
+        <v>47.193100000000001</v>
+      </c>
+      <c r="L84" s="6">
+        <f>VLOOKUP($A84,cantons!$A$2:$F$27,6)</f>
+        <v>7.3958000000000004</v>
+      </c>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
@@ -5516,19 +5644,40 @@
       <c r="AA84" s="4"/>
       <c r="AB84" s="4"/>
     </row>
-    <row r="85" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
+    <row r="85" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="4">
+        <v>10890</v>
+      </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
+      <c r="F85" s="6">
+        <f>VLOOKUP($A85,cantons!$A$2:$F$27,3)</f>
+        <v>195844</v>
+      </c>
+      <c r="G85" s="4">
+        <v>5.56</v>
+      </c>
       <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
+      <c r="I85" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K85" s="6">
+        <f>VLOOKUP($A85,cantons!$A$2:$F$27,5)</f>
+        <v>47.560600000000001</v>
+      </c>
+      <c r="L85" s="6">
+        <f>VLOOKUP($A85,cantons!$A$2:$F$27,6)</f>
+        <v>7.5906000000000002</v>
+      </c>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -5546,19 +5695,40 @@
       <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
     </row>
-    <row r="86" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
+    <row r="86" spans="1:28" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="4">
+        <v>8315</v>
+      </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
+      <c r="F86" s="6">
+        <f>VLOOKUP($A86,cantons!$A$2:$F$27,3)</f>
+        <v>289468</v>
+      </c>
+      <c r="G86" s="4">
+        <v>2.87</v>
+      </c>
       <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
+      <c r="I86" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K86" s="6">
+        <f>VLOOKUP($A86,cantons!$A$2:$F$27,5)</f>
+        <v>47.441800000000001</v>
+      </c>
+      <c r="L86" s="6">
+        <f>VLOOKUP($A86,cantons!$A$2:$F$27,6)</f>
+        <v>7.7644000000000002</v>
+      </c>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
@@ -5576,19 +5746,40 @@
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
     </row>
-    <row r="87" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
+    <row r="87" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="4">
+        <v>12973</v>
+      </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
+      <c r="F87" s="6">
+        <f>VLOOKUP($A87,cantons!$A$2:$F$27,3)</f>
+        <v>685845</v>
+      </c>
+      <c r="G87" s="4">
+        <v>1.89</v>
+      </c>
       <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
+      <c r="I87" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K87" s="6">
+        <f>VLOOKUP($A87,cantons!$A$2:$F$27,5)</f>
+        <v>47.392299999999999</v>
+      </c>
+      <c r="L87" s="6">
+        <f>VLOOKUP($A87,cantons!$A$2:$F$27,6)</f>
+        <v>8.0446000000000009</v>
+      </c>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -5606,19 +5797,40 @@
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
     </row>
-    <row r="88" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
+    <row r="88" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="4">
+        <v>25528</v>
+      </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
+      <c r="F88" s="6">
+        <f>VLOOKUP($A88,cantons!$A$2:$F$27,3)</f>
+        <v>1539275</v>
+      </c>
+      <c r="G88" s="4">
+        <v>1.66</v>
+      </c>
       <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
+      <c r="I88" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K88" s="6">
+        <f>VLOOKUP($A88,cantons!$A$2:$F$27,5)</f>
+        <v>47.378599999999999</v>
+      </c>
+      <c r="L88" s="6">
+        <f>VLOOKUP($A88,cantons!$A$2:$F$27,6)</f>
+        <v>8.5399999999999991</v>
+      </c>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -5636,19 +5848,40 @@
       <c r="AA88" s="4"/>
       <c r="AB88" s="4"/>
     </row>
-    <row r="89" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
+    <row r="89" spans="1:28" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" s="4">
+        <v>3982</v>
+      </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
+      <c r="F89" s="6">
+        <f>VLOOKUP($A89,cantons!$A$2:$F$27,3)</f>
+        <v>82348</v>
+      </c>
+      <c r="G89" s="4">
+        <v>4.84</v>
+      </c>
       <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
+      <c r="I89" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K89" s="6">
+        <f>VLOOKUP($A89,cantons!$A$2:$F$27,5)</f>
+        <v>47.6965</v>
+      </c>
+      <c r="L89" s="6">
+        <f>VLOOKUP($A89,cantons!$A$2:$F$27,6)</f>
+        <v>8.6339000000000006</v>
+      </c>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
@@ -5666,19 +5899,40 @@
       <c r="AA89" s="4"/>
       <c r="AB89" s="4"/>
     </row>
-    <row r="90" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
+    <row r="90" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" s="4">
+        <v>4072</v>
+      </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+      <c r="F90" s="6">
+        <f>VLOOKUP($A90,cantons!$A$2:$F$27,3)</f>
+        <v>279547</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1.46</v>
+      </c>
       <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
+      <c r="I90" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K90" s="6">
+        <f>VLOOKUP($A90,cantons!$A$2:$F$27,5)</f>
+        <v>47.555799999999998</v>
+      </c>
+      <c r="L90" s="6">
+        <f>VLOOKUP($A90,cantons!$A$2:$F$27,6)</f>
+        <v>8.8963999999999999</v>
+      </c>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
@@ -5696,19 +5950,40 @@
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
     </row>
-    <row r="91" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
+    <row r="91" spans="1:28" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="4">
+        <v>2349</v>
+      </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
+      <c r="F91" s="6">
+        <f>VLOOKUP($A91,cantons!$A$2:$F$27,3)</f>
+        <v>55445</v>
+      </c>
+      <c r="G91" s="4">
+        <v>4.24</v>
+      </c>
       <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
+      <c r="I91" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K91" s="6">
+        <f>VLOOKUP($A91,cantons!$A$2:$F$27,5)</f>
+        <v>47.366500000000002</v>
+      </c>
+      <c r="L91" s="6">
+        <f>VLOOKUP($A91,cantons!$A$2:$F$27,6)</f>
+        <v>9.3001000000000005</v>
+      </c>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
@@ -5726,19 +6001,40 @@
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
     </row>
-    <row r="92" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+    <row r="92" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="4">
+        <v>917</v>
+      </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
+      <c r="F92" s="6">
+        <f>VLOOKUP($A92,cantons!$A$2:$F$27,3)</f>
+        <v>16128</v>
+      </c>
+      <c r="G92" s="4">
+        <v>5.69</v>
+      </c>
       <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
+      <c r="I92" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K92" s="6">
+        <f>VLOOKUP($A92,cantons!$A$2:$F$27,5)</f>
+        <v>47.316200000000002</v>
+      </c>
+      <c r="L92" s="6">
+        <f>VLOOKUP($A92,cantons!$A$2:$F$27,6)</f>
+        <v>9.4316999999999993</v>
+      </c>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
@@ -5756,19 +6052,40 @@
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
     </row>
-    <row r="93" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
+    <row r="93" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" s="4">
+        <v>8870</v>
+      </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
+      <c r="F93" s="6">
+        <f>VLOOKUP($A93,cantons!$A$2:$F$27,3)</f>
+        <v>510734</v>
+      </c>
+      <c r="G93" s="4">
+        <v>1.74</v>
+      </c>
       <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
+      <c r="I93" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K93" s="6">
+        <f>VLOOKUP($A93,cantons!$A$2:$F$27,5)</f>
+        <v>47.423299999999998</v>
+      </c>
+      <c r="L93" s="6">
+        <f>VLOOKUP($A93,cantons!$A$2:$F$27,6)</f>
+        <v>9.3772000000000002</v>
+      </c>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
@@ -5786,19 +6103,40 @@
       <c r="AA93" s="4"/>
       <c r="AB93" s="4"/>
     </row>
-    <row r="94" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
+    <row r="94" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C94" s="4">
+        <v>1540</v>
+      </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
+      <c r="F94" s="6">
+        <f>VLOOKUP($A94,cantons!$A$2:$F$27,3)</f>
+        <v>40590</v>
+      </c>
+      <c r="G94" s="4">
+        <v>3.79</v>
+      </c>
       <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
+      <c r="I94" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K94" s="6">
+        <f>VLOOKUP($A94,cantons!$A$2:$F$27,5)</f>
+        <v>47.033099999999997</v>
+      </c>
+      <c r="L94" s="6">
+        <f>VLOOKUP($A94,cantons!$A$2:$F$27,6)</f>
+        <v>9.0663999999999998</v>
+      </c>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
@@ -5816,19 +6154,40 @@
       <c r="AA94" s="4"/>
       <c r="AB94" s="4"/>
     </row>
-    <row r="95" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
+    <row r="95" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" s="4">
+        <v>3250</v>
+      </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
+      <c r="F95" s="6">
+        <f>VLOOKUP($A95,cantons!$A$2:$F$27,3)</f>
+        <v>160480</v>
+      </c>
+      <c r="G95" s="4">
+        <v>2.0299999999999998</v>
+      </c>
       <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
+      <c r="I95" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K95" s="6">
+        <f>VLOOKUP($A95,cantons!$A$2:$F$27,5)</f>
+        <v>47.127800000000001</v>
+      </c>
+      <c r="L95" s="6">
+        <f>VLOOKUP($A95,cantons!$A$2:$F$27,6)</f>
+        <v>8.7431000000000001</v>
+      </c>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
@@ -5846,19 +6205,40 @@
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>
     </row>
-    <row r="96" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
+    <row r="96" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" s="4">
+        <v>6599</v>
+      </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
+      <c r="F96" s="6">
+        <f>VLOOKUP($A96,cantons!$A$2:$F$27,3)</f>
+        <v>127642</v>
+      </c>
+      <c r="G96" s="4">
+        <v>5.17</v>
+      </c>
       <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
+      <c r="I96" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K96" s="6">
+        <f>VLOOKUP($A96,cantons!$A$2:$F$27,5)</f>
+        <v>47.169199999999996</v>
+      </c>
+      <c r="L96" s="6">
+        <f>VLOOKUP($A96,cantons!$A$2:$F$27,6)</f>
+        <v>8.5164000000000009</v>
+      </c>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -5876,19 +6256,40 @@
       <c r="AA96" s="4"/>
       <c r="AB96" s="4"/>
     </row>
-    <row r="97" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
+    <row r="97" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="4">
+        <v>11241</v>
+      </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
+      <c r="F97" s="6">
+        <f>VLOOKUP($A97,cantons!$A$2:$F$27,3)</f>
+        <v>413120</v>
+      </c>
+      <c r="G97" s="4">
+        <v>2.72</v>
+      </c>
       <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
+      <c r="I97" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K97" s="6">
+        <f>VLOOKUP($A97,cantons!$A$2:$F$27,5)</f>
+        <v>47.050199999999997</v>
+      </c>
+      <c r="L97" s="6">
+        <f>VLOOKUP($A97,cantons!$A$2:$F$27,6)</f>
+        <v>8.3093000000000004</v>
+      </c>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -5906,19 +6307,40 @@
       <c r="AA97" s="4"/>
       <c r="AB97" s="4"/>
     </row>
-    <row r="98" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
+    <row r="98" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" s="4">
+        <v>3218</v>
+      </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
+      <c r="F98" s="6">
+        <f>VLOOKUP($A98,cantons!$A$2:$F$27,3)</f>
+        <v>43087</v>
+      </c>
+      <c r="G98" s="4">
+        <v>7.47</v>
+      </c>
       <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
+      <c r="I98" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K98" s="6">
+        <f>VLOOKUP($A98,cantons!$A$2:$F$27,5)</f>
+        <v>46.959400000000002</v>
+      </c>
+      <c r="L98" s="6">
+        <f>VLOOKUP($A98,cantons!$A$2:$F$27,6)</f>
+        <v>8.3666999999999998</v>
+      </c>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -5936,19 +6358,40 @@
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
     </row>
-    <row r="99" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
+    <row r="99" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" s="4">
+        <v>1866</v>
+      </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
+      <c r="F99" s="6">
+        <f>VLOOKUP($A99,cantons!$A$2:$F$27,3)</f>
+        <v>37930</v>
+      </c>
+      <c r="G99" s="4">
+        <v>4.92</v>
+      </c>
       <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
+      <c r="I99" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K99" s="6">
+        <f>VLOOKUP($A99,cantons!$A$2:$F$27,5)</f>
+        <v>46.896900000000002</v>
+      </c>
+      <c r="L99" s="6">
+        <f>VLOOKUP($A99,cantons!$A$2:$F$27,6)</f>
+        <v>8.2469000000000001</v>
+      </c>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -5966,19 +6409,40 @@
       <c r="AA99" s="4"/>
       <c r="AB99" s="4"/>
     </row>
-    <row r="100" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
+    <row r="100" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C100" s="4">
+        <v>1361</v>
+      </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
+      <c r="F100" s="6">
+        <f>VLOOKUP($A100,cantons!$A$2:$F$27,3)</f>
+        <v>36703</v>
+      </c>
+      <c r="G100" s="4">
+        <v>3.71</v>
+      </c>
       <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
+      <c r="I100" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K100" s="6">
+        <f>VLOOKUP($A100,cantons!$A$2:$F$27,5)</f>
+        <v>46.880600000000001</v>
+      </c>
+      <c r="L100" s="6">
+        <f>VLOOKUP($A100,cantons!$A$2:$F$27,6)</f>
+        <v>8.6394000000000002</v>
+      </c>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
@@ -5996,19 +6460,40 @@
       <c r="AA100" s="4"/>
       <c r="AB100" s="4"/>
     </row>
-    <row r="101" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
+    <row r="101" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" s="4">
+        <v>4316</v>
+      </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
+      <c r="F101" s="6">
+        <f>VLOOKUP($A101,cantons!$A$2:$F$27,3)</f>
+        <v>199021</v>
+      </c>
+      <c r="G101" s="4">
+        <v>2.17</v>
+      </c>
       <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
+      <c r="I101" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K101" s="6">
+        <f>VLOOKUP($A101,cantons!$A$2:$F$27,5)</f>
+        <v>46.8521</v>
+      </c>
+      <c r="L101" s="6">
+        <f>VLOOKUP($A101,cantons!$A$2:$F$27,6)</f>
+        <v>9.5297000000000001</v>
+      </c>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
@@ -6026,19 +6511,40 @@
       <c r="AA101" s="4"/>
       <c r="AB101" s="4"/>
     </row>
-    <row r="102" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
+    <row r="102" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C102" s="4">
+        <v>11815</v>
+      </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
+      <c r="F102" s="6">
+        <f>VLOOKUP($A102,cantons!$A$2:$F$27,3)</f>
+        <v>351491</v>
+      </c>
+      <c r="G102" s="4">
+        <v>3.36</v>
+      </c>
       <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
+      <c r="I102" s="19">
+        <v>44223</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K102" s="6">
+        <f>VLOOKUP($A102,cantons!$A$2:$F$27,5)</f>
+        <v>46.331699999999998</v>
+      </c>
+      <c r="L102" s="6">
+        <f>VLOOKUP($A102,cantons!$A$2:$F$27,6)</f>
+        <v>8.8004999999999995</v>
+      </c>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
@@ -33118,9 +33624,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33302,19 +33811,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33338,9 +33843,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E83ACA9-CB22-4C15-A915-C631D60E03AA}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{74C7DD1D-3304-4812-A64C-8D7C5D3150C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2CEFA362-787F-4229-A7B2-E5C5E013D240}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="384" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
+    <workbookView xWindow="36" yWindow="6264" windowWidth="30612" windowHeight="7920" xr2:uid="{16EBA8E4-356C-4694-A5C4-65D71FEB7AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -874,11 +874,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BDD28C-CFB3-41F7-968F-C0FB8B841477}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AB984"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F990" sqref="F990"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -957,7 +958,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="80.400000000000006" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
@@ -1017,7 +1018,7 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" ht="80.400000000000006" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -1077,7 +1078,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
@@ -1137,7 +1138,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -1197,7 +1198,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
@@ -1257,7 +1258,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="80.400000000000006" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
@@ -1317,7 +1318,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
@@ -1377,7 +1378,7 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
@@ -1437,7 +1438,7 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
@@ -1497,7 +1498,7 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>23</v>
       </c>
@@ -1557,7 +1558,7 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" ht="199.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="199.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
@@ -1617,7 +1618,7 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>26</v>
       </c>
@@ -1677,7 +1678,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
@@ -1737,7 +1738,7 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:28" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>26</v>
       </c>
@@ -1797,7 +1798,7 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:28" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>26</v>
       </c>
@@ -1857,7 +1858,7 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
     </row>
-    <row r="17" spans="1:28" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" ht="409.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>26</v>
       </c>
@@ -1917,7 +1918,7 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="54" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>29</v>
       </c>
@@ -1977,7 +1978,7 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="54" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>29</v>
       </c>
@@ -2037,7 +2038,7 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" ht="54" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>29</v>
       </c>
@@ -2097,7 +2098,7 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="54" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>29</v>
       </c>
@@ -2157,7 +2158,7 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="54" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>29</v>
       </c>
@@ -2217,7 +2218,7 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" ht="67.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>33</v>
       </c>
@@ -2277,7 +2278,7 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="67.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>33</v>
       </c>
@@ -2337,7 +2338,7 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:28" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="87" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>33</v>
       </c>
@@ -2397,7 +2398,7 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" ht="54" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>37</v>
       </c>
@@ -2457,7 +2458,7 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" ht="54" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>37</v>
       </c>
@@ -2517,7 +2518,7 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" ht="54" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>37</v>
       </c>
@@ -2577,7 +2578,7 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
     </row>
-    <row r="29" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" ht="54" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>37</v>
       </c>
@@ -2637,7 +2638,7 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>40</v>
       </c>
@@ -2697,7 +2698,7 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
     </row>
-    <row r="31" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>40</v>
       </c>
@@ -2757,7 +2758,7 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="1:28" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="54" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>40</v>
       </c>
@@ -2817,7 +2818,7 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>43</v>
       </c>
@@ -2877,7 +2878,7 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
     </row>
-    <row r="34" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>43</v>
       </c>
@@ -2937,7 +2938,7 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
     </row>
-    <row r="35" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>43</v>
       </c>
@@ -2997,7 +2998,7 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" ht="80.400000000000006" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>45</v>
       </c>
@@ -3057,7 +3058,7 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
     </row>
-    <row r="37" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" ht="80.400000000000006" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>45</v>
       </c>
@@ -3117,7 +3118,7 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
     </row>
-    <row r="38" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="80.400000000000006" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>45</v>
       </c>
@@ -3177,7 +3178,7 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
     </row>
-    <row r="39" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>48</v>
       </c>
@@ -3237,7 +3238,7 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
     </row>
-    <row r="40" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="80.400000000000006" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>48</v>
       </c>
@@ -3297,7 +3298,7 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
     </row>
-    <row r="41" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>48</v>
       </c>
@@ -3357,7 +3358,7 @@
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
     </row>
-    <row r="42" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>50</v>
       </c>
@@ -3417,7 +3418,7 @@
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
     </row>
-    <row r="43" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" ht="93.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>50</v>
       </c>
@@ -3477,7 +3478,7 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
     </row>
-    <row r="44" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>53</v>
       </c>
@@ -3537,7 +3538,7 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
     </row>
-    <row r="45" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" ht="80.400000000000006" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>53</v>
       </c>
@@ -3597,7 +3598,7 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
     </row>
-    <row r="46" spans="1:28" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" ht="80.400000000000006" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>53</v>
       </c>
@@ -3657,7 +3658,7 @@
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
     </row>
-    <row r="47" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>53</v>
       </c>
@@ -3715,7 +3716,7 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
     </row>
-    <row r="48" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>55</v>
       </c>
@@ -3775,7 +3776,7 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
     </row>
-    <row r="49" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>55</v>
       </c>
@@ -3833,7 +3834,7 @@
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
     </row>
-    <row r="50" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" ht="93.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>57</v>
       </c>
@@ -3893,7 +3894,7 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
     </row>
-    <row r="51" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" ht="93.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>57</v>
       </c>
@@ -3953,7 +3954,7 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
     </row>
-    <row r="52" spans="1:28" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" ht="93.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>57</v>
       </c>
@@ -4013,7 +4014,7 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
     </row>
-    <row r="53" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>60</v>
       </c>
@@ -4073,7 +4074,7 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
     </row>
-    <row r="54" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>60</v>
       </c>
@@ -4133,7 +4134,7 @@
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
     </row>
-    <row r="55" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" ht="67.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>60</v>
       </c>
@@ -4193,7 +4194,7 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
     </row>
-    <row r="56" spans="1:28" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" ht="40.799999999999997" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>63</v>
       </c>
@@ -4253,7 +4254,7 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
     </row>
-    <row r="57" spans="1:28" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" ht="40.799999999999997" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>63</v>
       </c>
@@ -4313,7 +4314,7 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
     </row>
-    <row r="58" spans="1:28" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" ht="40.799999999999997" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>63</v>
       </c>
@@ -4373,7 +4374,7 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
     </row>
-    <row r="59" spans="1:28" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" ht="40.799999999999997" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>63</v>
       </c>
@@ -4433,7 +4434,7 @@
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
     </row>
-    <row r="60" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>66</v>
       </c>
@@ -4493,7 +4494,7 @@
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
     </row>
-    <row r="61" spans="1:28" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" ht="67.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>66</v>
       </c>
@@ -4553,7 +4554,7 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
     </row>
-    <row r="62" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
         <v>69</v>
       </c>
@@ -4613,7 +4614,7 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
     </row>
-    <row r="63" spans="1:28" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" ht="87" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>69</v>
       </c>
@@ -4673,7 +4674,7 @@
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
     </row>
-    <row r="64" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>72</v>
       </c>
@@ -4733,7 +4734,7 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
     </row>
-    <row r="65" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>72</v>
       </c>
@@ -4793,7 +4794,7 @@
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
     </row>
-    <row r="66" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>74</v>
       </c>
@@ -4853,7 +4854,7 @@
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
     </row>
-    <row r="67" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>74</v>
       </c>
@@ -4913,7 +4914,7 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
     </row>
-    <row r="68" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>76</v>
       </c>
@@ -4973,7 +4974,7 @@
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
     </row>
-    <row r="69" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>76</v>
       </c>
@@ -5033,7 +5034,7 @@
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
     </row>
-    <row r="70" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>76</v>
       </c>
@@ -5112,7 +5113,7 @@
       </c>
       <c r="F71" s="11">
         <f>VLOOKUP($A71,cantons!$A$2:$F$27,3)</f>
-        <v>34708</v>
+        <v>343955</v>
       </c>
       <c r="G71" s="15">
         <v>0</v>
@@ -5172,7 +5173,7 @@
       </c>
       <c r="F72" s="11">
         <f>VLOOKUP($A72,cantons!$A$2:$F$27,3)</f>
-        <v>34708</v>
+        <v>343955</v>
       </c>
       <c r="G72" s="15">
         <v>0</v>
@@ -5213,7 +5214,7 @@
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
     </row>
-    <row r="73" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>79</v>
       </c>
@@ -5273,7 +5274,7 @@
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
     </row>
-    <row r="74" spans="1:28" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" ht="115.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
         <v>79</v>
       </c>
@@ -5333,7 +5334,7 @@
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
     </row>
-    <row r="75" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
         <v>82</v>
       </c>
@@ -5393,7 +5394,7 @@
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
     </row>
-    <row r="76" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>82</v>
       </c>
@@ -5451,7 +5452,7 @@
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
     </row>
-    <row r="77" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="18" t="s">
         <v>37</v>
       </c>
@@ -5503,7 +5504,7 @@
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
     </row>
-    <row r="78" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="18" t="s">
         <v>76</v>
       </c>
@@ -5570,7 +5571,7 @@
       <c r="E79" s="3"/>
       <c r="F79" s="11">
         <f>VLOOKUP($A79,cantons!$A$2:$F$27,3)</f>
-        <v>34708</v>
+        <v>343955</v>
       </c>
       <c r="G79" s="16">
         <v>2.95</v>
@@ -5607,7 +5608,7 @@
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
     </row>
-    <row r="80" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="s">
         <v>33</v>
       </c>
@@ -5659,7 +5660,7 @@
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
     </row>
-    <row r="81" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="s">
         <v>50</v>
       </c>
@@ -5711,7 +5712,7 @@
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
     </row>
-    <row r="82" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
         <v>45</v>
       </c>
@@ -5763,7 +5764,7 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
     </row>
-    <row r="83" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="s">
         <v>29</v>
       </c>
@@ -5815,7 +5816,7 @@
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
     </row>
-    <row r="84" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="s">
         <v>63</v>
       </c>
@@ -5867,7 +5868,7 @@
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
     </row>
-    <row r="85" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="s">
         <v>26</v>
       </c>
@@ -5919,7 +5920,7 @@
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
     </row>
-    <row r="86" spans="1:28" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="s">
         <v>23</v>
       </c>
@@ -5971,7 +5972,7 @@
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
     </row>
-    <row r="87" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="s">
         <v>12</v>
       </c>
@@ -6023,7 +6024,7 @@
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
     </row>
-    <row r="88" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
         <v>82</v>
       </c>
@@ -6075,7 +6076,7 @@
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
     </row>
-    <row r="89" spans="1:28" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="s">
         <v>57</v>
       </c>
@@ -6127,7 +6128,7 @@
       <c r="AA89" s="3"/>
       <c r="AB89" s="3"/>
     </row>
-    <row r="90" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="s">
         <v>72</v>
       </c>
@@ -6179,7 +6180,7 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
     </row>
-    <row r="91" spans="1:28" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="s">
         <v>16</v>
       </c>
@@ -6231,7 +6232,7 @@
       <c r="AA91" s="3"/>
       <c r="AB91" s="3"/>
     </row>
-    <row r="92" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="18" t="s">
         <v>19</v>
       </c>
@@ -6283,7 +6284,7 @@
       <c r="AA92" s="3"/>
       <c r="AB92" s="3"/>
     </row>
-    <row r="93" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
         <v>66</v>
       </c>
@@ -6335,7 +6336,7 @@
       <c r="AA93" s="3"/>
       <c r="AB93" s="3"/>
     </row>
-    <row r="94" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
         <v>40</v>
       </c>
@@ -6387,7 +6388,7 @@
       <c r="AA94" s="3"/>
       <c r="AB94" s="3"/>
     </row>
-    <row r="95" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
         <v>60</v>
       </c>
@@ -6439,7 +6440,7 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
     </row>
-    <row r="96" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
         <v>79</v>
       </c>
@@ -6491,7 +6492,7 @@
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
     </row>
-    <row r="97" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
         <v>48</v>
       </c>
@@ -6543,7 +6544,7 @@
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
     </row>
-    <row r="98" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
         <v>53</v>
       </c>
@@ -6595,7 +6596,7 @@
       <c r="AA98" s="3"/>
       <c r="AB98" s="3"/>
     </row>
-    <row r="99" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="18" t="s">
         <v>55</v>
       </c>
@@ -6647,7 +6648,7 @@
       <c r="AA99" s="3"/>
       <c r="AB99" s="3"/>
     </row>
-    <row r="100" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="18" t="s">
         <v>74</v>
       </c>
@@ -6699,7 +6700,7 @@
       <c r="AA100" s="3"/>
       <c r="AB100" s="3"/>
     </row>
-    <row r="101" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="18" t="s">
         <v>43</v>
       </c>
@@ -6751,7 +6752,7 @@
       <c r="AA101" s="3"/>
       <c r="AB101" s="3"/>
     </row>
-    <row r="102" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="18" t="s">
         <v>69</v>
       </c>
@@ -6803,7 +6804,7 @@
       <c r="AA102" s="3"/>
       <c r="AB102" s="3"/>
     </row>
-    <row r="103" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="18"/>
       <c r="B103" s="12"/>
       <c r="C103" s="18"/>
@@ -6833,7 +6834,7 @@
       <c r="AA103" s="3"/>
       <c r="AB103" s="3"/>
     </row>
-    <row r="104" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="18"/>
       <c r="B104" s="12"/>
       <c r="C104" s="18"/>
@@ -6863,7 +6864,7 @@
       <c r="AA104" s="3"/>
       <c r="AB104" s="3"/>
     </row>
-    <row r="105" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="18"/>
       <c r="B105" s="12"/>
       <c r="C105" s="18"/>
@@ -6893,7 +6894,7 @@
       <c r="AA105" s="3"/>
       <c r="AB105" s="3"/>
     </row>
-    <row r="106" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="18"/>
       <c r="B106" s="12"/>
       <c r="C106" s="18"/>
@@ -6923,7 +6924,7 @@
       <c r="AA106" s="3"/>
       <c r="AB106" s="3"/>
     </row>
-    <row r="107" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="18"/>
       <c r="B107" s="12"/>
       <c r="C107" s="18"/>
@@ -6953,7 +6954,7 @@
       <c r="AA107" s="3"/>
       <c r="AB107" s="3"/>
     </row>
-    <row r="108" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="18"/>
       <c r="B108" s="12"/>
       <c r="C108" s="18"/>
@@ -6983,7 +6984,7 @@
       <c r="AA108" s="3"/>
       <c r="AB108" s="3"/>
     </row>
-    <row r="109" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="18"/>
       <c r="B109" s="12"/>
       <c r="C109" s="18"/>
@@ -7013,7 +7014,7 @@
       <c r="AA109" s="3"/>
       <c r="AB109" s="3"/>
     </row>
-    <row r="110" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="18"/>
       <c r="B110" s="12"/>
       <c r="C110" s="18"/>
@@ -7043,7 +7044,7 @@
       <c r="AA110" s="3"/>
       <c r="AB110" s="3"/>
     </row>
-    <row r="111" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="18"/>
       <c r="B111" s="12"/>
       <c r="C111" s="18"/>
@@ -7073,7 +7074,7 @@
       <c r="AA111" s="3"/>
       <c r="AB111" s="3"/>
     </row>
-    <row r="112" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="18"/>
       <c r="B112" s="12"/>
       <c r="C112" s="18"/>
@@ -7103,7 +7104,7 @@
       <c r="AA112" s="3"/>
       <c r="AB112" s="3"/>
     </row>
-    <row r="113" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="18"/>
       <c r="B113" s="12"/>
       <c r="C113" s="18"/>
@@ -7133,7 +7134,7 @@
       <c r="AA113" s="3"/>
       <c r="AB113" s="3"/>
     </row>
-    <row r="114" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="18"/>
       <c r="B114" s="12"/>
       <c r="C114" s="18"/>
@@ -7163,7 +7164,7 @@
       <c r="AA114" s="3"/>
       <c r="AB114" s="3"/>
     </row>
-    <row r="115" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="18"/>
       <c r="B115" s="12"/>
       <c r="C115" s="18"/>
@@ -7193,7 +7194,7 @@
       <c r="AA115" s="3"/>
       <c r="AB115" s="3"/>
     </row>
-    <row r="116" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="18"/>
       <c r="B116" s="12"/>
       <c r="C116" s="18"/>
@@ -7223,7 +7224,7 @@
       <c r="AA116" s="3"/>
       <c r="AB116" s="3"/>
     </row>
-    <row r="117" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="18"/>
       <c r="B117" s="12"/>
       <c r="C117" s="18"/>
@@ -7253,7 +7254,7 @@
       <c r="AA117" s="3"/>
       <c r="AB117" s="3"/>
     </row>
-    <row r="118" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="18"/>
       <c r="B118" s="12"/>
       <c r="C118" s="18"/>
@@ -7283,7 +7284,7 @@
       <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
     </row>
-    <row r="119" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="18"/>
       <c r="B119" s="12"/>
       <c r="C119" s="18"/>
@@ -7313,7 +7314,7 @@
       <c r="AA119" s="3"/>
       <c r="AB119" s="3"/>
     </row>
-    <row r="120" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="18"/>
       <c r="B120" s="12"/>
       <c r="C120" s="18"/>
@@ -7343,7 +7344,7 @@
       <c r="AA120" s="3"/>
       <c r="AB120" s="3"/>
     </row>
-    <row r="121" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="18"/>
       <c r="B121" s="12"/>
       <c r="C121" s="18"/>
@@ -7373,7 +7374,7 @@
       <c r="AA121" s="3"/>
       <c r="AB121" s="3"/>
     </row>
-    <row r="122" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="18"/>
       <c r="B122" s="12"/>
       <c r="C122" s="18"/>
@@ -7403,7 +7404,7 @@
       <c r="AA122" s="3"/>
       <c r="AB122" s="3"/>
     </row>
-    <row r="123" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="18"/>
       <c r="B123" s="12"/>
       <c r="C123" s="18"/>
@@ -7433,7 +7434,7 @@
       <c r="AA123" s="3"/>
       <c r="AB123" s="3"/>
     </row>
-    <row r="124" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="18"/>
       <c r="B124" s="12"/>
       <c r="C124" s="18"/>
@@ -7463,7 +7464,7 @@
       <c r="AA124" s="3"/>
       <c r="AB124" s="3"/>
     </row>
-    <row r="125" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="18"/>
       <c r="B125" s="12"/>
       <c r="C125" s="18"/>
@@ -7493,7 +7494,7 @@
       <c r="AA125" s="3"/>
       <c r="AB125" s="3"/>
     </row>
-    <row r="126" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="18"/>
       <c r="B126" s="12"/>
       <c r="C126" s="18"/>
@@ -7523,7 +7524,7 @@
       <c r="AA126" s="3"/>
       <c r="AB126" s="3"/>
     </row>
-    <row r="127" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="18"/>
       <c r="B127" s="12"/>
       <c r="C127" s="18"/>
@@ -7553,7 +7554,7 @@
       <c r="AA127" s="3"/>
       <c r="AB127" s="3"/>
     </row>
-    <row r="128" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="18"/>
       <c r="B128" s="12"/>
       <c r="C128" s="18"/>
@@ -7583,7 +7584,7 @@
       <c r="AA128" s="3"/>
       <c r="AB128" s="3"/>
     </row>
-    <row r="129" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="18"/>
       <c r="B129" s="12"/>
       <c r="C129" s="18"/>
@@ -7613,7 +7614,7 @@
       <c r="AA129" s="3"/>
       <c r="AB129" s="3"/>
     </row>
-    <row r="130" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="18"/>
       <c r="B130" s="12"/>
       <c r="C130" s="18"/>
@@ -7643,7 +7644,7 @@
       <c r="AA130" s="3"/>
       <c r="AB130" s="3"/>
     </row>
-    <row r="131" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="18"/>
       <c r="B131" s="12"/>
       <c r="C131" s="18"/>
@@ -7673,7 +7674,7 @@
       <c r="AA131" s="3"/>
       <c r="AB131" s="3"/>
     </row>
-    <row r="132" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="18"/>
       <c r="B132" s="12"/>
       <c r="C132" s="18"/>
@@ -7703,7 +7704,7 @@
       <c r="AA132" s="3"/>
       <c r="AB132" s="3"/>
     </row>
-    <row r="133" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="18"/>
       <c r="B133" s="12"/>
       <c r="C133" s="18"/>
@@ -7733,7 +7734,7 @@
       <c r="AA133" s="3"/>
       <c r="AB133" s="3"/>
     </row>
-    <row r="134" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="18"/>
       <c r="B134" s="12"/>
       <c r="C134" s="18"/>
@@ -7763,7 +7764,7 @@
       <c r="AA134" s="3"/>
       <c r="AB134" s="3"/>
     </row>
-    <row r="135" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="18"/>
       <c r="B135" s="12"/>
       <c r="C135" s="18"/>
@@ -7793,7 +7794,7 @@
       <c r="AA135" s="3"/>
       <c r="AB135" s="3"/>
     </row>
-    <row r="136" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="18"/>
       <c r="B136" s="12"/>
       <c r="C136" s="18"/>
@@ -7823,7 +7824,7 @@
       <c r="AA136" s="3"/>
       <c r="AB136" s="3"/>
     </row>
-    <row r="137" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="18"/>
       <c r="B137" s="12"/>
       <c r="C137" s="18"/>
@@ -7853,7 +7854,7 @@
       <c r="AA137" s="3"/>
       <c r="AB137" s="3"/>
     </row>
-    <row r="138" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="18"/>
       <c r="B138" s="12"/>
       <c r="C138" s="18"/>
@@ -7883,7 +7884,7 @@
       <c r="AA138" s="3"/>
       <c r="AB138" s="3"/>
     </row>
-    <row r="139" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="18"/>
       <c r="B139" s="12"/>
       <c r="C139" s="18"/>
@@ -7913,7 +7914,7 @@
       <c r="AA139" s="3"/>
       <c r="AB139" s="3"/>
     </row>
-    <row r="140" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="18"/>
       <c r="B140" s="12"/>
       <c r="C140" s="18"/>
@@ -7943,7 +7944,7 @@
       <c r="AA140" s="3"/>
       <c r="AB140" s="3"/>
     </row>
-    <row r="141" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="18"/>
       <c r="B141" s="12"/>
       <c r="C141" s="18"/>
@@ -7973,7 +7974,7 @@
       <c r="AA141" s="3"/>
       <c r="AB141" s="3"/>
     </row>
-    <row r="142" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="18"/>
       <c r="B142" s="12"/>
       <c r="C142" s="18"/>
@@ -8003,7 +8004,7 @@
       <c r="AA142" s="3"/>
       <c r="AB142" s="3"/>
     </row>
-    <row r="143" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="18"/>
       <c r="B143" s="12"/>
       <c r="C143" s="18"/>
@@ -8033,7 +8034,7 @@
       <c r="AA143" s="3"/>
       <c r="AB143" s="3"/>
     </row>
-    <row r="144" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="18"/>
       <c r="B144" s="12"/>
       <c r="C144" s="18"/>
@@ -8063,7 +8064,7 @@
       <c r="AA144" s="3"/>
       <c r="AB144" s="3"/>
     </row>
-    <row r="145" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="18"/>
       <c r="B145" s="12"/>
       <c r="C145" s="18"/>
@@ -8093,7 +8094,7 @@
       <c r="AA145" s="3"/>
       <c r="AB145" s="3"/>
     </row>
-    <row r="146" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="18"/>
       <c r="B146" s="12"/>
       <c r="C146" s="18"/>
@@ -8123,7 +8124,7 @@
       <c r="AA146" s="3"/>
       <c r="AB146" s="3"/>
     </row>
-    <row r="147" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="18"/>
       <c r="B147" s="12"/>
       <c r="C147" s="18"/>
@@ -8153,7 +8154,7 @@
       <c r="AA147" s="3"/>
       <c r="AB147" s="3"/>
     </row>
-    <row r="148" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="18"/>
       <c r="B148" s="12"/>
       <c r="C148" s="18"/>
@@ -8183,7 +8184,7 @@
       <c r="AA148" s="3"/>
       <c r="AB148" s="3"/>
     </row>
-    <row r="149" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="18"/>
       <c r="B149" s="12"/>
       <c r="C149" s="18"/>
@@ -8213,7 +8214,7 @@
       <c r="AA149" s="3"/>
       <c r="AB149" s="3"/>
     </row>
-    <row r="150" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="18"/>
       <c r="B150" s="12"/>
       <c r="C150" s="18"/>
@@ -8243,7 +8244,7 @@
       <c r="AA150" s="3"/>
       <c r="AB150" s="3"/>
     </row>
-    <row r="151" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="18"/>
       <c r="B151" s="12"/>
       <c r="C151" s="18"/>
@@ -8273,7 +8274,7 @@
       <c r="AA151" s="3"/>
       <c r="AB151" s="3"/>
     </row>
-    <row r="152" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="18"/>
       <c r="B152" s="12"/>
       <c r="C152" s="18"/>
@@ -8303,7 +8304,7 @@
       <c r="AA152" s="3"/>
       <c r="AB152" s="3"/>
     </row>
-    <row r="153" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="18"/>
       <c r="B153" s="12"/>
       <c r="C153" s="18"/>
@@ -8333,7 +8334,7 @@
       <c r="AA153" s="3"/>
       <c r="AB153" s="3"/>
     </row>
-    <row r="154" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="18"/>
       <c r="B154" s="12"/>
       <c r="C154" s="18"/>
@@ -8363,7 +8364,7 @@
       <c r="AA154" s="3"/>
       <c r="AB154" s="3"/>
     </row>
-    <row r="155" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="18"/>
       <c r="B155" s="12"/>
       <c r="C155" s="18"/>
@@ -8393,7 +8394,7 @@
       <c r="AA155" s="3"/>
       <c r="AB155" s="3"/>
     </row>
-    <row r="156" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="18"/>
       <c r="B156" s="12"/>
       <c r="C156" s="18"/>
@@ -8423,7 +8424,7 @@
       <c r="AA156" s="3"/>
       <c r="AB156" s="3"/>
     </row>
-    <row r="157" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="18"/>
       <c r="B157" s="12"/>
       <c r="C157" s="18"/>
@@ -8453,7 +8454,7 @@
       <c r="AA157" s="3"/>
       <c r="AB157" s="3"/>
     </row>
-    <row r="158" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="18"/>
       <c r="B158" s="12"/>
       <c r="C158" s="18"/>
@@ -8483,7 +8484,7 @@
       <c r="AA158" s="3"/>
       <c r="AB158" s="3"/>
     </row>
-    <row r="159" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="18"/>
       <c r="B159" s="12"/>
       <c r="C159" s="18"/>
@@ -8513,7 +8514,7 @@
       <c r="AA159" s="3"/>
       <c r="AB159" s="3"/>
     </row>
-    <row r="160" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="18"/>
       <c r="B160" s="12"/>
       <c r="C160" s="18"/>
@@ -8543,7 +8544,7 @@
       <c r="AA160" s="3"/>
       <c r="AB160" s="3"/>
     </row>
-    <row r="161" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="18"/>
       <c r="B161" s="12"/>
       <c r="C161" s="18"/>
@@ -8573,7 +8574,7 @@
       <c r="AA161" s="3"/>
       <c r="AB161" s="3"/>
     </row>
-    <row r="162" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="18"/>
       <c r="B162" s="12"/>
       <c r="C162" s="18"/>
@@ -8603,7 +8604,7 @@
       <c r="AA162" s="3"/>
       <c r="AB162" s="3"/>
     </row>
-    <row r="163" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="18"/>
       <c r="B163" s="12"/>
       <c r="C163" s="18"/>
@@ -8633,7 +8634,7 @@
       <c r="AA163" s="3"/>
       <c r="AB163" s="3"/>
     </row>
-    <row r="164" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="18"/>
       <c r="B164" s="12"/>
       <c r="C164" s="18"/>
@@ -8663,7 +8664,7 @@
       <c r="AA164" s="3"/>
       <c r="AB164" s="3"/>
     </row>
-    <row r="165" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="18"/>
       <c r="B165" s="12"/>
       <c r="C165" s="18"/>
@@ -8693,7 +8694,7 @@
       <c r="AA165" s="3"/>
       <c r="AB165" s="3"/>
     </row>
-    <row r="166" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="18"/>
       <c r="B166" s="12"/>
       <c r="C166" s="18"/>
@@ -8723,7 +8724,7 @@
       <c r="AA166" s="3"/>
       <c r="AB166" s="3"/>
     </row>
-    <row r="167" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="18"/>
       <c r="B167" s="12"/>
       <c r="C167" s="18"/>
@@ -8753,7 +8754,7 @@
       <c r="AA167" s="3"/>
       <c r="AB167" s="3"/>
     </row>
-    <row r="168" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="18"/>
       <c r="B168" s="12"/>
       <c r="C168" s="18"/>
@@ -8783,7 +8784,7 @@
       <c r="AA168" s="3"/>
       <c r="AB168" s="3"/>
     </row>
-    <row r="169" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="18"/>
       <c r="B169" s="12"/>
       <c r="C169" s="18"/>
@@ -8813,7 +8814,7 @@
       <c r="AA169" s="3"/>
       <c r="AB169" s="3"/>
     </row>
-    <row r="170" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="18"/>
       <c r="B170" s="12"/>
       <c r="C170" s="18"/>
@@ -8843,7 +8844,7 @@
       <c r="AA170" s="3"/>
       <c r="AB170" s="3"/>
     </row>
-    <row r="171" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="18"/>
       <c r="B171" s="12"/>
       <c r="C171" s="18"/>
@@ -8873,7 +8874,7 @@
       <c r="AA171" s="3"/>
       <c r="AB171" s="3"/>
     </row>
-    <row r="172" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="18"/>
       <c r="B172" s="12"/>
       <c r="C172" s="18"/>
@@ -8903,7 +8904,7 @@
       <c r="AA172" s="3"/>
       <c r="AB172" s="3"/>
     </row>
-    <row r="173" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="18"/>
       <c r="B173" s="12"/>
       <c r="C173" s="18"/>
@@ -8933,7 +8934,7 @@
       <c r="AA173" s="3"/>
       <c r="AB173" s="3"/>
     </row>
-    <row r="174" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="18"/>
       <c r="B174" s="12"/>
       <c r="C174" s="18"/>
@@ -8963,7 +8964,7 @@
       <c r="AA174" s="3"/>
       <c r="AB174" s="3"/>
     </row>
-    <row r="175" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="18"/>
       <c r="B175" s="12"/>
       <c r="C175" s="18"/>
@@ -8993,7 +8994,7 @@
       <c r="AA175" s="3"/>
       <c r="AB175" s="3"/>
     </row>
-    <row r="176" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="18"/>
       <c r="B176" s="12"/>
       <c r="C176" s="18"/>
@@ -9023,7 +9024,7 @@
       <c r="AA176" s="3"/>
       <c r="AB176" s="3"/>
     </row>
-    <row r="177" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="18"/>
       <c r="B177" s="12"/>
       <c r="C177" s="18"/>
@@ -9053,7 +9054,7 @@
       <c r="AA177" s="3"/>
       <c r="AB177" s="3"/>
     </row>
-    <row r="178" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="18"/>
       <c r="B178" s="12"/>
       <c r="C178" s="18"/>
@@ -9083,7 +9084,7 @@
       <c r="AA178" s="3"/>
       <c r="AB178" s="3"/>
     </row>
-    <row r="179" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="18"/>
       <c r="B179" s="12"/>
       <c r="C179" s="18"/>
@@ -9113,7 +9114,7 @@
       <c r="AA179" s="3"/>
       <c r="AB179" s="3"/>
     </row>
-    <row r="180" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="18"/>
       <c r="B180" s="12"/>
       <c r="C180" s="18"/>
@@ -9143,7 +9144,7 @@
       <c r="AA180" s="3"/>
       <c r="AB180" s="3"/>
     </row>
-    <row r="181" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="18"/>
       <c r="B181" s="12"/>
       <c r="C181" s="18"/>
@@ -9173,7 +9174,7 @@
       <c r="AA181" s="3"/>
       <c r="AB181" s="3"/>
     </row>
-    <row r="182" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="18"/>
       <c r="B182" s="12"/>
       <c r="C182" s="18"/>
@@ -9203,7 +9204,7 @@
       <c r="AA182" s="3"/>
       <c r="AB182" s="3"/>
     </row>
-    <row r="183" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="18"/>
       <c r="B183" s="12"/>
       <c r="C183" s="18"/>
@@ -9233,7 +9234,7 @@
       <c r="AA183" s="3"/>
       <c r="AB183" s="3"/>
     </row>
-    <row r="184" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="18"/>
       <c r="B184" s="12"/>
       <c r="C184" s="18"/>
@@ -9263,7 +9264,7 @@
       <c r="AA184" s="3"/>
       <c r="AB184" s="3"/>
     </row>
-    <row r="185" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="18"/>
       <c r="B185" s="12"/>
       <c r="C185" s="18"/>
@@ -9293,7 +9294,7 @@
       <c r="AA185" s="3"/>
       <c r="AB185" s="3"/>
     </row>
-    <row r="186" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="18"/>
       <c r="B186" s="12"/>
       <c r="C186" s="18"/>
@@ -9323,7 +9324,7 @@
       <c r="AA186" s="3"/>
       <c r="AB186" s="3"/>
     </row>
-    <row r="187" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="18"/>
       <c r="B187" s="12"/>
       <c r="C187" s="18"/>
@@ -9353,7 +9354,7 @@
       <c r="AA187" s="3"/>
       <c r="AB187" s="3"/>
     </row>
-    <row r="188" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="18"/>
       <c r="B188" s="12"/>
       <c r="C188" s="18"/>
@@ -9383,7 +9384,7 @@
       <c r="AA188" s="3"/>
       <c r="AB188" s="3"/>
     </row>
-    <row r="189" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="18"/>
       <c r="B189" s="12"/>
       <c r="C189" s="18"/>
@@ -9413,7 +9414,7 @@
       <c r="AA189" s="3"/>
       <c r="AB189" s="3"/>
     </row>
-    <row r="190" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="18"/>
       <c r="B190" s="12"/>
       <c r="C190" s="18"/>
@@ -9443,7 +9444,7 @@
       <c r="AA190" s="3"/>
       <c r="AB190" s="3"/>
     </row>
-    <row r="191" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="18"/>
       <c r="B191" s="12"/>
       <c r="C191" s="18"/>
@@ -9473,7 +9474,7 @@
       <c r="AA191" s="3"/>
       <c r="AB191" s="3"/>
     </row>
-    <row r="192" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="18"/>
       <c r="B192" s="12"/>
       <c r="C192" s="18"/>
@@ -9503,7 +9504,7 @@
       <c r="AA192" s="3"/>
       <c r="AB192" s="3"/>
     </row>
-    <row r="193" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="18"/>
       <c r="B193" s="12"/>
       <c r="C193" s="18"/>
@@ -9533,7 +9534,7 @@
       <c r="AA193" s="3"/>
       <c r="AB193" s="3"/>
     </row>
-    <row r="194" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="18"/>
       <c r="B194" s="12"/>
       <c r="C194" s="18"/>
@@ -9563,7 +9564,7 @@
       <c r="AA194" s="3"/>
       <c r="AB194" s="3"/>
     </row>
-    <row r="195" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="18"/>
       <c r="B195" s="12"/>
       <c r="C195" s="18"/>
@@ -9593,7 +9594,7 @@
       <c r="AA195" s="3"/>
       <c r="AB195" s="3"/>
     </row>
-    <row r="196" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="18"/>
       <c r="B196" s="12"/>
       <c r="C196" s="18"/>
@@ -9623,7 +9624,7 @@
       <c r="AA196" s="3"/>
       <c r="AB196" s="3"/>
     </row>
-    <row r="197" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="18"/>
       <c r="B197" s="12"/>
       <c r="C197" s="18"/>
@@ -9653,7 +9654,7 @@
       <c r="AA197" s="3"/>
       <c r="AB197" s="3"/>
     </row>
-    <row r="198" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="18"/>
       <c r="B198" s="12"/>
       <c r="C198" s="18"/>
@@ -9683,7 +9684,7 @@
       <c r="AA198" s="3"/>
       <c r="AB198" s="3"/>
     </row>
-    <row r="199" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="18"/>
       <c r="B199" s="12"/>
       <c r="C199" s="18"/>
@@ -9713,7 +9714,7 @@
       <c r="AA199" s="3"/>
       <c r="AB199" s="3"/>
     </row>
-    <row r="200" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="18"/>
       <c r="B200" s="12"/>
       <c r="C200" s="18"/>
@@ -9743,7 +9744,7 @@
       <c r="AA200" s="3"/>
       <c r="AB200" s="3"/>
     </row>
-    <row r="201" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="18"/>
       <c r="B201" s="12"/>
       <c r="C201" s="18"/>
@@ -9773,7 +9774,7 @@
       <c r="AA201" s="3"/>
       <c r="AB201" s="3"/>
     </row>
-    <row r="202" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="18"/>
       <c r="B202" s="12"/>
       <c r="C202" s="18"/>
@@ -9803,7 +9804,7 @@
       <c r="AA202" s="3"/>
       <c r="AB202" s="3"/>
     </row>
-    <row r="203" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="18"/>
       <c r="B203" s="12"/>
       <c r="C203" s="18"/>
@@ -9833,7 +9834,7 @@
       <c r="AA203" s="3"/>
       <c r="AB203" s="3"/>
     </row>
-    <row r="204" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="18"/>
       <c r="B204" s="12"/>
       <c r="C204" s="18"/>
@@ -9863,7 +9864,7 @@
       <c r="AA204" s="3"/>
       <c r="AB204" s="3"/>
     </row>
-    <row r="205" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="18"/>
       <c r="B205" s="12"/>
       <c r="C205" s="18"/>
@@ -9893,7 +9894,7 @@
       <c r="AA205" s="3"/>
       <c r="AB205" s="3"/>
     </row>
-    <row r="206" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="18"/>
       <c r="B206" s="12"/>
       <c r="C206" s="18"/>
@@ -9923,7 +9924,7 @@
       <c r="AA206" s="3"/>
       <c r="AB206" s="3"/>
     </row>
-    <row r="207" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="18"/>
       <c r="B207" s="12"/>
       <c r="C207" s="18"/>
@@ -9953,7 +9954,7 @@
       <c r="AA207" s="3"/>
       <c r="AB207" s="3"/>
     </row>
-    <row r="208" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="18"/>
       <c r="B208" s="12"/>
       <c r="C208" s="18"/>
@@ -9983,7 +9984,7 @@
       <c r="AA208" s="3"/>
       <c r="AB208" s="3"/>
     </row>
-    <row r="209" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="18"/>
       <c r="B209" s="12"/>
       <c r="C209" s="18"/>
@@ -10013,7 +10014,7 @@
       <c r="AA209" s="3"/>
       <c r="AB209" s="3"/>
     </row>
-    <row r="210" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="18"/>
       <c r="B210" s="12"/>
       <c r="C210" s="18"/>
@@ -10043,7 +10044,7 @@
       <c r="AA210" s="3"/>
       <c r="AB210" s="3"/>
     </row>
-    <row r="211" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="18"/>
       <c r="B211" s="12"/>
       <c r="C211" s="18"/>
@@ -10073,7 +10074,7 @@
       <c r="AA211" s="3"/>
       <c r="AB211" s="3"/>
     </row>
-    <row r="212" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="18"/>
       <c r="B212" s="12"/>
       <c r="C212" s="18"/>
@@ -10103,7 +10104,7 @@
       <c r="AA212" s="3"/>
       <c r="AB212" s="3"/>
     </row>
-    <row r="213" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="18"/>
       <c r="B213" s="12"/>
       <c r="C213" s="18"/>
@@ -10133,7 +10134,7 @@
       <c r="AA213" s="3"/>
       <c r="AB213" s="3"/>
     </row>
-    <row r="214" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="18"/>
       <c r="B214" s="12"/>
       <c r="C214" s="18"/>
@@ -10163,7 +10164,7 @@
       <c r="AA214" s="3"/>
       <c r="AB214" s="3"/>
     </row>
-    <row r="215" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="18"/>
       <c r="B215" s="12"/>
       <c r="C215" s="18"/>
@@ -10193,7 +10194,7 @@
       <c r="AA215" s="3"/>
       <c r="AB215" s="3"/>
     </row>
-    <row r="216" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="18"/>
       <c r="B216" s="12"/>
       <c r="C216" s="18"/>
@@ -10223,7 +10224,7 @@
       <c r="AA216" s="3"/>
       <c r="AB216" s="3"/>
     </row>
-    <row r="217" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="18"/>
       <c r="B217" s="12"/>
       <c r="C217" s="18"/>
@@ -10253,7 +10254,7 @@
       <c r="AA217" s="3"/>
       <c r="AB217" s="3"/>
     </row>
-    <row r="218" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="18"/>
       <c r="B218" s="12"/>
       <c r="C218" s="18"/>
@@ -10283,7 +10284,7 @@
       <c r="AA218" s="3"/>
       <c r="AB218" s="3"/>
     </row>
-    <row r="219" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="18"/>
       <c r="B219" s="12"/>
       <c r="C219" s="18"/>
@@ -10313,7 +10314,7 @@
       <c r="AA219" s="3"/>
       <c r="AB219" s="3"/>
     </row>
-    <row r="220" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="18"/>
       <c r="B220" s="12"/>
       <c r="C220" s="18"/>
@@ -10343,7 +10344,7 @@
       <c r="AA220" s="3"/>
       <c r="AB220" s="3"/>
     </row>
-    <row r="221" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="18"/>
       <c r="B221" s="12"/>
       <c r="C221" s="18"/>
@@ -10373,7 +10374,7 @@
       <c r="AA221" s="3"/>
       <c r="AB221" s="3"/>
     </row>
-    <row r="222" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="18"/>
       <c r="B222" s="12"/>
       <c r="C222" s="18"/>
@@ -10403,7 +10404,7 @@
       <c r="AA222" s="3"/>
       <c r="AB222" s="3"/>
     </row>
-    <row r="223" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="18"/>
       <c r="B223" s="12"/>
       <c r="C223" s="18"/>
@@ -10433,7 +10434,7 @@
       <c r="AA223" s="3"/>
       <c r="AB223" s="3"/>
     </row>
-    <row r="224" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="18"/>
       <c r="B224" s="12"/>
       <c r="C224" s="18"/>
@@ -10463,7 +10464,7 @@
       <c r="AA224" s="3"/>
       <c r="AB224" s="3"/>
     </row>
-    <row r="225" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="18"/>
       <c r="B225" s="12"/>
       <c r="C225" s="18"/>
@@ -10493,7 +10494,7 @@
       <c r="AA225" s="3"/>
       <c r="AB225" s="3"/>
     </row>
-    <row r="226" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="18"/>
       <c r="B226" s="12"/>
       <c r="C226" s="18"/>
@@ -10523,7 +10524,7 @@
       <c r="AA226" s="3"/>
       <c r="AB226" s="3"/>
     </row>
-    <row r="227" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="18"/>
       <c r="B227" s="12"/>
       <c r="C227" s="18"/>
@@ -10553,7 +10554,7 @@
       <c r="AA227" s="3"/>
       <c r="AB227" s="3"/>
     </row>
-    <row r="228" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="18"/>
       <c r="B228" s="12"/>
       <c r="C228" s="18"/>
@@ -10583,7 +10584,7 @@
       <c r="AA228" s="3"/>
       <c r="AB228" s="3"/>
     </row>
-    <row r="229" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="18"/>
       <c r="B229" s="12"/>
       <c r="C229" s="18"/>
@@ -10613,7 +10614,7 @@
       <c r="AA229" s="3"/>
       <c r="AB229" s="3"/>
     </row>
-    <row r="230" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="18"/>
       <c r="B230" s="12"/>
       <c r="C230" s="18"/>
@@ -10643,7 +10644,7 @@
       <c r="AA230" s="3"/>
       <c r="AB230" s="3"/>
     </row>
-    <row r="231" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="18"/>
       <c r="B231" s="12"/>
       <c r="C231" s="18"/>
@@ -10673,7 +10674,7 @@
       <c r="AA231" s="3"/>
       <c r="AB231" s="3"/>
     </row>
-    <row r="232" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="18"/>
       <c r="B232" s="12"/>
       <c r="C232" s="18"/>
@@ -10703,7 +10704,7 @@
       <c r="AA232" s="3"/>
       <c r="AB232" s="3"/>
     </row>
-    <row r="233" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="18"/>
       <c r="B233" s="12"/>
       <c r="C233" s="18"/>
@@ -10733,7 +10734,7 @@
       <c r="AA233" s="3"/>
       <c r="AB233" s="3"/>
     </row>
-    <row r="234" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="18"/>
       <c r="B234" s="12"/>
       <c r="C234" s="18"/>
@@ -10763,7 +10764,7 @@
       <c r="AA234" s="3"/>
       <c r="AB234" s="3"/>
     </row>
-    <row r="235" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="18"/>
       <c r="B235" s="12"/>
       <c r="C235" s="18"/>
@@ -10793,7 +10794,7 @@
       <c r="AA235" s="3"/>
       <c r="AB235" s="3"/>
     </row>
-    <row r="236" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="18"/>
       <c r="B236" s="12"/>
       <c r="C236" s="18"/>
@@ -10823,7 +10824,7 @@
       <c r="AA236" s="3"/>
       <c r="AB236" s="3"/>
     </row>
-    <row r="237" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="18"/>
       <c r="B237" s="12"/>
       <c r="C237" s="18"/>
@@ -10853,7 +10854,7 @@
       <c r="AA237" s="3"/>
       <c r="AB237" s="3"/>
     </row>
-    <row r="238" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="18"/>
       <c r="B238" s="12"/>
       <c r="C238" s="18"/>
@@ -10883,7 +10884,7 @@
       <c r="AA238" s="3"/>
       <c r="AB238" s="3"/>
     </row>
-    <row r="239" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="18"/>
       <c r="B239" s="12"/>
       <c r="C239" s="18"/>
@@ -10913,7 +10914,7 @@
       <c r="AA239" s="3"/>
       <c r="AB239" s="3"/>
     </row>
-    <row r="240" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="18"/>
       <c r="B240" s="12"/>
       <c r="C240" s="18"/>
@@ -10943,7 +10944,7 @@
       <c r="AA240" s="3"/>
       <c r="AB240" s="3"/>
     </row>
-    <row r="241" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="18"/>
       <c r="B241" s="12"/>
       <c r="C241" s="18"/>
@@ -10973,7 +10974,7 @@
       <c r="AA241" s="3"/>
       <c r="AB241" s="3"/>
     </row>
-    <row r="242" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="18"/>
       <c r="B242" s="12"/>
       <c r="C242" s="18"/>
@@ -11003,7 +11004,7 @@
       <c r="AA242" s="3"/>
       <c r="AB242" s="3"/>
     </row>
-    <row r="243" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="18"/>
       <c r="B243" s="12"/>
       <c r="C243" s="18"/>
@@ -11033,7 +11034,7 @@
       <c r="AA243" s="3"/>
       <c r="AB243" s="3"/>
     </row>
-    <row r="244" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="18"/>
       <c r="B244" s="12"/>
       <c r="C244" s="18"/>
@@ -11063,7 +11064,7 @@
       <c r="AA244" s="3"/>
       <c r="AB244" s="3"/>
     </row>
-    <row r="245" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="18"/>
       <c r="B245" s="12"/>
       <c r="C245" s="18"/>
@@ -11093,7 +11094,7 @@
       <c r="AA245" s="3"/>
       <c r="AB245" s="3"/>
     </row>
-    <row r="246" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="18"/>
       <c r="B246" s="12"/>
       <c r="C246" s="18"/>
@@ -11123,7 +11124,7 @@
       <c r="AA246" s="3"/>
       <c r="AB246" s="3"/>
     </row>
-    <row r="247" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="18"/>
       <c r="B247" s="12"/>
       <c r="C247" s="18"/>
@@ -11153,7 +11154,7 @@
       <c r="AA247" s="3"/>
       <c r="AB247" s="3"/>
     </row>
-    <row r="248" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="18"/>
       <c r="B248" s="12"/>
       <c r="C248" s="18"/>
@@ -11183,7 +11184,7 @@
       <c r="AA248" s="3"/>
       <c r="AB248" s="3"/>
     </row>
-    <row r="249" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="18"/>
       <c r="B249" s="12"/>
       <c r="C249" s="18"/>
@@ -11213,7 +11214,7 @@
       <c r="AA249" s="3"/>
       <c r="AB249" s="3"/>
     </row>
-    <row r="250" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="18"/>
       <c r="B250" s="12"/>
       <c r="C250" s="18"/>
@@ -11243,7 +11244,7 @@
       <c r="AA250" s="3"/>
       <c r="AB250" s="3"/>
     </row>
-    <row r="251" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="18"/>
       <c r="B251" s="12"/>
       <c r="C251" s="18"/>
@@ -11273,7 +11274,7 @@
       <c r="AA251" s="3"/>
       <c r="AB251" s="3"/>
     </row>
-    <row r="252" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="18"/>
       <c r="B252" s="12"/>
       <c r="C252" s="18"/>
@@ -11303,7 +11304,7 @@
       <c r="AA252" s="3"/>
       <c r="AB252" s="3"/>
     </row>
-    <row r="253" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="18"/>
       <c r="B253" s="12"/>
       <c r="C253" s="18"/>
@@ -11333,7 +11334,7 @@
       <c r="AA253" s="3"/>
       <c r="AB253" s="3"/>
     </row>
-    <row r="254" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="18"/>
       <c r="B254" s="12"/>
       <c r="C254" s="18"/>
@@ -11363,7 +11364,7 @@
       <c r="AA254" s="3"/>
       <c r="AB254" s="3"/>
     </row>
-    <row r="255" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="18"/>
       <c r="B255" s="12"/>
       <c r="C255" s="18"/>
@@ -11393,7 +11394,7 @@
       <c r="AA255" s="3"/>
       <c r="AB255" s="3"/>
     </row>
-    <row r="256" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="18"/>
       <c r="B256" s="12"/>
       <c r="C256" s="18"/>
@@ -11423,7 +11424,7 @@
       <c r="AA256" s="3"/>
       <c r="AB256" s="3"/>
     </row>
-    <row r="257" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="18"/>
       <c r="B257" s="12"/>
       <c r="C257" s="18"/>
@@ -11453,7 +11454,7 @@
       <c r="AA257" s="3"/>
       <c r="AB257" s="3"/>
     </row>
-    <row r="258" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="18"/>
       <c r="B258" s="12"/>
       <c r="C258" s="18"/>
@@ -11483,7 +11484,7 @@
       <c r="AA258" s="3"/>
       <c r="AB258" s="3"/>
     </row>
-    <row r="259" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="18"/>
       <c r="B259" s="12"/>
       <c r="C259" s="18"/>
@@ -11513,7 +11514,7 @@
       <c r="AA259" s="3"/>
       <c r="AB259" s="3"/>
     </row>
-    <row r="260" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="18"/>
       <c r="B260" s="12"/>
       <c r="C260" s="18"/>
@@ -11543,7 +11544,7 @@
       <c r="AA260" s="3"/>
       <c r="AB260" s="3"/>
     </row>
-    <row r="261" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="18"/>
       <c r="B261" s="12"/>
       <c r="C261" s="18"/>
@@ -11573,7 +11574,7 @@
       <c r="AA261" s="3"/>
       <c r="AB261" s="3"/>
     </row>
-    <row r="262" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="18"/>
       <c r="B262" s="12"/>
       <c r="C262" s="18"/>
@@ -11603,7 +11604,7 @@
       <c r="AA262" s="3"/>
       <c r="AB262" s="3"/>
     </row>
-    <row r="263" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="18"/>
       <c r="B263" s="12"/>
       <c r="C263" s="18"/>
@@ -11633,7 +11634,7 @@
       <c r="AA263" s="3"/>
       <c r="AB263" s="3"/>
     </row>
-    <row r="264" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="18"/>
       <c r="B264" s="12"/>
       <c r="C264" s="18"/>
@@ -11663,7 +11664,7 @@
       <c r="AA264" s="3"/>
       <c r="AB264" s="3"/>
     </row>
-    <row r="265" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="18"/>
       <c r="B265" s="12"/>
       <c r="C265" s="18"/>
@@ -11693,7 +11694,7 @@
       <c r="AA265" s="3"/>
       <c r="AB265" s="3"/>
     </row>
-    <row r="266" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="18"/>
       <c r="B266" s="12"/>
       <c r="C266" s="18"/>
@@ -11723,7 +11724,7 @@
       <c r="AA266" s="3"/>
       <c r="AB266" s="3"/>
     </row>
-    <row r="267" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="18"/>
       <c r="B267" s="12"/>
       <c r="C267" s="18"/>
@@ -11753,7 +11754,7 @@
       <c r="AA267" s="3"/>
       <c r="AB267" s="3"/>
     </row>
-    <row r="268" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="18"/>
       <c r="B268" s="12"/>
       <c r="C268" s="18"/>
@@ -11783,7 +11784,7 @@
       <c r="AA268" s="3"/>
       <c r="AB268" s="3"/>
     </row>
-    <row r="269" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="18"/>
       <c r="B269" s="12"/>
       <c r="C269" s="18"/>
@@ -11813,7 +11814,7 @@
       <c r="AA269" s="3"/>
       <c r="AB269" s="3"/>
     </row>
-    <row r="270" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="18"/>
       <c r="B270" s="12"/>
       <c r="C270" s="18"/>
@@ -11843,7 +11844,7 @@
       <c r="AA270" s="3"/>
       <c r="AB270" s="3"/>
     </row>
-    <row r="271" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="18"/>
       <c r="B271" s="12"/>
       <c r="C271" s="18"/>
@@ -11873,7 +11874,7 @@
       <c r="AA271" s="3"/>
       <c r="AB271" s="3"/>
     </row>
-    <row r="272" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="18"/>
       <c r="B272" s="12"/>
       <c r="C272" s="18"/>
@@ -11903,7 +11904,7 @@
       <c r="AA272" s="3"/>
       <c r="AB272" s="3"/>
     </row>
-    <row r="273" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="18"/>
       <c r="B273" s="12"/>
       <c r="C273" s="18"/>
@@ -11933,7 +11934,7 @@
       <c r="AA273" s="3"/>
       <c r="AB273" s="3"/>
     </row>
-    <row r="274" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="18"/>
       <c r="B274" s="12"/>
       <c r="C274" s="18"/>
@@ -11963,7 +11964,7 @@
       <c r="AA274" s="3"/>
       <c r="AB274" s="3"/>
     </row>
-    <row r="275" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="18"/>
       <c r="B275" s="12"/>
       <c r="C275" s="18"/>
@@ -11993,7 +11994,7 @@
       <c r="AA275" s="3"/>
       <c r="AB275" s="3"/>
     </row>
-    <row r="276" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="18"/>
       <c r="B276" s="12"/>
       <c r="C276" s="18"/>
@@ -12023,7 +12024,7 @@
       <c r="AA276" s="3"/>
       <c r="AB276" s="3"/>
     </row>
-    <row r="277" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="18"/>
       <c r="B277" s="12"/>
       <c r="C277" s="18"/>
@@ -12053,7 +12054,7 @@
       <c r="AA277" s="3"/>
       <c r="AB277" s="3"/>
     </row>
-    <row r="278" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="18"/>
       <c r="B278" s="12"/>
       <c r="C278" s="18"/>
@@ -12083,7 +12084,7 @@
       <c r="AA278" s="3"/>
       <c r="AB278" s="3"/>
     </row>
-    <row r="279" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="18"/>
       <c r="B279" s="12"/>
       <c r="C279" s="18"/>
@@ -12113,7 +12114,7 @@
       <c r="AA279" s="3"/>
       <c r="AB279" s="3"/>
     </row>
-    <row r="280" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="18"/>
       <c r="B280" s="12"/>
       <c r="C280" s="18"/>
@@ -12143,7 +12144,7 @@
       <c r="AA280" s="3"/>
       <c r="AB280" s="3"/>
     </row>
-    <row r="281" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="18"/>
       <c r="B281" s="12"/>
       <c r="C281" s="18"/>
@@ -12173,7 +12174,7 @@
       <c r="AA281" s="3"/>
       <c r="AB281" s="3"/>
     </row>
-    <row r="282" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="18"/>
       <c r="B282" s="12"/>
       <c r="C282" s="18"/>
@@ -12203,7 +12204,7 @@
       <c r="AA282" s="3"/>
       <c r="AB282" s="3"/>
     </row>
-    <row r="283" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="18"/>
       <c r="B283" s="12"/>
       <c r="C283" s="18"/>
@@ -12233,7 +12234,7 @@
       <c r="AA283" s="3"/>
       <c r="AB283" s="3"/>
     </row>
-    <row r="284" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="18"/>
       <c r="B284" s="12"/>
       <c r="C284" s="18"/>
@@ -12263,7 +12264,7 @@
       <c r="AA284" s="3"/>
       <c r="AB284" s="3"/>
     </row>
-    <row r="285" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="18"/>
       <c r="B285" s="12"/>
       <c r="C285" s="18"/>
@@ -12293,7 +12294,7 @@
       <c r="AA285" s="3"/>
       <c r="AB285" s="3"/>
     </row>
-    <row r="286" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="18"/>
       <c r="B286" s="12"/>
       <c r="C286" s="18"/>
@@ -12323,7 +12324,7 @@
       <c r="AA286" s="3"/>
       <c r="AB286" s="3"/>
     </row>
-    <row r="287" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="18"/>
       <c r="B287" s="12"/>
       <c r="C287" s="18"/>
@@ -12353,7 +12354,7 @@
       <c r="AA287" s="3"/>
       <c r="AB287" s="3"/>
     </row>
-    <row r="288" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="18"/>
       <c r="B288" s="12"/>
       <c r="C288" s="18"/>
@@ -12383,7 +12384,7 @@
       <c r="AA288" s="3"/>
       <c r="AB288" s="3"/>
     </row>
-    <row r="289" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="18"/>
       <c r="B289" s="12"/>
       <c r="C289" s="18"/>
@@ -12413,7 +12414,7 @@
       <c r="AA289" s="3"/>
       <c r="AB289" s="3"/>
     </row>
-    <row r="290" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="18"/>
       <c r="B290" s="12"/>
       <c r="C290" s="18"/>
@@ -12443,7 +12444,7 @@
       <c r="AA290" s="3"/>
       <c r="AB290" s="3"/>
     </row>
-    <row r="291" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="18"/>
       <c r="B291" s="12"/>
       <c r="C291" s="18"/>
@@ -12473,7 +12474,7 @@
       <c r="AA291" s="3"/>
       <c r="AB291" s="3"/>
     </row>
-    <row r="292" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="18"/>
       <c r="B292" s="12"/>
       <c r="C292" s="18"/>
@@ -12503,7 +12504,7 @@
       <c r="AA292" s="3"/>
       <c r="AB292" s="3"/>
     </row>
-    <row r="293" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="18"/>
       <c r="B293" s="12"/>
       <c r="C293" s="18"/>
@@ -12533,7 +12534,7 @@
       <c r="AA293" s="3"/>
       <c r="AB293" s="3"/>
     </row>
-    <row r="294" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="18"/>
       <c r="B294" s="12"/>
       <c r="C294" s="18"/>
@@ -12563,7 +12564,7 @@
       <c r="AA294" s="3"/>
       <c r="AB294" s="3"/>
     </row>
-    <row r="295" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="18"/>
       <c r="B295" s="12"/>
       <c r="C295" s="18"/>
@@ -12593,7 +12594,7 @@
       <c r="AA295" s="3"/>
       <c r="AB295" s="3"/>
     </row>
-    <row r="296" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="18"/>
       <c r="B296" s="12"/>
       <c r="C296" s="18"/>
@@ -12623,7 +12624,7 @@
       <c r="AA296" s="3"/>
       <c r="AB296" s="3"/>
     </row>
-    <row r="297" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="18"/>
       <c r="B297" s="12"/>
       <c r="C297" s="18"/>
@@ -12653,7 +12654,7 @@
       <c r="AA297" s="3"/>
       <c r="AB297" s="3"/>
     </row>
-    <row r="298" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="18"/>
       <c r="B298" s="12"/>
       <c r="C298" s="18"/>
@@ -12683,7 +12684,7 @@
       <c r="AA298" s="3"/>
       <c r="AB298" s="3"/>
     </row>
-    <row r="299" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="18"/>
       <c r="B299" s="12"/>
       <c r="C299" s="18"/>
@@ -12713,7 +12714,7 @@
       <c r="AA299" s="3"/>
       <c r="AB299" s="3"/>
     </row>
-    <row r="300" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="18"/>
       <c r="B300" s="12"/>
       <c r="C300" s="18"/>
@@ -12743,7 +12744,7 @@
       <c r="AA300" s="3"/>
       <c r="AB300" s="3"/>
     </row>
-    <row r="301" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="18"/>
       <c r="B301" s="12"/>
       <c r="C301" s="18"/>
@@ -12773,7 +12774,7 @@
       <c r="AA301" s="3"/>
       <c r="AB301" s="3"/>
     </row>
-    <row r="302" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="18"/>
       <c r="B302" s="12"/>
       <c r="C302" s="18"/>
@@ -12803,7 +12804,7 @@
       <c r="AA302" s="3"/>
       <c r="AB302" s="3"/>
     </row>
-    <row r="303" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="18"/>
       <c r="B303" s="12"/>
       <c r="C303" s="18"/>
@@ -12833,7 +12834,7 @@
       <c r="AA303" s="3"/>
       <c r="AB303" s="3"/>
     </row>
-    <row r="304" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="18"/>
       <c r="B304" s="12"/>
       <c r="C304" s="18"/>
@@ -12863,7 +12864,7 @@
       <c r="AA304" s="3"/>
       <c r="AB304" s="3"/>
     </row>
-    <row r="305" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="18"/>
       <c r="B305" s="12"/>
       <c r="C305" s="18"/>
@@ -12893,7 +12894,7 @@
       <c r="AA305" s="3"/>
       <c r="AB305" s="3"/>
     </row>
-    <row r="306" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="18"/>
       <c r="B306" s="12"/>
       <c r="C306" s="18"/>
@@ -12923,7 +12924,7 @@
       <c r="AA306" s="3"/>
       <c r="AB306" s="3"/>
     </row>
-    <row r="307" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="18"/>
       <c r="B307" s="12"/>
       <c r="C307" s="18"/>
@@ -12953,7 +12954,7 @@
       <c r="AA307" s="3"/>
       <c r="AB307" s="3"/>
     </row>
-    <row r="308" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="18"/>
       <c r="B308" s="12"/>
       <c r="C308" s="18"/>
@@ -12983,7 +12984,7 @@
       <c r="AA308" s="3"/>
       <c r="AB308" s="3"/>
     </row>
-    <row r="309" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="18"/>
       <c r="B309" s="12"/>
       <c r="C309" s="18"/>
@@ -13013,7 +13014,7 @@
       <c r="AA309" s="3"/>
       <c r="AB309" s="3"/>
     </row>
-    <row r="310" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="18"/>
       <c r="B310" s="12"/>
       <c r="C310" s="18"/>
@@ -13043,7 +13044,7 @@
       <c r="AA310" s="3"/>
       <c r="AB310" s="3"/>
     </row>
-    <row r="311" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="18"/>
       <c r="B311" s="12"/>
       <c r="C311" s="18"/>
@@ -13073,7 +13074,7 @@
       <c r="AA311" s="3"/>
       <c r="AB311" s="3"/>
     </row>
-    <row r="312" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="18"/>
       <c r="B312" s="12"/>
       <c r="C312" s="18"/>
@@ -13103,7 +13104,7 @@
       <c r="AA312" s="3"/>
       <c r="AB312" s="3"/>
     </row>
-    <row r="313" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="18"/>
       <c r="B313" s="12"/>
       <c r="C313" s="18"/>
@@ -13133,7 +13134,7 @@
       <c r="AA313" s="3"/>
       <c r="AB313" s="3"/>
     </row>
-    <row r="314" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="18"/>
       <c r="B314" s="12"/>
       <c r="C314" s="18"/>
@@ -13163,7 +13164,7 @@
       <c r="AA314" s="3"/>
       <c r="AB314" s="3"/>
     </row>
-    <row r="315" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="18"/>
       <c r="B315" s="12"/>
       <c r="C315" s="18"/>
@@ -13193,7 +13194,7 @@
       <c r="AA315" s="3"/>
       <c r="AB315" s="3"/>
     </row>
-    <row r="316" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="18"/>
       <c r="B316" s="12"/>
       <c r="C316" s="18"/>
@@ -13223,7 +13224,7 @@
       <c r="AA316" s="3"/>
       <c r="AB316" s="3"/>
     </row>
-    <row r="317" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="18"/>
       <c r="B317" s="12"/>
       <c r="C317" s="18"/>
@@ -13253,7 +13254,7 @@
       <c r="AA317" s="3"/>
       <c r="AB317" s="3"/>
     </row>
-    <row r="318" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="18"/>
       <c r="B318" s="12"/>
       <c r="C318" s="18"/>
@@ -13283,7 +13284,7 @@
       <c r="AA318" s="3"/>
       <c r="AB318" s="3"/>
     </row>
-    <row r="319" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="18"/>
       <c r="B319" s="12"/>
       <c r="C319" s="18"/>
@@ -13313,7 +13314,7 @@
       <c r="AA319" s="3"/>
       <c r="AB319" s="3"/>
     </row>
-    <row r="320" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="18"/>
       <c r="B320" s="12"/>
       <c r="C320" s="18"/>
@@ -13343,7 +13344,7 @@
       <c r="AA320" s="3"/>
       <c r="AB320" s="3"/>
     </row>
-    <row r="321" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="18"/>
       <c r="B321" s="12"/>
       <c r="C321" s="18"/>
@@ -13373,7 +13374,7 @@
       <c r="AA321" s="3"/>
       <c r="AB321" s="3"/>
     </row>
-    <row r="322" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="18"/>
       <c r="B322" s="12"/>
       <c r="C322" s="18"/>
@@ -13403,7 +13404,7 @@
       <c r="AA322" s="3"/>
       <c r="AB322" s="3"/>
     </row>
-    <row r="323" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="18"/>
       <c r="B323" s="12"/>
       <c r="C323" s="18"/>
@@ -13433,7 +13434,7 @@
       <c r="AA323" s="3"/>
       <c r="AB323" s="3"/>
     </row>
-    <row r="324" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="18"/>
       <c r="B324" s="12"/>
       <c r="C324" s="18"/>
@@ -13463,7 +13464,7 @@
       <c r="AA324" s="3"/>
       <c r="AB324" s="3"/>
     </row>
-    <row r="325" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="18"/>
       <c r="B325" s="12"/>
       <c r="C325" s="18"/>
@@ -13493,7 +13494,7 @@
       <c r="AA325" s="3"/>
       <c r="AB325" s="3"/>
     </row>
-    <row r="326" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="18"/>
       <c r="B326" s="12"/>
       <c r="C326" s="18"/>
@@ -13523,7 +13524,7 @@
       <c r="AA326" s="3"/>
       <c r="AB326" s="3"/>
     </row>
-    <row r="327" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="18"/>
       <c r="B327" s="12"/>
       <c r="C327" s="18"/>
@@ -13553,7 +13554,7 @@
       <c r="AA327" s="3"/>
       <c r="AB327" s="3"/>
     </row>
-    <row r="328" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="18"/>
       <c r="B328" s="12"/>
       <c r="C328" s="18"/>
@@ -13583,7 +13584,7 @@
       <c r="AA328" s="3"/>
       <c r="AB328" s="3"/>
     </row>
-    <row r="329" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="18"/>
       <c r="B329" s="12"/>
       <c r="C329" s="18"/>
@@ -13613,7 +13614,7 @@
       <c r="AA329" s="3"/>
       <c r="AB329" s="3"/>
     </row>
-    <row r="330" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="18"/>
       <c r="B330" s="12"/>
       <c r="C330" s="18"/>
@@ -13643,7 +13644,7 @@
       <c r="AA330" s="3"/>
       <c r="AB330" s="3"/>
     </row>
-    <row r="331" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="18"/>
       <c r="B331" s="12"/>
       <c r="C331" s="18"/>
@@ -13673,7 +13674,7 @@
       <c r="AA331" s="3"/>
       <c r="AB331" s="3"/>
     </row>
-    <row r="332" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="18"/>
       <c r="B332" s="12"/>
       <c r="C332" s="18"/>
@@ -13703,7 +13704,7 @@
       <c r="AA332" s="3"/>
       <c r="AB332" s="3"/>
     </row>
-    <row r="333" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="18"/>
       <c r="B333" s="12"/>
       <c r="C333" s="18"/>
@@ -13733,7 +13734,7 @@
       <c r="AA333" s="3"/>
       <c r="AB333" s="3"/>
     </row>
-    <row r="334" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="18"/>
       <c r="B334" s="12"/>
       <c r="C334" s="18"/>
@@ -13763,7 +13764,7 @@
       <c r="AA334" s="3"/>
       <c r="AB334" s="3"/>
     </row>
-    <row r="335" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="18"/>
       <c r="B335" s="12"/>
       <c r="C335" s="18"/>
@@ -13793,7 +13794,7 @@
       <c r="AA335" s="3"/>
       <c r="AB335" s="3"/>
     </row>
-    <row r="336" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="18"/>
       <c r="B336" s="12"/>
       <c r="C336" s="18"/>
@@ -13823,7 +13824,7 @@
       <c r="AA336" s="3"/>
       <c r="AB336" s="3"/>
     </row>
-    <row r="337" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="18"/>
       <c r="B337" s="12"/>
       <c r="C337" s="18"/>
@@ -13853,7 +13854,7 @@
       <c r="AA337" s="3"/>
       <c r="AB337" s="3"/>
     </row>
-    <row r="338" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="18"/>
       <c r="B338" s="12"/>
       <c r="C338" s="18"/>
@@ -13883,7 +13884,7 @@
       <c r="AA338" s="3"/>
       <c r="AB338" s="3"/>
     </row>
-    <row r="339" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="18"/>
       <c r="B339" s="12"/>
       <c r="C339" s="18"/>
@@ -13913,7 +13914,7 @@
       <c r="AA339" s="3"/>
       <c r="AB339" s="3"/>
     </row>
-    <row r="340" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="18"/>
       <c r="B340" s="12"/>
       <c r="C340" s="18"/>
@@ -13943,7 +13944,7 @@
       <c r="AA340" s="3"/>
       <c r="AB340" s="3"/>
     </row>
-    <row r="341" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="18"/>
       <c r="B341" s="12"/>
       <c r="C341" s="18"/>
@@ -13973,7 +13974,7 @@
       <c r="AA341" s="3"/>
       <c r="AB341" s="3"/>
     </row>
-    <row r="342" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="18"/>
       <c r="B342" s="12"/>
       <c r="C342" s="18"/>
@@ -14003,7 +14004,7 @@
       <c r="AA342" s="3"/>
       <c r="AB342" s="3"/>
     </row>
-    <row r="343" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="18"/>
       <c r="B343" s="12"/>
       <c r="C343" s="18"/>
@@ -14033,7 +14034,7 @@
       <c r="AA343" s="3"/>
       <c r="AB343" s="3"/>
     </row>
-    <row r="344" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="18"/>
       <c r="B344" s="12"/>
       <c r="C344" s="18"/>
@@ -14063,7 +14064,7 @@
       <c r="AA344" s="3"/>
       <c r="AB344" s="3"/>
     </row>
-    <row r="345" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="18"/>
       <c r="B345" s="12"/>
       <c r="C345" s="18"/>
@@ -14093,7 +14094,7 @@
       <c r="AA345" s="3"/>
       <c r="AB345" s="3"/>
     </row>
-    <row r="346" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="18"/>
       <c r="B346" s="12"/>
       <c r="C346" s="18"/>
@@ -14123,7 +14124,7 @@
       <c r="AA346" s="3"/>
       <c r="AB346" s="3"/>
     </row>
-    <row r="347" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="18"/>
       <c r="B347" s="12"/>
       <c r="C347" s="18"/>
@@ -14153,7 +14154,7 @@
       <c r="AA347" s="3"/>
       <c r="AB347" s="3"/>
     </row>
-    <row r="348" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="18"/>
       <c r="B348" s="12"/>
       <c r="C348" s="18"/>
@@ -14183,7 +14184,7 @@
       <c r="AA348" s="3"/>
       <c r="AB348" s="3"/>
     </row>
-    <row r="349" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="18"/>
       <c r="B349" s="12"/>
       <c r="C349" s="18"/>
@@ -14213,7 +14214,7 @@
       <c r="AA349" s="3"/>
       <c r="AB349" s="3"/>
     </row>
-    <row r="350" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="18"/>
       <c r="B350" s="12"/>
       <c r="C350" s="18"/>
@@ -14243,7 +14244,7 @@
       <c r="AA350" s="3"/>
       <c r="AB350" s="3"/>
     </row>
-    <row r="351" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="18"/>
       <c r="B351" s="12"/>
       <c r="C351" s="18"/>
@@ -14273,7 +14274,7 @@
       <c r="AA351" s="3"/>
       <c r="AB351" s="3"/>
     </row>
-    <row r="352" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="18"/>
       <c r="B352" s="12"/>
       <c r="C352" s="18"/>
@@ -14303,7 +14304,7 @@
       <c r="AA352" s="3"/>
       <c r="AB352" s="3"/>
     </row>
-    <row r="353" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="18"/>
       <c r="B353" s="12"/>
       <c r="C353" s="18"/>
@@ -14333,7 +14334,7 @@
       <c r="AA353" s="3"/>
       <c r="AB353" s="3"/>
     </row>
-    <row r="354" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="18"/>
       <c r="B354" s="12"/>
       <c r="C354" s="18"/>
@@ -14363,7 +14364,7 @@
       <c r="AA354" s="3"/>
       <c r="AB354" s="3"/>
     </row>
-    <row r="355" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="18"/>
       <c r="B355" s="12"/>
       <c r="C355" s="18"/>
@@ -14393,7 +14394,7 @@
       <c r="AA355" s="3"/>
       <c r="AB355" s="3"/>
     </row>
-    <row r="356" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="18"/>
       <c r="B356" s="12"/>
       <c r="C356" s="18"/>
@@ -14423,7 +14424,7 @@
       <c r="AA356" s="3"/>
       <c r="AB356" s="3"/>
     </row>
-    <row r="357" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="18"/>
       <c r="B357" s="12"/>
       <c r="C357" s="18"/>
@@ -14453,7 +14454,7 @@
       <c r="AA357" s="3"/>
       <c r="AB357" s="3"/>
     </row>
-    <row r="358" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="18"/>
       <c r="B358" s="12"/>
       <c r="C358" s="18"/>
@@ -14483,7 +14484,7 @@
       <c r="AA358" s="3"/>
       <c r="AB358" s="3"/>
     </row>
-    <row r="359" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="18"/>
       <c r="B359" s="12"/>
       <c r="C359" s="18"/>
@@ -14513,7 +14514,7 @@
       <c r="AA359" s="3"/>
       <c r="AB359" s="3"/>
     </row>
-    <row r="360" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="18"/>
       <c r="B360" s="12"/>
       <c r="C360" s="18"/>
@@ -14543,7 +14544,7 @@
       <c r="AA360" s="3"/>
       <c r="AB360" s="3"/>
     </row>
-    <row r="361" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="18"/>
       <c r="B361" s="12"/>
       <c r="C361" s="18"/>
@@ -14573,7 +14574,7 @@
       <c r="AA361" s="3"/>
       <c r="AB361" s="3"/>
     </row>
-    <row r="362" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="18"/>
       <c r="B362" s="12"/>
       <c r="C362" s="18"/>
@@ -14603,7 +14604,7 @@
       <c r="AA362" s="3"/>
       <c r="AB362" s="3"/>
     </row>
-    <row r="363" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="18"/>
       <c r="B363" s="12"/>
       <c r="C363" s="18"/>
@@ -14633,7 +14634,7 @@
       <c r="AA363" s="3"/>
       <c r="AB363" s="3"/>
     </row>
-    <row r="364" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="18"/>
       <c r="B364" s="12"/>
       <c r="C364" s="18"/>
@@ -14663,7 +14664,7 @@
       <c r="AA364" s="3"/>
       <c r="AB364" s="3"/>
     </row>
-    <row r="365" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="18"/>
       <c r="B365" s="12"/>
       <c r="C365" s="18"/>
@@ -14693,7 +14694,7 @@
       <c r="AA365" s="3"/>
       <c r="AB365" s="3"/>
     </row>
-    <row r="366" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="18"/>
       <c r="B366" s="12"/>
       <c r="C366" s="18"/>
@@ -14723,7 +14724,7 @@
       <c r="AA366" s="3"/>
       <c r="AB366" s="3"/>
     </row>
-    <row r="367" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="18"/>
       <c r="B367" s="12"/>
       <c r="C367" s="18"/>
@@ -14753,7 +14754,7 @@
       <c r="AA367" s="3"/>
       <c r="AB367" s="3"/>
     </row>
-    <row r="368" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="18"/>
       <c r="B368" s="12"/>
       <c r="C368" s="18"/>
@@ -14783,7 +14784,7 @@
       <c r="AA368" s="3"/>
       <c r="AB368" s="3"/>
     </row>
-    <row r="369" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="18"/>
       <c r="B369" s="12"/>
       <c r="C369" s="18"/>
@@ -14813,7 +14814,7 @@
       <c r="AA369" s="3"/>
       <c r="AB369" s="3"/>
     </row>
-    <row r="370" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="18"/>
       <c r="B370" s="12"/>
       <c r="C370" s="18"/>
@@ -14843,7 +14844,7 @@
       <c r="AA370" s="3"/>
       <c r="AB370" s="3"/>
     </row>
-    <row r="371" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="18"/>
       <c r="B371" s="12"/>
       <c r="C371" s="18"/>
@@ -14873,7 +14874,7 @@
       <c r="AA371" s="3"/>
       <c r="AB371" s="3"/>
     </row>
-    <row r="372" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="18"/>
       <c r="B372" s="12"/>
       <c r="C372" s="18"/>
@@ -14903,7 +14904,7 @@
       <c r="AA372" s="3"/>
       <c r="AB372" s="3"/>
     </row>
-    <row r="373" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="18"/>
       <c r="B373" s="12"/>
       <c r="C373" s="18"/>
@@ -14933,7 +14934,7 @@
       <c r="AA373" s="3"/>
       <c r="AB373" s="3"/>
     </row>
-    <row r="374" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="18"/>
       <c r="B374" s="12"/>
       <c r="C374" s="18"/>
@@ -14963,7 +14964,7 @@
       <c r="AA374" s="3"/>
       <c r="AB374" s="3"/>
     </row>
-    <row r="375" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="18"/>
       <c r="B375" s="12"/>
       <c r="C375" s="18"/>
@@ -14993,7 +14994,7 @@
       <c r="AA375" s="3"/>
       <c r="AB375" s="3"/>
     </row>
-    <row r="376" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="18"/>
       <c r="B376" s="12"/>
       <c r="C376" s="18"/>
@@ -15023,7 +15024,7 @@
       <c r="AA376" s="3"/>
       <c r="AB376" s="3"/>
     </row>
-    <row r="377" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="18"/>
       <c r="B377" s="12"/>
       <c r="C377" s="18"/>
@@ -15053,7 +15054,7 @@
       <c r="AA377" s="3"/>
       <c r="AB377" s="3"/>
     </row>
-    <row r="378" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="18"/>
       <c r="B378" s="12"/>
       <c r="C378" s="18"/>
@@ -15083,7 +15084,7 @@
       <c r="AA378" s="3"/>
       <c r="AB378" s="3"/>
     </row>
-    <row r="379" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="18"/>
       <c r="B379" s="12"/>
       <c r="C379" s="18"/>
@@ -15113,7 +15114,7 @@
       <c r="AA379" s="3"/>
       <c r="AB379" s="3"/>
     </row>
-    <row r="380" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="18"/>
       <c r="B380" s="12"/>
       <c r="C380" s="18"/>
@@ -15143,7 +15144,7 @@
       <c r="AA380" s="3"/>
       <c r="AB380" s="3"/>
     </row>
-    <row r="381" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="18"/>
       <c r="B381" s="12"/>
       <c r="C381" s="18"/>
@@ -15173,7 +15174,7 @@
       <c r="AA381" s="3"/>
       <c r="AB381" s="3"/>
     </row>
-    <row r="382" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="18"/>
       <c r="B382" s="12"/>
       <c r="C382" s="18"/>
@@ -15203,7 +15204,7 @@
       <c r="AA382" s="3"/>
       <c r="AB382" s="3"/>
     </row>
-    <row r="383" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="18"/>
       <c r="B383" s="12"/>
       <c r="C383" s="18"/>
@@ -15233,7 +15234,7 @@
       <c r="AA383" s="3"/>
       <c r="AB383" s="3"/>
     </row>
-    <row r="384" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="18"/>
       <c r="B384" s="12"/>
       <c r="C384" s="18"/>
@@ -15263,7 +15264,7 @@
       <c r="AA384" s="3"/>
       <c r="AB384" s="3"/>
     </row>
-    <row r="385" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="18"/>
       <c r="B385" s="12"/>
       <c r="C385" s="18"/>
@@ -15293,7 +15294,7 @@
       <c r="AA385" s="3"/>
       <c r="AB385" s="3"/>
     </row>
-    <row r="386" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="18"/>
       <c r="B386" s="12"/>
       <c r="C386" s="18"/>
@@ -15323,7 +15324,7 @@
       <c r="AA386" s="3"/>
       <c r="AB386" s="3"/>
     </row>
-    <row r="387" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="18"/>
       <c r="B387" s="12"/>
       <c r="C387" s="18"/>
@@ -15353,7 +15354,7 @@
       <c r="AA387" s="3"/>
       <c r="AB387" s="3"/>
     </row>
-    <row r="388" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="18"/>
       <c r="B388" s="12"/>
       <c r="C388" s="18"/>
@@ -15383,7 +15384,7 @@
       <c r="AA388" s="3"/>
       <c r="AB388" s="3"/>
     </row>
-    <row r="389" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="18"/>
       <c r="B389" s="12"/>
       <c r="C389" s="18"/>
@@ -15413,7 +15414,7 @@
       <c r="AA389" s="3"/>
       <c r="AB389" s="3"/>
     </row>
-    <row r="390" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="18"/>
       <c r="B390" s="12"/>
       <c r="C390" s="18"/>
@@ -15443,7 +15444,7 @@
       <c r="AA390" s="3"/>
       <c r="AB390" s="3"/>
     </row>
-    <row r="391" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="18"/>
       <c r="B391" s="12"/>
       <c r="C391" s="18"/>
@@ -15473,7 +15474,7 @@
       <c r="AA391" s="3"/>
       <c r="AB391" s="3"/>
     </row>
-    <row r="392" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="18"/>
       <c r="B392" s="12"/>
       <c r="C392" s="18"/>
@@ -15503,7 +15504,7 @@
       <c r="AA392" s="3"/>
       <c r="AB392" s="3"/>
     </row>
-    <row r="393" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="18"/>
       <c r="B393" s="12"/>
       <c r="C393" s="18"/>
@@ -15533,7 +15534,7 @@
       <c r="AA393" s="3"/>
       <c r="AB393" s="3"/>
     </row>
-    <row r="394" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="18"/>
       <c r="B394" s="12"/>
       <c r="C394" s="18"/>
@@ -15563,7 +15564,7 @@
       <c r="AA394" s="3"/>
       <c r="AB394" s="3"/>
     </row>
-    <row r="395" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="18"/>
       <c r="B395" s="12"/>
       <c r="C395" s="18"/>
@@ -15593,7 +15594,7 @@
       <c r="AA395" s="3"/>
       <c r="AB395" s="3"/>
     </row>
-    <row r="396" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="18"/>
       <c r="B396" s="12"/>
       <c r="C396" s="18"/>
@@ -15623,7 +15624,7 @@
       <c r="AA396" s="3"/>
       <c r="AB396" s="3"/>
     </row>
-    <row r="397" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="18"/>
       <c r="B397" s="12"/>
       <c r="C397" s="18"/>
@@ -15653,7 +15654,7 @@
       <c r="AA397" s="3"/>
       <c r="AB397" s="3"/>
     </row>
-    <row r="398" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="18"/>
       <c r="B398" s="12"/>
       <c r="C398" s="18"/>
@@ -15683,7 +15684,7 @@
       <c r="AA398" s="3"/>
       <c r="AB398" s="3"/>
     </row>
-    <row r="399" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="18"/>
       <c r="B399" s="12"/>
       <c r="C399" s="18"/>
@@ -15713,7 +15714,7 @@
       <c r="AA399" s="3"/>
       <c r="AB399" s="3"/>
     </row>
-    <row r="400" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="18"/>
       <c r="B400" s="12"/>
       <c r="C400" s="18"/>
@@ -15743,7 +15744,7 @@
       <c r="AA400" s="3"/>
       <c r="AB400" s="3"/>
     </row>
-    <row r="401" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="18"/>
       <c r="B401" s="12"/>
       <c r="C401" s="18"/>
@@ -15773,7 +15774,7 @@
       <c r="AA401" s="3"/>
       <c r="AB401" s="3"/>
     </row>
-    <row r="402" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="18"/>
       <c r="B402" s="12"/>
       <c r="C402" s="18"/>
@@ -15803,7 +15804,7 @@
       <c r="AA402" s="3"/>
       <c r="AB402" s="3"/>
     </row>
-    <row r="403" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="18"/>
       <c r="B403" s="12"/>
       <c r="C403" s="18"/>
@@ -15833,7 +15834,7 @@
       <c r="AA403" s="3"/>
       <c r="AB403" s="3"/>
     </row>
-    <row r="404" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="18"/>
       <c r="B404" s="12"/>
       <c r="C404" s="18"/>
@@ -15863,7 +15864,7 @@
       <c r="AA404" s="3"/>
       <c r="AB404" s="3"/>
     </row>
-    <row r="405" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="18"/>
       <c r="B405" s="12"/>
       <c r="C405" s="18"/>
@@ -15893,7 +15894,7 @@
       <c r="AA405" s="3"/>
       <c r="AB405" s="3"/>
     </row>
-    <row r="406" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="18"/>
       <c r="B406" s="12"/>
       <c r="C406" s="18"/>
@@ -15923,7 +15924,7 @@
       <c r="AA406" s="3"/>
       <c r="AB406" s="3"/>
     </row>
-    <row r="407" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="18"/>
       <c r="B407" s="12"/>
       <c r="C407" s="18"/>
@@ -15953,7 +15954,7 @@
       <c r="AA407" s="3"/>
       <c r="AB407" s="3"/>
     </row>
-    <row r="408" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="18"/>
       <c r="B408" s="12"/>
       <c r="C408" s="18"/>
@@ -15983,7 +15984,7 @@
       <c r="AA408" s="3"/>
       <c r="AB408" s="3"/>
     </row>
-    <row r="409" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="18"/>
       <c r="B409" s="12"/>
       <c r="C409" s="18"/>
@@ -16013,7 +16014,7 @@
       <c r="AA409" s="3"/>
       <c r="AB409" s="3"/>
     </row>
-    <row r="410" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="18"/>
       <c r="B410" s="12"/>
       <c r="C410" s="18"/>
@@ -16043,7 +16044,7 @@
       <c r="AA410" s="3"/>
       <c r="AB410" s="3"/>
     </row>
-    <row r="411" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="18"/>
       <c r="B411" s="12"/>
       <c r="C411" s="18"/>
@@ -16073,7 +16074,7 @@
       <c r="AA411" s="3"/>
       <c r="AB411" s="3"/>
     </row>
-    <row r="412" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="18"/>
       <c r="B412" s="12"/>
       <c r="C412" s="18"/>
@@ -16103,7 +16104,7 @@
       <c r="AA412" s="3"/>
       <c r="AB412" s="3"/>
     </row>
-    <row r="413" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="18"/>
       <c r="B413" s="12"/>
       <c r="C413" s="18"/>
@@ -16133,7 +16134,7 @@
       <c r="AA413" s="3"/>
       <c r="AB413" s="3"/>
     </row>
-    <row r="414" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="18"/>
       <c r="B414" s="12"/>
       <c r="C414" s="18"/>
@@ -16163,7 +16164,7 @@
       <c r="AA414" s="3"/>
       <c r="AB414" s="3"/>
     </row>
-    <row r="415" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="18"/>
       <c r="B415" s="12"/>
       <c r="C415" s="18"/>
@@ -16193,7 +16194,7 @@
       <c r="AA415" s="3"/>
       <c r="AB415" s="3"/>
     </row>
-    <row r="416" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="18"/>
       <c r="B416" s="12"/>
       <c r="C416" s="18"/>
@@ -16223,7 +16224,7 @@
       <c r="AA416" s="3"/>
       <c r="AB416" s="3"/>
     </row>
-    <row r="417" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="18"/>
       <c r="B417" s="12"/>
       <c r="C417" s="18"/>
@@ -16253,7 +16254,7 @@
       <c r="AA417" s="3"/>
       <c r="AB417" s="3"/>
     </row>
-    <row r="418" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="18"/>
       <c r="B418" s="12"/>
       <c r="C418" s="18"/>
@@ -16283,7 +16284,7 @@
       <c r="AA418" s="3"/>
       <c r="AB418" s="3"/>
     </row>
-    <row r="419" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="18"/>
       <c r="B419" s="12"/>
       <c r="C419" s="18"/>
@@ -16313,7 +16314,7 @@
       <c r="AA419" s="3"/>
       <c r="AB419" s="3"/>
     </row>
-    <row r="420" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="18"/>
       <c r="B420" s="12"/>
       <c r="C420" s="18"/>
@@ -16343,7 +16344,7 @@
       <c r="AA420" s="3"/>
       <c r="AB420" s="3"/>
     </row>
-    <row r="421" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="18"/>
       <c r="B421" s="12"/>
       <c r="C421" s="18"/>
@@ -16373,7 +16374,7 @@
       <c r="AA421" s="3"/>
       <c r="AB421" s="3"/>
     </row>
-    <row r="422" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="18"/>
       <c r="B422" s="12"/>
       <c r="C422" s="18"/>
@@ -16403,7 +16404,7 @@
       <c r="AA422" s="3"/>
       <c r="AB422" s="3"/>
     </row>
-    <row r="423" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="18"/>
       <c r="B423" s="12"/>
       <c r="C423" s="18"/>
@@ -16433,7 +16434,7 @@
       <c r="AA423" s="3"/>
       <c r="AB423" s="3"/>
     </row>
-    <row r="424" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="18"/>
       <c r="B424" s="12"/>
       <c r="C424" s="18"/>
@@ -16463,7 +16464,7 @@
       <c r="AA424" s="3"/>
       <c r="AB424" s="3"/>
     </row>
-    <row r="425" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="18"/>
       <c r="B425" s="12"/>
       <c r="C425" s="18"/>
@@ -16493,7 +16494,7 @@
       <c r="AA425" s="3"/>
       <c r="AB425" s="3"/>
     </row>
-    <row r="426" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="18"/>
       <c r="B426" s="12"/>
       <c r="C426" s="18"/>
@@ -16523,7 +16524,7 @@
       <c r="AA426" s="3"/>
       <c r="AB426" s="3"/>
     </row>
-    <row r="427" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="18"/>
       <c r="B427" s="12"/>
       <c r="C427" s="18"/>
@@ -16553,7 +16554,7 @@
       <c r="AA427" s="3"/>
       <c r="AB427" s="3"/>
     </row>
-    <row r="428" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="18"/>
       <c r="B428" s="12"/>
       <c r="C428" s="18"/>
@@ -16583,7 +16584,7 @@
       <c r="AA428" s="3"/>
       <c r="AB428" s="3"/>
     </row>
-    <row r="429" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="18"/>
       <c r="B429" s="12"/>
       <c r="C429" s="18"/>
@@ -16613,7 +16614,7 @@
       <c r="AA429" s="3"/>
       <c r="AB429" s="3"/>
     </row>
-    <row r="430" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="18"/>
       <c r="B430" s="12"/>
       <c r="C430" s="18"/>
@@ -16643,7 +16644,7 @@
       <c r="AA430" s="3"/>
       <c r="AB430" s="3"/>
     </row>
-    <row r="431" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="18"/>
       <c r="B431" s="12"/>
       <c r="C431" s="18"/>
@@ -16673,7 +16674,7 @@
       <c r="AA431" s="3"/>
       <c r="AB431" s="3"/>
     </row>
-    <row r="432" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="18"/>
       <c r="B432" s="12"/>
       <c r="C432" s="18"/>
@@ -16703,7 +16704,7 @@
       <c r="AA432" s="3"/>
       <c r="AB432" s="3"/>
     </row>
-    <row r="433" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="18"/>
       <c r="B433" s="12"/>
       <c r="C433" s="18"/>
@@ -16733,7 +16734,7 @@
       <c r="AA433" s="3"/>
       <c r="AB433" s="3"/>
     </row>
-    <row r="434" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="18"/>
       <c r="B434" s="12"/>
       <c r="C434" s="18"/>
@@ -16763,7 +16764,7 @@
       <c r="AA434" s="3"/>
       <c r="AB434" s="3"/>
     </row>
-    <row r="435" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="18"/>
       <c r="B435" s="12"/>
       <c r="C435" s="18"/>
@@ -16793,7 +16794,7 @@
       <c r="AA435" s="3"/>
       <c r="AB435" s="3"/>
     </row>
-    <row r="436" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="18"/>
       <c r="B436" s="12"/>
       <c r="C436" s="18"/>
@@ -16823,7 +16824,7 @@
       <c r="AA436" s="3"/>
       <c r="AB436" s="3"/>
     </row>
-    <row r="437" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="18"/>
       <c r="B437" s="12"/>
       <c r="C437" s="18"/>
@@ -16853,7 +16854,7 @@
       <c r="AA437" s="3"/>
       <c r="AB437" s="3"/>
     </row>
-    <row r="438" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="18"/>
       <c r="B438" s="12"/>
       <c r="C438" s="18"/>
@@ -16883,7 +16884,7 @@
       <c r="AA438" s="3"/>
       <c r="AB438" s="3"/>
     </row>
-    <row r="439" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="18"/>
       <c r="B439" s="12"/>
       <c r="C439" s="18"/>
@@ -16913,7 +16914,7 @@
       <c r="AA439" s="3"/>
       <c r="AB439" s="3"/>
     </row>
-    <row r="440" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="18"/>
       <c r="B440" s="12"/>
       <c r="C440" s="18"/>
@@ -16943,7 +16944,7 @@
       <c r="AA440" s="3"/>
       <c r="AB440" s="3"/>
     </row>
-    <row r="441" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="18"/>
       <c r="B441" s="12"/>
       <c r="C441" s="18"/>
@@ -16973,7 +16974,7 @@
       <c r="AA441" s="3"/>
       <c r="AB441" s="3"/>
     </row>
-    <row r="442" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="18"/>
       <c r="B442" s="12"/>
       <c r="C442" s="18"/>
@@ -17003,7 +17004,7 @@
       <c r="AA442" s="3"/>
       <c r="AB442" s="3"/>
     </row>
-    <row r="443" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="18"/>
       <c r="B443" s="12"/>
       <c r="C443" s="18"/>
@@ -17033,7 +17034,7 @@
       <c r="AA443" s="3"/>
       <c r="AB443" s="3"/>
     </row>
-    <row r="444" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="18"/>
       <c r="B444" s="12"/>
       <c r="C444" s="18"/>
@@ -17063,7 +17064,7 @@
       <c r="AA444" s="3"/>
       <c r="AB444" s="3"/>
     </row>
-    <row r="445" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="18"/>
       <c r="B445" s="12"/>
       <c r="C445" s="18"/>
@@ -17093,7 +17094,7 @@
       <c r="AA445" s="3"/>
       <c r="AB445" s="3"/>
     </row>
-    <row r="446" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="18"/>
       <c r="B446" s="12"/>
       <c r="C446" s="18"/>
@@ -17123,7 +17124,7 @@
       <c r="AA446" s="3"/>
       <c r="AB446" s="3"/>
     </row>
-    <row r="447" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="18"/>
       <c r="B447" s="12"/>
       <c r="C447" s="18"/>
@@ -17153,7 +17154,7 @@
       <c r="AA447" s="3"/>
       <c r="AB447" s="3"/>
     </row>
-    <row r="448" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="18"/>
       <c r="B448" s="12"/>
       <c r="C448" s="18"/>
@@ -17183,7 +17184,7 @@
       <c r="AA448" s="3"/>
       <c r="AB448" s="3"/>
     </row>
-    <row r="449" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="18"/>
       <c r="B449" s="12"/>
       <c r="C449" s="18"/>
@@ -17213,7 +17214,7 @@
       <c r="AA449" s="3"/>
       <c r="AB449" s="3"/>
     </row>
-    <row r="450" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="18"/>
       <c r="B450" s="12"/>
       <c r="C450" s="18"/>
@@ -17243,7 +17244,7 @@
       <c r="AA450" s="3"/>
       <c r="AB450" s="3"/>
     </row>
-    <row r="451" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="18"/>
       <c r="B451" s="12"/>
       <c r="C451" s="18"/>
@@ -17273,7 +17274,7 @@
       <c r="AA451" s="3"/>
       <c r="AB451" s="3"/>
     </row>
-    <row r="452" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="18"/>
       <c r="B452" s="12"/>
       <c r="C452" s="18"/>
@@ -17303,7 +17304,7 @@
       <c r="AA452" s="3"/>
       <c r="AB452" s="3"/>
     </row>
-    <row r="453" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="18"/>
       <c r="B453" s="12"/>
       <c r="C453" s="18"/>
@@ -17333,7 +17334,7 @@
       <c r="AA453" s="3"/>
       <c r="AB453" s="3"/>
     </row>
-    <row r="454" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="18"/>
       <c r="B454" s="12"/>
       <c r="C454" s="18"/>
@@ -17363,7 +17364,7 @@
       <c r="AA454" s="3"/>
       <c r="AB454" s="3"/>
     </row>
-    <row r="455" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="18"/>
       <c r="B455" s="12"/>
       <c r="C455" s="18"/>
@@ -17393,7 +17394,7 @@
       <c r="AA455" s="3"/>
       <c r="AB455" s="3"/>
     </row>
-    <row r="456" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="18"/>
       <c r="B456" s="12"/>
       <c r="C456" s="18"/>
@@ -17423,7 +17424,7 @@
       <c r="AA456" s="3"/>
       <c r="AB456" s="3"/>
     </row>
-    <row r="457" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="18"/>
       <c r="B457" s="12"/>
       <c r="C457" s="18"/>
@@ -17453,7 +17454,7 @@
       <c r="AA457" s="3"/>
       <c r="AB457" s="3"/>
     </row>
-    <row r="458" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="18"/>
       <c r="B458" s="12"/>
       <c r="C458" s="18"/>
@@ -17483,7 +17484,7 @@
       <c r="AA458" s="3"/>
       <c r="AB458" s="3"/>
     </row>
-    <row r="459" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="18"/>
       <c r="B459" s="12"/>
       <c r="C459" s="18"/>
@@ -17513,7 +17514,7 @@
       <c r="AA459" s="3"/>
       <c r="AB459" s="3"/>
     </row>
-    <row r="460" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="18"/>
       <c r="B460" s="12"/>
       <c r="C460" s="18"/>
@@ -17543,7 +17544,7 @@
       <c r="AA460" s="3"/>
       <c r="AB460" s="3"/>
     </row>
-    <row r="461" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="18"/>
       <c r="B461" s="12"/>
       <c r="C461" s="18"/>
@@ -17573,7 +17574,7 @@
       <c r="AA461" s="3"/>
       <c r="AB461" s="3"/>
     </row>
-    <row r="462" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="18"/>
       <c r="B462" s="12"/>
       <c r="C462" s="18"/>
@@ -17603,7 +17604,7 @@
       <c r="AA462" s="3"/>
       <c r="AB462" s="3"/>
     </row>
-    <row r="463" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="18"/>
       <c r="B463" s="12"/>
       <c r="C463" s="18"/>
@@ -17633,7 +17634,7 @@
       <c r="AA463" s="3"/>
       <c r="AB463" s="3"/>
     </row>
-    <row r="464" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="18"/>
       <c r="B464" s="12"/>
       <c r="C464" s="18"/>
@@ -17663,7 +17664,7 @@
       <c r="AA464" s="3"/>
       <c r="AB464" s="3"/>
     </row>
-    <row r="465" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="18"/>
       <c r="B465" s="12"/>
       <c r="C465" s="18"/>
@@ -17693,7 +17694,7 @@
       <c r="AA465" s="3"/>
       <c r="AB465" s="3"/>
     </row>
-    <row r="466" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="18"/>
       <c r="B466" s="12"/>
       <c r="C466" s="18"/>
@@ -17723,7 +17724,7 @@
       <c r="AA466" s="3"/>
       <c r="AB466" s="3"/>
     </row>
-    <row r="467" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="18"/>
       <c r="B467" s="12"/>
       <c r="C467" s="18"/>
@@ -17753,7 +17754,7 @@
       <c r="AA467" s="3"/>
       <c r="AB467" s="3"/>
     </row>
-    <row r="468" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="18"/>
       <c r="B468" s="12"/>
       <c r="C468" s="18"/>
@@ -17783,7 +17784,7 @@
       <c r="AA468" s="3"/>
       <c r="AB468" s="3"/>
     </row>
-    <row r="469" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="18"/>
       <c r="B469" s="12"/>
       <c r="C469" s="18"/>
@@ -17813,7 +17814,7 @@
       <c r="AA469" s="3"/>
       <c r="AB469" s="3"/>
     </row>
-    <row r="470" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="18"/>
       <c r="B470" s="12"/>
       <c r="C470" s="18"/>
@@ -17843,7 +17844,7 @@
       <c r="AA470" s="3"/>
       <c r="AB470" s="3"/>
     </row>
-    <row r="471" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="18"/>
       <c r="B471" s="12"/>
       <c r="C471" s="18"/>
@@ -17873,7 +17874,7 @@
       <c r="AA471" s="3"/>
       <c r="AB471" s="3"/>
     </row>
-    <row r="472" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="18"/>
       <c r="B472" s="12"/>
       <c r="C472" s="18"/>
@@ -17903,7 +17904,7 @@
       <c r="AA472" s="3"/>
       <c r="AB472" s="3"/>
     </row>
-    <row r="473" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="18"/>
       <c r="B473" s="12"/>
       <c r="C473" s="18"/>
@@ -17933,7 +17934,7 @@
       <c r="AA473" s="3"/>
       <c r="AB473" s="3"/>
     </row>
-    <row r="474" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="18"/>
       <c r="B474" s="12"/>
       <c r="C474" s="18"/>
@@ -17963,7 +17964,7 @@
       <c r="AA474" s="3"/>
       <c r="AB474" s="3"/>
     </row>
-    <row r="475" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="18"/>
       <c r="B475" s="12"/>
       <c r="C475" s="18"/>
@@ -17993,7 +17994,7 @@
       <c r="AA475" s="3"/>
       <c r="AB475" s="3"/>
     </row>
-    <row r="476" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" s="18"/>
       <c r="B476" s="12"/>
       <c r="C476" s="18"/>
@@ -18023,7 +18024,7 @@
       <c r="AA476" s="3"/>
       <c r="AB476" s="3"/>
     </row>
-    <row r="477" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="18"/>
       <c r="B477" s="12"/>
       <c r="C477" s="18"/>
@@ -18053,7 +18054,7 @@
       <c r="AA477" s="3"/>
       <c r="AB477" s="3"/>
     </row>
-    <row r="478" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="18"/>
       <c r="B478" s="12"/>
       <c r="C478" s="18"/>
@@ -18083,7 +18084,7 @@
       <c r="AA478" s="3"/>
       <c r="AB478" s="3"/>
     </row>
-    <row r="479" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="18"/>
       <c r="B479" s="12"/>
       <c r="C479" s="18"/>
@@ -18113,7 +18114,7 @@
       <c r="AA479" s="3"/>
       <c r="AB479" s="3"/>
     </row>
-    <row r="480" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="18"/>
       <c r="B480" s="12"/>
       <c r="C480" s="18"/>
@@ -18143,7 +18144,7 @@
       <c r="AA480" s="3"/>
       <c r="AB480" s="3"/>
     </row>
-    <row r="481" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="18"/>
       <c r="B481" s="12"/>
       <c r="C481" s="18"/>
@@ -18173,7 +18174,7 @@
       <c r="AA481" s="3"/>
       <c r="AB481" s="3"/>
     </row>
-    <row r="482" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="18"/>
       <c r="B482" s="12"/>
       <c r="C482" s="18"/>
@@ -18203,7 +18204,7 @@
       <c r="AA482" s="3"/>
       <c r="AB482" s="3"/>
     </row>
-    <row r="483" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="18"/>
       <c r="B483" s="12"/>
       <c r="C483" s="18"/>
@@ -18233,7 +18234,7 @@
       <c r="AA483" s="3"/>
       <c r="AB483" s="3"/>
     </row>
-    <row r="484" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="18"/>
       <c r="B484" s="12"/>
       <c r="C484" s="18"/>
@@ -18263,7 +18264,7 @@
       <c r="AA484" s="3"/>
       <c r="AB484" s="3"/>
     </row>
-    <row r="485" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="18"/>
       <c r="B485" s="12"/>
       <c r="C485" s="18"/>
@@ -18293,7 +18294,7 @@
       <c r="AA485" s="3"/>
       <c r="AB485" s="3"/>
     </row>
-    <row r="486" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="18"/>
       <c r="B486" s="12"/>
       <c r="C486" s="18"/>
@@ -18323,7 +18324,7 @@
       <c r="AA486" s="3"/>
       <c r="AB486" s="3"/>
     </row>
-    <row r="487" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="18"/>
       <c r="B487" s="12"/>
       <c r="C487" s="18"/>
@@ -18353,7 +18354,7 @@
       <c r="AA487" s="3"/>
       <c r="AB487" s="3"/>
     </row>
-    <row r="488" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="18"/>
       <c r="B488" s="12"/>
       <c r="C488" s="18"/>
@@ -18383,7 +18384,7 @@
       <c r="AA488" s="3"/>
       <c r="AB488" s="3"/>
     </row>
-    <row r="489" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="18"/>
       <c r="B489" s="12"/>
       <c r="C489" s="18"/>
@@ -18413,7 +18414,7 @@
       <c r="AA489" s="3"/>
       <c r="AB489" s="3"/>
     </row>
-    <row r="490" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="18"/>
       <c r="B490" s="12"/>
       <c r="C490" s="18"/>
@@ -18443,7 +18444,7 @@
       <c r="AA490" s="3"/>
       <c r="AB490" s="3"/>
     </row>
-    <row r="491" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="18"/>
       <c r="B491" s="12"/>
       <c r="C491" s="18"/>
@@ -18473,7 +18474,7 @@
       <c r="AA491" s="3"/>
       <c r="AB491" s="3"/>
     </row>
-    <row r="492" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="18"/>
       <c r="B492" s="12"/>
       <c r="C492" s="18"/>
@@ -18503,7 +18504,7 @@
       <c r="AA492" s="3"/>
       <c r="AB492" s="3"/>
     </row>
-    <row r="493" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="18"/>
       <c r="B493" s="12"/>
       <c r="C493" s="18"/>
@@ -18533,7 +18534,7 @@
       <c r="AA493" s="3"/>
       <c r="AB493" s="3"/>
     </row>
-    <row r="494" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="18"/>
       <c r="B494" s="12"/>
       <c r="C494" s="18"/>
@@ -18563,7 +18564,7 @@
       <c r="AA494" s="3"/>
       <c r="AB494" s="3"/>
     </row>
-    <row r="495" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="18"/>
       <c r="B495" s="12"/>
       <c r="C495" s="18"/>
@@ -18593,7 +18594,7 @@
       <c r="AA495" s="3"/>
       <c r="AB495" s="3"/>
     </row>
-    <row r="496" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="18"/>
       <c r="B496" s="12"/>
       <c r="C496" s="18"/>
@@ -18623,7 +18624,7 @@
       <c r="AA496" s="3"/>
       <c r="AB496" s="3"/>
     </row>
-    <row r="497" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="18"/>
       <c r="B497" s="12"/>
       <c r="C497" s="18"/>
@@ -18653,7 +18654,7 @@
       <c r="AA497" s="3"/>
       <c r="AB497" s="3"/>
     </row>
-    <row r="498" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="18"/>
       <c r="B498" s="12"/>
       <c r="C498" s="18"/>
@@ -18683,7 +18684,7 @@
       <c r="AA498" s="3"/>
       <c r="AB498" s="3"/>
     </row>
-    <row r="499" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="18"/>
       <c r="B499" s="12"/>
       <c r="C499" s="18"/>
@@ -18713,7 +18714,7 @@
       <c r="AA499" s="3"/>
       <c r="AB499" s="3"/>
     </row>
-    <row r="500" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="18"/>
       <c r="B500" s="12"/>
       <c r="C500" s="18"/>
@@ -18743,7 +18744,7 @@
       <c r="AA500" s="3"/>
       <c r="AB500" s="3"/>
     </row>
-    <row r="501" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="18"/>
       <c r="B501" s="12"/>
       <c r="C501" s="18"/>
@@ -18773,7 +18774,7 @@
       <c r="AA501" s="3"/>
       <c r="AB501" s="3"/>
     </row>
-    <row r="502" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="18"/>
       <c r="B502" s="12"/>
       <c r="C502" s="18"/>
@@ -18803,7 +18804,7 @@
       <c r="AA502" s="3"/>
       <c r="AB502" s="3"/>
     </row>
-    <row r="503" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="18"/>
       <c r="B503" s="12"/>
       <c r="C503" s="18"/>
@@ -18833,7 +18834,7 @@
       <c r="AA503" s="3"/>
       <c r="AB503" s="3"/>
     </row>
-    <row r="504" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="18"/>
       <c r="B504" s="12"/>
       <c r="C504" s="18"/>
@@ -18863,7 +18864,7 @@
       <c r="AA504" s="3"/>
       <c r="AB504" s="3"/>
     </row>
-    <row r="505" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="18"/>
       <c r="B505" s="12"/>
       <c r="C505" s="18"/>
@@ -18893,7 +18894,7 @@
       <c r="AA505" s="3"/>
       <c r="AB505" s="3"/>
     </row>
-    <row r="506" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="18"/>
       <c r="B506" s="12"/>
       <c r="C506" s="18"/>
@@ -18923,7 +18924,7 @@
       <c r="AA506" s="3"/>
       <c r="AB506" s="3"/>
     </row>
-    <row r="507" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="18"/>
       <c r="B507" s="12"/>
       <c r="C507" s="18"/>
@@ -18953,7 +18954,7 @@
       <c r="AA507" s="3"/>
       <c r="AB507" s="3"/>
     </row>
-    <row r="508" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="18"/>
       <c r="B508" s="12"/>
       <c r="C508" s="18"/>
@@ -18983,7 +18984,7 @@
       <c r="AA508" s="3"/>
       <c r="AB508" s="3"/>
     </row>
-    <row r="509" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" s="18"/>
       <c r="B509" s="12"/>
       <c r="C509" s="18"/>
@@ -19013,7 +19014,7 @@
       <c r="AA509" s="3"/>
       <c r="AB509" s="3"/>
     </row>
-    <row r="510" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="18"/>
       <c r="B510" s="12"/>
       <c r="C510" s="18"/>
@@ -19043,7 +19044,7 @@
       <c r="AA510" s="3"/>
       <c r="AB510" s="3"/>
     </row>
-    <row r="511" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="18"/>
       <c r="B511" s="12"/>
       <c r="C511" s="18"/>
@@ -19073,7 +19074,7 @@
       <c r="AA511" s="3"/>
       <c r="AB511" s="3"/>
     </row>
-    <row r="512" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="18"/>
       <c r="B512" s="12"/>
       <c r="C512" s="18"/>
@@ -19103,7 +19104,7 @@
       <c r="AA512" s="3"/>
       <c r="AB512" s="3"/>
     </row>
-    <row r="513" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="18"/>
       <c r="B513" s="12"/>
       <c r="C513" s="18"/>
@@ -19133,7 +19134,7 @@
       <c r="AA513" s="3"/>
       <c r="AB513" s="3"/>
     </row>
-    <row r="514" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="18"/>
       <c r="B514" s="12"/>
       <c r="C514" s="18"/>
@@ -19163,7 +19164,7 @@
       <c r="AA514" s="3"/>
       <c r="AB514" s="3"/>
     </row>
-    <row r="515" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="18"/>
       <c r="B515" s="12"/>
       <c r="C515" s="18"/>
@@ -19193,7 +19194,7 @@
       <c r="AA515" s="3"/>
       <c r="AB515" s="3"/>
     </row>
-    <row r="516" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="18"/>
       <c r="B516" s="12"/>
       <c r="C516" s="18"/>
@@ -19223,7 +19224,7 @@
       <c r="AA516" s="3"/>
       <c r="AB516" s="3"/>
     </row>
-    <row r="517" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="18"/>
       <c r="B517" s="12"/>
       <c r="C517" s="18"/>
@@ -19253,7 +19254,7 @@
       <c r="AA517" s="3"/>
       <c r="AB517" s="3"/>
     </row>
-    <row r="518" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="18"/>
       <c r="B518" s="12"/>
       <c r="C518" s="18"/>
@@ -19283,7 +19284,7 @@
       <c r="AA518" s="3"/>
       <c r="AB518" s="3"/>
     </row>
-    <row r="519" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="18"/>
       <c r="B519" s="12"/>
       <c r="C519" s="18"/>
@@ -19313,7 +19314,7 @@
       <c r="AA519" s="3"/>
       <c r="AB519" s="3"/>
     </row>
-    <row r="520" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="18"/>
       <c r="B520" s="12"/>
       <c r="C520" s="18"/>
@@ -19343,7 +19344,7 @@
       <c r="AA520" s="3"/>
       <c r="AB520" s="3"/>
     </row>
-    <row r="521" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="18"/>
       <c r="B521" s="12"/>
       <c r="C521" s="18"/>
@@ -19373,7 +19374,7 @@
       <c r="AA521" s="3"/>
       <c r="AB521" s="3"/>
     </row>
-    <row r="522" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="18"/>
       <c r="B522" s="12"/>
       <c r="C522" s="18"/>
@@ -19403,7 +19404,7 @@
       <c r="AA522" s="3"/>
       <c r="AB522" s="3"/>
     </row>
-    <row r="523" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="18"/>
       <c r="B523" s="12"/>
       <c r="C523" s="18"/>
@@ -19433,7 +19434,7 @@
       <c r="AA523" s="3"/>
       <c r="AB523" s="3"/>
     </row>
-    <row r="524" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="18"/>
       <c r="B524" s="12"/>
       <c r="C524" s="18"/>
@@ -19463,7 +19464,7 @@
       <c r="AA524" s="3"/>
       <c r="AB524" s="3"/>
     </row>
-    <row r="525" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="18"/>
       <c r="B525" s="12"/>
       <c r="C525" s="18"/>
@@ -19493,7 +19494,7 @@
       <c r="AA525" s="3"/>
       <c r="AB525" s="3"/>
     </row>
-    <row r="526" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="18"/>
       <c r="B526" s="12"/>
       <c r="C526" s="18"/>
@@ -19523,7 +19524,7 @@
       <c r="AA526" s="3"/>
       <c r="AB526" s="3"/>
     </row>
-    <row r="527" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="18"/>
       <c r="B527" s="12"/>
       <c r="C527" s="18"/>
@@ -19553,7 +19554,7 @@
       <c r="AA527" s="3"/>
       <c r="AB527" s="3"/>
     </row>
-    <row r="528" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="18"/>
       <c r="B528" s="12"/>
       <c r="C528" s="18"/>
@@ -19583,7 +19584,7 @@
       <c r="AA528" s="3"/>
       <c r="AB528" s="3"/>
     </row>
-    <row r="529" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="18"/>
       <c r="B529" s="12"/>
       <c r="C529" s="18"/>
@@ -19613,7 +19614,7 @@
       <c r="AA529" s="3"/>
       <c r="AB529" s="3"/>
     </row>
-    <row r="530" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" s="18"/>
       <c r="B530" s="12"/>
       <c r="C530" s="18"/>
@@ -19643,7 +19644,7 @@
       <c r="AA530" s="3"/>
       <c r="AB530" s="3"/>
     </row>
-    <row r="531" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="18"/>
       <c r="B531" s="12"/>
       <c r="C531" s="18"/>
@@ -19673,7 +19674,7 @@
       <c r="AA531" s="3"/>
       <c r="AB531" s="3"/>
     </row>
-    <row r="532" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="18"/>
       <c r="B532" s="12"/>
       <c r="C532" s="18"/>
@@ -19703,7 +19704,7 @@
       <c r="AA532" s="3"/>
       <c r="AB532" s="3"/>
     </row>
-    <row r="533" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="18"/>
       <c r="B533" s="12"/>
       <c r="C533" s="18"/>
@@ -19733,7 +19734,7 @@
       <c r="AA533" s="3"/>
       <c r="AB533" s="3"/>
     </row>
-    <row r="534" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="18"/>
       <c r="B534" s="12"/>
       <c r="C534" s="18"/>
@@ -19763,7 +19764,7 @@
       <c r="AA534" s="3"/>
       <c r="AB534" s="3"/>
     </row>
-    <row r="535" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="18"/>
       <c r="B535" s="12"/>
       <c r="C535" s="18"/>
@@ -19793,7 +19794,7 @@
       <c r="AA535" s="3"/>
       <c r="AB535" s="3"/>
     </row>
-    <row r="536" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="18"/>
       <c r="B536" s="12"/>
       <c r="C536" s="18"/>
@@ -19823,7 +19824,7 @@
       <c r="AA536" s="3"/>
       <c r="AB536" s="3"/>
     </row>
-    <row r="537" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="18"/>
       <c r="B537" s="12"/>
       <c r="C537" s="18"/>
@@ -19853,7 +19854,7 @@
       <c r="AA537" s="3"/>
       <c r="AB537" s="3"/>
     </row>
-    <row r="538" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" s="18"/>
       <c r="B538" s="12"/>
       <c r="C538" s="18"/>
@@ -19883,7 +19884,7 @@
       <c r="AA538" s="3"/>
       <c r="AB538" s="3"/>
     </row>
-    <row r="539" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A539" s="18"/>
       <c r="B539" s="12"/>
       <c r="C539" s="18"/>
@@ -19913,7 +19914,7 @@
       <c r="AA539" s="3"/>
       <c r="AB539" s="3"/>
     </row>
-    <row r="540" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="18"/>
       <c r="B540" s="12"/>
       <c r="C540" s="18"/>
@@ -19943,7 +19944,7 @@
       <c r="AA540" s="3"/>
       <c r="AB540" s="3"/>
     </row>
-    <row r="541" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="18"/>
       <c r="B541" s="12"/>
       <c r="C541" s="18"/>
@@ -19973,7 +19974,7 @@
       <c r="AA541" s="3"/>
       <c r="AB541" s="3"/>
     </row>
-    <row r="542" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="18"/>
       <c r="B542" s="12"/>
       <c r="C542" s="18"/>
@@ -20003,7 +20004,7 @@
       <c r="AA542" s="3"/>
       <c r="AB542" s="3"/>
     </row>
-    <row r="543" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="18"/>
       <c r="B543" s="12"/>
       <c r="C543" s="18"/>
@@ -20033,7 +20034,7 @@
       <c r="AA543" s="3"/>
       <c r="AB543" s="3"/>
     </row>
-    <row r="544" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A544" s="18"/>
       <c r="B544" s="12"/>
       <c r="C544" s="18"/>
@@ -20063,7 +20064,7 @@
       <c r="AA544" s="3"/>
       <c r="AB544" s="3"/>
     </row>
-    <row r="545" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="18"/>
       <c r="B545" s="12"/>
       <c r="C545" s="18"/>
@@ -20093,7 +20094,7 @@
       <c r="AA545" s="3"/>
       <c r="AB545" s="3"/>
     </row>
-    <row r="546" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="18"/>
       <c r="B546" s="12"/>
       <c r="C546" s="18"/>
@@ -20123,7 +20124,7 @@
       <c r="AA546" s="3"/>
       <c r="AB546" s="3"/>
     </row>
-    <row r="547" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="18"/>
       <c r="B547" s="12"/>
       <c r="C547" s="18"/>
@@ -20153,7 +20154,7 @@
       <c r="AA547" s="3"/>
       <c r="AB547" s="3"/>
     </row>
-    <row r="548" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="18"/>
       <c r="B548" s="12"/>
       <c r="C548" s="18"/>
@@ -20183,7 +20184,7 @@
       <c r="AA548" s="3"/>
       <c r="AB548" s="3"/>
     </row>
-    <row r="549" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="18"/>
       <c r="B549" s="12"/>
       <c r="C549" s="18"/>
@@ -20213,7 +20214,7 @@
       <c r="AA549" s="3"/>
       <c r="AB549" s="3"/>
     </row>
-    <row r="550" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="18"/>
       <c r="B550" s="12"/>
       <c r="C550" s="18"/>
@@ -20243,7 +20244,7 @@
       <c r="AA550" s="3"/>
       <c r="AB550" s="3"/>
     </row>
-    <row r="551" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="18"/>
       <c r="B551" s="12"/>
       <c r="C551" s="18"/>
@@ -20273,7 +20274,7 @@
       <c r="AA551" s="3"/>
       <c r="AB551" s="3"/>
     </row>
-    <row r="552" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="18"/>
       <c r="B552" s="12"/>
       <c r="C552" s="18"/>
@@ -20303,7 +20304,7 @@
       <c r="AA552" s="3"/>
       <c r="AB552" s="3"/>
     </row>
-    <row r="553" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="18"/>
       <c r="B553" s="12"/>
       <c r="C553" s="18"/>
@@ -20333,7 +20334,7 @@
       <c r="AA553" s="3"/>
       <c r="AB553" s="3"/>
     </row>
-    <row r="554" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="18"/>
       <c r="B554" s="12"/>
       <c r="C554" s="18"/>
@@ -20363,7 +20364,7 @@
       <c r="AA554" s="3"/>
       <c r="AB554" s="3"/>
     </row>
-    <row r="555" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="18"/>
       <c r="B555" s="12"/>
       <c r="C555" s="18"/>
@@ -20393,7 +20394,7 @@
       <c r="AA555" s="3"/>
       <c r="AB555" s="3"/>
     </row>
-    <row r="556" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="18"/>
       <c r="B556" s="12"/>
       <c r="C556" s="18"/>
@@ -20423,7 +20424,7 @@
       <c r="AA556" s="3"/>
       <c r="AB556" s="3"/>
     </row>
-    <row r="557" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="18"/>
       <c r="B557" s="12"/>
       <c r="C557" s="18"/>
@@ -20453,7 +20454,7 @@
       <c r="AA557" s="3"/>
       <c r="AB557" s="3"/>
     </row>
-    <row r="558" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="18"/>
       <c r="B558" s="12"/>
       <c r="C558" s="18"/>
@@ -20483,7 +20484,7 @@
       <c r="AA558" s="3"/>
       <c r="AB558" s="3"/>
     </row>
-    <row r="559" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="18"/>
       <c r="B559" s="12"/>
       <c r="C559" s="18"/>
@@ -20513,7 +20514,7 @@
       <c r="AA559" s="3"/>
       <c r="AB559" s="3"/>
     </row>
-    <row r="560" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="18"/>
       <c r="B560" s="12"/>
       <c r="C560" s="18"/>
@@ -20543,7 +20544,7 @@
       <c r="AA560" s="3"/>
       <c r="AB560" s="3"/>
     </row>
-    <row r="561" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="18"/>
       <c r="B561" s="12"/>
       <c r="C561" s="18"/>
@@ -20573,7 +20574,7 @@
       <c r="AA561" s="3"/>
       <c r="AB561" s="3"/>
     </row>
-    <row r="562" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A562" s="18"/>
       <c r="B562" s="12"/>
       <c r="C562" s="18"/>
@@ -20603,7 +20604,7 @@
       <c r="AA562" s="3"/>
       <c r="AB562" s="3"/>
     </row>
-    <row r="563" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="18"/>
       <c r="B563" s="12"/>
       <c r="C563" s="18"/>
@@ -20633,7 +20634,7 @@
       <c r="AA563" s="3"/>
       <c r="AB563" s="3"/>
     </row>
-    <row r="564" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="18"/>
       <c r="B564" s="12"/>
       <c r="C564" s="18"/>
@@ -20663,7 +20664,7 @@
       <c r="AA564" s="3"/>
       <c r="AB564" s="3"/>
     </row>
-    <row r="565" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="18"/>
       <c r="B565" s="12"/>
       <c r="C565" s="18"/>
@@ -20693,7 +20694,7 @@
       <c r="AA565" s="3"/>
       <c r="AB565" s="3"/>
     </row>
-    <row r="566" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="18"/>
       <c r="B566" s="12"/>
       <c r="C566" s="18"/>
@@ -20723,7 +20724,7 @@
       <c r="AA566" s="3"/>
       <c r="AB566" s="3"/>
     </row>
-    <row r="567" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="18"/>
       <c r="B567" s="12"/>
       <c r="C567" s="18"/>
@@ -20753,7 +20754,7 @@
       <c r="AA567" s="3"/>
       <c r="AB567" s="3"/>
     </row>
-    <row r="568" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="18"/>
       <c r="B568" s="12"/>
       <c r="C568" s="18"/>
@@ -20783,7 +20784,7 @@
       <c r="AA568" s="3"/>
       <c r="AB568" s="3"/>
     </row>
-    <row r="569" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="18"/>
       <c r="B569" s="12"/>
       <c r="C569" s="18"/>
@@ -20813,7 +20814,7 @@
       <c r="AA569" s="3"/>
       <c r="AB569" s="3"/>
     </row>
-    <row r="570" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A570" s="18"/>
       <c r="B570" s="12"/>
       <c r="C570" s="18"/>
@@ -20843,7 +20844,7 @@
       <c r="AA570" s="3"/>
       <c r="AB570" s="3"/>
     </row>
-    <row r="571" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="18"/>
       <c r="B571" s="12"/>
       <c r="C571" s="18"/>
@@ -20873,7 +20874,7 @@
       <c r="AA571" s="3"/>
       <c r="AB571" s="3"/>
     </row>
-    <row r="572" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="18"/>
       <c r="B572" s="12"/>
       <c r="C572" s="18"/>
@@ -20903,7 +20904,7 @@
       <c r="AA572" s="3"/>
       <c r="AB572" s="3"/>
     </row>
-    <row r="573" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="18"/>
       <c r="B573" s="12"/>
       <c r="C573" s="18"/>
@@ -20933,7 +20934,7 @@
       <c r="AA573" s="3"/>
       <c r="AB573" s="3"/>
     </row>
-    <row r="574" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="18"/>
       <c r="B574" s="12"/>
       <c r="C574" s="18"/>
@@ -20963,7 +20964,7 @@
       <c r="AA574" s="3"/>
       <c r="AB574" s="3"/>
     </row>
-    <row r="575" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="18"/>
       <c r="B575" s="12"/>
       <c r="C575" s="18"/>
@@ -20993,7 +20994,7 @@
       <c r="AA575" s="3"/>
       <c r="AB575" s="3"/>
     </row>
-    <row r="576" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A576" s="18"/>
       <c r="B576" s="12"/>
       <c r="C576" s="18"/>
@@ -21023,7 +21024,7 @@
       <c r="AA576" s="3"/>
       <c r="AB576" s="3"/>
     </row>
-    <row r="577" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="18"/>
       <c r="B577" s="12"/>
       <c r="C577" s="18"/>
@@ -21053,7 +21054,7 @@
       <c r="AA577" s="3"/>
       <c r="AB577" s="3"/>
     </row>
-    <row r="578" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="18"/>
       <c r="B578" s="12"/>
       <c r="C578" s="18"/>
@@ -21083,7 +21084,7 @@
       <c r="AA578" s="3"/>
       <c r="AB578" s="3"/>
     </row>
-    <row r="579" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="18"/>
       <c r="B579" s="12"/>
       <c r="C579" s="18"/>
@@ -21113,7 +21114,7 @@
       <c r="AA579" s="3"/>
       <c r="AB579" s="3"/>
     </row>
-    <row r="580" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="18"/>
       <c r="B580" s="12"/>
       <c r="C580" s="18"/>
@@ -21143,7 +21144,7 @@
       <c r="AA580" s="3"/>
       <c r="AB580" s="3"/>
     </row>
-    <row r="581" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="18"/>
       <c r="B581" s="12"/>
       <c r="C581" s="18"/>
@@ -21173,7 +21174,7 @@
       <c r="AA581" s="3"/>
       <c r="AB581" s="3"/>
     </row>
-    <row r="582" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A582" s="18"/>
       <c r="B582" s="12"/>
       <c r="C582" s="18"/>
@@ -21203,7 +21204,7 @@
       <c r="AA582" s="3"/>
       <c r="AB582" s="3"/>
     </row>
-    <row r="583" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A583" s="18"/>
       <c r="B583" s="12"/>
       <c r="C583" s="18"/>
@@ -21233,7 +21234,7 @@
       <c r="AA583" s="3"/>
       <c r="AB583" s="3"/>
     </row>
-    <row r="584" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="18"/>
       <c r="B584" s="12"/>
       <c r="C584" s="18"/>
@@ -21263,7 +21264,7 @@
       <c r="AA584" s="3"/>
       <c r="AB584" s="3"/>
     </row>
-    <row r="585" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="18"/>
       <c r="B585" s="12"/>
       <c r="C585" s="18"/>
@@ -21293,7 +21294,7 @@
       <c r="AA585" s="3"/>
       <c r="AB585" s="3"/>
     </row>
-    <row r="586" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" s="18"/>
       <c r="B586" s="12"/>
       <c r="C586" s="18"/>
@@ -21323,7 +21324,7 @@
       <c r="AA586" s="3"/>
       <c r="AB586" s="3"/>
     </row>
-    <row r="587" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="18"/>
       <c r="B587" s="12"/>
       <c r="C587" s="18"/>
@@ -21353,7 +21354,7 @@
       <c r="AA587" s="3"/>
       <c r="AB587" s="3"/>
     </row>
-    <row r="588" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A588" s="18"/>
       <c r="B588" s="12"/>
       <c r="C588" s="18"/>
@@ -21383,7 +21384,7 @@
       <c r="AA588" s="3"/>
       <c r="AB588" s="3"/>
     </row>
-    <row r="589" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="18"/>
       <c r="B589" s="12"/>
       <c r="C589" s="18"/>
@@ -21413,7 +21414,7 @@
       <c r="AA589" s="3"/>
       <c r="AB589" s="3"/>
     </row>
-    <row r="590" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A590" s="18"/>
       <c r="B590" s="12"/>
       <c r="C590" s="18"/>
@@ -21443,7 +21444,7 @@
       <c r="AA590" s="3"/>
       <c r="AB590" s="3"/>
     </row>
-    <row r="591" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A591" s="18"/>
       <c r="B591" s="12"/>
       <c r="C591" s="18"/>
@@ -21473,7 +21474,7 @@
       <c r="AA591" s="3"/>
       <c r="AB591" s="3"/>
     </row>
-    <row r="592" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="18"/>
       <c r="B592" s="12"/>
       <c r="C592" s="18"/>
@@ -21503,7 +21504,7 @@
       <c r="AA592" s="3"/>
       <c r="AB592" s="3"/>
     </row>
-    <row r="593" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="18"/>
       <c r="B593" s="12"/>
       <c r="C593" s="18"/>
@@ -21533,7 +21534,7 @@
       <c r="AA593" s="3"/>
       <c r="AB593" s="3"/>
     </row>
-    <row r="594" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A594" s="18"/>
       <c r="B594" s="12"/>
       <c r="C594" s="18"/>
@@ -21563,7 +21564,7 @@
       <c r="AA594" s="3"/>
       <c r="AB594" s="3"/>
     </row>
-    <row r="595" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A595" s="18"/>
       <c r="B595" s="12"/>
       <c r="C595" s="18"/>
@@ -21593,7 +21594,7 @@
       <c r="AA595" s="3"/>
       <c r="AB595" s="3"/>
     </row>
-    <row r="596" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="18"/>
       <c r="B596" s="12"/>
       <c r="C596" s="18"/>
@@ -21623,7 +21624,7 @@
       <c r="AA596" s="3"/>
       <c r="AB596" s="3"/>
     </row>
-    <row r="597" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="18"/>
       <c r="B597" s="12"/>
       <c r="C597" s="18"/>
@@ -21653,7 +21654,7 @@
       <c r="AA597" s="3"/>
       <c r="AB597" s="3"/>
     </row>
-    <row r="598" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="18"/>
       <c r="B598" s="12"/>
       <c r="C598" s="18"/>
@@ -21683,7 +21684,7 @@
       <c r="AA598" s="3"/>
       <c r="AB598" s="3"/>
     </row>
-    <row r="599" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" s="18"/>
       <c r="B599" s="12"/>
       <c r="C599" s="18"/>
@@ -21713,7 +21714,7 @@
       <c r="AA599" s="3"/>
       <c r="AB599" s="3"/>
     </row>
-    <row r="600" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A600" s="18"/>
       <c r="B600" s="12"/>
       <c r="C600" s="18"/>
@@ -21743,7 +21744,7 @@
       <c r="AA600" s="3"/>
       <c r="AB600" s="3"/>
     </row>
-    <row r="601" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A601" s="18"/>
       <c r="B601" s="12"/>
       <c r="C601" s="18"/>
@@ -21773,7 +21774,7 @@
       <c r="AA601" s="3"/>
       <c r="AB601" s="3"/>
     </row>
-    <row r="602" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="18"/>
       <c r="B602" s="12"/>
       <c r="C602" s="18"/>
@@ -21803,7 +21804,7 @@
       <c r="AA602" s="3"/>
       <c r="AB602" s="3"/>
     </row>
-    <row r="603" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="18"/>
       <c r="B603" s="12"/>
       <c r="C603" s="18"/>
@@ -21833,7 +21834,7 @@
       <c r="AA603" s="3"/>
       <c r="AB603" s="3"/>
     </row>
-    <row r="604" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="18"/>
       <c r="B604" s="12"/>
       <c r="C604" s="18"/>
@@ -21863,7 +21864,7 @@
       <c r="AA604" s="3"/>
       <c r="AB604" s="3"/>
     </row>
-    <row r="605" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A605" s="18"/>
       <c r="B605" s="12"/>
       <c r="C605" s="18"/>
@@ -21893,7 +21894,7 @@
       <c r="AA605" s="3"/>
       <c r="AB605" s="3"/>
     </row>
-    <row r="606" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A606" s="18"/>
       <c r="B606" s="12"/>
       <c r="C606" s="18"/>
@@ -21923,7 +21924,7 @@
       <c r="AA606" s="3"/>
       <c r="AB606" s="3"/>
     </row>
-    <row r="607" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="18"/>
       <c r="B607" s="12"/>
       <c r="C607" s="18"/>
@@ -21953,7 +21954,7 @@
       <c r="AA607" s="3"/>
       <c r="AB607" s="3"/>
     </row>
-    <row r="608" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="18"/>
       <c r="B608" s="12"/>
       <c r="C608" s="18"/>
@@ -21983,7 +21984,7 @@
       <c r="AA608" s="3"/>
       <c r="AB608" s="3"/>
     </row>
-    <row r="609" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="18"/>
       <c r="B609" s="12"/>
       <c r="C609" s="18"/>
@@ -22013,7 +22014,7 @@
       <c r="AA609" s="3"/>
       <c r="AB609" s="3"/>
     </row>
-    <row r="610" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A610" s="18"/>
       <c r="B610" s="12"/>
       <c r="C610" s="18"/>
@@ -22043,7 +22044,7 @@
       <c r="AA610" s="3"/>
       <c r="AB610" s="3"/>
     </row>
-    <row r="611" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="18"/>
       <c r="B611" s="12"/>
       <c r="C611" s="18"/>
@@ -22073,7 +22074,7 @@
       <c r="AA611" s="3"/>
       <c r="AB611" s="3"/>
     </row>
-    <row r="612" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="18"/>
       <c r="B612" s="12"/>
       <c r="C612" s="18"/>
@@ -22103,7 +22104,7 @@
       <c r="AA612" s="3"/>
       <c r="AB612" s="3"/>
     </row>
-    <row r="613" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A613" s="18"/>
       <c r="B613" s="12"/>
       <c r="C613" s="18"/>
@@ -22133,7 +22134,7 @@
       <c r="AA613" s="3"/>
       <c r="AB613" s="3"/>
     </row>
-    <row r="614" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="18"/>
       <c r="B614" s="12"/>
       <c r="C614" s="18"/>
@@ -22163,7 +22164,7 @@
       <c r="AA614" s="3"/>
       <c r="AB614" s="3"/>
     </row>
-    <row r="615" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A615" s="18"/>
       <c r="B615" s="12"/>
       <c r="C615" s="18"/>
@@ -22193,7 +22194,7 @@
       <c r="AA615" s="3"/>
       <c r="AB615" s="3"/>
     </row>
-    <row r="616" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A616" s="18"/>
       <c r="B616" s="12"/>
       <c r="C616" s="18"/>
@@ -22223,7 +22224,7 @@
       <c r="AA616" s="3"/>
       <c r="AB616" s="3"/>
     </row>
-    <row r="617" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A617" s="18"/>
       <c r="B617" s="12"/>
       <c r="C617" s="18"/>
@@ -22253,7 +22254,7 @@
       <c r="AA617" s="3"/>
       <c r="AB617" s="3"/>
     </row>
-    <row r="618" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A618" s="18"/>
       <c r="B618" s="12"/>
       <c r="C618" s="18"/>
@@ -22283,7 +22284,7 @@
       <c r="AA618" s="3"/>
       <c r="AB618" s="3"/>
     </row>
-    <row r="619" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="18"/>
       <c r="B619" s="12"/>
       <c r="C619" s="18"/>
@@ -22313,7 +22314,7 @@
       <c r="AA619" s="3"/>
       <c r="AB619" s="3"/>
     </row>
-    <row r="620" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A620" s="18"/>
       <c r="B620" s="12"/>
       <c r="C620" s="18"/>
@@ -22343,7 +22344,7 @@
       <c r="AA620" s="3"/>
       <c r="AB620" s="3"/>
     </row>
-    <row r="621" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A621" s="18"/>
       <c r="B621" s="12"/>
       <c r="C621" s="18"/>
@@ -22373,7 +22374,7 @@
       <c r="AA621" s="3"/>
       <c r="AB621" s="3"/>
     </row>
-    <row r="622" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="18"/>
       <c r="B622" s="12"/>
       <c r="C622" s="18"/>
@@ -22403,7 +22404,7 @@
       <c r="AA622" s="3"/>
       <c r="AB622" s="3"/>
     </row>
-    <row r="623" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="18"/>
       <c r="B623" s="12"/>
       <c r="C623" s="18"/>
@@ -22433,7 +22434,7 @@
       <c r="AA623" s="3"/>
       <c r="AB623" s="3"/>
     </row>
-    <row r="624" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="18"/>
       <c r="B624" s="12"/>
       <c r="C624" s="18"/>
@@ -22463,7 +22464,7 @@
       <c r="AA624" s="3"/>
       <c r="AB624" s="3"/>
     </row>
-    <row r="625" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A625" s="18"/>
       <c r="B625" s="12"/>
       <c r="C625" s="18"/>
@@ -22493,7 +22494,7 @@
       <c r="AA625" s="3"/>
       <c r="AB625" s="3"/>
     </row>
-    <row r="626" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A626" s="18"/>
       <c r="B626" s="12"/>
       <c r="C626" s="18"/>
@@ -22523,7 +22524,7 @@
       <c r="AA626" s="3"/>
       <c r="AB626" s="3"/>
     </row>
-    <row r="627" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A627" s="18"/>
       <c r="B627" s="12"/>
       <c r="C627" s="18"/>
@@ -22553,7 +22554,7 @@
       <c r="AA627" s="3"/>
       <c r="AB627" s="3"/>
     </row>
-    <row r="628" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A628" s="18"/>
       <c r="B628" s="12"/>
       <c r="C628" s="18"/>
@@ -22583,7 +22584,7 @@
       <c r="AA628" s="3"/>
       <c r="AB628" s="3"/>
     </row>
-    <row r="629" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A629" s="18"/>
       <c r="B629" s="12"/>
       <c r="C629" s="18"/>
@@ -22613,7 +22614,7 @@
       <c r="AA629" s="3"/>
       <c r="AB629" s="3"/>
     </row>
-    <row r="630" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A630" s="18"/>
       <c r="B630" s="12"/>
       <c r="C630" s="18"/>
@@ -22643,7 +22644,7 @@
       <c r="AA630" s="3"/>
       <c r="AB630" s="3"/>
     </row>
-    <row r="631" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A631" s="18"/>
       <c r="B631" s="12"/>
       <c r="C631" s="18"/>
@@ -22673,7 +22674,7 @@
       <c r="AA631" s="3"/>
       <c r="AB631" s="3"/>
     </row>
-    <row r="632" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A632" s="18"/>
       <c r="B632" s="12"/>
       <c r="C632" s="18"/>
@@ -22703,7 +22704,7 @@
       <c r="AA632" s="3"/>
       <c r="AB632" s="3"/>
     </row>
-    <row r="633" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A633" s="18"/>
       <c r="B633" s="12"/>
       <c r="C633" s="18"/>
@@ -22733,7 +22734,7 @@
       <c r="AA633" s="3"/>
       <c r="AB633" s="3"/>
     </row>
-    <row r="634" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A634" s="18"/>
       <c r="B634" s="12"/>
       <c r="C634" s="18"/>
@@ -22763,7 +22764,7 @@
       <c r="AA634" s="3"/>
       <c r="AB634" s="3"/>
     </row>
-    <row r="635" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A635" s="18"/>
       <c r="B635" s="12"/>
       <c r="C635" s="18"/>
@@ -22793,7 +22794,7 @@
       <c r="AA635" s="3"/>
       <c r="AB635" s="3"/>
     </row>
-    <row r="636" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A636" s="18"/>
       <c r="B636" s="12"/>
       <c r="C636" s="18"/>
@@ -22823,7 +22824,7 @@
       <c r="AA636" s="3"/>
       <c r="AB636" s="3"/>
     </row>
-    <row r="637" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A637" s="18"/>
       <c r="B637" s="12"/>
       <c r="C637" s="18"/>
@@ -22853,7 +22854,7 @@
       <c r="AA637" s="3"/>
       <c r="AB637" s="3"/>
     </row>
-    <row r="638" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A638" s="18"/>
       <c r="B638" s="12"/>
       <c r="C638" s="18"/>
@@ -22883,7 +22884,7 @@
       <c r="AA638" s="3"/>
       <c r="AB638" s="3"/>
     </row>
-    <row r="639" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="18"/>
       <c r="B639" s="12"/>
       <c r="C639" s="18"/>
@@ -22913,7 +22914,7 @@
       <c r="AA639" s="3"/>
       <c r="AB639" s="3"/>
     </row>
-    <row r="640" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A640" s="18"/>
       <c r="B640" s="12"/>
       <c r="C640" s="18"/>
@@ -22943,7 +22944,7 @@
       <c r="AA640" s="3"/>
       <c r="AB640" s="3"/>
     </row>
-    <row r="641" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A641" s="18"/>
       <c r="B641" s="12"/>
       <c r="C641" s="18"/>
@@ -22973,7 +22974,7 @@
       <c r="AA641" s="3"/>
       <c r="AB641" s="3"/>
     </row>
-    <row r="642" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A642" s="18"/>
       <c r="B642" s="12"/>
       <c r="C642" s="18"/>
@@ -23003,7 +23004,7 @@
       <c r="AA642" s="3"/>
       <c r="AB642" s="3"/>
     </row>
-    <row r="643" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A643" s="18"/>
       <c r="B643" s="12"/>
       <c r="C643" s="18"/>
@@ -23033,7 +23034,7 @@
       <c r="AA643" s="3"/>
       <c r="AB643" s="3"/>
     </row>
-    <row r="644" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A644" s="18"/>
       <c r="B644" s="12"/>
       <c r="C644" s="18"/>
@@ -23063,7 +23064,7 @@
       <c r="AA644" s="3"/>
       <c r="AB644" s="3"/>
     </row>
-    <row r="645" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A645" s="18"/>
       <c r="B645" s="12"/>
       <c r="C645" s="18"/>
@@ -23093,7 +23094,7 @@
       <c r="AA645" s="3"/>
       <c r="AB645" s="3"/>
     </row>
-    <row r="646" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A646" s="18"/>
       <c r="B646" s="12"/>
       <c r="C646" s="18"/>
@@ -23123,7 +23124,7 @@
       <c r="AA646" s="3"/>
       <c r="AB646" s="3"/>
     </row>
-    <row r="647" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A647" s="18"/>
       <c r="B647" s="12"/>
       <c r="C647" s="18"/>
@@ -23153,7 +23154,7 @@
       <c r="AA647" s="3"/>
       <c r="AB647" s="3"/>
     </row>
-    <row r="648" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A648" s="18"/>
       <c r="B648" s="12"/>
       <c r="C648" s="18"/>
@@ -23183,7 +23184,7 @@
       <c r="AA648" s="3"/>
       <c r="AB648" s="3"/>
     </row>
-    <row r="649" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A649" s="18"/>
       <c r="B649" s="12"/>
       <c r="C649" s="18"/>
@@ -23213,7 +23214,7 @@
       <c r="AA649" s="3"/>
       <c r="AB649" s="3"/>
     </row>
-    <row r="650" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A650" s="18"/>
       <c r="B650" s="12"/>
       <c r="C650" s="18"/>
@@ -23243,7 +23244,7 @@
       <c r="AA650" s="3"/>
       <c r="AB650" s="3"/>
     </row>
-    <row r="651" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A651" s="18"/>
       <c r="B651" s="12"/>
       <c r="C651" s="18"/>
@@ -23273,7 +23274,7 @@
       <c r="AA651" s="3"/>
       <c r="AB651" s="3"/>
     </row>
-    <row r="652" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A652" s="18"/>
       <c r="B652" s="12"/>
       <c r="C652" s="18"/>
@@ -23303,7 +23304,7 @@
       <c r="AA652" s="3"/>
       <c r="AB652" s="3"/>
     </row>
-    <row r="653" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A653" s="18"/>
       <c r="B653" s="12"/>
       <c r="C653" s="18"/>
@@ -23333,7 +23334,7 @@
       <c r="AA653" s="3"/>
       <c r="AB653" s="3"/>
     </row>
-    <row r="654" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A654" s="18"/>
       <c r="B654" s="12"/>
       <c r="C654" s="18"/>
@@ -23363,7 +23364,7 @@
       <c r="AA654" s="3"/>
       <c r="AB654" s="3"/>
     </row>
-    <row r="655" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A655" s="18"/>
       <c r="B655" s="12"/>
       <c r="C655" s="18"/>
@@ -23393,7 +23394,7 @@
       <c r="AA655" s="3"/>
       <c r="AB655" s="3"/>
     </row>
-    <row r="656" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A656" s="18"/>
       <c r="B656" s="12"/>
       <c r="C656" s="18"/>
@@ -23423,7 +23424,7 @@
       <c r="AA656" s="3"/>
       <c r="AB656" s="3"/>
     </row>
-    <row r="657" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A657" s="18"/>
       <c r="B657" s="12"/>
       <c r="C657" s="18"/>
@@ -23453,7 +23454,7 @@
       <c r="AA657" s="3"/>
       <c r="AB657" s="3"/>
     </row>
-    <row r="658" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A658" s="18"/>
       <c r="B658" s="12"/>
       <c r="C658" s="18"/>
@@ -23483,7 +23484,7 @@
       <c r="AA658" s="3"/>
       <c r="AB658" s="3"/>
     </row>
-    <row r="659" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A659" s="18"/>
       <c r="B659" s="12"/>
       <c r="C659" s="18"/>
@@ -23513,7 +23514,7 @@
       <c r="AA659" s="3"/>
       <c r="AB659" s="3"/>
     </row>
-    <row r="660" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A660" s="18"/>
       <c r="B660" s="12"/>
       <c r="C660" s="18"/>
@@ -23543,7 +23544,7 @@
       <c r="AA660" s="3"/>
       <c r="AB660" s="3"/>
     </row>
-    <row r="661" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A661" s="18"/>
       <c r="B661" s="12"/>
       <c r="C661" s="18"/>
@@ -23573,7 +23574,7 @@
       <c r="AA661" s="3"/>
       <c r="AB661" s="3"/>
     </row>
-    <row r="662" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A662" s="18"/>
       <c r="B662" s="12"/>
       <c r="C662" s="18"/>
@@ -23603,7 +23604,7 @@
       <c r="AA662" s="3"/>
       <c r="AB662" s="3"/>
     </row>
-    <row r="663" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A663" s="18"/>
       <c r="B663" s="12"/>
       <c r="C663" s="18"/>
@@ -23633,7 +23634,7 @@
       <c r="AA663" s="3"/>
       <c r="AB663" s="3"/>
     </row>
-    <row r="664" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A664" s="18"/>
       <c r="B664" s="12"/>
       <c r="C664" s="18"/>
@@ -23663,7 +23664,7 @@
       <c r="AA664" s="3"/>
       <c r="AB664" s="3"/>
     </row>
-    <row r="665" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A665" s="18"/>
       <c r="B665" s="12"/>
       <c r="C665" s="18"/>
@@ -23693,7 +23694,7 @@
       <c r="AA665" s="3"/>
       <c r="AB665" s="3"/>
     </row>
-    <row r="666" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A666" s="18"/>
       <c r="B666" s="12"/>
       <c r="C666" s="18"/>
@@ -23723,7 +23724,7 @@
       <c r="AA666" s="3"/>
       <c r="AB666" s="3"/>
     </row>
-    <row r="667" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A667" s="18"/>
       <c r="B667" s="12"/>
       <c r="C667" s="18"/>
@@ -23753,7 +23754,7 @@
       <c r="AA667" s="3"/>
       <c r="AB667" s="3"/>
     </row>
-    <row r="668" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A668" s="18"/>
       <c r="B668" s="12"/>
       <c r="C668" s="18"/>
@@ -23783,7 +23784,7 @@
       <c r="AA668" s="3"/>
       <c r="AB668" s="3"/>
     </row>
-    <row r="669" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A669" s="18"/>
       <c r="B669" s="12"/>
       <c r="C669" s="18"/>
@@ -23813,7 +23814,7 @@
       <c r="AA669" s="3"/>
       <c r="AB669" s="3"/>
     </row>
-    <row r="670" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A670" s="18"/>
       <c r="B670" s="12"/>
       <c r="C670" s="18"/>
@@ -23843,7 +23844,7 @@
       <c r="AA670" s="3"/>
       <c r="AB670" s="3"/>
     </row>
-    <row r="671" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A671" s="18"/>
       <c r="B671" s="12"/>
       <c r="C671" s="18"/>
@@ -23873,7 +23874,7 @@
       <c r="AA671" s="3"/>
       <c r="AB671" s="3"/>
     </row>
-    <row r="672" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A672" s="18"/>
       <c r="B672" s="12"/>
       <c r="C672" s="18"/>
@@ -23903,7 +23904,7 @@
       <c r="AA672" s="3"/>
       <c r="AB672" s="3"/>
     </row>
-    <row r="673" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A673" s="18"/>
       <c r="B673" s="12"/>
       <c r="C673" s="18"/>
@@ -23933,7 +23934,7 @@
       <c r="AA673" s="3"/>
       <c r="AB673" s="3"/>
     </row>
-    <row r="674" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A674" s="18"/>
       <c r="B674" s="12"/>
       <c r="C674" s="18"/>
@@ -23963,7 +23964,7 @@
       <c r="AA674" s="3"/>
       <c r="AB674" s="3"/>
     </row>
-    <row r="675" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A675" s="18"/>
       <c r="B675" s="12"/>
       <c r="C675" s="18"/>
@@ -23993,7 +23994,7 @@
       <c r="AA675" s="3"/>
       <c r="AB675" s="3"/>
     </row>
-    <row r="676" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A676" s="18"/>
       <c r="B676" s="12"/>
       <c r="C676" s="18"/>
@@ -24023,7 +24024,7 @@
       <c r="AA676" s="3"/>
       <c r="AB676" s="3"/>
     </row>
-    <row r="677" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A677" s="18"/>
       <c r="B677" s="12"/>
       <c r="C677" s="18"/>
@@ -24053,7 +24054,7 @@
       <c r="AA677" s="3"/>
       <c r="AB677" s="3"/>
     </row>
-    <row r="678" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A678" s="18"/>
       <c r="B678" s="12"/>
       <c r="C678" s="18"/>
@@ -24083,7 +24084,7 @@
       <c r="AA678" s="3"/>
       <c r="AB678" s="3"/>
     </row>
-    <row r="679" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A679" s="18"/>
       <c r="B679" s="12"/>
       <c r="C679" s="18"/>
@@ -24113,7 +24114,7 @@
       <c r="AA679" s="3"/>
       <c r="AB679" s="3"/>
     </row>
-    <row r="680" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A680" s="18"/>
       <c r="B680" s="12"/>
       <c r="C680" s="18"/>
@@ -24143,7 +24144,7 @@
       <c r="AA680" s="3"/>
       <c r="AB680" s="3"/>
     </row>
-    <row r="681" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A681" s="18"/>
       <c r="B681" s="12"/>
       <c r="C681" s="18"/>
@@ -24173,7 +24174,7 @@
       <c r="AA681" s="3"/>
       <c r="AB681" s="3"/>
     </row>
-    <row r="682" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A682" s="18"/>
       <c r="B682" s="12"/>
       <c r="C682" s="18"/>
@@ -24203,7 +24204,7 @@
       <c r="AA682" s="3"/>
       <c r="AB682" s="3"/>
     </row>
-    <row r="683" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A683" s="18"/>
       <c r="B683" s="12"/>
       <c r="C683" s="18"/>
@@ -24233,7 +24234,7 @@
       <c r="AA683" s="3"/>
       <c r="AB683" s="3"/>
     </row>
-    <row r="684" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A684" s="18"/>
       <c r="B684" s="12"/>
       <c r="C684" s="18"/>
@@ -24263,7 +24264,7 @@
       <c r="AA684" s="3"/>
       <c r="AB684" s="3"/>
     </row>
-    <row r="685" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A685" s="18"/>
       <c r="B685" s="12"/>
       <c r="C685" s="18"/>
@@ -24293,7 +24294,7 @@
       <c r="AA685" s="3"/>
       <c r="AB685" s="3"/>
     </row>
-    <row r="686" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A686" s="18"/>
       <c r="B686" s="12"/>
       <c r="C686" s="18"/>
@@ -24323,7 +24324,7 @@
       <c r="AA686" s="3"/>
       <c r="AB686" s="3"/>
     </row>
-    <row r="687" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A687" s="18"/>
       <c r="B687" s="12"/>
       <c r="C687" s="18"/>
@@ -24353,7 +24354,7 @@
       <c r="AA687" s="3"/>
       <c r="AB687" s="3"/>
     </row>
-    <row r="688" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A688" s="18"/>
       <c r="B688" s="12"/>
       <c r="C688" s="18"/>
@@ -24383,7 +24384,7 @@
       <c r="AA688" s="3"/>
       <c r="AB688" s="3"/>
     </row>
-    <row r="689" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A689" s="18"/>
       <c r="B689" s="12"/>
       <c r="C689" s="18"/>
@@ -24413,7 +24414,7 @@
       <c r="AA689" s="3"/>
       <c r="AB689" s="3"/>
     </row>
-    <row r="690" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A690" s="18"/>
       <c r="B690" s="12"/>
       <c r="C690" s="18"/>
@@ -24443,7 +24444,7 @@
       <c r="AA690" s="3"/>
       <c r="AB690" s="3"/>
     </row>
-    <row r="691" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A691" s="18"/>
       <c r="B691" s="12"/>
       <c r="C691" s="18"/>
@@ -24473,7 +24474,7 @@
       <c r="AA691" s="3"/>
       <c r="AB691" s="3"/>
     </row>
-    <row r="692" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A692" s="18"/>
       <c r="B692" s="12"/>
       <c r="C692" s="18"/>
@@ -24503,7 +24504,7 @@
       <c r="AA692" s="3"/>
       <c r="AB692" s="3"/>
     </row>
-    <row r="693" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A693" s="18"/>
       <c r="B693" s="12"/>
       <c r="C693" s="18"/>
@@ -24533,7 +24534,7 @@
       <c r="AA693" s="3"/>
       <c r="AB693" s="3"/>
     </row>
-    <row r="694" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A694" s="18"/>
       <c r="B694" s="12"/>
       <c r="C694" s="18"/>
@@ -24563,7 +24564,7 @@
       <c r="AA694" s="3"/>
       <c r="AB694" s="3"/>
     </row>
-    <row r="695" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A695" s="18"/>
       <c r="B695" s="12"/>
       <c r="C695" s="18"/>
@@ -24593,7 +24594,7 @@
       <c r="AA695" s="3"/>
       <c r="AB695" s="3"/>
     </row>
-    <row r="696" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A696" s="18"/>
       <c r="B696" s="12"/>
       <c r="C696" s="18"/>
@@ -24623,7 +24624,7 @@
       <c r="AA696" s="3"/>
       <c r="AB696" s="3"/>
     </row>
-    <row r="697" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A697" s="18"/>
       <c r="B697" s="12"/>
       <c r="C697" s="18"/>
@@ -24653,7 +24654,7 @@
       <c r="AA697" s="3"/>
       <c r="AB697" s="3"/>
     </row>
-    <row r="698" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A698" s="18"/>
       <c r="B698" s="12"/>
       <c r="C698" s="18"/>
@@ -24683,7 +24684,7 @@
       <c r="AA698" s="3"/>
       <c r="AB698" s="3"/>
     </row>
-    <row r="699" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A699" s="18"/>
       <c r="B699" s="12"/>
       <c r="C699" s="18"/>
@@ -24713,7 +24714,7 @@
       <c r="AA699" s="3"/>
       <c r="AB699" s="3"/>
     </row>
-    <row r="700" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A700" s="18"/>
       <c r="B700" s="12"/>
       <c r="C700" s="18"/>
@@ -24743,7 +24744,7 @@
       <c r="AA700" s="3"/>
       <c r="AB700" s="3"/>
     </row>
-    <row r="701" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A701" s="18"/>
       <c r="B701" s="12"/>
       <c r="C701" s="18"/>
@@ -24773,7 +24774,7 @@
       <c r="AA701" s="3"/>
       <c r="AB701" s="3"/>
     </row>
-    <row r="702" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A702" s="18"/>
       <c r="B702" s="12"/>
       <c r="C702" s="18"/>
@@ -24803,7 +24804,7 @@
       <c r="AA702" s="3"/>
       <c r="AB702" s="3"/>
     </row>
-    <row r="703" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A703" s="18"/>
       <c r="B703" s="12"/>
       <c r="C703" s="18"/>
@@ -24833,7 +24834,7 @@
       <c r="AA703" s="3"/>
       <c r="AB703" s="3"/>
     </row>
-    <row r="704" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A704" s="18"/>
       <c r="B704" s="12"/>
       <c r="C704" s="18"/>
@@ -24863,7 +24864,7 @@
       <c r="AA704" s="3"/>
       <c r="AB704" s="3"/>
     </row>
-    <row r="705" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A705" s="18"/>
       <c r="B705" s="12"/>
       <c r="C705" s="18"/>
@@ -24893,7 +24894,7 @@
       <c r="AA705" s="3"/>
       <c r="AB705" s="3"/>
     </row>
-    <row r="706" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A706" s="18"/>
       <c r="B706" s="12"/>
       <c r="C706" s="18"/>
@@ -24923,7 +24924,7 @@
       <c r="AA706" s="3"/>
       <c r="AB706" s="3"/>
     </row>
-    <row r="707" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A707" s="18"/>
       <c r="B707" s="12"/>
       <c r="C707" s="18"/>
@@ -24953,7 +24954,7 @@
       <c r="AA707" s="3"/>
       <c r="AB707" s="3"/>
     </row>
-    <row r="708" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A708" s="18"/>
       <c r="B708" s="12"/>
       <c r="C708" s="18"/>
@@ -24983,7 +24984,7 @@
       <c r="AA708" s="3"/>
       <c r="AB708" s="3"/>
     </row>
-    <row r="709" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A709" s="18"/>
       <c r="B709" s="12"/>
       <c r="C709" s="18"/>
@@ -25013,7 +25014,7 @@
       <c r="AA709" s="3"/>
       <c r="AB709" s="3"/>
     </row>
-    <row r="710" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A710" s="18"/>
       <c r="B710" s="12"/>
       <c r="C710" s="18"/>
@@ -25043,7 +25044,7 @@
       <c r="AA710" s="3"/>
       <c r="AB710" s="3"/>
     </row>
-    <row r="711" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A711" s="18"/>
       <c r="B711" s="12"/>
       <c r="C711" s="18"/>
@@ -25073,7 +25074,7 @@
       <c r="AA711" s="3"/>
       <c r="AB711" s="3"/>
     </row>
-    <row r="712" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A712" s="18"/>
       <c r="B712" s="12"/>
       <c r="C712" s="18"/>
@@ -25103,7 +25104,7 @@
       <c r="AA712" s="3"/>
       <c r="AB712" s="3"/>
     </row>
-    <row r="713" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A713" s="18"/>
       <c r="B713" s="12"/>
       <c r="C713" s="18"/>
@@ -25133,7 +25134,7 @@
       <c r="AA713" s="3"/>
       <c r="AB713" s="3"/>
     </row>
-    <row r="714" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A714" s="18"/>
       <c r="B714" s="12"/>
       <c r="C714" s="18"/>
@@ -25163,7 +25164,7 @@
       <c r="AA714" s="3"/>
       <c r="AB714" s="3"/>
     </row>
-    <row r="715" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A715" s="18"/>
       <c r="B715" s="12"/>
       <c r="C715" s="18"/>
@@ -25193,7 +25194,7 @@
       <c r="AA715" s="3"/>
       <c r="AB715" s="3"/>
     </row>
-    <row r="716" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A716" s="18"/>
       <c r="B716" s="12"/>
       <c r="C716" s="18"/>
@@ -25223,7 +25224,7 @@
       <c r="AA716" s="3"/>
       <c r="AB716" s="3"/>
     </row>
-    <row r="717" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A717" s="18"/>
       <c r="B717" s="12"/>
       <c r="C717" s="18"/>
@@ -25253,7 +25254,7 @@
       <c r="AA717" s="3"/>
       <c r="AB717" s="3"/>
     </row>
-    <row r="718" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A718" s="18"/>
       <c r="B718" s="12"/>
       <c r="C718" s="18"/>
@@ -25283,7 +25284,7 @@
       <c r="AA718" s="3"/>
       <c r="AB718" s="3"/>
     </row>
-    <row r="719" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A719" s="18"/>
       <c r="B719" s="12"/>
       <c r="C719" s="18"/>
@@ -25313,7 +25314,7 @@
       <c r="AA719" s="3"/>
       <c r="AB719" s="3"/>
     </row>
-    <row r="720" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A720" s="18"/>
       <c r="B720" s="12"/>
       <c r="C720" s="18"/>
@@ -25343,7 +25344,7 @@
       <c r="AA720" s="3"/>
       <c r="AB720" s="3"/>
     </row>
-    <row r="721" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A721" s="18"/>
       <c r="B721" s="12"/>
       <c r="C721" s="18"/>
@@ -25373,7 +25374,7 @@
       <c r="AA721" s="3"/>
       <c r="AB721" s="3"/>
     </row>
-    <row r="722" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A722" s="18"/>
       <c r="B722" s="12"/>
       <c r="C722" s="18"/>
@@ -25403,7 +25404,7 @@
       <c r="AA722" s="3"/>
       <c r="AB722" s="3"/>
     </row>
-    <row r="723" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A723" s="18"/>
       <c r="B723" s="12"/>
       <c r="C723" s="18"/>
@@ -25433,7 +25434,7 @@
       <c r="AA723" s="3"/>
       <c r="AB723" s="3"/>
     </row>
-    <row r="724" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A724" s="18"/>
       <c r="B724" s="12"/>
       <c r="C724" s="18"/>
@@ -25463,7 +25464,7 @@
       <c r="AA724" s="3"/>
       <c r="AB724" s="3"/>
     </row>
-    <row r="725" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A725" s="18"/>
       <c r="B725" s="12"/>
       <c r="C725" s="18"/>
@@ -25493,7 +25494,7 @@
       <c r="AA725" s="3"/>
       <c r="AB725" s="3"/>
     </row>
-    <row r="726" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A726" s="18"/>
       <c r="B726" s="12"/>
       <c r="C726" s="18"/>
@@ -25523,7 +25524,7 @@
       <c r="AA726" s="3"/>
       <c r="AB726" s="3"/>
     </row>
-    <row r="727" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A727" s="18"/>
       <c r="B727" s="12"/>
       <c r="C727" s="18"/>
@@ -25553,7 +25554,7 @@
       <c r="AA727" s="3"/>
       <c r="AB727" s="3"/>
     </row>
-    <row r="728" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A728" s="18"/>
       <c r="B728" s="12"/>
       <c r="C728" s="18"/>
@@ -25583,7 +25584,7 @@
       <c r="AA728" s="3"/>
       <c r="AB728" s="3"/>
     </row>
-    <row r="729" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A729" s="18"/>
       <c r="B729" s="12"/>
       <c r="C729" s="18"/>
@@ -25613,7 +25614,7 @@
       <c r="AA729" s="3"/>
       <c r="AB729" s="3"/>
     </row>
-    <row r="730" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A730" s="18"/>
       <c r="B730" s="12"/>
       <c r="C730" s="18"/>
@@ -25643,7 +25644,7 @@
       <c r="AA730" s="3"/>
       <c r="AB730" s="3"/>
     </row>
-    <row r="731" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A731" s="18"/>
       <c r="B731" s="12"/>
       <c r="C731" s="18"/>
@@ -25673,7 +25674,7 @@
       <c r="AA731" s="3"/>
       <c r="AB731" s="3"/>
     </row>
-    <row r="732" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A732" s="18"/>
       <c r="B732" s="12"/>
       <c r="C732" s="18"/>
@@ -25703,7 +25704,7 @@
       <c r="AA732" s="3"/>
       <c r="AB732" s="3"/>
     </row>
-    <row r="733" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A733" s="18"/>
       <c r="B733" s="12"/>
       <c r="C733" s="18"/>
@@ -25733,7 +25734,7 @@
       <c r="AA733" s="3"/>
       <c r="AB733" s="3"/>
     </row>
-    <row r="734" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A734" s="18"/>
       <c r="B734" s="12"/>
       <c r="C734" s="18"/>
@@ -25763,7 +25764,7 @@
       <c r="AA734" s="3"/>
       <c r="AB734" s="3"/>
     </row>
-    <row r="735" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A735" s="18"/>
       <c r="B735" s="12"/>
       <c r="C735" s="18"/>
@@ -25793,7 +25794,7 @@
       <c r="AA735" s="3"/>
       <c r="AB735" s="3"/>
     </row>
-    <row r="736" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A736" s="18"/>
       <c r="B736" s="12"/>
       <c r="C736" s="18"/>
@@ -25823,7 +25824,7 @@
       <c r="AA736" s="3"/>
       <c r="AB736" s="3"/>
     </row>
-    <row r="737" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A737" s="18"/>
       <c r="B737" s="12"/>
       <c r="C737" s="18"/>
@@ -25853,7 +25854,7 @@
       <c r="AA737" s="3"/>
       <c r="AB737" s="3"/>
     </row>
-    <row r="738" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A738" s="18"/>
       <c r="B738" s="12"/>
       <c r="C738" s="18"/>
@@ -25883,7 +25884,7 @@
       <c r="AA738" s="3"/>
       <c r="AB738" s="3"/>
     </row>
-    <row r="739" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A739" s="18"/>
       <c r="B739" s="12"/>
       <c r="C739" s="18"/>
@@ -25913,7 +25914,7 @@
       <c r="AA739" s="3"/>
       <c r="AB739" s="3"/>
     </row>
-    <row r="740" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A740" s="18"/>
       <c r="B740" s="12"/>
       <c r="C740" s="18"/>
@@ -25943,7 +25944,7 @@
       <c r="AA740" s="3"/>
       <c r="AB740" s="3"/>
     </row>
-    <row r="741" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A741" s="18"/>
       <c r="B741" s="12"/>
       <c r="C741" s="18"/>
@@ -25973,7 +25974,7 @@
       <c r="AA741" s="3"/>
       <c r="AB741" s="3"/>
     </row>
-    <row r="742" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A742" s="18"/>
       <c r="B742" s="12"/>
       <c r="C742" s="18"/>
@@ -26003,7 +26004,7 @@
       <c r="AA742" s="3"/>
       <c r="AB742" s="3"/>
     </row>
-    <row r="743" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A743" s="18"/>
       <c r="B743" s="12"/>
       <c r="C743" s="18"/>
@@ -26033,7 +26034,7 @@
       <c r="AA743" s="3"/>
       <c r="AB743" s="3"/>
     </row>
-    <row r="744" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A744" s="18"/>
       <c r="B744" s="12"/>
       <c r="C744" s="18"/>
@@ -26063,7 +26064,7 @@
       <c r="AA744" s="3"/>
       <c r="AB744" s="3"/>
     </row>
-    <row r="745" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A745" s="18"/>
       <c r="B745" s="12"/>
       <c r="C745" s="18"/>
@@ -26093,7 +26094,7 @@
       <c r="AA745" s="3"/>
       <c r="AB745" s="3"/>
     </row>
-    <row r="746" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A746" s="18"/>
       <c r="B746" s="12"/>
       <c r="C746" s="18"/>
@@ -26123,7 +26124,7 @@
       <c r="AA746" s="3"/>
       <c r="AB746" s="3"/>
     </row>
-    <row r="747" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A747" s="18"/>
       <c r="B747" s="12"/>
       <c r="C747" s="18"/>
@@ -26153,7 +26154,7 @@
       <c r="AA747" s="3"/>
       <c r="AB747" s="3"/>
     </row>
-    <row r="748" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A748" s="18"/>
       <c r="B748" s="12"/>
       <c r="C748" s="18"/>
@@ -26183,7 +26184,7 @@
       <c r="AA748" s="3"/>
       <c r="AB748" s="3"/>
     </row>
-    <row r="749" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A749" s="18"/>
       <c r="B749" s="12"/>
       <c r="C749" s="18"/>
@@ -26213,7 +26214,7 @@
       <c r="AA749" s="3"/>
       <c r="AB749" s="3"/>
     </row>
-    <row r="750" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A750" s="18"/>
       <c r="B750" s="12"/>
       <c r="C750" s="18"/>
@@ -26243,7 +26244,7 @@
       <c r="AA750" s="3"/>
       <c r="AB750" s="3"/>
     </row>
-    <row r="751" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A751" s="18"/>
       <c r="B751" s="12"/>
       <c r="C751" s="18"/>
@@ -26273,7 +26274,7 @@
       <c r="AA751" s="3"/>
       <c r="AB751" s="3"/>
     </row>
-    <row r="752" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A752" s="18"/>
       <c r="B752" s="12"/>
       <c r="C752" s="18"/>
@@ -26303,7 +26304,7 @@
       <c r="AA752" s="3"/>
       <c r="AB752" s="3"/>
     </row>
-    <row r="753" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A753" s="18"/>
       <c r="B753" s="12"/>
       <c r="C753" s="18"/>
@@ -26333,7 +26334,7 @@
       <c r="AA753" s="3"/>
       <c r="AB753" s="3"/>
     </row>
-    <row r="754" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A754" s="18"/>
       <c r="B754" s="12"/>
       <c r="C754" s="18"/>
@@ -26363,7 +26364,7 @@
       <c r="AA754" s="3"/>
       <c r="AB754" s="3"/>
     </row>
-    <row r="755" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A755" s="18"/>
       <c r="B755" s="12"/>
       <c r="C755" s="18"/>
@@ -26393,7 +26394,7 @@
       <c r="AA755" s="3"/>
       <c r="AB755" s="3"/>
     </row>
-    <row r="756" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A756" s="18"/>
       <c r="B756" s="12"/>
       <c r="C756" s="18"/>
@@ -26423,7 +26424,7 @@
       <c r="AA756" s="3"/>
       <c r="AB756" s="3"/>
     </row>
-    <row r="757" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A757" s="18"/>
       <c r="B757" s="12"/>
       <c r="C757" s="18"/>
@@ -26453,7 +26454,7 @@
       <c r="AA757" s="3"/>
       <c r="AB757" s="3"/>
     </row>
-    <row r="758" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A758" s="18"/>
       <c r="B758" s="12"/>
       <c r="C758" s="18"/>
@@ -26483,7 +26484,7 @@
       <c r="AA758" s="3"/>
       <c r="AB758" s="3"/>
     </row>
-    <row r="759" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A759" s="18"/>
       <c r="B759" s="12"/>
       <c r="C759" s="18"/>
@@ -26513,7 +26514,7 @@
       <c r="AA759" s="3"/>
       <c r="AB759" s="3"/>
     </row>
-    <row r="760" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A760" s="18"/>
       <c r="B760" s="12"/>
       <c r="C760" s="18"/>
@@ -26543,7 +26544,7 @@
       <c r="AA760" s="3"/>
       <c r="AB760" s="3"/>
     </row>
-    <row r="761" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A761" s="18"/>
       <c r="B761" s="12"/>
       <c r="C761" s="18"/>
@@ -26573,7 +26574,7 @@
       <c r="AA761" s="3"/>
       <c r="AB761" s="3"/>
     </row>
-    <row r="762" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A762" s="18"/>
       <c r="B762" s="12"/>
       <c r="C762" s="18"/>
@@ -26603,7 +26604,7 @@
       <c r="AA762" s="3"/>
       <c r="AB762" s="3"/>
     </row>
-    <row r="763" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A763" s="18"/>
       <c r="B763" s="12"/>
       <c r="C763" s="18"/>
@@ -26633,7 +26634,7 @@
       <c r="AA763" s="3"/>
       <c r="AB763" s="3"/>
     </row>
-    <row r="764" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A764" s="18"/>
       <c r="B764" s="12"/>
       <c r="C764" s="18"/>
@@ -26663,7 +26664,7 @@
       <c r="AA764" s="3"/>
       <c r="AB764" s="3"/>
     </row>
-    <row r="765" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A765" s="18"/>
       <c r="B765" s="12"/>
       <c r="C765" s="18"/>
@@ -26693,7 +26694,7 @@
       <c r="AA765" s="3"/>
       <c r="AB765" s="3"/>
     </row>
-    <row r="766" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A766" s="18"/>
       <c r="B766" s="12"/>
       <c r="C766" s="18"/>
@@ -26723,7 +26724,7 @@
       <c r="AA766" s="3"/>
       <c r="AB766" s="3"/>
     </row>
-    <row r="767" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A767" s="18"/>
       <c r="B767" s="12"/>
       <c r="C767" s="18"/>
@@ -26753,7 +26754,7 @@
       <c r="AA767" s="3"/>
       <c r="AB767" s="3"/>
     </row>
-    <row r="768" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A768" s="18"/>
       <c r="B768" s="12"/>
       <c r="C768" s="18"/>
@@ -26783,7 +26784,7 @@
       <c r="AA768" s="3"/>
       <c r="AB768" s="3"/>
     </row>
-    <row r="769" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A769" s="18"/>
       <c r="B769" s="12"/>
       <c r="C769" s="18"/>
@@ -26813,7 +26814,7 @@
       <c r="AA769" s="3"/>
       <c r="AB769" s="3"/>
     </row>
-    <row r="770" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A770" s="18"/>
       <c r="B770" s="12"/>
       <c r="C770" s="18"/>
@@ -26843,7 +26844,7 @@
       <c r="AA770" s="3"/>
       <c r="AB770" s="3"/>
     </row>
-    <row r="771" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A771" s="18"/>
       <c r="B771" s="12"/>
       <c r="C771" s="18"/>
@@ -26873,7 +26874,7 @@
       <c r="AA771" s="3"/>
       <c r="AB771" s="3"/>
     </row>
-    <row r="772" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A772" s="18"/>
       <c r="B772" s="12"/>
       <c r="C772" s="18"/>
@@ -26903,7 +26904,7 @@
       <c r="AA772" s="3"/>
       <c r="AB772" s="3"/>
     </row>
-    <row r="773" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A773" s="18"/>
       <c r="B773" s="12"/>
       <c r="C773" s="18"/>
@@ -26933,7 +26934,7 @@
       <c r="AA773" s="3"/>
       <c r="AB773" s="3"/>
     </row>
-    <row r="774" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A774" s="18"/>
       <c r="B774" s="12"/>
       <c r="C774" s="18"/>
@@ -26963,7 +26964,7 @@
       <c r="AA774" s="3"/>
       <c r="AB774" s="3"/>
     </row>
-    <row r="775" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A775" s="18"/>
       <c r="B775" s="12"/>
       <c r="C775" s="18"/>
@@ -26993,7 +26994,7 @@
       <c r="AA775" s="3"/>
       <c r="AB775" s="3"/>
     </row>
-    <row r="776" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A776" s="18"/>
       <c r="B776" s="12"/>
       <c r="C776" s="18"/>
@@ -27023,7 +27024,7 @@
       <c r="AA776" s="3"/>
       <c r="AB776" s="3"/>
     </row>
-    <row r="777" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A777" s="18"/>
       <c r="B777" s="12"/>
       <c r="C777" s="18"/>
@@ -27053,7 +27054,7 @@
       <c r="AA777" s="3"/>
       <c r="AB777" s="3"/>
     </row>
-    <row r="778" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A778" s="18"/>
       <c r="B778" s="12"/>
       <c r="C778" s="18"/>
@@ -27083,7 +27084,7 @@
       <c r="AA778" s="3"/>
       <c r="AB778" s="3"/>
     </row>
-    <row r="779" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A779" s="18"/>
       <c r="B779" s="12"/>
       <c r="C779" s="18"/>
@@ -27113,7 +27114,7 @@
       <c r="AA779" s="3"/>
       <c r="AB779" s="3"/>
     </row>
-    <row r="780" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A780" s="18"/>
       <c r="B780" s="12"/>
       <c r="C780" s="18"/>
@@ -27143,7 +27144,7 @@
       <c r="AA780" s="3"/>
       <c r="AB780" s="3"/>
     </row>
-    <row r="781" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A781" s="18"/>
       <c r="B781" s="12"/>
       <c r="C781" s="18"/>
@@ -27173,7 +27174,7 @@
       <c r="AA781" s="3"/>
       <c r="AB781" s="3"/>
     </row>
-    <row r="782" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A782" s="18"/>
       <c r="B782" s="12"/>
       <c r="C782" s="18"/>
@@ -27203,7 +27204,7 @@
       <c r="AA782" s="3"/>
       <c r="AB782" s="3"/>
     </row>
-    <row r="783" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A783" s="18"/>
       <c r="B783" s="12"/>
       <c r="C783" s="18"/>
@@ -27233,7 +27234,7 @@
       <c r="AA783" s="3"/>
       <c r="AB783" s="3"/>
     </row>
-    <row r="784" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A784" s="18"/>
       <c r="B784" s="12"/>
       <c r="C784" s="18"/>
@@ -27263,7 +27264,7 @@
       <c r="AA784" s="3"/>
       <c r="AB784" s="3"/>
     </row>
-    <row r="785" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A785" s="18"/>
       <c r="B785" s="12"/>
       <c r="C785" s="18"/>
@@ -27293,7 +27294,7 @@
       <c r="AA785" s="3"/>
       <c r="AB785" s="3"/>
     </row>
-    <row r="786" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A786" s="18"/>
       <c r="B786" s="12"/>
       <c r="C786" s="18"/>
@@ -27323,7 +27324,7 @@
       <c r="AA786" s="3"/>
       <c r="AB786" s="3"/>
     </row>
-    <row r="787" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A787" s="18"/>
       <c r="B787" s="12"/>
       <c r="C787" s="18"/>
@@ -27353,7 +27354,7 @@
       <c r="AA787" s="3"/>
       <c r="AB787" s="3"/>
     </row>
-    <row r="788" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A788" s="18"/>
       <c r="B788" s="12"/>
       <c r="C788" s="18"/>
@@ -27383,7 +27384,7 @@
       <c r="AA788" s="3"/>
       <c r="AB788" s="3"/>
     </row>
-    <row r="789" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A789" s="18"/>
       <c r="B789" s="12"/>
       <c r="C789" s="18"/>
@@ -27413,7 +27414,7 @@
       <c r="AA789" s="3"/>
       <c r="AB789" s="3"/>
     </row>
-    <row r="790" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A790" s="18"/>
       <c r="B790" s="12"/>
       <c r="C790" s="18"/>
@@ -27443,7 +27444,7 @@
       <c r="AA790" s="3"/>
       <c r="AB790" s="3"/>
     </row>
-    <row r="791" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A791" s="18"/>
       <c r="B791" s="12"/>
       <c r="C791" s="18"/>
@@ -27473,7 +27474,7 @@
       <c r="AA791" s="3"/>
       <c r="AB791" s="3"/>
     </row>
-    <row r="792" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A792" s="18"/>
       <c r="B792" s="12"/>
       <c r="C792" s="18"/>
@@ -27503,7 +27504,7 @@
       <c r="AA792" s="3"/>
       <c r="AB792" s="3"/>
     </row>
-    <row r="793" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A793" s="18"/>
       <c r="B793" s="12"/>
       <c r="C793" s="18"/>
@@ -27533,7 +27534,7 @@
       <c r="AA793" s="3"/>
       <c r="AB793" s="3"/>
     </row>
-    <row r="794" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A794" s="18"/>
       <c r="B794" s="12"/>
       <c r="C794" s="18"/>
@@ -27563,7 +27564,7 @@
       <c r="AA794" s="3"/>
       <c r="AB794" s="3"/>
     </row>
-    <row r="795" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A795" s="18"/>
       <c r="B795" s="12"/>
       <c r="C795" s="18"/>
@@ -27593,7 +27594,7 @@
       <c r="AA795" s="3"/>
       <c r="AB795" s="3"/>
     </row>
-    <row r="796" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A796" s="18"/>
       <c r="B796" s="12"/>
       <c r="C796" s="18"/>
@@ -27623,7 +27624,7 @@
       <c r="AA796" s="3"/>
       <c r="AB796" s="3"/>
     </row>
-    <row r="797" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A797" s="18"/>
       <c r="B797" s="12"/>
       <c r="C797" s="18"/>
@@ -27653,7 +27654,7 @@
       <c r="AA797" s="3"/>
       <c r="AB797" s="3"/>
     </row>
-    <row r="798" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A798" s="18"/>
       <c r="B798" s="12"/>
       <c r="C798" s="18"/>
@@ -27683,7 +27684,7 @@
       <c r="AA798" s="3"/>
       <c r="AB798" s="3"/>
     </row>
-    <row r="799" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A799" s="18"/>
       <c r="B799" s="12"/>
       <c r="C799" s="18"/>
@@ -27713,7 +27714,7 @@
       <c r="AA799" s="3"/>
       <c r="AB799" s="3"/>
     </row>
-    <row r="800" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A800" s="18"/>
       <c r="B800" s="12"/>
       <c r="C800" s="18"/>
@@ -27743,7 +27744,7 @@
       <c r="AA800" s="3"/>
       <c r="AB800" s="3"/>
     </row>
-    <row r="801" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A801" s="18"/>
       <c r="B801" s="12"/>
       <c r="C801" s="18"/>
@@ -27773,7 +27774,7 @@
       <c r="AA801" s="3"/>
       <c r="AB801" s="3"/>
     </row>
-    <row r="802" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A802" s="18"/>
       <c r="B802" s="12"/>
       <c r="C802" s="18"/>
@@ -27803,7 +27804,7 @@
       <c r="AA802" s="3"/>
       <c r="AB802" s="3"/>
     </row>
-    <row r="803" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A803" s="18"/>
       <c r="B803" s="12"/>
       <c r="C803" s="18"/>
@@ -27833,7 +27834,7 @@
       <c r="AA803" s="3"/>
       <c r="AB803" s="3"/>
     </row>
-    <row r="804" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A804" s="18"/>
       <c r="B804" s="12"/>
       <c r="C804" s="18"/>
@@ -27863,7 +27864,7 @@
       <c r="AA804" s="3"/>
       <c r="AB804" s="3"/>
     </row>
-    <row r="805" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A805" s="18"/>
       <c r="B805" s="12"/>
       <c r="C805" s="18"/>
@@ -27893,7 +27894,7 @@
       <c r="AA805" s="3"/>
       <c r="AB805" s="3"/>
     </row>
-    <row r="806" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A806" s="18"/>
       <c r="B806" s="12"/>
       <c r="C806" s="18"/>
@@ -27923,7 +27924,7 @@
       <c r="AA806" s="3"/>
       <c r="AB806" s="3"/>
     </row>
-    <row r="807" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A807" s="18"/>
       <c r="B807" s="12"/>
       <c r="C807" s="18"/>
@@ -27953,7 +27954,7 @@
       <c r="AA807" s="3"/>
       <c r="AB807" s="3"/>
     </row>
-    <row r="808" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A808" s="18"/>
       <c r="B808" s="12"/>
       <c r="C808" s="18"/>
@@ -27983,7 +27984,7 @@
       <c r="AA808" s="3"/>
       <c r="AB808" s="3"/>
     </row>
-    <row r="809" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A809" s="18"/>
       <c r="B809" s="12"/>
       <c r="C809" s="18"/>
@@ -28013,7 +28014,7 @@
       <c r="AA809" s="3"/>
       <c r="AB809" s="3"/>
     </row>
-    <row r="810" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A810" s="18"/>
       <c r="B810" s="12"/>
       <c r="C810" s="18"/>
@@ -28043,7 +28044,7 @@
       <c r="AA810" s="3"/>
       <c r="AB810" s="3"/>
     </row>
-    <row r="811" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A811" s="18"/>
       <c r="B811" s="12"/>
       <c r="C811" s="18"/>
@@ -28073,7 +28074,7 @@
       <c r="AA811" s="3"/>
       <c r="AB811" s="3"/>
     </row>
-    <row r="812" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A812" s="18"/>
       <c r="B812" s="12"/>
       <c r="C812" s="18"/>
@@ -28103,7 +28104,7 @@
       <c r="AA812" s="3"/>
       <c r="AB812" s="3"/>
     </row>
-    <row r="813" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A813" s="18"/>
       <c r="B813" s="12"/>
       <c r="C813" s="18"/>
@@ -28133,7 +28134,7 @@
       <c r="AA813" s="3"/>
       <c r="AB813" s="3"/>
     </row>
-    <row r="814" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A814" s="18"/>
       <c r="B814" s="12"/>
       <c r="C814" s="18"/>
@@ -28163,7 +28164,7 @@
       <c r="AA814" s="3"/>
       <c r="AB814" s="3"/>
     </row>
-    <row r="815" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A815" s="18"/>
       <c r="B815" s="12"/>
       <c r="C815" s="18"/>
@@ -28193,7 +28194,7 @@
       <c r="AA815" s="3"/>
       <c r="AB815" s="3"/>
     </row>
-    <row r="816" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A816" s="18"/>
       <c r="B816" s="12"/>
       <c r="C816" s="18"/>
@@ -28223,7 +28224,7 @@
       <c r="AA816" s="3"/>
       <c r="AB816" s="3"/>
     </row>
-    <row r="817" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A817" s="18"/>
       <c r="B817" s="12"/>
       <c r="C817" s="18"/>
@@ -28253,7 +28254,7 @@
       <c r="AA817" s="3"/>
       <c r="AB817" s="3"/>
     </row>
-    <row r="818" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A818" s="18"/>
       <c r="B818" s="12"/>
       <c r="C818" s="18"/>
@@ -28283,7 +28284,7 @@
       <c r="AA818" s="3"/>
       <c r="AB818" s="3"/>
     </row>
-    <row r="819" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A819" s="18"/>
       <c r="B819" s="12"/>
       <c r="C819" s="18"/>
@@ -28313,7 +28314,7 @@
       <c r="AA819" s="3"/>
       <c r="AB819" s="3"/>
     </row>
-    <row r="820" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A820" s="18"/>
       <c r="B820" s="12"/>
       <c r="C820" s="18"/>
@@ -28343,7 +28344,7 @@
       <c r="AA820" s="3"/>
       <c r="AB820" s="3"/>
     </row>
-    <row r="821" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A821" s="18"/>
       <c r="B821" s="12"/>
       <c r="C821" s="18"/>
@@ -28373,7 +28374,7 @@
       <c r="AA821" s="3"/>
       <c r="AB821" s="3"/>
     </row>
-    <row r="822" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A822" s="18"/>
       <c r="B822" s="12"/>
       <c r="C822" s="18"/>
@@ -28403,7 +28404,7 @@
       <c r="AA822" s="3"/>
       <c r="AB822" s="3"/>
     </row>
-    <row r="823" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A823" s="18"/>
       <c r="B823" s="12"/>
       <c r="C823" s="18"/>
@@ -28433,7 +28434,7 @@
       <c r="AA823" s="3"/>
       <c r="AB823" s="3"/>
     </row>
-    <row r="824" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A824" s="18"/>
       <c r="B824" s="12"/>
       <c r="C824" s="18"/>
@@ -28463,7 +28464,7 @@
       <c r="AA824" s="3"/>
       <c r="AB824" s="3"/>
     </row>
-    <row r="825" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A825" s="18"/>
       <c r="B825" s="12"/>
       <c r="C825" s="18"/>
@@ -28493,7 +28494,7 @@
       <c r="AA825" s="3"/>
       <c r="AB825" s="3"/>
     </row>
-    <row r="826" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A826" s="18"/>
       <c r="B826" s="12"/>
       <c r="C826" s="18"/>
@@ -28523,7 +28524,7 @@
       <c r="AA826" s="3"/>
       <c r="AB826" s="3"/>
     </row>
-    <row r="827" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A827" s="18"/>
       <c r="B827" s="12"/>
       <c r="C827" s="18"/>
@@ -28553,7 +28554,7 @@
       <c r="AA827" s="3"/>
       <c r="AB827" s="3"/>
     </row>
-    <row r="828" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A828" s="18"/>
       <c r="B828" s="12"/>
       <c r="C828" s="18"/>
@@ -28583,7 +28584,7 @@
       <c r="AA828" s="3"/>
       <c r="AB828" s="3"/>
     </row>
-    <row r="829" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A829" s="18"/>
       <c r="B829" s="12"/>
       <c r="C829" s="18"/>
@@ -28613,7 +28614,7 @@
       <c r="AA829" s="3"/>
       <c r="AB829" s="3"/>
     </row>
-    <row r="830" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A830" s="18"/>
       <c r="B830" s="12"/>
       <c r="C830" s="18"/>
@@ -28643,7 +28644,7 @@
       <c r="AA830" s="3"/>
       <c r="AB830" s="3"/>
     </row>
-    <row r="831" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A831" s="18"/>
       <c r="B831" s="12"/>
       <c r="C831" s="18"/>
@@ -28673,7 +28674,7 @@
       <c r="AA831" s="3"/>
       <c r="AB831" s="3"/>
     </row>
-    <row r="832" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A832" s="18"/>
       <c r="B832" s="12"/>
       <c r="C832" s="18"/>
@@ -28703,7 +28704,7 @@
       <c r="AA832" s="3"/>
       <c r="AB832" s="3"/>
     </row>
-    <row r="833" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A833" s="18"/>
       <c r="B833" s="12"/>
       <c r="C833" s="18"/>
@@ -28733,7 +28734,7 @@
       <c r="AA833" s="3"/>
       <c r="AB833" s="3"/>
     </row>
-    <row r="834" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A834" s="18"/>
       <c r="B834" s="12"/>
       <c r="C834" s="18"/>
@@ -28763,7 +28764,7 @@
       <c r="AA834" s="3"/>
       <c r="AB834" s="3"/>
     </row>
-    <row r="835" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A835" s="18"/>
       <c r="B835" s="12"/>
       <c r="C835" s="18"/>
@@ -28793,7 +28794,7 @@
       <c r="AA835" s="3"/>
       <c r="AB835" s="3"/>
     </row>
-    <row r="836" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A836" s="18"/>
       <c r="B836" s="12"/>
       <c r="C836" s="18"/>
@@ -28823,7 +28824,7 @@
       <c r="AA836" s="3"/>
       <c r="AB836" s="3"/>
     </row>
-    <row r="837" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A837" s="18"/>
       <c r="B837" s="12"/>
       <c r="C837" s="18"/>
@@ -28853,7 +28854,7 @@
       <c r="AA837" s="3"/>
       <c r="AB837" s="3"/>
     </row>
-    <row r="838" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A838" s="18"/>
       <c r="B838" s="12"/>
       <c r="C838" s="18"/>
@@ -28883,7 +28884,7 @@
       <c r="AA838" s="3"/>
       <c r="AB838" s="3"/>
     </row>
-    <row r="839" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A839" s="18"/>
       <c r="B839" s="12"/>
       <c r="C839" s="18"/>
@@ -28913,7 +28914,7 @@
       <c r="AA839" s="3"/>
       <c r="AB839" s="3"/>
     </row>
-    <row r="840" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A840" s="18"/>
       <c r="B840" s="12"/>
       <c r="C840" s="18"/>
@@ -28943,7 +28944,7 @@
       <c r="AA840" s="3"/>
       <c r="AB840" s="3"/>
     </row>
-    <row r="841" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A841" s="18"/>
       <c r="B841" s="12"/>
       <c r="C841" s="18"/>
@@ -28973,7 +28974,7 @@
       <c r="AA841" s="3"/>
       <c r="AB841" s="3"/>
     </row>
-    <row r="842" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A842" s="18"/>
       <c r="B842" s="12"/>
       <c r="C842" s="18"/>
@@ -29003,7 +29004,7 @@
       <c r="AA842" s="3"/>
       <c r="AB842" s="3"/>
     </row>
-    <row r="843" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A843" s="18"/>
       <c r="B843" s="12"/>
       <c r="C843" s="18"/>
@@ -29033,7 +29034,7 @@
       <c r="AA843" s="3"/>
       <c r="AB843" s="3"/>
     </row>
-    <row r="844" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A844" s="18"/>
       <c r="B844" s="12"/>
       <c r="C844" s="18"/>
@@ -29063,7 +29064,7 @@
       <c r="AA844" s="3"/>
       <c r="AB844" s="3"/>
     </row>
-    <row r="845" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A845" s="18"/>
       <c r="B845" s="12"/>
       <c r="C845" s="18"/>
@@ -29093,7 +29094,7 @@
       <c r="AA845" s="3"/>
       <c r="AB845" s="3"/>
     </row>
-    <row r="846" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A846" s="18"/>
       <c r="B846" s="12"/>
       <c r="C846" s="18"/>
@@ -29123,7 +29124,7 @@
       <c r="AA846" s="3"/>
       <c r="AB846" s="3"/>
     </row>
-    <row r="847" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A847" s="18"/>
       <c r="B847" s="12"/>
       <c r="C847" s="18"/>
@@ -29153,7 +29154,7 @@
       <c r="AA847" s="3"/>
       <c r="AB847" s="3"/>
     </row>
-    <row r="848" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A848" s="18"/>
       <c r="B848" s="12"/>
       <c r="C848" s="18"/>
@@ -29183,7 +29184,7 @@
       <c r="AA848" s="3"/>
       <c r="AB848" s="3"/>
     </row>
-    <row r="849" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A849" s="18"/>
       <c r="B849" s="12"/>
       <c r="C849" s="18"/>
@@ -29213,7 +29214,7 @@
       <c r="AA849" s="3"/>
       <c r="AB849" s="3"/>
     </row>
-    <row r="850" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A850" s="18"/>
       <c r="B850" s="12"/>
       <c r="C850" s="18"/>
@@ -29243,7 +29244,7 @@
       <c r="AA850" s="3"/>
       <c r="AB850" s="3"/>
     </row>
-    <row r="851" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A851" s="18"/>
       <c r="B851" s="12"/>
       <c r="C851" s="18"/>
@@ -29273,7 +29274,7 @@
       <c r="AA851" s="3"/>
       <c r="AB851" s="3"/>
     </row>
-    <row r="852" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A852" s="18"/>
       <c r="B852" s="12"/>
       <c r="C852" s="18"/>
@@ -29303,7 +29304,7 @@
       <c r="AA852" s="3"/>
       <c r="AB852" s="3"/>
     </row>
-    <row r="853" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A853" s="18"/>
       <c r="B853" s="12"/>
       <c r="C853" s="18"/>
@@ -29333,7 +29334,7 @@
       <c r="AA853" s="3"/>
       <c r="AB853" s="3"/>
     </row>
-    <row r="854" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A854" s="18"/>
       <c r="B854" s="12"/>
       <c r="C854" s="18"/>
@@ -29363,7 +29364,7 @@
       <c r="AA854" s="3"/>
       <c r="AB854" s="3"/>
     </row>
-    <row r="855" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A855" s="18"/>
       <c r="B855" s="12"/>
       <c r="C855" s="18"/>
@@ -29393,7 +29394,7 @@
       <c r="AA855" s="3"/>
       <c r="AB855" s="3"/>
     </row>
-    <row r="856" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A856" s="18"/>
       <c r="B856" s="12"/>
       <c r="C856" s="18"/>
@@ -29423,7 +29424,7 @@
       <c r="AA856" s="3"/>
       <c r="AB856" s="3"/>
     </row>
-    <row r="857" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A857" s="18"/>
       <c r="B857" s="12"/>
       <c r="C857" s="18"/>
@@ -29453,7 +29454,7 @@
       <c r="AA857" s="3"/>
       <c r="AB857" s="3"/>
     </row>
-    <row r="858" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A858" s="18"/>
       <c r="B858" s="12"/>
       <c r="C858" s="18"/>
@@ -29483,7 +29484,7 @@
       <c r="AA858" s="3"/>
       <c r="AB858" s="3"/>
     </row>
-    <row r="859" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A859" s="18"/>
       <c r="B859" s="12"/>
       <c r="C859" s="18"/>
@@ -29513,7 +29514,7 @@
       <c r="AA859" s="3"/>
       <c r="AB859" s="3"/>
     </row>
-    <row r="860" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A860" s="18"/>
       <c r="B860" s="12"/>
       <c r="C860" s="18"/>
@@ -29543,7 +29544,7 @@
       <c r="AA860" s="3"/>
       <c r="AB860" s="3"/>
     </row>
-    <row r="861" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A861" s="18"/>
       <c r="B861" s="12"/>
       <c r="C861" s="18"/>
@@ -29573,7 +29574,7 @@
       <c r="AA861" s="3"/>
       <c r="AB861" s="3"/>
     </row>
-    <row r="862" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A862" s="18"/>
       <c r="B862" s="12"/>
       <c r="C862" s="18"/>
@@ -29603,7 +29604,7 @@
       <c r="AA862" s="3"/>
       <c r="AB862" s="3"/>
     </row>
-    <row r="863" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A863" s="18"/>
       <c r="B863" s="12"/>
       <c r="C863" s="18"/>
@@ -29633,7 +29634,7 @@
       <c r="AA863" s="3"/>
       <c r="AB863" s="3"/>
     </row>
-    <row r="864" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A864" s="18"/>
       <c r="B864" s="12"/>
       <c r="C864" s="18"/>
@@ -29663,7 +29664,7 @@
       <c r="AA864" s="3"/>
       <c r="AB864" s="3"/>
     </row>
-    <row r="865" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A865" s="18"/>
       <c r="B865" s="12"/>
       <c r="C865" s="18"/>
@@ -29693,7 +29694,7 @@
       <c r="AA865" s="3"/>
       <c r="AB865" s="3"/>
     </row>
-    <row r="866" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A866" s="18"/>
       <c r="B866" s="12"/>
       <c r="C866" s="18"/>
@@ -29723,7 +29724,7 @@
       <c r="AA866" s="3"/>
       <c r="AB866" s="3"/>
     </row>
-    <row r="867" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A867" s="18"/>
       <c r="B867" s="12"/>
       <c r="C867" s="18"/>
@@ -29753,7 +29754,7 @@
       <c r="AA867" s="3"/>
       <c r="AB867" s="3"/>
     </row>
-    <row r="868" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A868" s="18"/>
       <c r="B868" s="12"/>
       <c r="C868" s="18"/>
@@ -29783,7 +29784,7 @@
       <c r="AA868" s="3"/>
       <c r="AB868" s="3"/>
     </row>
-    <row r="869" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A869" s="18"/>
       <c r="B869" s="12"/>
       <c r="C869" s="18"/>
@@ -29813,7 +29814,7 @@
       <c r="AA869" s="3"/>
       <c r="AB869" s="3"/>
     </row>
-    <row r="870" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A870" s="18"/>
       <c r="B870" s="12"/>
       <c r="C870" s="18"/>
@@ -29843,7 +29844,7 @@
       <c r="AA870" s="3"/>
       <c r="AB870" s="3"/>
     </row>
-    <row r="871" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A871" s="18"/>
       <c r="B871" s="12"/>
       <c r="C871" s="18"/>
@@ -29873,7 +29874,7 @@
       <c r="AA871" s="3"/>
       <c r="AB871" s="3"/>
     </row>
-    <row r="872" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A872" s="18"/>
       <c r="B872" s="12"/>
       <c r="C872" s="18"/>
@@ -29903,7 +29904,7 @@
       <c r="AA872" s="3"/>
       <c r="AB872" s="3"/>
     </row>
-    <row r="873" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A873" s="18"/>
       <c r="B873" s="12"/>
       <c r="C873" s="18"/>
@@ -29933,7 +29934,7 @@
       <c r="AA873" s="3"/>
       <c r="AB873" s="3"/>
     </row>
-    <row r="874" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A874" s="18"/>
       <c r="B874" s="12"/>
       <c r="C874" s="18"/>
@@ -29963,7 +29964,7 @@
       <c r="AA874" s="3"/>
       <c r="AB874" s="3"/>
     </row>
-    <row r="875" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A875" s="18"/>
       <c r="B875" s="12"/>
       <c r="C875" s="18"/>
@@ -29993,7 +29994,7 @@
       <c r="AA875" s="3"/>
       <c r="AB875" s="3"/>
     </row>
-    <row r="876" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A876" s="18"/>
       <c r="B876" s="12"/>
       <c r="C876" s="18"/>
@@ -30023,7 +30024,7 @@
       <c r="AA876" s="3"/>
       <c r="AB876" s="3"/>
     </row>
-    <row r="877" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A877" s="18"/>
       <c r="B877" s="12"/>
       <c r="C877" s="18"/>
@@ -30053,7 +30054,7 @@
       <c r="AA877" s="3"/>
       <c r="AB877" s="3"/>
     </row>
-    <row r="878" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A878" s="18"/>
       <c r="B878" s="12"/>
       <c r="C878" s="18"/>
@@ -30083,7 +30084,7 @@
       <c r="AA878" s="3"/>
       <c r="AB878" s="3"/>
     </row>
-    <row r="879" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A879" s="18"/>
       <c r="B879" s="12"/>
       <c r="C879" s="18"/>
@@ -30113,7 +30114,7 @@
       <c r="AA879" s="3"/>
       <c r="AB879" s="3"/>
     </row>
-    <row r="880" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A880" s="18"/>
       <c r="B880" s="12"/>
       <c r="C880" s="18"/>
@@ -30143,7 +30144,7 @@
       <c r="AA880" s="3"/>
       <c r="AB880" s="3"/>
     </row>
-    <row r="881" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A881" s="18"/>
       <c r="B881" s="12"/>
       <c r="C881" s="18"/>
@@ -30173,7 +30174,7 @@
       <c r="AA881" s="3"/>
       <c r="AB881" s="3"/>
     </row>
-    <row r="882" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A882" s="18"/>
       <c r="B882" s="12"/>
       <c r="C882" s="18"/>
@@ -30203,7 +30204,7 @@
       <c r="AA882" s="3"/>
       <c r="AB882" s="3"/>
     </row>
-    <row r="883" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A883" s="18"/>
       <c r="B883" s="12"/>
       <c r="C883" s="18"/>
@@ -30233,7 +30234,7 @@
       <c r="AA883" s="3"/>
       <c r="AB883" s="3"/>
     </row>
-    <row r="884" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A884" s="18"/>
       <c r="B884" s="12"/>
       <c r="C884" s="18"/>
@@ -30263,7 +30264,7 @@
       <c r="AA884" s="3"/>
       <c r="AB884" s="3"/>
     </row>
-    <row r="885" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A885" s="18"/>
       <c r="B885" s="12"/>
       <c r="C885" s="18"/>
@@ -30293,7 +30294,7 @@
       <c r="AA885" s="3"/>
       <c r="AB885" s="3"/>
     </row>
-    <row r="886" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A886" s="18"/>
       <c r="B886" s="12"/>
       <c r="C886" s="18"/>
@@ -30323,7 +30324,7 @@
       <c r="AA886" s="3"/>
       <c r="AB886" s="3"/>
     </row>
-    <row r="887" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A887" s="18"/>
       <c r="B887" s="12"/>
       <c r="C887" s="18"/>
@@ -30353,7 +30354,7 @@
       <c r="AA887" s="3"/>
       <c r="AB887" s="3"/>
     </row>
-    <row r="888" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A888" s="18"/>
       <c r="B888" s="12"/>
       <c r="C888" s="18"/>
@@ -30383,7 +30384,7 @@
       <c r="AA888" s="3"/>
       <c r="AB888" s="3"/>
     </row>
-    <row r="889" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A889" s="18"/>
       <c r="B889" s="12"/>
       <c r="C889" s="18"/>
@@ -30413,7 +30414,7 @@
       <c r="AA889" s="3"/>
       <c r="AB889" s="3"/>
     </row>
-    <row r="890" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A890" s="18"/>
       <c r="B890" s="12"/>
       <c r="C890" s="18"/>
@@ -30443,7 +30444,7 @@
       <c r="AA890" s="3"/>
       <c r="AB890" s="3"/>
     </row>
-    <row r="891" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A891" s="18"/>
       <c r="B891" s="12"/>
       <c r="C891" s="18"/>
@@ -30473,7 +30474,7 @@
       <c r="AA891" s="3"/>
       <c r="AB891" s="3"/>
     </row>
-    <row r="892" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A892" s="18"/>
       <c r="B892" s="12"/>
       <c r="C892" s="18"/>
@@ -30503,7 +30504,7 @@
       <c r="AA892" s="3"/>
       <c r="AB892" s="3"/>
     </row>
-    <row r="893" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A893" s="18"/>
       <c r="B893" s="12"/>
       <c r="C893" s="18"/>
@@ -30533,7 +30534,7 @@
       <c r="AA893" s="3"/>
       <c r="AB893" s="3"/>
     </row>
-    <row r="894" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A894" s="18"/>
       <c r="B894" s="12"/>
       <c r="C894" s="18"/>
@@ -30563,7 +30564,7 @@
       <c r="AA894" s="3"/>
       <c r="AB894" s="3"/>
     </row>
-    <row r="895" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A895" s="18"/>
       <c r="B895" s="12"/>
       <c r="C895" s="18"/>
@@ -30593,7 +30594,7 @@
       <c r="AA895" s="3"/>
       <c r="AB895" s="3"/>
     </row>
-    <row r="896" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A896" s="18"/>
       <c r="B896" s="12"/>
       <c r="C896" s="18"/>
@@ -30623,7 +30624,7 @@
       <c r="AA896" s="3"/>
       <c r="AB896" s="3"/>
     </row>
-    <row r="897" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A897" s="18"/>
       <c r="B897" s="12"/>
       <c r="C897" s="18"/>
@@ -30653,7 +30654,7 @@
       <c r="AA897" s="3"/>
       <c r="AB897" s="3"/>
     </row>
-    <row r="898" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A898" s="18"/>
       <c r="B898" s="12"/>
       <c r="C898" s="18"/>
@@ -30683,7 +30684,7 @@
       <c r="AA898" s="3"/>
       <c r="AB898" s="3"/>
     </row>
-    <row r="899" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A899" s="18"/>
       <c r="B899" s="12"/>
       <c r="C899" s="18"/>
@@ -30713,7 +30714,7 @@
       <c r="AA899" s="3"/>
       <c r="AB899" s="3"/>
     </row>
-    <row r="900" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A900" s="18"/>
       <c r="B900" s="12"/>
       <c r="C900" s="18"/>
@@ -30743,7 +30744,7 @@
       <c r="AA900" s="3"/>
       <c r="AB900" s="3"/>
     </row>
-    <row r="901" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A901" s="18"/>
       <c r="B901" s="12"/>
       <c r="C901" s="18"/>
@@ -30773,7 +30774,7 @@
       <c r="AA901" s="3"/>
       <c r="AB901" s="3"/>
     </row>
-    <row r="902" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A902" s="18"/>
       <c r="B902" s="12"/>
       <c r="C902" s="18"/>
@@ -30803,7 +30804,7 @@
       <c r="AA902" s="3"/>
       <c r="AB902" s="3"/>
     </row>
-    <row r="903" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A903" s="18"/>
       <c r="B903" s="12"/>
       <c r="C903" s="18"/>
@@ -30833,7 +30834,7 @@
       <c r="AA903" s="3"/>
       <c r="AB903" s="3"/>
     </row>
-    <row r="904" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A904" s="18"/>
       <c r="B904" s="12"/>
       <c r="C904" s="18"/>
@@ -30863,7 +30864,7 @@
       <c r="AA904" s="3"/>
       <c r="AB904" s="3"/>
     </row>
-    <row r="905" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A905" s="18"/>
       <c r="B905" s="12"/>
       <c r="C905" s="18"/>
@@ -30893,7 +30894,7 @@
       <c r="AA905" s="3"/>
       <c r="AB905" s="3"/>
     </row>
-    <row r="906" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A906" s="18"/>
       <c r="B906" s="12"/>
       <c r="C906" s="18"/>
@@ -30923,7 +30924,7 @@
       <c r="AA906" s="3"/>
       <c r="AB906" s="3"/>
     </row>
-    <row r="907" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A907" s="18"/>
       <c r="B907" s="12"/>
       <c r="C907" s="18"/>
@@ -30953,7 +30954,7 @@
       <c r="AA907" s="3"/>
       <c r="AB907" s="3"/>
     </row>
-    <row r="908" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A908" s="18"/>
       <c r="B908" s="12"/>
       <c r="C908" s="18"/>
@@ -30983,7 +30984,7 @@
       <c r="AA908" s="3"/>
       <c r="AB908" s="3"/>
     </row>
-    <row r="909" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A909" s="18"/>
       <c r="B909" s="12"/>
       <c r="C909" s="18"/>
@@ -31013,7 +31014,7 @@
       <c r="AA909" s="3"/>
       <c r="AB909" s="3"/>
     </row>
-    <row r="910" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A910" s="18"/>
       <c r="B910" s="12"/>
       <c r="C910" s="18"/>
@@ -31043,7 +31044,7 @@
       <c r="AA910" s="3"/>
       <c r="AB910" s="3"/>
     </row>
-    <row r="911" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A911" s="18"/>
       <c r="B911" s="12"/>
       <c r="C911" s="18"/>
@@ -31073,7 +31074,7 @@
       <c r="AA911" s="3"/>
       <c r="AB911" s="3"/>
     </row>
-    <row r="912" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A912" s="18"/>
       <c r="B912" s="12"/>
       <c r="C912" s="18"/>
@@ -31103,7 +31104,7 @@
       <c r="AA912" s="3"/>
       <c r="AB912" s="3"/>
     </row>
-    <row r="913" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A913" s="18"/>
       <c r="B913" s="12"/>
       <c r="C913" s="18"/>
@@ -31133,7 +31134,7 @@
       <c r="AA913" s="3"/>
       <c r="AB913" s="3"/>
     </row>
-    <row r="914" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A914" s="18"/>
       <c r="B914" s="12"/>
       <c r="C914" s="18"/>
@@ -31163,7 +31164,7 @@
       <c r="AA914" s="3"/>
       <c r="AB914" s="3"/>
     </row>
-    <row r="915" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A915" s="18"/>
       <c r="B915" s="12"/>
       <c r="C915" s="18"/>
@@ -31193,7 +31194,7 @@
       <c r="AA915" s="3"/>
       <c r="AB915" s="3"/>
     </row>
-    <row r="916" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A916" s="18"/>
       <c r="B916" s="12"/>
       <c r="C916" s="18"/>
@@ -31223,7 +31224,7 @@
       <c r="AA916" s="3"/>
       <c r="AB916" s="3"/>
     </row>
-    <row r="917" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A917" s="18"/>
       <c r="B917" s="12"/>
       <c r="C917" s="18"/>
@@ -31253,7 +31254,7 @@
       <c r="AA917" s="3"/>
       <c r="AB917" s="3"/>
     </row>
-    <row r="918" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A918" s="18"/>
       <c r="B918" s="12"/>
       <c r="C918" s="18"/>
@@ -31283,7 +31284,7 @@
       <c r="AA918" s="3"/>
       <c r="AB918" s="3"/>
     </row>
-    <row r="919" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A919" s="18"/>
       <c r="B919" s="12"/>
       <c r="C919" s="18"/>
@@ -31313,7 +31314,7 @@
       <c r="AA919" s="3"/>
       <c r="AB919" s="3"/>
     </row>
-    <row r="920" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A920" s="18"/>
       <c r="B920" s="12"/>
       <c r="C920" s="18"/>
@@ -31343,7 +31344,7 @@
       <c r="AA920" s="3"/>
       <c r="AB920" s="3"/>
     </row>
-    <row r="921" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A921" s="18"/>
       <c r="B921" s="12"/>
       <c r="C921" s="18"/>
@@ -31373,7 +31374,7 @@
       <c r="AA921" s="3"/>
       <c r="AB921" s="3"/>
     </row>
-    <row r="922" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A922" s="18"/>
       <c r="B922" s="12"/>
       <c r="C922" s="18"/>
@@ -31403,7 +31404,7 @@
       <c r="AA922" s="3"/>
       <c r="AB922" s="3"/>
     </row>
-    <row r="923" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A923" s="18"/>
       <c r="B923" s="12"/>
       <c r="C923" s="18"/>
@@ -31433,7 +31434,7 @@
       <c r="AA923" s="3"/>
       <c r="AB923" s="3"/>
     </row>
-    <row r="924" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A924" s="18"/>
       <c r="B924" s="12"/>
       <c r="C924" s="18"/>
@@ -31463,7 +31464,7 @@
       <c r="AA924" s="3"/>
       <c r="AB924" s="3"/>
     </row>
-    <row r="925" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A925" s="18"/>
       <c r="B925" s="12"/>
       <c r="C925" s="18"/>
@@ -31493,7 +31494,7 @@
       <c r="AA925" s="3"/>
       <c r="AB925" s="3"/>
     </row>
-    <row r="926" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A926" s="18"/>
       <c r="B926" s="12"/>
       <c r="C926" s="18"/>
@@ -31523,7 +31524,7 @@
       <c r="AA926" s="3"/>
       <c r="AB926" s="3"/>
     </row>
-    <row r="927" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A927" s="18"/>
       <c r="B927" s="12"/>
       <c r="C927" s="18"/>
@@ -31553,7 +31554,7 @@
       <c r="AA927" s="3"/>
       <c r="AB927" s="3"/>
     </row>
-    <row r="928" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A928" s="18"/>
       <c r="B928" s="12"/>
       <c r="C928" s="18"/>
@@ -31583,7 +31584,7 @@
       <c r="AA928" s="3"/>
       <c r="AB928" s="3"/>
     </row>
-    <row r="929" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A929" s="18"/>
       <c r="B929" s="12"/>
       <c r="C929" s="18"/>
@@ -31613,7 +31614,7 @@
       <c r="AA929" s="3"/>
       <c r="AB929" s="3"/>
     </row>
-    <row r="930" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A930" s="18"/>
       <c r="B930" s="12"/>
       <c r="C930" s="18"/>
@@ -31643,7 +31644,7 @@
       <c r="AA930" s="3"/>
       <c r="AB930" s="3"/>
     </row>
-    <row r="931" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A931" s="18"/>
       <c r="B931" s="12"/>
       <c r="C931" s="18"/>
@@ -31673,7 +31674,7 @@
       <c r="AA931" s="3"/>
       <c r="AB931" s="3"/>
     </row>
-    <row r="932" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A932" s="18"/>
       <c r="B932" s="12"/>
       <c r="C932" s="18"/>
@@ -31703,7 +31704,7 @@
       <c r="AA932" s="3"/>
       <c r="AB932" s="3"/>
     </row>
-    <row r="933" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A933" s="18"/>
       <c r="B933" s="12"/>
       <c r="C933" s="18"/>
@@ -31733,7 +31734,7 @@
       <c r="AA933" s="3"/>
       <c r="AB933" s="3"/>
     </row>
-    <row r="934" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A934" s="18"/>
       <c r="B934" s="12"/>
       <c r="C934" s="18"/>
@@ -31763,7 +31764,7 @@
       <c r="AA934" s="3"/>
       <c r="AB934" s="3"/>
     </row>
-    <row r="935" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A935" s="18"/>
       <c r="B935" s="12"/>
       <c r="C935" s="18"/>
@@ -31793,7 +31794,7 @@
       <c r="AA935" s="3"/>
       <c r="AB935" s="3"/>
     </row>
-    <row r="936" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A936" s="18"/>
       <c r="B936" s="12"/>
       <c r="C936" s="18"/>
@@ -31823,7 +31824,7 @@
       <c r="AA936" s="3"/>
       <c r="AB936" s="3"/>
     </row>
-    <row r="937" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A937" s="18"/>
       <c r="B937" s="12"/>
       <c r="C937" s="18"/>
@@ -31853,7 +31854,7 @@
       <c r="AA937" s="3"/>
       <c r="AB937" s="3"/>
     </row>
-    <row r="938" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A938" s="18"/>
       <c r="B938" s="12"/>
       <c r="C938" s="18"/>
@@ -31883,7 +31884,7 @@
       <c r="AA938" s="3"/>
       <c r="AB938" s="3"/>
     </row>
-    <row r="939" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A939" s="18"/>
       <c r="B939" s="12"/>
       <c r="C939" s="18"/>
@@ -31913,7 +31914,7 @@
       <c r="AA939" s="3"/>
       <c r="AB939" s="3"/>
     </row>
-    <row r="940" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A940" s="18"/>
       <c r="B940" s="12"/>
       <c r="C940" s="18"/>
@@ -31943,7 +31944,7 @@
       <c r="AA940" s="3"/>
       <c r="AB940" s="3"/>
     </row>
-    <row r="941" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A941" s="18"/>
       <c r="B941" s="12"/>
       <c r="C941" s="18"/>
@@ -31973,7 +31974,7 @@
       <c r="AA941" s="3"/>
       <c r="AB941" s="3"/>
     </row>
-    <row r="942" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A942" s="18"/>
       <c r="B942" s="12"/>
       <c r="C942" s="18"/>
@@ -32003,7 +32004,7 @@
       <c r="AA942" s="3"/>
       <c r="AB942" s="3"/>
     </row>
-    <row r="943" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A943" s="18"/>
       <c r="B943" s="12"/>
       <c r="C943" s="18"/>
@@ -32033,7 +32034,7 @@
       <c r="AA943" s="3"/>
       <c r="AB943" s="3"/>
     </row>
-    <row r="944" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A944" s="18"/>
       <c r="B944" s="12"/>
       <c r="C944" s="18"/>
@@ -32063,7 +32064,7 @@
       <c r="AA944" s="3"/>
       <c r="AB944" s="3"/>
     </row>
-    <row r="945" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A945" s="18"/>
       <c r="B945" s="12"/>
       <c r="C945" s="18"/>
@@ -32093,7 +32094,7 @@
       <c r="AA945" s="3"/>
       <c r="AB945" s="3"/>
     </row>
-    <row r="946" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A946" s="18"/>
       <c r="B946" s="12"/>
       <c r="C946" s="18"/>
@@ -32123,7 +32124,7 @@
       <c r="AA946" s="3"/>
       <c r="AB946" s="3"/>
     </row>
-    <row r="947" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A947" s="18"/>
       <c r="B947" s="12"/>
       <c r="C947" s="18"/>
@@ -32153,7 +32154,7 @@
       <c r="AA947" s="3"/>
       <c r="AB947" s="3"/>
     </row>
-    <row r="948" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A948" s="18"/>
       <c r="B948" s="12"/>
       <c r="C948" s="18"/>
@@ -32183,7 +32184,7 @@
       <c r="AA948" s="3"/>
       <c r="AB948" s="3"/>
     </row>
-    <row r="949" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A949" s="18"/>
       <c r="B949" s="12"/>
       <c r="C949" s="18"/>
@@ -32213,7 +32214,7 @@
       <c r="AA949" s="3"/>
       <c r="AB949" s="3"/>
     </row>
-    <row r="950" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A950" s="18"/>
       <c r="B950" s="12"/>
       <c r="C950" s="18"/>
@@ -32243,7 +32244,7 @@
       <c r="AA950" s="3"/>
       <c r="AB950" s="3"/>
     </row>
-    <row r="951" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A951" s="18"/>
       <c r="B951" s="12"/>
       <c r="C951" s="18"/>
@@ -32273,7 +32274,7 @@
       <c r="AA951" s="3"/>
       <c r="AB951" s="3"/>
     </row>
-    <row r="952" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A952" s="18"/>
       <c r="B952" s="12"/>
       <c r="C952" s="18"/>
@@ -32303,7 +32304,7 @@
       <c r="AA952" s="3"/>
       <c r="AB952" s="3"/>
     </row>
-    <row r="953" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A953" s="18"/>
       <c r="B953" s="12"/>
       <c r="C953" s="18"/>
@@ -32333,7 +32334,7 @@
       <c r="AA953" s="3"/>
       <c r="AB953" s="3"/>
     </row>
-    <row r="954" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A954" s="18"/>
       <c r="B954" s="12"/>
       <c r="C954" s="18"/>
@@ -32363,7 +32364,7 @@
       <c r="AA954" s="3"/>
       <c r="AB954" s="3"/>
     </row>
-    <row r="955" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A955" s="18"/>
       <c r="B955" s="12"/>
       <c r="C955" s="18"/>
@@ -32393,7 +32394,7 @@
       <c r="AA955" s="3"/>
       <c r="AB955" s="3"/>
     </row>
-    <row r="956" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A956" s="18"/>
       <c r="B956" s="12"/>
       <c r="C956" s="18"/>
@@ -32423,7 +32424,7 @@
       <c r="AA956" s="3"/>
       <c r="AB956" s="3"/>
     </row>
-    <row r="957" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A957" s="18"/>
       <c r="B957" s="12"/>
       <c r="C957" s="18"/>
@@ -32453,7 +32454,7 @@
       <c r="AA957" s="3"/>
       <c r="AB957" s="3"/>
     </row>
-    <row r="958" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A958" s="18"/>
       <c r="B958" s="12"/>
       <c r="C958" s="18"/>
@@ -32483,7 +32484,7 @@
       <c r="AA958" s="3"/>
       <c r="AB958" s="3"/>
     </row>
-    <row r="959" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A959" s="18"/>
       <c r="B959" s="12"/>
       <c r="C959" s="18"/>
@@ -32513,7 +32514,7 @@
       <c r="AA959" s="3"/>
       <c r="AB959" s="3"/>
     </row>
-    <row r="960" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A960" s="18"/>
       <c r="B960" s="12"/>
       <c r="C960" s="18"/>
@@ -32543,7 +32544,7 @@
       <c r="AA960" s="3"/>
       <c r="AB960" s="3"/>
     </row>
-    <row r="961" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A961" s="18"/>
       <c r="B961" s="12"/>
       <c r="C961" s="18"/>
@@ -32573,7 +32574,7 @@
       <c r="AA961" s="3"/>
       <c r="AB961" s="3"/>
     </row>
-    <row r="962" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A962" s="18"/>
       <c r="B962" s="12"/>
       <c r="C962" s="18"/>
@@ -32603,7 +32604,7 @@
       <c r="AA962" s="3"/>
       <c r="AB962" s="3"/>
     </row>
-    <row r="963" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A963" s="18"/>
       <c r="B963" s="12"/>
       <c r="C963" s="18"/>
@@ -32633,7 +32634,7 @@
       <c r="AA963" s="3"/>
       <c r="AB963" s="3"/>
     </row>
-    <row r="964" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A964" s="18"/>
       <c r="B964" s="12"/>
       <c r="C964" s="18"/>
@@ -32663,7 +32664,7 @@
       <c r="AA964" s="3"/>
       <c r="AB964" s="3"/>
     </row>
-    <row r="965" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A965" s="18"/>
       <c r="B965" s="12"/>
       <c r="C965" s="18"/>
@@ -32693,7 +32694,7 @@
       <c r="AA965" s="3"/>
       <c r="AB965" s="3"/>
     </row>
-    <row r="966" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A966" s="18"/>
       <c r="B966" s="12"/>
       <c r="C966" s="18"/>
@@ -32723,7 +32724,7 @@
       <c r="AA966" s="3"/>
       <c r="AB966" s="3"/>
     </row>
-    <row r="967" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A967" s="18"/>
       <c r="B967" s="12"/>
       <c r="C967" s="18"/>
@@ -32753,7 +32754,7 @@
       <c r="AA967" s="3"/>
       <c r="AB967" s="3"/>
     </row>
-    <row r="968" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A968" s="18"/>
       <c r="B968" s="12"/>
       <c r="C968" s="18"/>
@@ -32783,7 +32784,7 @@
       <c r="AA968" s="3"/>
       <c r="AB968" s="3"/>
     </row>
-    <row r="969" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A969" s="18"/>
       <c r="B969" s="12"/>
       <c r="C969" s="18"/>
@@ -32813,7 +32814,7 @@
       <c r="AA969" s="3"/>
       <c r="AB969" s="3"/>
     </row>
-    <row r="970" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A970" s="18"/>
       <c r="B970" s="12"/>
       <c r="C970" s="18"/>
@@ -32843,7 +32844,7 @@
       <c r="AA970" s="3"/>
       <c r="AB970" s="3"/>
     </row>
-    <row r="971" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A971" s="18"/>
       <c r="B971" s="12"/>
       <c r="C971" s="18"/>
@@ -32873,7 +32874,7 @@
       <c r="AA971" s="3"/>
       <c r="AB971" s="3"/>
     </row>
-    <row r="972" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A972" s="18"/>
       <c r="B972" s="12"/>
       <c r="C972" s="18"/>
@@ -32903,7 +32904,7 @@
       <c r="AA972" s="3"/>
       <c r="AB972" s="3"/>
     </row>
-    <row r="973" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A973" s="18"/>
       <c r="B973" s="12"/>
       <c r="C973" s="18"/>
@@ -32933,7 +32934,7 @@
       <c r="AA973" s="3"/>
       <c r="AB973" s="3"/>
     </row>
-    <row r="974" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A974" s="18"/>
       <c r="B974" s="12"/>
       <c r="C974" s="18"/>
@@ -32963,7 +32964,7 @@
       <c r="AA974" s="3"/>
       <c r="AB974" s="3"/>
     </row>
-    <row r="975" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A975" s="18"/>
       <c r="B975" s="12"/>
       <c r="C975" s="18"/>
@@ -32993,7 +32994,7 @@
       <c r="AA975" s="3"/>
       <c r="AB975" s="3"/>
     </row>
-    <row r="976" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A976" s="18"/>
       <c r="B976" s="12"/>
       <c r="C976" s="18"/>
@@ -33023,7 +33024,7 @@
       <c r="AA976" s="3"/>
       <c r="AB976" s="3"/>
     </row>
-    <row r="977" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A977" s="18"/>
       <c r="B977" s="12"/>
       <c r="C977" s="18"/>
@@ -33053,7 +33054,7 @@
       <c r="AA977" s="3"/>
       <c r="AB977" s="3"/>
     </row>
-    <row r="978" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A978" s="18"/>
       <c r="B978" s="12"/>
       <c r="C978" s="18"/>
@@ -33083,7 +33084,7 @@
       <c r="AA978" s="3"/>
       <c r="AB978" s="3"/>
     </row>
-    <row r="979" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A979" s="18"/>
       <c r="B979" s="12"/>
       <c r="C979" s="18"/>
@@ -33113,7 +33114,7 @@
       <c r="AA979" s="3"/>
       <c r="AB979" s="3"/>
     </row>
-    <row r="980" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A980" s="18"/>
       <c r="B980" s="12"/>
       <c r="C980" s="18"/>
@@ -33143,7 +33144,7 @@
       <c r="AA980" s="3"/>
       <c r="AB980" s="3"/>
     </row>
-    <row r="981" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A981" s="18"/>
       <c r="B981" s="12"/>
       <c r="C981" s="18"/>
@@ -33173,7 +33174,7 @@
       <c r="AA981" s="3"/>
       <c r="AB981" s="3"/>
     </row>
-    <row r="982" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A982" s="18"/>
       <c r="B982" s="12"/>
       <c r="C982" s="18"/>
@@ -33203,7 +33204,7 @@
       <c r="AA982" s="3"/>
       <c r="AB982" s="3"/>
     </row>
-    <row r="983" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A983" s="18"/>
       <c r="B983" s="12"/>
       <c r="C983" s="18"/>
@@ -33233,7 +33234,7 @@
       <c r="AA983" s="3"/>
       <c r="AB983" s="3"/>
     </row>
-    <row r="984" spans="1:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:28" ht="13.8" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A984" s="18"/>
       <c r="B984" s="12"/>
       <c r="C984" s="18"/>
@@ -33264,7 +33265,13 @@
       <c r="AB984" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N984" xr:uid="{C1C2CC13-2AB7-46F4-995C-CBB92B9C0254}"/>
+  <autoFilter ref="A1:N984" xr:uid="{C1C2CC13-2AB7-46F4-995C-CBB92B9C0254}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="VS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{856D50E8-2800-4462-9BF4-0B761695A589}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{D60D2C5F-AC11-46E8-A061-9C56E63FE999}"/>
@@ -33314,10 +33321,13 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C27" sqref="C2:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
@@ -33807,7 +33817,7 @@
         <v>84</v>
       </c>
       <c r="C25" s="24">
-        <v>34708</v>
+        <v>343955</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>15</v>
@@ -33865,6 +33875,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001CF2E9C31C1F9249AD1C5C32C883CF52" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="2446087b74f13e01ab9e6ca0cc8aa566">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f809d0f6-fdde-443e-9ae6-18ec6b857c37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f7e70fe4e704e7e2502280d2be185a" ns3:_="">
     <xsd:import namespace="f809d0f6-fdde-443e-9ae6-18ec6b857c37"/>
@@ -34042,22 +34067,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC0F33C4-FCBB-4F76-AAE1-7C8EB9ACF20A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34073,21 +34100,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE98AC4-5F1F-472D-84B3-BCB4324EB0F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D74C511-5C95-4C81-BB6E-A5A09CDF8A25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DC82DF-3B33-4B13-97E8-77D78FAEEBE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="87">
   <si>
     <t>Kanton</t>
   </si>
@@ -152,15 +168,6 @@
   </si>
   <si>
     <t>BS</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>CHFL</t>
-  </si>
-  <si>
-    <t>FL</t>
   </si>
   <si>
     <t>FR</t>
@@ -289,11 +296,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,16 +372,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -416,7 +431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,9 +463,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,6 +515,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -657,14 +708,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,7 +766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -734,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J2" s="3">
         <v>44186</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L2">
-        <v>47.3923</v>
+        <v>47.392299999999999</v>
       </c>
       <c r="M2">
-        <v>8.044600000000001</v>
+        <v>8.0446000000000009</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -755,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -781,19 +839,19 @@
         <v>1.8</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J3" s="3">
         <v>44209</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L3">
-        <v>47.3923</v>
+        <v>47.392299999999999</v>
       </c>
       <c r="M3">
-        <v>8.044600000000001</v>
+        <v>8.0446000000000009</v>
       </c>
       <c r="N3">
         <v>4500</v>
@@ -802,7 +860,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>85</v>
       </c>
@@ -828,19 +886,19 @@
         <v>1.9</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J4" s="3">
         <v>44220</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L4">
-        <v>47.3923</v>
+        <v>47.392299999999999</v>
       </c>
       <c r="M4">
-        <v>8.044600000000001</v>
+        <v>8.0446000000000009</v>
       </c>
       <c r="N4">
         <v>4500</v>
@@ -849,7 +907,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>13</v>
       </c>
@@ -875,19 +933,19 @@
         <v>2.4</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J5" s="3">
         <v>44223</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L5">
-        <v>47.3923</v>
+        <v>47.392299999999999</v>
       </c>
       <c r="M5">
-        <v>8.044600000000001</v>
+        <v>8.0446000000000009</v>
       </c>
       <c r="N5">
         <v>4500</v>
@@ -896,7 +954,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -928,13 +986,13 @@
         <v>44186</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L6">
-        <v>47.3162</v>
+        <v>47.316200000000002</v>
       </c>
       <c r="M6">
-        <v>9.431699999999999</v>
+        <v>9.4316999999999993</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -943,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -969,19 +1027,19 @@
         <v>0.2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J7" s="3">
         <v>44189</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L7">
-        <v>47.3162</v>
+        <v>47.316200000000002</v>
       </c>
       <c r="M7">
-        <v>9.431699999999999</v>
+        <v>9.4316999999999993</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -990,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1013,22 +1071,22 @@
         <v>16128</v>
       </c>
       <c r="H8">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J8" s="3">
         <v>44211</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L8">
-        <v>47.3162</v>
+        <v>47.316200000000002</v>
       </c>
       <c r="M8">
-        <v>9.431699999999999</v>
+        <v>9.4316999999999993</v>
       </c>
       <c r="N8">
         <v>500</v>
@@ -1037,7 +1095,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>90</v>
       </c>
@@ -1063,19 +1121,19 @@
         <v>5.7</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J9" s="3">
         <v>44220</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L9">
-        <v>47.3162</v>
+        <v>47.316200000000002</v>
       </c>
       <c r="M9">
-        <v>9.431699999999999</v>
+        <v>9.4316999999999993</v>
       </c>
       <c r="N9">
         <v>500</v>
@@ -1084,7 +1142,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>18</v>
       </c>
@@ -1110,19 +1168,19 @@
         <v>6.7</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J10" s="3">
         <v>44223</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L10">
-        <v>47.3162</v>
+        <v>47.316200000000002</v>
       </c>
       <c r="M10">
-        <v>9.431699999999999</v>
+        <v>9.4316999999999993</v>
       </c>
       <c r="N10">
         <v>500</v>
@@ -1131,7 +1189,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1163,13 +1221,13 @@
         <v>44186</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L11">
-        <v>47.3665</v>
+        <v>47.366500000000002</v>
       </c>
       <c r="M11">
-        <v>9.3001</v>
+        <v>9.3001000000000005</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1178,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1204,19 +1262,19 @@
         <v>3.1</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J12" s="3">
         <v>44217</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L12">
-        <v>47.3665</v>
+        <v>47.366500000000002</v>
       </c>
       <c r="M12">
-        <v>9.3001</v>
+        <v>9.3001000000000005</v>
       </c>
       <c r="N12">
         <v>1718</v>
@@ -1225,7 +1283,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>89</v>
       </c>
@@ -1251,19 +1309,19 @@
         <v>4.2</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J13" s="3">
         <v>44220</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L13">
-        <v>47.3665</v>
+        <v>47.366500000000002</v>
       </c>
       <c r="M13">
-        <v>9.3001</v>
+        <v>9.3001000000000005</v>
       </c>
       <c r="N13">
         <v>1718</v>
@@ -1272,7 +1330,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>17</v>
       </c>
@@ -1298,19 +1356,19 @@
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J14" s="3">
         <v>44223</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L14">
-        <v>47.3665</v>
+        <v>47.366500000000002</v>
       </c>
       <c r="M14">
-        <v>9.3001</v>
+        <v>9.3001000000000005</v>
       </c>
       <c r="N14">
         <v>1718</v>
@@ -1319,7 +1377,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -1345,13 +1403,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J15" s="3">
         <v>44186</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L15">
         <v>46.948</v>
@@ -1366,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -1392,13 +1450,13 @@
         <v>0.2</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J16" s="3">
         <v>44210</v>
       </c>
       <c r="K16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L16">
         <v>46.948</v>
@@ -1413,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>18</v>
       </c>
@@ -1439,13 +1497,13 @@
         <v>0.4</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J17" s="3">
         <v>44212</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L17">
         <v>46.948</v>
@@ -1460,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>19</v>
       </c>
@@ -1486,13 +1544,13 @@
         <v>0.6</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J18" s="3">
         <v>44215</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L18">
         <v>46.948</v>
@@ -1507,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>20</v>
       </c>
@@ -1530,16 +1588,16 @@
         <v>1039474</v>
       </c>
       <c r="H19">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J19" s="3">
         <v>44217</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L19">
         <v>46.948</v>
@@ -1554,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>81</v>
       </c>
@@ -1580,13 +1638,13 @@
         <v>1.4</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J20" s="3">
         <v>44220</v>
       </c>
       <c r="K20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L20">
         <v>46.948</v>
@@ -1601,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>9</v>
       </c>
@@ -1627,13 +1685,13 @@
         <v>1.9</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J21" s="3">
         <v>44223</v>
       </c>
       <c r="K21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L21">
         <v>46.948</v>
@@ -1648,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>7</v>
       </c>
@@ -1680,13 +1738,13 @@
         <v>44186</v>
       </c>
       <c r="K22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L22">
-        <v>47.4418</v>
+        <v>47.441800000000001</v>
       </c>
       <c r="M22">
-        <v>7.7644</v>
+        <v>7.7644000000000002</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1695,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>8</v>
       </c>
@@ -1727,13 +1785,13 @@
         <v>44210</v>
       </c>
       <c r="K23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L23">
-        <v>47.4418</v>
+        <v>47.441800000000001</v>
       </c>
       <c r="M23">
-        <v>7.7644</v>
+        <v>7.7644000000000002</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1742,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>9</v>
       </c>
@@ -1774,13 +1832,13 @@
         <v>44214</v>
       </c>
       <c r="K24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L24">
-        <v>47.4418</v>
+        <v>47.441800000000001</v>
       </c>
       <c r="M24">
-        <v>7.7644</v>
+        <v>7.7644000000000002</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1789,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>10</v>
       </c>
@@ -1815,19 +1873,19 @@
         <v>2.4</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J25" s="3">
         <v>44216</v>
       </c>
       <c r="K25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L25">
-        <v>47.4418</v>
+        <v>47.441800000000001</v>
       </c>
       <c r="M25">
-        <v>7.7644</v>
+        <v>7.7644000000000002</v>
       </c>
       <c r="N25">
         <v>6989</v>
@@ -1836,7 +1894,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>84</v>
       </c>
@@ -1862,19 +1920,19 @@
         <v>2.9</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J26" s="3">
         <v>44220</v>
       </c>
       <c r="K26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L26">
-        <v>47.4418</v>
+        <v>47.441800000000001</v>
       </c>
       <c r="M26">
-        <v>7.7644</v>
+        <v>7.7644000000000002</v>
       </c>
       <c r="N26">
         <v>6989</v>
@@ -1883,7 +1941,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>12</v>
       </c>
@@ -1909,19 +1967,19 @@
         <v>3.4</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J27" s="3">
         <v>44223</v>
       </c>
       <c r="K27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L27">
-        <v>47.4418</v>
+        <v>47.441800000000001</v>
       </c>
       <c r="M27">
-        <v>7.7644</v>
+        <v>7.7644000000000002</v>
       </c>
       <c r="N27">
         <v>6989</v>
@@ -1930,7 +1988,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>11</v>
       </c>
@@ -1956,19 +2014,19 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J28" s="3">
         <v>44186</v>
       </c>
       <c r="K28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L28">
-        <v>47.5606</v>
+        <v>47.560600000000001</v>
       </c>
       <c r="M28">
-        <v>7.5906</v>
+        <v>7.5906000000000002</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -1977,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>12</v>
       </c>
@@ -2000,22 +2058,22 @@
         <v>195844</v>
       </c>
       <c r="H29">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J29" s="3">
         <v>44209</v>
       </c>
       <c r="K29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L29">
-        <v>47.5606</v>
+        <v>47.560600000000001</v>
       </c>
       <c r="M29">
-        <v>7.5906</v>
+        <v>7.5906000000000002</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2024,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>13</v>
       </c>
@@ -2050,19 +2108,19 @@
         <v>3.6</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J30" s="3">
         <v>44210</v>
       </c>
       <c r="K30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L30">
-        <v>47.5606</v>
+        <v>47.560600000000001</v>
       </c>
       <c r="M30">
-        <v>7.5906</v>
+        <v>7.5906000000000002</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2071,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>14</v>
       </c>
@@ -2097,19 +2155,19 @@
         <v>4</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J31" s="3">
         <v>44214</v>
       </c>
       <c r="K31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L31">
-        <v>47.5606</v>
+        <v>47.560600000000001</v>
       </c>
       <c r="M31">
-        <v>7.5906</v>
+        <v>7.5906000000000002</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2118,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>15</v>
       </c>
@@ -2144,19 +2202,19 @@
         <v>5.5</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J32" s="3">
         <v>44216</v>
       </c>
       <c r="K32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L32">
-        <v>47.5606</v>
+        <v>47.560600000000001</v>
       </c>
       <c r="M32">
-        <v>7.5906</v>
+        <v>7.5906000000000002</v>
       </c>
       <c r="N32">
         <v>10556</v>
@@ -2165,7 +2223,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>83</v>
       </c>
@@ -2191,19 +2249,19 @@
         <v>5.6</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J33" s="3">
         <v>44220</v>
       </c>
       <c r="K33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L33">
-        <v>47.5606</v>
+        <v>47.560600000000001</v>
       </c>
       <c r="M33">
-        <v>7.5906</v>
+        <v>7.5906000000000002</v>
       </c>
       <c r="N33">
         <v>10556</v>
@@ -2212,7 +2270,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>11</v>
       </c>
@@ -2238,19 +2296,19 @@
         <v>6.7</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J34" s="3">
         <v>44223</v>
       </c>
       <c r="K34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L34">
-        <v>47.5606</v>
+        <v>47.560600000000001</v>
       </c>
       <c r="M34">
-        <v>7.5906</v>
+        <v>7.5906000000000002</v>
       </c>
       <c r="N34">
         <v>10556</v>
@@ -2259,180 +2317,180 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
         <v>46</v>
       </c>
       <c r="D35">
-        <v>261438</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>10556</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>195844</v>
+        <v>321783</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J35" s="3">
-        <v>44223</v>
+        <v>44186</v>
       </c>
       <c r="K35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L35">
-        <v>47.5606</v>
+        <v>46.8</v>
       </c>
       <c r="M35">
-        <v>7.5906</v>
+        <v>7.15</v>
       </c>
       <c r="N35">
-        <v>10556</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36">
-        <v>262081</v>
+        <v>1500</v>
       </c>
       <c r="E36">
-        <v>10556</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>195844</v>
+        <v>321783</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J36" s="3">
-        <v>44223</v>
+        <v>44207</v>
       </c>
       <c r="K36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L36">
-        <v>47.5606</v>
+        <v>46.8</v>
       </c>
       <c r="M36">
-        <v>7.5906</v>
+        <v>7.15</v>
       </c>
       <c r="N36">
-        <v>10556</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D37">
-        <v>643</v>
+        <v>5039</v>
       </c>
       <c r="E37">
-        <v>10556</v>
+        <v>3600</v>
       </c>
       <c r="F37">
-        <v>5.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G37">
-        <v>195844</v>
+        <v>321783</v>
       </c>
       <c r="H37">
-        <v>1.7</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>76</v>
+        <v>1.6</v>
+      </c>
+      <c r="I37" t="s">
+        <v>75</v>
       </c>
       <c r="J37" s="3">
-        <v>44223</v>
+        <v>44216</v>
       </c>
       <c r="K37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L37">
-        <v>47.5606</v>
+        <v>46.8</v>
       </c>
       <c r="M37">
-        <v>7.5906</v>
+        <v>7.15</v>
       </c>
       <c r="N37">
-        <v>10556</v>
+        <v>3600</v>
       </c>
       <c r="O37">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>6084</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G38">
         <v>321783</v>
       </c>
       <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>77</v>
+        <v>1.9</v>
+      </c>
+      <c r="I38" t="s">
+        <v>75</v>
       </c>
       <c r="J38" s="3">
-        <v>44186</v>
+        <v>44220</v>
       </c>
       <c r="K38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L38">
         <v>46.8</v>
@@ -2441,45 +2499,45 @@
         <v>7.15</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="O38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D39">
-        <v>1500</v>
+        <v>7640</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G39">
         <v>321783</v>
       </c>
       <c r="H39">
-        <v>0.5</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>77</v>
+        <v>2.4</v>
+      </c>
+      <c r="I39" t="s">
+        <v>75</v>
       </c>
       <c r="J39" s="3">
-        <v>44207</v>
+        <v>44223</v>
       </c>
       <c r="K39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L39">
         <v>46.8</v>
@@ -2488,186 +2546,186 @@
         <v>7.15</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="O39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D40">
-        <v>5039</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>321783</v>
+        <v>504128</v>
       </c>
       <c r="H40">
-        <v>1.6</v>
-      </c>
-      <c r="I40" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="J40" s="3">
-        <v>44216</v>
+        <v>44186</v>
       </c>
       <c r="K40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L40">
-        <v>46.8</v>
+        <v>46.2</v>
       </c>
       <c r="M40">
-        <v>7.15</v>
+        <v>6.15</v>
       </c>
       <c r="N40">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D41">
-        <v>6084</v>
+        <v>5307</v>
       </c>
       <c r="E41">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>321783</v>
+        <v>504128</v>
       </c>
       <c r="H41">
-        <v>1.9</v>
-      </c>
-      <c r="I41" t="s">
-        <v>78</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="J41" s="3">
-        <v>44220</v>
+        <v>44209</v>
       </c>
       <c r="K41" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L41">
-        <v>46.8</v>
+        <v>46.2</v>
       </c>
       <c r="M41">
-        <v>7.15</v>
+        <v>6.15</v>
       </c>
       <c r="N41">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D42">
-        <v>7640</v>
+        <v>7118</v>
       </c>
       <c r="E42">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>321783</v>
+        <v>504128</v>
       </c>
       <c r="H42">
-        <v>2.4</v>
-      </c>
-      <c r="I42" t="s">
-        <v>78</v>
+        <v>1.4</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="J42" s="3">
-        <v>44223</v>
+        <v>44210</v>
       </c>
       <c r="K42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L42">
-        <v>46.8</v>
+        <v>46.2</v>
       </c>
       <c r="M42">
-        <v>7.15</v>
+        <v>6.15</v>
       </c>
       <c r="N42">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>10819</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>9828</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G43">
         <v>504128</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J43" s="3">
-        <v>44186</v>
+        <v>44216</v>
       </c>
       <c r="K43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L43">
         <v>46.2</v>
@@ -2676,45 +2734,45 @@
         <v>6.15</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>9828</v>
       </c>
       <c r="O43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D44">
-        <v>5307</v>
+        <v>11811</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>9828</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G44">
         <v>504128</v>
       </c>
       <c r="H44">
-        <v>1.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J44" s="3">
-        <v>44209</v>
+        <v>44220</v>
       </c>
       <c r="K44" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L44">
         <v>46.2</v>
@@ -2723,45 +2781,45 @@
         <v>6.15</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>9828</v>
       </c>
       <c r="O44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D45">
-        <v>7118</v>
+        <v>16284</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>9828</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G45">
         <v>504128</v>
       </c>
       <c r="H45">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J45" s="3">
-        <v>44210</v>
+        <v>44223</v>
       </c>
       <c r="K45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L45">
         <v>46.2</v>
@@ -2770,1293 +2828,1293 @@
         <v>6.15</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>9828</v>
       </c>
       <c r="O45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D46">
-        <v>10819</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>9828</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>504128</v>
+        <v>40590</v>
       </c>
       <c r="H46">
-        <v>2.1</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>44216</v>
+        <v>44186</v>
       </c>
       <c r="K46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L46">
-        <v>46.2</v>
+        <v>47.033099999999997</v>
       </c>
       <c r="M46">
-        <v>6.15</v>
+        <v>9.0663999999999998</v>
       </c>
       <c r="N46">
-        <v>9828</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D47">
-        <v>11811</v>
+        <v>900</v>
       </c>
       <c r="E47">
-        <v>9828</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>504128</v>
+        <v>40590</v>
       </c>
       <c r="H47">
-        <v>2.3</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>79</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>44220</v>
+        <v>44209</v>
       </c>
       <c r="K47" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L47">
-        <v>46.2</v>
+        <v>47.033099999999997</v>
       </c>
       <c r="M47">
-        <v>6.15</v>
+        <v>9.0663999999999998</v>
       </c>
       <c r="N47">
-        <v>9828</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D48">
-        <v>16284</v>
+        <v>1250</v>
       </c>
       <c r="E48">
-        <v>9828</v>
+        <v>900</v>
       </c>
       <c r="F48">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G48">
-        <v>504128</v>
+        <v>40590</v>
       </c>
       <c r="H48">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J48" s="3">
-        <v>44223</v>
+        <v>44211</v>
       </c>
       <c r="K48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L48">
-        <v>46.2</v>
+        <v>47.033099999999997</v>
       </c>
       <c r="M48">
-        <v>6.15</v>
+        <v>9.0663999999999998</v>
       </c>
       <c r="N48">
-        <v>9828</v>
+        <v>900</v>
       </c>
       <c r="O48">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1540</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G49">
         <v>40590</v>
       </c>
       <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
+        <v>3.8</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="J49" s="3">
-        <v>44186</v>
+        <v>44220</v>
       </c>
       <c r="K49" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L49">
-        <v>47.0331</v>
+        <v>47.033099999999997</v>
       </c>
       <c r="M49">
-        <v>9.0664</v>
+        <v>9.0663999999999998</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="O49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D50">
+        <v>1960</v>
+      </c>
+      <c r="E50">
         <v>900</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
       <c r="F50">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G50">
         <v>40590</v>
       </c>
       <c r="H50">
-        <v>2.2</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="J50" s="3">
+        <v>44223</v>
+      </c>
+      <c r="K50" t="s">
+        <v>86</v>
+      </c>
+      <c r="L50">
+        <v>47.033099999999997</v>
+      </c>
+      <c r="M50">
+        <v>9.0663999999999998</v>
+      </c>
+      <c r="N50">
+        <v>900</v>
+      </c>
+      <c r="O50">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>199021</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J51" s="3">
+        <v>44186</v>
+      </c>
+      <c r="K51" t="s">
+        <v>86</v>
+      </c>
+      <c r="L51">
+        <v>46.8521</v>
+      </c>
+      <c r="M51">
+        <v>9.5297000000000001</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>32</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52">
+        <v>1500</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>199021</v>
+      </c>
+      <c r="H52">
+        <v>0.8</v>
+      </c>
+      <c r="I52" t="s">
+        <v>68</v>
+      </c>
+      <c r="J52" s="3">
         <v>44209</v>
       </c>
-      <c r="K50" t="s">
-        <v>89</v>
-      </c>
-      <c r="L50">
-        <v>47.0331</v>
-      </c>
-      <c r="M50">
-        <v>9.0664</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="1">
-        <v>30</v>
-      </c>
-      <c r="B51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51">
-        <v>1250</v>
-      </c>
-      <c r="E51">
-        <v>900</v>
-      </c>
-      <c r="F51">
-        <v>2.2</v>
-      </c>
-      <c r="G51">
-        <v>40590</v>
-      </c>
-      <c r="H51">
-        <v>3.1</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J51" s="3">
-        <v>44211</v>
-      </c>
-      <c r="K51" t="s">
-        <v>89</v>
-      </c>
-      <c r="L51">
-        <v>47.0331</v>
-      </c>
-      <c r="M51">
-        <v>9.0664</v>
-      </c>
-      <c r="N51">
-        <v>900</v>
-      </c>
-      <c r="O51">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="1">
-        <v>92</v>
-      </c>
-      <c r="B52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52">
-        <v>1540</v>
-      </c>
-      <c r="E52">
-        <v>900</v>
-      </c>
-      <c r="F52">
-        <v>2.2</v>
-      </c>
-      <c r="G52">
-        <v>40590</v>
-      </c>
-      <c r="H52">
-        <v>3.8</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J52" s="3">
-        <v>44220</v>
-      </c>
       <c r="K52" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L52">
-        <v>47.0331</v>
+        <v>46.8521</v>
       </c>
       <c r="M52">
-        <v>9.0664</v>
+        <v>9.5297000000000001</v>
       </c>
       <c r="N52">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="O52">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D53">
-        <v>1960</v>
+        <v>3747</v>
       </c>
       <c r="E53">
-        <v>900</v>
+        <v>3747</v>
       </c>
       <c r="F53">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="G53">
-        <v>40590</v>
+        <v>199021</v>
       </c>
       <c r="H53">
-        <v>4.8</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>80</v>
+        <v>1.9</v>
+      </c>
+      <c r="I53" t="s">
+        <v>68</v>
       </c>
       <c r="J53" s="3">
-        <v>44223</v>
+        <v>44216</v>
       </c>
       <c r="K53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L53">
-        <v>47.0331</v>
+        <v>46.8521</v>
       </c>
       <c r="M53">
-        <v>9.0664</v>
+        <v>9.5297000000000001</v>
       </c>
       <c r="N53">
-        <v>900</v>
+        <v>3747</v>
       </c>
       <c r="O53">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
         <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>3747</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G54">
         <v>199021</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I54" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J54" s="3">
-        <v>44186</v>
+        <v>44220</v>
       </c>
       <c r="K54" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L54">
         <v>46.8521</v>
       </c>
       <c r="M54">
-        <v>9.5297</v>
+        <v>9.5297000000000001</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>3747</v>
       </c>
       <c r="O54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B55" t="s">
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D55">
-        <v>1500</v>
+        <v>6640</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>3747</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G55">
         <v>199021</v>
       </c>
       <c r="H55">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="I55" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J55" s="3">
-        <v>44209</v>
+        <v>44223</v>
       </c>
       <c r="K55" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L55">
         <v>46.8521</v>
       </c>
       <c r="M55">
-        <v>9.5297</v>
+        <v>9.5297000000000001</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>3747</v>
       </c>
       <c r="O55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D56">
-        <v>3747</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>3747</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>199021</v>
+        <v>73584</v>
       </c>
       <c r="H56">
-        <v>1.9</v>
-      </c>
-      <c r="I56" t="s">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="J56" s="3">
-        <v>44216</v>
+        <v>44186</v>
       </c>
       <c r="K56" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L56">
-        <v>46.8521</v>
+        <v>47.365299999999998</v>
       </c>
       <c r="M56">
-        <v>9.5297</v>
+        <v>7.3472</v>
       </c>
       <c r="N56">
-        <v>3747</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D57">
-        <v>4316</v>
+        <v>520</v>
       </c>
       <c r="E57">
-        <v>3747</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>199021</v>
+        <v>73584</v>
       </c>
       <c r="H57">
-        <v>2.2</v>
-      </c>
-      <c r="I57" t="s">
-        <v>71</v>
+        <v>0.7</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="J57" s="3">
-        <v>44220</v>
+        <v>44204</v>
       </c>
       <c r="K57" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L57">
-        <v>46.8521</v>
+        <v>47.365299999999998</v>
       </c>
       <c r="M57">
-        <v>9.5297</v>
+        <v>7.3472</v>
       </c>
       <c r="N57">
-        <v>3747</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D58">
-        <v>6640</v>
+        <v>1906</v>
       </c>
       <c r="E58">
-        <v>3747</v>
+        <v>958</v>
       </c>
       <c r="F58">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="G58">
-        <v>199021</v>
+        <v>73584</v>
       </c>
       <c r="H58">
-        <v>3.3</v>
-      </c>
-      <c r="I58" t="s">
-        <v>71</v>
+        <v>2.6</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="J58" s="3">
-        <v>44223</v>
+        <v>44213</v>
       </c>
       <c r="K58" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L58">
-        <v>46.8521</v>
+        <v>47.365299999999998</v>
       </c>
       <c r="M58">
-        <v>9.5297</v>
+        <v>7.3472</v>
       </c>
       <c r="N58">
-        <v>3747</v>
+        <v>958</v>
       </c>
       <c r="O58">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>2032</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G59">
         <v>73584</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J59" s="3">
-        <v>44186</v>
+        <v>44220</v>
       </c>
       <c r="K59" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L59">
-        <v>47.3653</v>
+        <v>47.365299999999998</v>
       </c>
       <c r="M59">
         <v>7.3472</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="O59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D60">
-        <v>520</v>
+        <v>2670</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G60">
         <v>73584</v>
       </c>
       <c r="H60">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J60" s="3">
-        <v>44204</v>
+        <v>44223</v>
       </c>
       <c r="K60" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L60">
-        <v>47.3653</v>
+        <v>47.365299999999998</v>
       </c>
       <c r="M60">
         <v>7.3472</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="O60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D61">
-        <v>1906</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>958</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>73584</v>
+        <v>413120</v>
       </c>
       <c r="H61">
-        <v>2.6</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>81</v>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>44213</v>
+        <v>44186</v>
       </c>
       <c r="K61" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L61">
-        <v>47.3653</v>
+        <v>47.050199999999997</v>
       </c>
       <c r="M61">
-        <v>7.3472</v>
+        <v>8.3093000000000004</v>
       </c>
       <c r="N61">
-        <v>958</v>
+        <v>0</v>
       </c>
       <c r="O61">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D62">
-        <v>2032</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>958</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>73584</v>
+        <v>413120</v>
       </c>
       <c r="H62">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="J62" s="3">
-        <v>44220</v>
+        <v>44188</v>
       </c>
       <c r="K62" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L62">
-        <v>47.3653</v>
+        <v>47.050199999999997</v>
       </c>
       <c r="M62">
-        <v>7.3472</v>
+        <v>8.3093000000000004</v>
       </c>
       <c r="N62">
-        <v>958</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D63">
-        <v>2670</v>
+        <v>9101</v>
       </c>
       <c r="E63">
-        <v>958</v>
+        <v>7330</v>
       </c>
       <c r="F63">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="G63">
-        <v>73584</v>
+        <v>413120</v>
       </c>
       <c r="H63">
-        <v>3.6</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>81</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I63" t="s">
+        <v>69</v>
       </c>
       <c r="J63" s="3">
-        <v>44223</v>
+        <v>44214</v>
       </c>
       <c r="K63" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L63">
-        <v>47.3653</v>
+        <v>47.050199999999997</v>
       </c>
       <c r="M63">
-        <v>7.3472</v>
+        <v>8.3093000000000004</v>
       </c>
       <c r="N63">
-        <v>958</v>
+        <v>7330</v>
       </c>
       <c r="O63">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
         <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>11241</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>7330</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G64">
         <v>413120</v>
       </c>
       <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
+        <v>2.7</v>
+      </c>
+      <c r="I64" t="s">
+        <v>69</v>
       </c>
       <c r="J64" s="3">
-        <v>44186</v>
+        <v>44220</v>
       </c>
       <c r="K64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L64">
-        <v>47.0502</v>
+        <v>47.050199999999997</v>
       </c>
       <c r="M64">
-        <v>8.3093</v>
+        <v>8.3093000000000004</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>7330</v>
       </c>
       <c r="O64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
         <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>15454</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>7330</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G65">
         <v>413120</v>
       </c>
       <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>70</v>
+        <v>3.7</v>
+      </c>
+      <c r="I65" t="s">
+        <v>69</v>
       </c>
       <c r="J65" s="3">
-        <v>44188</v>
+        <v>44223</v>
       </c>
       <c r="K65" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L65">
-        <v>47.0502</v>
+        <v>47.050199999999997</v>
       </c>
       <c r="M65">
-        <v>8.3093</v>
+        <v>8.3093000000000004</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>7330</v>
       </c>
       <c r="O65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D66">
-        <v>9101</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>7330</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>413120</v>
+        <v>176496</v>
       </c>
       <c r="H66">
-        <v>2.2</v>
-      </c>
-      <c r="I66" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
       </c>
       <c r="J66" s="3">
-        <v>44214</v>
+        <v>44186</v>
       </c>
       <c r="K66" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L66">
-        <v>47.0502</v>
+        <v>46.99</v>
       </c>
       <c r="M66">
-        <v>8.3093</v>
+        <v>6.9292999999999996</v>
       </c>
       <c r="N66">
-        <v>7330</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D67">
-        <v>11241</v>
+        <v>2040</v>
       </c>
       <c r="E67">
-        <v>7330</v>
+        <v>1908</v>
       </c>
       <c r="F67">
-        <v>1.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G67">
-        <v>413120</v>
+        <v>176496</v>
       </c>
       <c r="H67">
-        <v>2.7</v>
-      </c>
-      <c r="I67" t="s">
-        <v>72</v>
+        <v>1.2</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="J67" s="3">
+        <v>44217</v>
+      </c>
+      <c r="K67" t="s">
+        <v>86</v>
+      </c>
+      <c r="L67">
+        <v>46.99</v>
+      </c>
+      <c r="M67">
+        <v>6.9292999999999996</v>
+      </c>
+      <c r="N67">
+        <v>1908</v>
+      </c>
+      <c r="O67">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>79</v>
+      </c>
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68">
+        <v>2585</v>
+      </c>
+      <c r="E68">
+        <v>1908</v>
+      </c>
+      <c r="F68">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G68">
+        <v>176496</v>
+      </c>
+      <c r="H68">
+        <v>1.5</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J68" s="3">
         <v>44220</v>
       </c>
-      <c r="K67" t="s">
-        <v>89</v>
-      </c>
-      <c r="L67">
-        <v>47.0502</v>
-      </c>
-      <c r="M67">
-        <v>8.3093</v>
-      </c>
-      <c r="N67">
-        <v>7330</v>
-      </c>
-      <c r="O67">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="1">
-        <v>23</v>
-      </c>
-      <c r="B68" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" t="s">
-        <v>54</v>
-      </c>
-      <c r="D68">
-        <v>15454</v>
-      </c>
-      <c r="E68">
-        <v>7330</v>
-      </c>
-      <c r="F68">
-        <v>1.8</v>
-      </c>
-      <c r="G68">
-        <v>413120</v>
-      </c>
-      <c r="H68">
-        <v>3.7</v>
-      </c>
-      <c r="I68" t="s">
-        <v>72</v>
-      </c>
-      <c r="J68" s="3">
-        <v>44223</v>
-      </c>
       <c r="K68" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L68">
-        <v>47.0502</v>
+        <v>46.99</v>
       </c>
       <c r="M68">
-        <v>8.3093</v>
+        <v>6.9292999999999996</v>
       </c>
       <c r="N68">
-        <v>7330</v>
+        <v>1908</v>
       </c>
       <c r="O68">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>3852</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1908</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G69">
         <v>176496</v>
       </c>
       <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="J69" s="3">
-        <v>44186</v>
+        <v>44223</v>
       </c>
       <c r="K69" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L69">
         <v>46.99</v>
       </c>
       <c r="M69">
-        <v>6.9293</v>
+        <v>6.9292999999999996</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>1908</v>
       </c>
       <c r="O69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D70">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>176496</v>
+        <v>43087</v>
       </c>
       <c r="H70">
-        <v>1.2</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>44217</v>
+        <v>44186</v>
       </c>
       <c r="K70" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L70">
-        <v>46.99</v>
+        <v>46.959400000000002</v>
       </c>
       <c r="M70">
-        <v>6.9293</v>
+        <v>8.3666999999999998</v>
       </c>
       <c r="N70">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="O70">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D71">
-        <v>2585</v>
+        <v>100</v>
       </c>
       <c r="E71">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>176496</v>
+        <v>43087</v>
       </c>
       <c r="H71">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="J71" s="3">
-        <v>44220</v>
+        <v>44186</v>
       </c>
       <c r="K71" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L71">
-        <v>46.99</v>
+        <v>46.959400000000002</v>
       </c>
       <c r="M71">
-        <v>6.9293</v>
+        <v>8.3666999999999998</v>
       </c>
       <c r="N71">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="O71">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D72">
-        <v>3852</v>
+        <v>100</v>
       </c>
       <c r="E72">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>176496</v>
+        <v>43087</v>
       </c>
       <c r="H72">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="J72" s="3">
-        <v>44223</v>
+        <v>44209</v>
       </c>
       <c r="K72" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L72">
-        <v>46.99</v>
+        <v>46.959400000000002</v>
       </c>
       <c r="M72">
-        <v>6.9293</v>
+        <v>8.3666999999999998</v>
       </c>
       <c r="N72">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s">
         <v>27</v>
       </c>
       <c r="C73" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4068,22 +4126,22 @@
         <v>43087</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73" s="3">
-        <v>44186</v>
+        <v>44218</v>
       </c>
       <c r="K73" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L73">
-        <v>46.9594</v>
+        <v>46.959400000000002</v>
       </c>
       <c r="M73">
-        <v>8.3667</v>
+        <v>8.3666999999999998</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4092,18 +4150,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
         <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D74">
-        <v>100</v>
+        <v>3218</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4115,22 +4173,22 @@
         <v>43087</v>
       </c>
       <c r="H74">
-        <v>0.2</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>70</v>
+        <v>7.5</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
       </c>
       <c r="J74" s="3">
-        <v>44186</v>
+        <v>44220</v>
       </c>
       <c r="K74" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L74">
-        <v>46.9594</v>
+        <v>46.959400000000002</v>
       </c>
       <c r="M74">
-        <v>8.3667</v>
+        <v>8.3666999999999998</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4139,18 +4197,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B75" t="s">
         <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D75">
-        <v>100</v>
+        <v>3218</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4162,22 +4220,22 @@
         <v>43087</v>
       </c>
       <c r="H75">
-        <v>0.2</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>70</v>
+        <v>7.5</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
       </c>
       <c r="J75" s="3">
-        <v>44209</v>
+        <v>44223</v>
       </c>
       <c r="K75" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L75">
-        <v>46.9594</v>
+        <v>46.959400000000002</v>
       </c>
       <c r="M75">
-        <v>8.3667</v>
+        <v>8.3666999999999998</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4186,18 +4244,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D76">
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4206,119 +4264,119 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>43087</v>
+        <v>37930</v>
       </c>
       <c r="H76">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" s="3">
+        <v>44186</v>
+      </c>
+      <c r="K76" t="s">
+        <v>86</v>
+      </c>
+      <c r="L76">
+        <v>46.896900000000002</v>
+      </c>
+      <c r="M76">
+        <v>8.2469000000000001</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>47</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77">
+        <v>1865</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>37930</v>
+      </c>
+      <c r="H77">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
         <v>44218</v>
       </c>
-      <c r="K76" t="s">
-        <v>89</v>
-      </c>
-      <c r="L76">
-        <v>46.9594</v>
-      </c>
-      <c r="M76">
-        <v>8.3667</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="1">
-        <v>96</v>
-      </c>
-      <c r="B77" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77" t="s">
-        <v>56</v>
-      </c>
-      <c r="D77">
-        <v>3218</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>43087</v>
-      </c>
-      <c r="H77">
-        <v>7.5</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77" s="3">
+      <c r="K77" t="s">
+        <v>86</v>
+      </c>
+      <c r="L77">
+        <v>46.896900000000002</v>
+      </c>
+      <c r="M77">
+        <v>8.2469000000000001</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>97</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78">
+        <v>1866</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>37930</v>
+      </c>
+      <c r="H78">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" s="3">
         <v>44220</v>
       </c>
-      <c r="K77" t="s">
-        <v>89</v>
-      </c>
-      <c r="L77">
-        <v>46.9594</v>
-      </c>
-      <c r="M77">
-        <v>8.3667</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" s="1">
-        <v>24</v>
-      </c>
-      <c r="B78" t="s">
-        <v>27</v>
-      </c>
-      <c r="C78" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78">
-        <v>3218</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>43087</v>
-      </c>
-      <c r="H78">
-        <v>7.5</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78" s="3">
-        <v>44223</v>
-      </c>
       <c r="K78" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L78">
-        <v>46.9594</v>
+        <v>46.896900000000002</v>
       </c>
       <c r="M78">
-        <v>8.3667</v>
+        <v>8.2469000000000001</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4327,18 +4385,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B79" t="s">
         <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>2036</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -4350,69 +4408,69 @@
         <v>37930</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" s="3">
+        <v>44223</v>
+      </c>
+      <c r="K79" t="s">
+        <v>86</v>
+      </c>
+      <c r="L79">
+        <v>46.896900000000002</v>
+      </c>
+      <c r="M79">
+        <v>8.2469000000000001</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>58</v>
+      </c>
+      <c r="B80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>510734</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" s="3">
         <v>44186</v>
       </c>
-      <c r="K79" t="s">
-        <v>89</v>
-      </c>
-      <c r="L79">
-        <v>46.8969</v>
-      </c>
-      <c r="M79">
-        <v>8.2469</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="A80" s="1">
-        <v>47</v>
-      </c>
-      <c r="B80" t="s">
-        <v>28</v>
-      </c>
-      <c r="C80" t="s">
-        <v>57</v>
-      </c>
-      <c r="D80">
-        <v>1865</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>37930</v>
-      </c>
-      <c r="H80">
-        <v>4.9</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80" s="3">
-        <v>44218</v>
-      </c>
       <c r="K80" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L80">
-        <v>46.8969</v>
+        <v>47.423299999999998</v>
       </c>
       <c r="M80">
-        <v>8.2469</v>
+        <v>9.3772000000000002</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4421,1851 +4479,1851 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D81">
-        <v>1866</v>
+        <v>7230</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>37930</v>
+        <v>510734</v>
       </c>
       <c r="H81">
-        <v>4.9</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
+        <v>1.4</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="J81" s="3">
+        <v>44215</v>
+      </c>
+      <c r="K81" t="s">
+        <v>86</v>
+      </c>
+      <c r="L81">
+        <v>47.423299999999998</v>
+      </c>
+      <c r="M81">
+        <v>9.3772000000000002</v>
+      </c>
+      <c r="N81">
+        <v>5200</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82">
+        <v>8870</v>
+      </c>
+      <c r="E82">
+        <v>5200</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>510734</v>
+      </c>
+      <c r="H82">
+        <v>1.7</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J82" s="3">
         <v>44220</v>
       </c>
-      <c r="K81" t="s">
-        <v>89</v>
-      </c>
-      <c r="L81">
-        <v>46.8969</v>
-      </c>
-      <c r="M81">
-        <v>8.2469</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
-      <c r="A82" s="1">
-        <v>25</v>
-      </c>
-      <c r="B82" t="s">
-        <v>28</v>
-      </c>
-      <c r="C82" t="s">
-        <v>57</v>
-      </c>
-      <c r="D82">
-        <v>2036</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>37930</v>
-      </c>
-      <c r="H82">
-        <v>5.4</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82" s="3">
-        <v>44223</v>
-      </c>
       <c r="K82" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L82">
-        <v>46.8969</v>
+        <v>47.423299999999998</v>
       </c>
       <c r="M82">
-        <v>8.2469</v>
+        <v>9.3772000000000002</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="O82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B83" t="s">
         <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>12782</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>510734</v>
       </c>
       <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="J83" s="3">
+        <v>44223</v>
+      </c>
+      <c r="K83" t="s">
+        <v>86</v>
+      </c>
+      <c r="L83">
+        <v>47.423299999999998</v>
+      </c>
+      <c r="M83">
+        <v>9.3772000000000002</v>
+      </c>
+      <c r="N83">
+        <v>5200</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>48</v>
+      </c>
+      <c r="B84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" t="s">
+        <v>56</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>82348</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J84" s="3">
         <v>44186</v>
       </c>
-      <c r="K83" t="s">
-        <v>89</v>
-      </c>
-      <c r="L83">
-        <v>47.4233</v>
-      </c>
-      <c r="M83">
-        <v>9.3772</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" s="1">
-        <v>59</v>
-      </c>
-      <c r="B84" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" t="s">
-        <v>58</v>
-      </c>
-      <c r="D84">
-        <v>7230</v>
-      </c>
-      <c r="E84">
-        <v>5200</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>510734</v>
-      </c>
-      <c r="H84">
-        <v>1.4</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J84" s="3">
-        <v>44215</v>
-      </c>
       <c r="K84" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L84">
-        <v>47.4233</v>
+        <v>47.6965</v>
       </c>
       <c r="M84">
-        <v>9.3772</v>
+        <v>8.6339000000000006</v>
       </c>
       <c r="N84">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="O84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C85" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D85">
-        <v>8870</v>
+        <v>1400</v>
       </c>
       <c r="E85">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>510734</v>
+        <v>82348</v>
       </c>
       <c r="H85">
         <v>1.7</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J85" s="3">
-        <v>44220</v>
+        <v>44207</v>
       </c>
       <c r="K85" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L85">
-        <v>47.4233</v>
+        <v>47.6965</v>
       </c>
       <c r="M85">
-        <v>9.3772</v>
+        <v>8.6339000000000006</v>
       </c>
       <c r="N85">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="O85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C86" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D86">
-        <v>12782</v>
+        <v>3554</v>
       </c>
       <c r="E86">
-        <v>5200</v>
+        <v>2450</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G86">
-        <v>510734</v>
+        <v>82348</v>
       </c>
       <c r="H86">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J86" s="3">
-        <v>44223</v>
+        <v>44214</v>
       </c>
       <c r="K86" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L86">
-        <v>47.4233</v>
+        <v>47.6965</v>
       </c>
       <c r="M86">
-        <v>9.3772</v>
+        <v>8.6339000000000006</v>
       </c>
       <c r="N86">
-        <v>5200</v>
+        <v>2450</v>
       </c>
       <c r="O86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>3982</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G87">
         <v>82348</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J87" s="3">
-        <v>44186</v>
+        <v>44220</v>
       </c>
       <c r="K87" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L87">
         <v>47.6965</v>
       </c>
       <c r="M87">
-        <v>8.633900000000001</v>
+        <v>8.6339000000000006</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="O87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B88" t="s">
         <v>30</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D88">
-        <v>1400</v>
+        <v>4989</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G88">
         <v>82348</v>
       </c>
       <c r="H88">
-        <v>1.7</v>
+        <v>6.1</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J88" s="3">
-        <v>44207</v>
+        <v>44223</v>
       </c>
       <c r="K88" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L88">
         <v>47.6965</v>
       </c>
       <c r="M88">
-        <v>8.633900000000001</v>
+        <v>8.6339000000000006</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="O88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D89">
-        <v>3554</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>82348</v>
+        <v>275247</v>
       </c>
       <c r="H89">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J89" s="3">
+        <v>44186</v>
+      </c>
+      <c r="K89" t="s">
+        <v>86</v>
+      </c>
+      <c r="L89">
+        <v>47.193100000000001</v>
+      </c>
+      <c r="M89">
+        <v>7.3958000000000004</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>55</v>
+      </c>
+      <c r="B90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90">
+        <v>5003</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>275247</v>
+      </c>
+      <c r="H90">
+        <v>1.8</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J90" s="3">
+        <v>44209</v>
+      </c>
+      <c r="K90" t="s">
+        <v>86</v>
+      </c>
+      <c r="L90">
+        <v>47.193100000000001</v>
+      </c>
+      <c r="M90">
+        <v>7.3958000000000004</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>56</v>
+      </c>
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91">
+        <v>7232</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>275247</v>
+      </c>
+      <c r="H91">
+        <v>2.6</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J91" s="3">
         <v>44214</v>
       </c>
-      <c r="K89" t="s">
-        <v>89</v>
-      </c>
-      <c r="L89">
-        <v>47.6965</v>
-      </c>
-      <c r="M89">
-        <v>8.633900000000001</v>
-      </c>
-      <c r="N89">
-        <v>2450</v>
-      </c>
-      <c r="O89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="1">
-        <v>87</v>
-      </c>
-      <c r="B90" t="s">
-        <v>30</v>
-      </c>
-      <c r="C90" t="s">
-        <v>59</v>
-      </c>
-      <c r="D90">
-        <v>3982</v>
-      </c>
-      <c r="E90">
-        <v>2450</v>
-      </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-      <c r="G90">
-        <v>82348</v>
-      </c>
-      <c r="H90">
-        <v>4.8</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J90" s="3">
-        <v>44220</v>
-      </c>
-      <c r="K90" t="s">
-        <v>89</v>
-      </c>
-      <c r="L90">
-        <v>47.6965</v>
-      </c>
-      <c r="M90">
-        <v>8.633900000000001</v>
-      </c>
-      <c r="N90">
-        <v>2450</v>
-      </c>
-      <c r="O90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="A91" s="1">
-        <v>15</v>
-      </c>
-      <c r="B91" t="s">
-        <v>30</v>
-      </c>
-      <c r="C91" t="s">
-        <v>59</v>
-      </c>
-      <c r="D91">
-        <v>4989</v>
-      </c>
-      <c r="E91">
-        <v>2450</v>
-      </c>
-      <c r="F91">
-        <v>3</v>
-      </c>
-      <c r="G91">
-        <v>82348</v>
-      </c>
-      <c r="H91">
-        <v>6.1</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J91" s="3">
-        <v>44223</v>
-      </c>
       <c r="K91" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L91">
-        <v>47.6965</v>
+        <v>47.193100000000001</v>
       </c>
       <c r="M91">
-        <v>8.633900000000001</v>
+        <v>7.3958000000000004</v>
       </c>
       <c r="N91">
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="O91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B92" t="s">
         <v>31</v>
       </c>
       <c r="C92" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>8808</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="G92">
         <v>275247</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J92" s="3">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="K92" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L92">
-        <v>47.1931</v>
+        <v>47.193100000000001</v>
       </c>
       <c r="M92">
-        <v>7.3958</v>
+        <v>7.3958000000000004</v>
       </c>
       <c r="N92">
-        <v>0</v>
+        <v>8808</v>
       </c>
       <c r="O92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B93" t="s">
         <v>31</v>
       </c>
       <c r="C93" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D93">
-        <v>5003</v>
+        <v>10234</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>8808</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="G93">
         <v>275247</v>
       </c>
       <c r="H93">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J93" s="3">
-        <v>44209</v>
+        <v>44220</v>
       </c>
       <c r="K93" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L93">
-        <v>47.1931</v>
+        <v>47.193100000000001</v>
       </c>
       <c r="M93">
-        <v>7.3958</v>
+        <v>7.3958000000000004</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>8808</v>
       </c>
       <c r="O93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
         <v>31</v>
       </c>
       <c r="C94" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D94">
-        <v>7232</v>
+        <v>13272</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>8808</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="G94">
         <v>275247</v>
       </c>
       <c r="H94">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J94" s="3">
-        <v>44214</v>
+        <v>44223</v>
       </c>
       <c r="K94" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L94">
-        <v>47.1931</v>
+        <v>47.193100000000001</v>
       </c>
       <c r="M94">
-        <v>7.3958</v>
+        <v>7.3958000000000004</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>8808</v>
       </c>
       <c r="O94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C95" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D95">
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>8808</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>275247</v>
+        <v>160480</v>
       </c>
       <c r="H95">
-        <v>3.1</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>85</v>
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
       </c>
       <c r="J95" s="3">
+        <v>44186</v>
+      </c>
+      <c r="K95" t="s">
+        <v>86</v>
+      </c>
+      <c r="L95">
+        <v>47.127800000000001</v>
+      </c>
+      <c r="M95">
+        <v>8.7431000000000001</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>52</v>
+      </c>
+      <c r="B96" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" t="s">
+        <v>58</v>
+      </c>
+      <c r="D96">
+        <v>2000</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>160480</v>
+      </c>
+      <c r="H96">
+        <v>1.3</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>44215</v>
       </c>
-      <c r="K95" t="s">
-        <v>89</v>
-      </c>
-      <c r="L95">
-        <v>47.1931</v>
-      </c>
-      <c r="M95">
-        <v>7.3958</v>
-      </c>
-      <c r="N95">
-        <v>8808</v>
-      </c>
-      <c r="O95">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
-      <c r="A96" s="1">
-        <v>82</v>
-      </c>
-      <c r="B96" t="s">
-        <v>31</v>
-      </c>
-      <c r="C96" t="s">
-        <v>60</v>
-      </c>
-      <c r="D96">
-        <v>10234</v>
-      </c>
-      <c r="E96">
-        <v>8808</v>
-      </c>
-      <c r="F96">
-        <v>3.2</v>
-      </c>
-      <c r="G96">
-        <v>275247</v>
-      </c>
-      <c r="H96">
-        <v>3.7</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J96" s="3">
-        <v>44220</v>
-      </c>
       <c r="K96" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L96">
-        <v>47.1931</v>
+        <v>47.127800000000001</v>
       </c>
       <c r="M96">
-        <v>7.3958</v>
+        <v>8.7431000000000001</v>
       </c>
       <c r="N96">
-        <v>8808</v>
+        <v>0</v>
       </c>
       <c r="O96">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C97" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D97">
-        <v>13272</v>
+        <v>3045</v>
       </c>
       <c r="E97">
-        <v>8808</v>
+        <v>2500</v>
       </c>
       <c r="F97">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="G97">
-        <v>275247</v>
+        <v>160480</v>
       </c>
       <c r="H97">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J97" s="3">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="K97" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L97">
-        <v>47.1931</v>
+        <v>47.127800000000001</v>
       </c>
       <c r="M97">
-        <v>7.3958</v>
+        <v>8.7431000000000001</v>
       </c>
       <c r="N97">
-        <v>8808</v>
+        <v>2500</v>
       </c>
       <c r="O97">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B98" t="s">
         <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>3250</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G98">
         <v>160480</v>
       </c>
       <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="J98" s="3">
-        <v>44186</v>
+        <v>44220</v>
       </c>
       <c r="K98" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L98">
-        <v>47.1278</v>
+        <v>47.127800000000001</v>
       </c>
       <c r="M98">
-        <v>8.7431</v>
+        <v>8.7431000000000001</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="O98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B99" t="s">
         <v>32</v>
       </c>
       <c r="C99" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D99">
-        <v>2000</v>
+        <v>4130</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G99">
         <v>160480</v>
       </c>
       <c r="H99">
-        <v>1.3</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
+        <v>2.6</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="J99" s="3">
-        <v>44215</v>
+        <v>44223</v>
       </c>
       <c r="K99" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L99">
-        <v>47.1278</v>
+        <v>47.127800000000001</v>
       </c>
       <c r="M99">
-        <v>8.7431</v>
+        <v>8.7431000000000001</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="O99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C100" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D100">
-        <v>3045</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>160480</v>
+        <v>279547</v>
       </c>
       <c r="H100">
-        <v>1.9</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>86</v>
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>44217</v>
+        <v>44186</v>
       </c>
       <c r="K100" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L100">
-        <v>47.1278</v>
+        <v>47.555799999999998</v>
       </c>
       <c r="M100">
-        <v>8.7431</v>
+        <v>8.8963999999999999</v>
       </c>
       <c r="N100">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="O100">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C101" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D101">
-        <v>3250</v>
+        <v>2980</v>
       </c>
       <c r="E101">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="F101">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="G101">
-        <v>160480</v>
+        <v>279547</v>
       </c>
       <c r="H101">
-        <v>2</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>86</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I101" t="s">
+        <v>69</v>
       </c>
       <c r="J101" s="3">
+        <v>44214</v>
+      </c>
+      <c r="K101" t="s">
+        <v>86</v>
+      </c>
+      <c r="L101">
+        <v>47.555799999999998</v>
+      </c>
+      <c r="M101">
+        <v>8.8963999999999999</v>
+      </c>
+      <c r="N101">
+        <v>1800</v>
+      </c>
+      <c r="O101">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>88</v>
+      </c>
+      <c r="B102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102">
+        <v>4072</v>
+      </c>
+      <c r="E102">
+        <v>1800</v>
+      </c>
+      <c r="F102">
+        <v>0.6</v>
+      </c>
+      <c r="G102">
+        <v>279547</v>
+      </c>
+      <c r="H102">
+        <v>1.5</v>
+      </c>
+      <c r="I102" t="s">
+        <v>69</v>
+      </c>
+      <c r="J102" s="3">
         <v>44220</v>
       </c>
-      <c r="K101" t="s">
-        <v>89</v>
-      </c>
-      <c r="L101">
-        <v>47.1278</v>
-      </c>
-      <c r="M101">
-        <v>8.7431</v>
-      </c>
-      <c r="N101">
-        <v>2500</v>
-      </c>
-      <c r="O101">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="A102" s="1">
-        <v>21</v>
-      </c>
-      <c r="B102" t="s">
-        <v>32</v>
-      </c>
-      <c r="C102" t="s">
-        <v>61</v>
-      </c>
-      <c r="D102">
-        <v>4130</v>
-      </c>
-      <c r="E102">
-        <v>2500</v>
-      </c>
-      <c r="F102">
-        <v>1.6</v>
-      </c>
-      <c r="G102">
-        <v>160480</v>
-      </c>
-      <c r="H102">
-        <v>2.6</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J102" s="3">
-        <v>44223</v>
-      </c>
       <c r="K102" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L102">
-        <v>47.1278</v>
+        <v>47.555799999999998</v>
       </c>
       <c r="M102">
-        <v>8.7431</v>
+        <v>8.8963999999999999</v>
       </c>
       <c r="N102">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="O102">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="B103" t="s">
         <v>33</v>
       </c>
       <c r="C103" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>6376</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G103">
         <v>279547</v>
       </c>
       <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I103" t="s">
+        <v>69</v>
       </c>
       <c r="J103" s="3">
+        <v>44223</v>
+      </c>
+      <c r="K103" t="s">
+        <v>86</v>
+      </c>
+      <c r="L103">
+        <v>47.555799999999998</v>
+      </c>
+      <c r="M103">
+        <v>8.8963999999999999</v>
+      </c>
+      <c r="N103">
+        <v>1800</v>
+      </c>
+      <c r="O103">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>60</v>
+      </c>
+      <c r="B104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" t="s">
+        <v>60</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>351491</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104" s="3">
         <v>44186</v>
       </c>
-      <c r="K103" t="s">
-        <v>89</v>
-      </c>
-      <c r="L103">
-        <v>47.5558</v>
-      </c>
-      <c r="M103">
-        <v>8.8964</v>
-      </c>
-      <c r="N103">
-        <v>0</v>
-      </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="1">
-        <v>63</v>
-      </c>
-      <c r="B104" t="s">
-        <v>33</v>
-      </c>
-      <c r="C104" t="s">
-        <v>62</v>
-      </c>
-      <c r="D104">
-        <v>2980</v>
-      </c>
-      <c r="E104">
-        <v>1800</v>
-      </c>
-      <c r="F104">
-        <v>0.6</v>
-      </c>
-      <c r="G104">
-        <v>279547</v>
-      </c>
-      <c r="H104">
-        <v>1.1</v>
-      </c>
-      <c r="I104" t="s">
-        <v>72</v>
-      </c>
-      <c r="J104" s="3">
+      <c r="K104" t="s">
+        <v>86</v>
+      </c>
+      <c r="L104">
+        <v>46.331699999999998</v>
+      </c>
+      <c r="M104">
+        <v>8.8004999999999995</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>61</v>
+      </c>
+      <c r="B105" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105">
+        <v>10275</v>
+      </c>
+      <c r="E105">
+        <v>9530</v>
+      </c>
+      <c r="F105">
+        <v>2.7</v>
+      </c>
+      <c r="G105">
+        <v>351491</v>
+      </c>
+      <c r="H105">
+        <v>2.9</v>
+      </c>
+      <c r="I105" t="s">
+        <v>84</v>
+      </c>
+      <c r="J105" s="3">
         <v>44214</v>
       </c>
-      <c r="K104" t="s">
-        <v>89</v>
-      </c>
-      <c r="L104">
-        <v>47.5558</v>
-      </c>
-      <c r="M104">
-        <v>8.8964</v>
-      </c>
-      <c r="N104">
-        <v>1800</v>
-      </c>
-      <c r="O104">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="A105" s="1">
-        <v>88</v>
-      </c>
-      <c r="B105" t="s">
-        <v>33</v>
-      </c>
-      <c r="C105" t="s">
-        <v>62</v>
-      </c>
-      <c r="D105">
-        <v>4072</v>
-      </c>
-      <c r="E105">
-        <v>1800</v>
-      </c>
-      <c r="F105">
-        <v>0.6</v>
-      </c>
-      <c r="G105">
-        <v>279547</v>
-      </c>
-      <c r="H105">
-        <v>1.5</v>
-      </c>
-      <c r="I105" t="s">
-        <v>72</v>
-      </c>
-      <c r="J105" s="3">
+      <c r="K105" t="s">
+        <v>86</v>
+      </c>
+      <c r="L105">
+        <v>46.331699999999998</v>
+      </c>
+      <c r="M105">
+        <v>8.8004999999999995</v>
+      </c>
+      <c r="N105">
+        <v>9530</v>
+      </c>
+      <c r="O105">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>100</v>
+      </c>
+      <c r="B106" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" t="s">
+        <v>60</v>
+      </c>
+      <c r="D106">
+        <v>11815</v>
+      </c>
+      <c r="E106">
+        <v>9530</v>
+      </c>
+      <c r="F106">
+        <v>2.7</v>
+      </c>
+      <c r="G106">
+        <v>351491</v>
+      </c>
+      <c r="H106">
+        <v>3.4</v>
+      </c>
+      <c r="I106" t="s">
+        <v>84</v>
+      </c>
+      <c r="J106" s="3">
         <v>44220</v>
       </c>
-      <c r="K105" t="s">
-        <v>89</v>
-      </c>
-      <c r="L105">
-        <v>47.5558</v>
-      </c>
-      <c r="M105">
-        <v>8.8964</v>
-      </c>
-      <c r="N105">
-        <v>1800</v>
-      </c>
-      <c r="O105">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="A106" s="1">
-        <v>16</v>
-      </c>
-      <c r="B106" t="s">
-        <v>33</v>
-      </c>
-      <c r="C106" t="s">
-        <v>62</v>
-      </c>
-      <c r="D106">
-        <v>6376</v>
-      </c>
-      <c r="E106">
-        <v>1800</v>
-      </c>
-      <c r="F106">
-        <v>0.6</v>
-      </c>
-      <c r="G106">
-        <v>279547</v>
-      </c>
-      <c r="H106">
-        <v>2.3</v>
-      </c>
-      <c r="I106" t="s">
-        <v>72</v>
-      </c>
-      <c r="J106" s="3">
-        <v>44223</v>
-      </c>
       <c r="K106" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L106">
-        <v>47.5558</v>
+        <v>46.331699999999998</v>
       </c>
       <c r="M106">
-        <v>8.8964</v>
+        <v>8.8004999999999995</v>
       </c>
       <c r="N106">
-        <v>1800</v>
+        <v>9530</v>
       </c>
       <c r="O106">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B107" t="s">
         <v>34</v>
       </c>
       <c r="C107" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>15823</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>9530</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G107">
         <v>351491</v>
       </c>
       <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
+        <v>4.5</v>
+      </c>
+      <c r="I107" t="s">
+        <v>84</v>
       </c>
       <c r="J107" s="3">
+        <v>44223</v>
+      </c>
+      <c r="K107" t="s">
+        <v>86</v>
+      </c>
+      <c r="L107">
+        <v>46.331699999999998</v>
+      </c>
+      <c r="M107">
+        <v>8.8004999999999995</v>
+      </c>
+      <c r="N107">
+        <v>9530</v>
+      </c>
+      <c r="O107">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>64</v>
+      </c>
+      <c r="B108" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" t="s">
+        <v>61</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>36703</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" s="3">
         <v>44186</v>
       </c>
-      <c r="K107" t="s">
-        <v>89</v>
-      </c>
-      <c r="L107">
-        <v>46.3317</v>
-      </c>
-      <c r="M107">
-        <v>8.8005</v>
-      </c>
-      <c r="N107">
-        <v>0</v>
-      </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="A108" s="1">
+      <c r="K108" t="s">
+        <v>86</v>
+      </c>
+      <c r="L108">
+        <v>46.880600000000001</v>
+      </c>
+      <c r="M108">
+        <v>8.6394000000000002</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>65</v>
+      </c>
+      <c r="B109" t="s">
+        <v>35</v>
+      </c>
+      <c r="C109" t="s">
         <v>61</v>
       </c>
-      <c r="B108" t="s">
-        <v>34</v>
-      </c>
-      <c r="C108" t="s">
-        <v>63</v>
-      </c>
-      <c r="D108">
-        <v>10275</v>
-      </c>
-      <c r="E108">
-        <v>9530</v>
-      </c>
-      <c r="F108">
-        <v>2.7</v>
-      </c>
-      <c r="G108">
-        <v>351491</v>
-      </c>
-      <c r="H108">
-        <v>2.9</v>
-      </c>
-      <c r="I108" t="s">
-        <v>87</v>
-      </c>
-      <c r="J108" s="3">
-        <v>44214</v>
-      </c>
-      <c r="K108" t="s">
-        <v>89</v>
-      </c>
-      <c r="L108">
-        <v>46.3317</v>
-      </c>
-      <c r="M108">
-        <v>8.8005</v>
-      </c>
-      <c r="N108">
-        <v>9530</v>
-      </c>
-      <c r="O108">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="A109" s="1">
-        <v>100</v>
-      </c>
-      <c r="B109" t="s">
-        <v>34</v>
-      </c>
-      <c r="C109" t="s">
-        <v>63</v>
-      </c>
       <c r="D109">
-        <v>11815</v>
+        <v>1134</v>
       </c>
       <c r="E109">
-        <v>9530</v>
+        <v>1030</v>
       </c>
       <c r="F109">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G109">
-        <v>351491</v>
+        <v>36703</v>
       </c>
       <c r="H109">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I109" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="J109" s="3">
+        <v>44217</v>
+      </c>
+      <c r="K109" t="s">
+        <v>86</v>
+      </c>
+      <c r="L109">
+        <v>46.880600000000001</v>
+      </c>
+      <c r="M109">
+        <v>8.6394000000000002</v>
+      </c>
+      <c r="N109">
+        <v>1030</v>
+      </c>
+      <c r="O109">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>98</v>
+      </c>
+      <c r="B110" t="s">
+        <v>35</v>
+      </c>
+      <c r="C110" t="s">
+        <v>61</v>
+      </c>
+      <c r="D110">
+        <v>1361</v>
+      </c>
+      <c r="E110">
+        <v>1030</v>
+      </c>
+      <c r="F110">
+        <v>2.8</v>
+      </c>
+      <c r="G110">
+        <v>36703</v>
+      </c>
+      <c r="H110">
+        <v>3.7</v>
+      </c>
+      <c r="I110" t="s">
+        <v>68</v>
+      </c>
+      <c r="J110" s="3">
         <v>44220</v>
       </c>
-      <c r="K109" t="s">
-        <v>89</v>
-      </c>
-      <c r="L109">
-        <v>46.3317</v>
-      </c>
-      <c r="M109">
-        <v>8.8005</v>
-      </c>
-      <c r="N109">
-        <v>9530</v>
-      </c>
-      <c r="O109">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="A110" s="1">
-        <v>28</v>
-      </c>
-      <c r="B110" t="s">
-        <v>34</v>
-      </c>
-      <c r="C110" t="s">
-        <v>63</v>
-      </c>
-      <c r="D110">
-        <v>15823</v>
-      </c>
-      <c r="E110">
-        <v>9530</v>
-      </c>
-      <c r="F110">
-        <v>2.7</v>
-      </c>
-      <c r="G110">
-        <v>351491</v>
-      </c>
-      <c r="H110">
-        <v>4.5</v>
-      </c>
-      <c r="I110" t="s">
-        <v>87</v>
-      </c>
-      <c r="J110" s="3">
-        <v>44223</v>
-      </c>
       <c r="K110" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L110">
-        <v>46.3317</v>
+        <v>46.880600000000001</v>
       </c>
       <c r="M110">
-        <v>8.8005</v>
+        <v>8.6394000000000002</v>
       </c>
       <c r="N110">
-        <v>9530</v>
+        <v>1030</v>
       </c>
       <c r="O110">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B111" t="s">
         <v>35</v>
       </c>
       <c r="C111" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>1873</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G111">
         <v>36703</v>
       </c>
       <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I111" t="s">
+        <v>68</v>
       </c>
       <c r="J111" s="3">
+        <v>44223</v>
+      </c>
+      <c r="K111" t="s">
+        <v>86</v>
+      </c>
+      <c r="L111">
+        <v>46.880600000000001</v>
+      </c>
+      <c r="M111">
+        <v>8.6394000000000002</v>
+      </c>
+      <c r="N111">
+        <v>1030</v>
+      </c>
+      <c r="O111">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>66</v>
+      </c>
+      <c r="B112" t="s">
+        <v>36</v>
+      </c>
+      <c r="C112" t="s">
+        <v>62</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>805098</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" s="3">
         <v>44186</v>
       </c>
-      <c r="K111" t="s">
-        <v>89</v>
-      </c>
-      <c r="L111">
-        <v>46.8806</v>
-      </c>
-      <c r="M111">
-        <v>8.6394</v>
-      </c>
-      <c r="N111">
-        <v>0</v>
-      </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
-      <c r="A112" s="1">
-        <v>65</v>
-      </c>
-      <c r="B112" t="s">
-        <v>35</v>
-      </c>
-      <c r="C112" t="s">
-        <v>64</v>
-      </c>
-      <c r="D112">
-        <v>1134</v>
-      </c>
-      <c r="E112">
-        <v>1030</v>
-      </c>
-      <c r="F112">
-        <v>2.8</v>
-      </c>
-      <c r="G112">
-        <v>36703</v>
-      </c>
-      <c r="H112">
-        <v>3.1</v>
-      </c>
-      <c r="I112" t="s">
-        <v>71</v>
-      </c>
-      <c r="J112" s="3">
-        <v>44217</v>
-      </c>
       <c r="K112" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L112">
-        <v>46.8806</v>
+        <v>46.561300000000003</v>
       </c>
       <c r="M112">
-        <v>8.6394</v>
+        <v>6.5368000000000004</v>
       </c>
       <c r="N112">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="O112">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C113" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D113">
-        <v>1361</v>
+        <v>5500</v>
       </c>
       <c r="E113">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>36703</v>
+        <v>805098</v>
       </c>
       <c r="H113">
-        <v>3.7</v>
-      </c>
-      <c r="I113" t="s">
-        <v>71</v>
+        <v>0.7</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
       </c>
       <c r="J113" s="3">
-        <v>44220</v>
+        <v>44209</v>
       </c>
       <c r="K113" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L113">
-        <v>46.8806</v>
+        <v>46.561300000000003</v>
       </c>
       <c r="M113">
-        <v>8.6394</v>
+        <v>6.5368000000000004</v>
       </c>
       <c r="N113">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="O113">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D114">
-        <v>1873</v>
+        <v>13392</v>
       </c>
       <c r="E114">
-        <v>1030</v>
+        <v>5500</v>
       </c>
       <c r="F114">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="G114">
-        <v>36703</v>
+        <v>805098</v>
       </c>
       <c r="H114">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="I114" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J114" s="3">
-        <v>44223</v>
+        <v>44211</v>
       </c>
       <c r="K114" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L114">
-        <v>46.8806</v>
+        <v>46.561300000000003</v>
       </c>
       <c r="M114">
-        <v>8.6394</v>
+        <v>6.5368000000000004</v>
       </c>
       <c r="N114">
-        <v>1030</v>
+        <v>5500</v>
       </c>
       <c r="O114">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B115" t="s">
         <v>36</v>
       </c>
       <c r="C115" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>15847</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G115">
         <v>805098</v>
       </c>
       <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I115" t="s">
+        <v>69</v>
       </c>
       <c r="J115" s="3">
-        <v>44186</v>
+        <v>44220</v>
       </c>
       <c r="K115" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L115">
-        <v>46.5613</v>
+        <v>46.561300000000003</v>
       </c>
       <c r="M115">
-        <v>6.5368</v>
+        <v>6.5368000000000004</v>
       </c>
       <c r="N115">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="O115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="B116" t="s">
         <v>36</v>
       </c>
       <c r="C116" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D116">
+        <v>22846</v>
+      </c>
+      <c r="E116">
         <v>5500</v>
       </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
       <c r="F116">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G116">
         <v>805098</v>
       </c>
       <c r="H116">
+        <v>2.8</v>
+      </c>
+      <c r="I116" t="s">
+        <v>69</v>
+      </c>
+      <c r="J116" s="3">
+        <v>44223</v>
+      </c>
+      <c r="K116" t="s">
+        <v>86</v>
+      </c>
+      <c r="L116">
+        <v>46.561300000000003</v>
+      </c>
+      <c r="M116">
+        <v>6.5368000000000004</v>
+      </c>
+      <c r="N116">
+        <v>5500</v>
+      </c>
+      <c r="O116">
         <v>0.7</v>
       </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116" s="3">
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>69</v>
+      </c>
+      <c r="B117" t="s">
+        <v>37</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>343955</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117" s="3">
+        <v>44186</v>
+      </c>
+      <c r="K117" t="s">
+        <v>86</v>
+      </c>
+      <c r="L117">
+        <v>46.1905</v>
+      </c>
+      <c r="M117">
+        <v>7.5449000000000002</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>70</v>
+      </c>
+      <c r="B118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>343955</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118" s="3">
         <v>44209</v>
       </c>
-      <c r="K116" t="s">
-        <v>89</v>
-      </c>
-      <c r="L116">
-        <v>46.5613</v>
-      </c>
-      <c r="M116">
-        <v>6.5368</v>
-      </c>
-      <c r="N116">
-        <v>0</v>
-      </c>
-      <c r="O116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="A117" s="1">
-        <v>68</v>
-      </c>
-      <c r="B117" t="s">
-        <v>36</v>
-      </c>
-      <c r="C117" t="s">
-        <v>65</v>
-      </c>
-      <c r="D117">
-        <v>13392</v>
-      </c>
-      <c r="E117">
-        <v>5500</v>
-      </c>
-      <c r="F117">
-        <v>0.7</v>
-      </c>
-      <c r="G117">
-        <v>805098</v>
-      </c>
-      <c r="H117">
-        <v>1.7</v>
-      </c>
-      <c r="I117" t="s">
-        <v>72</v>
-      </c>
-      <c r="J117" s="3">
-        <v>44211</v>
-      </c>
-      <c r="K117" t="s">
-        <v>89</v>
-      </c>
-      <c r="L117">
-        <v>46.5613</v>
-      </c>
-      <c r="M117">
-        <v>6.5368</v>
-      </c>
-      <c r="N117">
-        <v>5500</v>
-      </c>
-      <c r="O117">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
-      <c r="A118" s="1">
-        <v>76</v>
-      </c>
-      <c r="B118" t="s">
-        <v>36</v>
-      </c>
-      <c r="C118" t="s">
-        <v>65</v>
-      </c>
-      <c r="D118">
-        <v>15847</v>
-      </c>
-      <c r="E118">
-        <v>5500</v>
-      </c>
-      <c r="F118">
-        <v>0.7</v>
-      </c>
-      <c r="G118">
-        <v>805098</v>
-      </c>
-      <c r="H118">
-        <v>2</v>
-      </c>
-      <c r="I118" t="s">
-        <v>72</v>
-      </c>
-      <c r="J118" s="3">
+      <c r="K118" t="s">
+        <v>86</v>
+      </c>
+      <c r="L118">
+        <v>46.1905</v>
+      </c>
+      <c r="M118">
+        <v>7.5449000000000002</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>77</v>
+      </c>
+      <c r="B119" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119">
+        <v>10210</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>343955</v>
+      </c>
+      <c r="H119">
+        <v>3</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" s="3">
         <v>44220</v>
       </c>
-      <c r="K118" t="s">
-        <v>89</v>
-      </c>
-      <c r="L118">
-        <v>46.5613</v>
-      </c>
-      <c r="M118">
-        <v>6.5368</v>
-      </c>
-      <c r="N118">
-        <v>5500</v>
-      </c>
-      <c r="O118">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
-      <c r="A119" s="1">
-        <v>4</v>
-      </c>
-      <c r="B119" t="s">
-        <v>36</v>
-      </c>
-      <c r="C119" t="s">
-        <v>65</v>
-      </c>
-      <c r="D119">
-        <v>22846</v>
-      </c>
-      <c r="E119">
-        <v>5500</v>
-      </c>
-      <c r="F119">
-        <v>0.7</v>
-      </c>
-      <c r="G119">
-        <v>805098</v>
-      </c>
-      <c r="H119">
-        <v>2.8</v>
-      </c>
-      <c r="I119" t="s">
-        <v>72</v>
-      </c>
-      <c r="J119" s="3">
-        <v>44223</v>
-      </c>
       <c r="K119" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L119">
-        <v>46.5613</v>
+        <v>46.1905</v>
       </c>
       <c r="M119">
-        <v>6.5368</v>
+        <v>7.5449000000000002</v>
       </c>
       <c r="N119">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="O119">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
         <v>37</v>
       </c>
       <c r="C120" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>13725</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -6277,22 +6335,22 @@
         <v>343955</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" s="3">
-        <v>44186</v>
+        <v>44223</v>
       </c>
       <c r="K120" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L120">
         <v>46.1905</v>
       </c>
       <c r="M120">
-        <v>7.5449</v>
+        <v>7.5449000000000002</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6301,15 +6359,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C121" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -6321,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>343955</v>
+        <v>127642</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -6330,16 +6388,16 @@
         <v>0</v>
       </c>
       <c r="J121" s="3">
-        <v>44209</v>
+        <v>44186</v>
       </c>
       <c r="K121" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L121">
-        <v>46.1905</v>
+        <v>47.169199999999996</v>
       </c>
       <c r="M121">
-        <v>7.5449</v>
+        <v>8.5164000000000009</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6348,300 +6406,300 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C122" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D122">
-        <v>10210</v>
+        <v>4700</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>3983</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="G122">
-        <v>343955</v>
+        <v>127642</v>
       </c>
       <c r="H122">
-        <v>3</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
+        <v>3.7</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="J122" s="3">
+        <v>44216</v>
+      </c>
+      <c r="K122" t="s">
+        <v>86</v>
+      </c>
+      <c r="L122">
+        <v>47.169199999999996</v>
+      </c>
+      <c r="M122">
+        <v>8.5164000000000009</v>
+      </c>
+      <c r="N122">
+        <v>3983</v>
+      </c>
+      <c r="O122">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>94</v>
+      </c>
+      <c r="B123" t="s">
+        <v>38</v>
+      </c>
+      <c r="C123" t="s">
+        <v>64</v>
+      </c>
+      <c r="D123">
+        <v>6599</v>
+      </c>
+      <c r="E123">
+        <v>3983</v>
+      </c>
+      <c r="F123">
+        <v>3.1</v>
+      </c>
+      <c r="G123">
+        <v>127642</v>
+      </c>
+      <c r="H123">
+        <v>5.2</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J123" s="3">
         <v>44220</v>
       </c>
-      <c r="K122" t="s">
-        <v>89</v>
-      </c>
-      <c r="L122">
-        <v>46.1905</v>
-      </c>
-      <c r="M122">
-        <v>7.5449</v>
-      </c>
-      <c r="N122">
-        <v>0</v>
-      </c>
-      <c r="O122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="A123" s="1">
-        <v>5</v>
-      </c>
-      <c r="B123" t="s">
-        <v>37</v>
-      </c>
-      <c r="C123" t="s">
-        <v>66</v>
-      </c>
-      <c r="D123">
-        <v>13725</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>343955</v>
-      </c>
-      <c r="H123">
-        <v>4</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123" s="3">
-        <v>44223</v>
-      </c>
       <c r="K123" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L123">
-        <v>46.1905</v>
+        <v>47.169199999999996</v>
       </c>
       <c r="M123">
-        <v>7.5449</v>
+        <v>8.5164000000000009</v>
       </c>
       <c r="N123">
-        <v>0</v>
+        <v>3983</v>
       </c>
       <c r="O123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B124" t="s">
         <v>38</v>
       </c>
       <c r="C124" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>7361</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>3983</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="G124">
         <v>127642</v>
       </c>
       <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
+        <v>5.8</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="J124" s="3">
+        <v>44223</v>
+      </c>
+      <c r="K124" t="s">
+        <v>86</v>
+      </c>
+      <c r="L124">
+        <v>47.169199999999996</v>
+      </c>
+      <c r="M124">
+        <v>8.5164000000000009</v>
+      </c>
+      <c r="N124">
+        <v>3983</v>
+      </c>
+      <c r="O124">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>73</v>
+      </c>
+      <c r="B125" t="s">
+        <v>39</v>
+      </c>
+      <c r="C125" t="s">
+        <v>65</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>1539275</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125" s="3">
         <v>44186</v>
       </c>
-      <c r="K124" t="s">
-        <v>89</v>
-      </c>
-      <c r="L124">
-        <v>47.1692</v>
-      </c>
-      <c r="M124">
-        <v>8.516400000000001</v>
-      </c>
-      <c r="N124">
-        <v>0</v>
-      </c>
-      <c r="O124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
-      <c r="A125" s="1">
-        <v>72</v>
-      </c>
-      <c r="B125" t="s">
-        <v>38</v>
-      </c>
-      <c r="C125" t="s">
-        <v>67</v>
-      </c>
-      <c r="D125">
-        <v>4700</v>
-      </c>
-      <c r="E125">
-        <v>3983</v>
-      </c>
-      <c r="F125">
-        <v>3.1</v>
-      </c>
-      <c r="G125">
-        <v>127642</v>
-      </c>
-      <c r="H125">
-        <v>3.7</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J125" s="3">
-        <v>44216</v>
-      </c>
       <c r="K125" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L125">
-        <v>47.1692</v>
+        <v>47.378599999999999</v>
       </c>
       <c r="M125">
-        <v>8.516400000000001</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="N125">
-        <v>3983</v>
+        <v>0</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C126" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D126">
-        <v>6599</v>
+        <v>24989</v>
       </c>
       <c r="E126">
-        <v>3983</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>127642</v>
+        <v>1539275</v>
       </c>
       <c r="H126">
-        <v>5.2</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>88</v>
+        <v>1.6</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
       </c>
       <c r="J126" s="3">
+        <v>44218</v>
+      </c>
+      <c r="K126" t="s">
+        <v>86</v>
+      </c>
+      <c r="L126">
+        <v>47.378599999999999</v>
+      </c>
+      <c r="M126">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>86</v>
+      </c>
+      <c r="B127" t="s">
+        <v>39</v>
+      </c>
+      <c r="C127" t="s">
+        <v>65</v>
+      </c>
+      <c r="D127">
+        <v>25528</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>1539275</v>
+      </c>
+      <c r="H127">
+        <v>1.7</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127" s="3">
         <v>44220</v>
       </c>
-      <c r="K126" t="s">
-        <v>89</v>
-      </c>
-      <c r="L126">
-        <v>47.1692</v>
-      </c>
-      <c r="M126">
-        <v>8.516400000000001</v>
-      </c>
-      <c r="N126">
-        <v>3983</v>
-      </c>
-      <c r="O126">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="A127" s="1">
-        <v>22</v>
-      </c>
-      <c r="B127" t="s">
-        <v>38</v>
-      </c>
-      <c r="C127" t="s">
-        <v>67</v>
-      </c>
-      <c r="D127">
-        <v>7361</v>
-      </c>
-      <c r="E127">
-        <v>3983</v>
-      </c>
-      <c r="F127">
-        <v>3.1</v>
-      </c>
-      <c r="G127">
-        <v>127642</v>
-      </c>
-      <c r="H127">
-        <v>5.8</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J127" s="3">
-        <v>44223</v>
-      </c>
       <c r="K127" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L127">
-        <v>47.1692</v>
+        <v>47.378599999999999</v>
       </c>
       <c r="M127">
-        <v>8.516400000000001</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="N127">
-        <v>3983</v>
+        <v>0</v>
       </c>
       <c r="O127">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B128" t="s">
         <v>39</v>
       </c>
       <c r="C128" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>34900</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -6653,240 +6711,96 @@
         <v>1539275</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128" s="3">
-        <v>44186</v>
+        <v>44223</v>
       </c>
       <c r="K128" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L128">
-        <v>47.3786</v>
+        <v>47.378599999999999</v>
       </c>
       <c r="M128">
-        <v>8.539999999999999</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="N128">
         <v>0</v>
       </c>
       <c r="O128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
-      <c r="A129" s="1">
-        <v>74</v>
-      </c>
-      <c r="B129" t="s">
-        <v>39</v>
-      </c>
-      <c r="C129" t="s">
-        <v>68</v>
-      </c>
-      <c r="D129">
-        <v>24989</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129">
-        <v>1539275</v>
-      </c>
-      <c r="H129">
-        <v>1.6</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129" s="3">
-        <v>44218</v>
-      </c>
-      <c r="K129" t="s">
-        <v>89</v>
-      </c>
-      <c r="L129">
-        <v>47.3786</v>
-      </c>
-      <c r="M129">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="N129">
-        <v>0</v>
-      </c>
-      <c r="O129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
-      <c r="A130" s="1">
-        <v>86</v>
-      </c>
-      <c r="B130" t="s">
-        <v>39</v>
-      </c>
-      <c r="C130" t="s">
-        <v>68</v>
-      </c>
-      <c r="D130">
-        <v>25528</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <v>1539275</v>
-      </c>
-      <c r="H130">
-        <v>1.7</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130" s="3">
-        <v>44220</v>
-      </c>
-      <c r="K130" t="s">
-        <v>89</v>
-      </c>
-      <c r="L130">
-        <v>47.3786</v>
-      </c>
-      <c r="M130">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="N130">
-        <v>0</v>
-      </c>
-      <c r="O130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
-      <c r="A131" s="1">
-        <v>14</v>
-      </c>
-      <c r="B131" t="s">
-        <v>39</v>
-      </c>
-      <c r="C131" t="s">
-        <v>68</v>
-      </c>
-      <c r="D131">
-        <v>34900</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <v>1539275</v>
-      </c>
-      <c r="H131">
-        <v>2.3</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131" s="3">
-        <v>44223</v>
-      </c>
-      <c r="K131" t="s">
-        <v>89</v>
-      </c>
-      <c r="L131">
-        <v>47.3786</v>
-      </c>
-      <c r="M131">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="N131">
-        <v>0</v>
-      </c>
-      <c r="O131">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I7" r:id="rId5"/>
-    <hyperlink ref="I15" r:id="rId6"/>
-    <hyperlink ref="I16" r:id="rId7"/>
-    <hyperlink ref="I17" r:id="rId8"/>
-    <hyperlink ref="I18" r:id="rId9"/>
-    <hyperlink ref="I19" r:id="rId10"/>
-    <hyperlink ref="I20" r:id="rId11"/>
-    <hyperlink ref="I21" r:id="rId12"/>
-    <hyperlink ref="I25" r:id="rId13"/>
-    <hyperlink ref="I26" r:id="rId14"/>
-    <hyperlink ref="I27" r:id="rId15"/>
-    <hyperlink ref="I28" r:id="rId16"/>
-    <hyperlink ref="I29" r:id="rId17"/>
-    <hyperlink ref="I30" r:id="rId18"/>
-    <hyperlink ref="I31" r:id="rId19"/>
-    <hyperlink ref="I32" r:id="rId20"/>
-    <hyperlink ref="I33" r:id="rId21"/>
-    <hyperlink ref="I34" r:id="rId22"/>
-    <hyperlink ref="I35" r:id="rId23"/>
-    <hyperlink ref="I36" r:id="rId24"/>
-    <hyperlink ref="I37" r:id="rId25"/>
-    <hyperlink ref="I38" r:id="rId26"/>
-    <hyperlink ref="I39" r:id="rId27"/>
-    <hyperlink ref="I43" r:id="rId28"/>
-    <hyperlink ref="I44" r:id="rId29"/>
-    <hyperlink ref="I45" r:id="rId30"/>
-    <hyperlink ref="I46" r:id="rId31"/>
-    <hyperlink ref="I47" r:id="rId32"/>
-    <hyperlink ref="I48" r:id="rId33"/>
-    <hyperlink ref="I51" r:id="rId34"/>
-    <hyperlink ref="I52" r:id="rId35"/>
-    <hyperlink ref="I53" r:id="rId36"/>
-    <hyperlink ref="I59" r:id="rId37"/>
-    <hyperlink ref="I60" r:id="rId38"/>
-    <hyperlink ref="I61" r:id="rId39"/>
-    <hyperlink ref="I62" r:id="rId40"/>
-    <hyperlink ref="I63" r:id="rId41"/>
-    <hyperlink ref="I65" r:id="rId42"/>
-    <hyperlink ref="I70" r:id="rId43"/>
-    <hyperlink ref="I71" r:id="rId44"/>
-    <hyperlink ref="I72" r:id="rId45"/>
-    <hyperlink ref="I74" r:id="rId46"/>
-    <hyperlink ref="I75" r:id="rId47"/>
-    <hyperlink ref="I84" r:id="rId48"/>
-    <hyperlink ref="I85" r:id="rId49"/>
-    <hyperlink ref="I86" r:id="rId50"/>
-    <hyperlink ref="I87" r:id="rId51"/>
-    <hyperlink ref="I88" r:id="rId52"/>
-    <hyperlink ref="I89" r:id="rId53"/>
-    <hyperlink ref="I90" r:id="rId54"/>
-    <hyperlink ref="I91" r:id="rId55"/>
-    <hyperlink ref="I92" r:id="rId56"/>
-    <hyperlink ref="I93" r:id="rId57"/>
-    <hyperlink ref="I94" r:id="rId58"/>
-    <hyperlink ref="I95" r:id="rId59"/>
-    <hyperlink ref="I96" r:id="rId60"/>
-    <hyperlink ref="I97" r:id="rId61"/>
-    <hyperlink ref="I100" r:id="rId62"/>
-    <hyperlink ref="I101" r:id="rId63"/>
-    <hyperlink ref="I102" r:id="rId64"/>
-    <hyperlink ref="I125" r:id="rId65"/>
-    <hyperlink ref="I126" r:id="rId66"/>
-    <hyperlink ref="I127" r:id="rId67"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I29" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I30" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I31" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I35" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="I36" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I43" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I44" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I45" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I48" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I49" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I50" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I56" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I57" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I58" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I59" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="I60" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I62" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="I67" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I68" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="I69" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I71" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="I72" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I81" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I82" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I83" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="I84" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I85" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="I86" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I87" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="I88" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="I89" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="I90" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="I91" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="I92" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I93" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="I94" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="I97" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="I98" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="I99" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="I122" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="I123" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="I124" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DC82DF-3B33-4B13-97E8-77D78FAEEBE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2A2DAE-358F-44E8-AB08-BCF00B64E48B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="87">
   <si>
     <t>Kanton</t>
   </si>
@@ -363,13 +363,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -709,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O128"/>
+  <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6733,6 +6734,448 @@
       </c>
       <c r="O128">
         <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" t="s">
+        <v>47</v>
+      </c>
+      <c r="D129">
+        <v>18012</v>
+      </c>
+      <c r="H129">
+        <v>3.57</v>
+      </c>
+      <c r="J129" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>36</v>
+      </c>
+      <c r="C130" t="s">
+        <v>62</v>
+      </c>
+      <c r="D130">
+        <v>27848</v>
+      </c>
+      <c r="H130">
+        <v>3.46</v>
+      </c>
+      <c r="J130" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>37</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131">
+        <v>14240</v>
+      </c>
+      <c r="H131">
+        <v>4.12</v>
+      </c>
+      <c r="J131" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" t="s">
+        <v>46</v>
+      </c>
+      <c r="D132">
+        <v>9580</v>
+      </c>
+      <c r="H132">
+        <v>2.98</v>
+      </c>
+      <c r="J132" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>26</v>
+      </c>
+      <c r="C133" t="s">
+        <v>52</v>
+      </c>
+      <c r="D133">
+        <v>4907</v>
+      </c>
+      <c r="H133">
+        <v>2.78</v>
+      </c>
+      <c r="J133" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" t="s">
+        <v>50</v>
+      </c>
+      <c r="D134">
+        <v>2792</v>
+      </c>
+      <c r="H134">
+        <v>3.79</v>
+      </c>
+      <c r="J134" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" t="s">
+        <v>43</v>
+      </c>
+      <c r="D135">
+        <v>24385</v>
+      </c>
+      <c r="H135">
+        <v>2.35</v>
+      </c>
+      <c r="J135" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>31</v>
+      </c>
+      <c r="C136" t="s">
+        <v>57</v>
+      </c>
+      <c r="D136">
+        <v>15099</v>
+      </c>
+      <c r="H136">
+        <v>5.49</v>
+      </c>
+      <c r="J136" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" t="s">
+        <v>45</v>
+      </c>
+      <c r="D137">
+        <v>13754</v>
+      </c>
+      <c r="H137">
+        <v>7.02</v>
+      </c>
+      <c r="J137" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" t="s">
+        <v>44</v>
+      </c>
+      <c r="D138">
+        <v>11364</v>
+      </c>
+      <c r="H138">
+        <v>3.93</v>
+      </c>
+      <c r="J138" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" t="s">
+        <v>40</v>
+      </c>
+      <c r="D139">
+        <v>20034</v>
+      </c>
+      <c r="H139">
+        <v>2.92</v>
+      </c>
+      <c r="J139" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>39</v>
+      </c>
+      <c r="C140" t="s">
+        <v>65</v>
+      </c>
+      <c r="D140">
+        <v>46081</v>
+      </c>
+      <c r="H140">
+        <v>2.99</v>
+      </c>
+      <c r="J140" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141" t="s">
+        <v>56</v>
+      </c>
+      <c r="D141">
+        <v>5685</v>
+      </c>
+      <c r="H141">
+        <v>6.9</v>
+      </c>
+      <c r="J141" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" t="s">
+        <v>59</v>
+      </c>
+      <c r="D142">
+        <v>8868</v>
+      </c>
+      <c r="H142">
+        <v>3.17</v>
+      </c>
+      <c r="J142" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" t="s">
+        <v>42</v>
+      </c>
+      <c r="D143">
+        <v>3542</v>
+      </c>
+      <c r="H143">
+        <v>6.39</v>
+      </c>
+      <c r="J143" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" t="s">
+        <v>41</v>
+      </c>
+      <c r="D144">
+        <v>1092</v>
+      </c>
+      <c r="H144">
+        <v>6.77</v>
+      </c>
+      <c r="J144" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>29</v>
+      </c>
+      <c r="C145" t="s">
+        <v>55</v>
+      </c>
+      <c r="D145">
+        <v>19281</v>
+      </c>
+      <c r="H145">
+        <v>3.78</v>
+      </c>
+      <c r="J145" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" t="s">
+        <v>48</v>
+      </c>
+      <c r="D146">
+        <v>2330</v>
+      </c>
+      <c r="H146">
+        <v>5.74</v>
+      </c>
+      <c r="J146" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" t="s">
+        <v>58</v>
+      </c>
+      <c r="D147">
+        <v>5165</v>
+      </c>
+      <c r="H147">
+        <v>3.22</v>
+      </c>
+      <c r="J147" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>38</v>
+      </c>
+      <c r="C148" t="s">
+        <v>64</v>
+      </c>
+      <c r="D148">
+        <v>7431</v>
+      </c>
+      <c r="H148">
+        <v>5.82</v>
+      </c>
+      <c r="J148" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149" t="s">
+        <v>51</v>
+      </c>
+      <c r="D149">
+        <v>18076</v>
+      </c>
+      <c r="H149">
+        <v>4.38</v>
+      </c>
+      <c r="J149" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150" t="s">
+        <v>53</v>
+      </c>
+      <c r="D150">
+        <v>3218</v>
+      </c>
+      <c r="H150">
+        <v>7.47</v>
+      </c>
+      <c r="J150" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>28</v>
+      </c>
+      <c r="C151" t="s">
+        <v>54</v>
+      </c>
+      <c r="D151">
+        <v>2156</v>
+      </c>
+      <c r="H151">
+        <v>5.68</v>
+      </c>
+      <c r="J151" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>35</v>
+      </c>
+      <c r="C152" t="s">
+        <v>61</v>
+      </c>
+      <c r="D152">
+        <v>2184</v>
+      </c>
+      <c r="H152">
+        <v>5.95</v>
+      </c>
+      <c r="J152" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" t="s">
+        <v>49</v>
+      </c>
+      <c r="D153">
+        <v>7339</v>
+      </c>
+      <c r="H153">
+        <v>3.69</v>
+      </c>
+      <c r="J153" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>34</v>
+      </c>
+      <c r="C154" t="s">
+        <v>60</v>
+      </c>
+      <c r="D154">
+        <v>19737</v>
+      </c>
+      <c r="H154">
+        <v>5.62</v>
+      </c>
+      <c r="J154" s="4">
+        <v>44227</v>
       </c>
     </row>
   </sheetData>

--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2A2DAE-358F-44E8-AB08-BCF00B64E48B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7828E4A0-DC24-403A-83E1-B1D16F5D967F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24" yWindow="5940" windowWidth="30720" windowHeight="10752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="87">
   <si>
     <t>Kanton</t>
   </si>
@@ -710,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O154"/>
+  <dimension ref="A1:O180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="L166" sqref="L166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7176,6 +7176,448 @@
       </c>
       <c r="J154" s="4">
         <v>44227</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" t="s">
+        <v>47</v>
+      </c>
+      <c r="D155">
+        <v>20238</v>
+      </c>
+      <c r="H155">
+        <v>4.01</v>
+      </c>
+      <c r="J155" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156" t="s">
+        <v>62</v>
+      </c>
+      <c r="D156">
+        <v>34784</v>
+      </c>
+      <c r="H156">
+        <v>4.32</v>
+      </c>
+      <c r="J156" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>37</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157">
+        <v>16735</v>
+      </c>
+      <c r="H157">
+        <v>4.84</v>
+      </c>
+      <c r="J157" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>20</v>
+      </c>
+      <c r="C158" t="s">
+        <v>46</v>
+      </c>
+      <c r="D158">
+        <v>11769</v>
+      </c>
+      <c r="H158">
+        <v>3.66</v>
+      </c>
+      <c r="J158" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>26</v>
+      </c>
+      <c r="C159" t="s">
+        <v>52</v>
+      </c>
+      <c r="D159">
+        <v>5657</v>
+      </c>
+      <c r="H159">
+        <v>3.21</v>
+      </c>
+      <c r="J159" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>24</v>
+      </c>
+      <c r="C160" t="s">
+        <v>50</v>
+      </c>
+      <c r="D160">
+        <v>3411</v>
+      </c>
+      <c r="H160">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="J160" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" t="s">
+        <v>43</v>
+      </c>
+      <c r="D161">
+        <v>31375</v>
+      </c>
+      <c r="H161">
+        <v>3.02</v>
+      </c>
+      <c r="J161" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>31</v>
+      </c>
+      <c r="C162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D162">
+        <v>16509</v>
+      </c>
+      <c r="H162">
+        <v>6</v>
+      </c>
+      <c r="J162" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" t="s">
+        <v>45</v>
+      </c>
+      <c r="D163">
+        <v>14595</v>
+      </c>
+      <c r="H163">
+        <v>7.45</v>
+      </c>
+      <c r="J163" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" t="s">
+        <v>44</v>
+      </c>
+      <c r="D164">
+        <v>13740</v>
+      </c>
+      <c r="H164">
+        <v>4.75</v>
+      </c>
+      <c r="J164" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" t="s">
+        <v>40</v>
+      </c>
+      <c r="D165">
+        <v>24812</v>
+      </c>
+      <c r="H165">
+        <v>3.62</v>
+      </c>
+      <c r="J165" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>39</v>
+      </c>
+      <c r="C166" t="s">
+        <v>65</v>
+      </c>
+      <c r="D166">
+        <v>54243</v>
+      </c>
+      <c r="H166">
+        <v>3.52</v>
+      </c>
+      <c r="J166" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>30</v>
+      </c>
+      <c r="C167" t="s">
+        <v>56</v>
+      </c>
+      <c r="D167">
+        <v>5728</v>
+      </c>
+      <c r="H167">
+        <v>6.96</v>
+      </c>
+      <c r="J167" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" t="s">
+        <v>59</v>
+      </c>
+      <c r="D168">
+        <v>10919</v>
+      </c>
+      <c r="H168">
+        <v>3.91</v>
+      </c>
+      <c r="J168" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>16</v>
+      </c>
+      <c r="C169" t="s">
+        <v>42</v>
+      </c>
+      <c r="D169">
+        <v>3562</v>
+      </c>
+      <c r="H169">
+        <v>6.42</v>
+      </c>
+      <c r="J169" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" t="s">
+        <v>41</v>
+      </c>
+      <c r="D170">
+        <v>1395</v>
+      </c>
+      <c r="H170">
+        <v>8.65</v>
+      </c>
+      <c r="J170" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>29</v>
+      </c>
+      <c r="C171" t="s">
+        <v>55</v>
+      </c>
+      <c r="D171">
+        <v>23971</v>
+      </c>
+      <c r="H171">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="J171" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172" t="s">
+        <v>48</v>
+      </c>
+      <c r="D172">
+        <v>2635</v>
+      </c>
+      <c r="H172">
+        <v>6.49</v>
+      </c>
+      <c r="J172" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>32</v>
+      </c>
+      <c r="C173" t="s">
+        <v>58</v>
+      </c>
+      <c r="D173">
+        <v>5761</v>
+      </c>
+      <c r="H173">
+        <v>3.59</v>
+      </c>
+      <c r="J173" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>38</v>
+      </c>
+      <c r="C174" t="s">
+        <v>64</v>
+      </c>
+      <c r="D174">
+        <v>7636</v>
+      </c>
+      <c r="H174">
+        <v>5.98</v>
+      </c>
+      <c r="J174" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175" t="s">
+        <v>51</v>
+      </c>
+      <c r="D175">
+        <v>21035</v>
+      </c>
+      <c r="H175">
+        <v>5.09</v>
+      </c>
+      <c r="J175" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>27</v>
+      </c>
+      <c r="C176" t="s">
+        <v>53</v>
+      </c>
+      <c r="D176">
+        <v>3737</v>
+      </c>
+      <c r="H176">
+        <v>8.67</v>
+      </c>
+      <c r="J176" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>28</v>
+      </c>
+      <c r="C177" t="s">
+        <v>54</v>
+      </c>
+      <c r="D177">
+        <v>2156</v>
+      </c>
+      <c r="H177">
+        <v>5.68</v>
+      </c>
+      <c r="J177" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>35</v>
+      </c>
+      <c r="C178" t="s">
+        <v>61</v>
+      </c>
+      <c r="D178">
+        <v>2699</v>
+      </c>
+      <c r="H178">
+        <v>7.35</v>
+      </c>
+      <c r="J178" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>23</v>
+      </c>
+      <c r="C179" t="s">
+        <v>49</v>
+      </c>
+      <c r="D179">
+        <v>8600</v>
+      </c>
+      <c r="H179">
+        <v>4.32</v>
+      </c>
+      <c r="J179" s="4">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>34</v>
+      </c>
+      <c r="C180" t="s">
+        <v>60</v>
+      </c>
+      <c r="D180">
+        <v>20550</v>
+      </c>
+      <c r="H180">
+        <v>5.85</v>
+      </c>
+      <c r="J180" s="4">
+        <v>44230</v>
       </c>
     </row>
   </sheetData>
